--- a/AAII_Financials/Quarterly/TATYY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TATYY_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -732,25 +732,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1908200</v>
+        <v>1817800</v>
       </c>
       <c r="E8" s="3">
-        <v>1773700</v>
+        <v>1689800</v>
       </c>
       <c r="F8" s="3">
-        <v>1788000</v>
+        <v>1703300</v>
       </c>
       <c r="G8" s="3">
-        <v>1696200</v>
+        <v>1615900</v>
       </c>
       <c r="H8" s="3">
-        <v>1807300</v>
+        <v>1721800</v>
       </c>
       <c r="I8" s="3">
-        <v>1851300</v>
+        <v>1763700</v>
       </c>
       <c r="J8" s="3">
-        <v>1707800</v>
+        <v>1626900</v>
       </c>
       <c r="K8" s="3">
         <v>1545600</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1693600</v>
+        <v>1613400</v>
       </c>
       <c r="E17" s="3">
-        <v>1614700</v>
+        <v>1538300</v>
       </c>
       <c r="F17" s="3">
-        <v>1641900</v>
+        <v>1564100</v>
       </c>
       <c r="G17" s="3">
-        <v>1534600</v>
+        <v>1461900</v>
       </c>
       <c r="H17" s="3">
-        <v>1594000</v>
+        <v>1518600</v>
       </c>
       <c r="I17" s="3">
-        <v>1710400</v>
+        <v>1629400</v>
       </c>
       <c r="J17" s="3">
-        <v>1547500</v>
+        <v>1474200</v>
       </c>
       <c r="K17" s="3">
         <v>1472600</v>
@@ -1065,25 +1065,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>214600</v>
+        <v>204400</v>
       </c>
       <c r="E18" s="3">
-        <v>159000</v>
+        <v>151500</v>
       </c>
       <c r="F18" s="3">
-        <v>146100</v>
+        <v>139200</v>
       </c>
       <c r="G18" s="3">
-        <v>161600</v>
+        <v>154000</v>
       </c>
       <c r="H18" s="3">
-        <v>213300</v>
+        <v>203200</v>
       </c>
       <c r="I18" s="3">
-        <v>140900</v>
+        <v>134200</v>
       </c>
       <c r="J18" s="3">
-        <v>160300</v>
+        <v>152700</v>
       </c>
       <c r="K18" s="3">
         <v>73000</v>
@@ -1119,10 +1119,10 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2600</v>
+        <v>-2500</v>
       </c>
       <c r="E20" s="3">
-        <v>5200</v>
+        <v>4900</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1131,13 +1131,13 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>-5200</v>
+        <v>-4900</v>
       </c>
       <c r="I20" s="3">
-        <v>-5200</v>
+        <v>-4900</v>
       </c>
       <c r="J20" s="3">
-        <v>5200</v>
+        <v>4900</v>
       </c>
       <c r="K20" s="3">
         <v>17000</v>
@@ -1157,25 +1157,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>337400</v>
+        <v>321400</v>
       </c>
       <c r="E21" s="3">
-        <v>263700</v>
+        <v>251200</v>
       </c>
       <c r="F21" s="3">
-        <v>243000</v>
+        <v>231500</v>
       </c>
       <c r="G21" s="3">
-        <v>262400</v>
+        <v>250000</v>
       </c>
       <c r="H21" s="3">
-        <v>306400</v>
+        <v>291900</v>
       </c>
       <c r="I21" s="3">
-        <v>239200</v>
+        <v>227800</v>
       </c>
       <c r="J21" s="3">
-        <v>254700</v>
+        <v>242600</v>
       </c>
       <c r="K21" s="3">
         <v>168300</v>
@@ -1233,25 +1233,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>212000</v>
+        <v>202000</v>
       </c>
       <c r="E23" s="3">
-        <v>164200</v>
+        <v>156400</v>
       </c>
       <c r="F23" s="3">
-        <v>146100</v>
+        <v>139200</v>
       </c>
       <c r="G23" s="3">
-        <v>161600</v>
+        <v>154000</v>
       </c>
       <c r="H23" s="3">
-        <v>208100</v>
+        <v>198300</v>
       </c>
       <c r="I23" s="3">
-        <v>135700</v>
+        <v>129300</v>
       </c>
       <c r="J23" s="3">
-        <v>165500</v>
+        <v>157600</v>
       </c>
       <c r="K23" s="3">
         <v>73000</v>
@@ -1271,25 +1271,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>42700</v>
+        <v>40600</v>
       </c>
       <c r="E24" s="3">
-        <v>34900</v>
+        <v>33300</v>
       </c>
       <c r="F24" s="3">
-        <v>41400</v>
+        <v>39400</v>
       </c>
       <c r="G24" s="3">
-        <v>-18100</v>
+        <v>-17200</v>
       </c>
       <c r="H24" s="3">
-        <v>47800</v>
+        <v>45600</v>
       </c>
       <c r="I24" s="3">
-        <v>-27100</v>
+        <v>-25900</v>
       </c>
       <c r="J24" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="K24" s="3">
         <v>2600</v>
@@ -1347,25 +1347,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>169400</v>
+        <v>161300</v>
       </c>
       <c r="E26" s="3">
-        <v>129300</v>
+        <v>123200</v>
       </c>
       <c r="F26" s="3">
-        <v>104700</v>
+        <v>99800</v>
       </c>
       <c r="G26" s="3">
-        <v>179700</v>
+        <v>171200</v>
       </c>
       <c r="H26" s="3">
-        <v>160300</v>
+        <v>152700</v>
       </c>
       <c r="I26" s="3">
-        <v>162900</v>
+        <v>155200</v>
       </c>
       <c r="J26" s="3">
-        <v>166800</v>
+        <v>158900</v>
       </c>
       <c r="K26" s="3">
         <v>70400</v>
@@ -1385,25 +1385,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>169400</v>
+        <v>161300</v>
       </c>
       <c r="E27" s="3">
-        <v>129300</v>
+        <v>123200</v>
       </c>
       <c r="F27" s="3">
-        <v>104700</v>
+        <v>99800</v>
       </c>
       <c r="G27" s="3">
-        <v>179700</v>
+        <v>171200</v>
       </c>
       <c r="H27" s="3">
-        <v>160300</v>
+        <v>152700</v>
       </c>
       <c r="I27" s="3">
-        <v>162900</v>
+        <v>155200</v>
       </c>
       <c r="J27" s="3">
-        <v>166800</v>
+        <v>158900</v>
       </c>
       <c r="K27" s="3">
         <v>70400</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="K29" s="3">
         <v>78300</v>
@@ -1575,10 +1575,10 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="E32" s="3">
-        <v>-5200</v>
+        <v>-4900</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -1587,13 +1587,13 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>5200</v>
+        <v>4900</v>
       </c>
       <c r="I32" s="3">
-        <v>5200</v>
+        <v>4900</v>
       </c>
       <c r="J32" s="3">
-        <v>-5200</v>
+        <v>-4900</v>
       </c>
       <c r="K32" s="3">
         <v>-17000</v>
@@ -1613,25 +1613,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>169400</v>
+        <v>161300</v>
       </c>
       <c r="E33" s="3">
-        <v>129300</v>
+        <v>123200</v>
       </c>
       <c r="F33" s="3">
-        <v>104700</v>
+        <v>99800</v>
       </c>
       <c r="G33" s="3">
-        <v>182300</v>
+        <v>173700</v>
       </c>
       <c r="H33" s="3">
-        <v>160300</v>
+        <v>152700</v>
       </c>
       <c r="I33" s="3">
-        <v>162900</v>
+        <v>155200</v>
       </c>
       <c r="J33" s="3">
-        <v>168100</v>
+        <v>160100</v>
       </c>
       <c r="K33" s="3">
         <v>148700</v>
@@ -1689,25 +1689,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>169400</v>
+        <v>161300</v>
       </c>
       <c r="E35" s="3">
-        <v>129300</v>
+        <v>123200</v>
       </c>
       <c r="F35" s="3">
-        <v>104700</v>
+        <v>99800</v>
       </c>
       <c r="G35" s="3">
-        <v>182300</v>
+        <v>173700</v>
       </c>
       <c r="H35" s="3">
-        <v>160300</v>
+        <v>152700</v>
       </c>
       <c r="I35" s="3">
-        <v>162900</v>
+        <v>155200</v>
       </c>
       <c r="J35" s="3">
-        <v>168100</v>
+        <v>160100</v>
       </c>
       <c r="K35" s="3">
         <v>148700</v>
@@ -1802,25 +1802,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>466700</v>
+        <v>444600</v>
       </c>
       <c r="E41" s="3">
-        <v>368500</v>
+        <v>351000</v>
       </c>
       <c r="F41" s="3">
-        <v>367200</v>
+        <v>349800</v>
       </c>
       <c r="G41" s="3">
-        <v>245600</v>
+        <v>234000</v>
       </c>
       <c r="H41" s="3">
-        <v>312900</v>
+        <v>298000</v>
       </c>
       <c r="I41" s="3">
-        <v>337400</v>
+        <v>321400</v>
       </c>
       <c r="J41" s="3">
-        <v>373600</v>
+        <v>355900</v>
       </c>
       <c r="K41" s="3">
         <v>413500</v>
@@ -1852,13 +1852,13 @@
         <v>5</v>
       </c>
       <c r="H42" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="I42" s="3">
         <v>0</v>
       </c>
       <c r="J42" s="3">
-        <v>5200</v>
+        <v>4900</v>
       </c>
       <c r="K42" s="3">
         <v>5200</v>
@@ -1878,25 +1878,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>413700</v>
+        <v>394100</v>
       </c>
       <c r="E43" s="3">
-        <v>425300</v>
+        <v>405200</v>
       </c>
       <c r="F43" s="3">
-        <v>451200</v>
+        <v>429800</v>
       </c>
       <c r="G43" s="3">
-        <v>381400</v>
+        <v>363300</v>
       </c>
       <c r="H43" s="3">
-        <v>411100</v>
+        <v>391600</v>
       </c>
       <c r="I43" s="3">
-        <v>377500</v>
+        <v>359600</v>
       </c>
       <c r="J43" s="3">
-        <v>393000</v>
+        <v>374400</v>
       </c>
       <c r="K43" s="3">
         <v>396500</v>
@@ -1916,25 +1916,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>533900</v>
+        <v>508700</v>
       </c>
       <c r="E44" s="3">
-        <v>561100</v>
+        <v>534500</v>
       </c>
       <c r="F44" s="3">
-        <v>539100</v>
+        <v>513600</v>
       </c>
       <c r="G44" s="3">
-        <v>541700</v>
+        <v>516000</v>
       </c>
       <c r="H44" s="3">
-        <v>491300</v>
+        <v>468000</v>
       </c>
       <c r="I44" s="3">
-        <v>570100</v>
+        <v>543100</v>
       </c>
       <c r="J44" s="3">
-        <v>471900</v>
+        <v>449500</v>
       </c>
       <c r="K44" s="3">
         <v>507400</v>
@@ -1954,25 +1954,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>46500</v>
+        <v>44300</v>
       </c>
       <c r="E45" s="3">
-        <v>62100</v>
+        <v>59100</v>
       </c>
       <c r="F45" s="3">
-        <v>49100</v>
+        <v>46800</v>
       </c>
       <c r="G45" s="3">
-        <v>31000</v>
+        <v>29600</v>
       </c>
       <c r="H45" s="3">
-        <v>50400</v>
+        <v>48000</v>
       </c>
       <c r="I45" s="3">
-        <v>40100</v>
+        <v>38200</v>
       </c>
       <c r="J45" s="3">
-        <v>75000</v>
+        <v>71400</v>
       </c>
       <c r="K45" s="3">
         <v>65200</v>
@@ -1992,25 +1992,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1460900</v>
+        <v>1391700</v>
       </c>
       <c r="E46" s="3">
-        <v>1416900</v>
+        <v>1349800</v>
       </c>
       <c r="F46" s="3">
-        <v>1406600</v>
+        <v>1340000</v>
       </c>
       <c r="G46" s="3">
-        <v>1199700</v>
+        <v>1142900</v>
       </c>
       <c r="H46" s="3">
-        <v>1267000</v>
+        <v>1207000</v>
       </c>
       <c r="I46" s="3">
-        <v>1325100</v>
+        <v>1262400</v>
       </c>
       <c r="J46" s="3">
-        <v>1318700</v>
+        <v>1256200</v>
       </c>
       <c r="K46" s="3">
         <v>1387800</v>
@@ -2030,25 +2030,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>206800</v>
+        <v>197100</v>
       </c>
       <c r="E47" s="3">
-        <v>210700</v>
+        <v>200800</v>
       </c>
       <c r="F47" s="3">
-        <v>168100</v>
+        <v>160100</v>
       </c>
       <c r="G47" s="3">
-        <v>161600</v>
+        <v>154000</v>
       </c>
       <c r="H47" s="3">
-        <v>140900</v>
+        <v>134200</v>
       </c>
       <c r="I47" s="3">
-        <v>164200</v>
+        <v>156400</v>
       </c>
       <c r="J47" s="3">
-        <v>143500</v>
+        <v>136700</v>
       </c>
       <c r="K47" s="3">
         <v>137000</v>
@@ -2068,25 +2068,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1537200</v>
+        <v>1464400</v>
       </c>
       <c r="E48" s="3">
-        <v>1269500</v>
+        <v>1209400</v>
       </c>
       <c r="F48" s="3">
-        <v>1278600</v>
+        <v>1218100</v>
       </c>
       <c r="G48" s="3">
-        <v>1247600</v>
+        <v>1188500</v>
       </c>
       <c r="H48" s="3">
-        <v>1294100</v>
+        <v>1232800</v>
       </c>
       <c r="I48" s="3">
-        <v>1371700</v>
+        <v>1306700</v>
       </c>
       <c r="J48" s="3">
-        <v>1335500</v>
+        <v>1272200</v>
       </c>
       <c r="K48" s="3">
         <v>1207800</v>
@@ -2106,25 +2106,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>449900</v>
+        <v>428600</v>
       </c>
       <c r="E49" s="3">
-        <v>442100</v>
+        <v>421200</v>
       </c>
       <c r="F49" s="3">
-        <v>457700</v>
+        <v>436000</v>
       </c>
       <c r="G49" s="3">
-        <v>465400</v>
+        <v>443400</v>
       </c>
       <c r="H49" s="3">
-        <v>492600</v>
+        <v>469200</v>
       </c>
       <c r="I49" s="3">
-        <v>518400</v>
+        <v>493900</v>
       </c>
       <c r="J49" s="3">
-        <v>536500</v>
+        <v>511100</v>
       </c>
       <c r="K49" s="3">
         <v>508700</v>
@@ -2220,25 +2220,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>44000</v>
+        <v>41900</v>
       </c>
       <c r="E52" s="3">
-        <v>271500</v>
+        <v>258600</v>
       </c>
       <c r="F52" s="3">
-        <v>256000</v>
+        <v>243900</v>
       </c>
       <c r="G52" s="3">
-        <v>249500</v>
+        <v>237700</v>
       </c>
       <c r="H52" s="3">
-        <v>188800</v>
+        <v>179800</v>
       </c>
       <c r="I52" s="3">
-        <v>203000</v>
+        <v>193400</v>
       </c>
       <c r="J52" s="3">
-        <v>71100</v>
+        <v>67700</v>
       </c>
       <c r="K52" s="3">
         <v>90000</v>
@@ -2296,25 +2296,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3698700</v>
+        <v>3523600</v>
       </c>
       <c r="E54" s="3">
-        <v>3610800</v>
+        <v>3439900</v>
       </c>
       <c r="F54" s="3">
-        <v>3566900</v>
+        <v>3398000</v>
       </c>
       <c r="G54" s="3">
-        <v>3323800</v>
+        <v>3166400</v>
       </c>
       <c r="H54" s="3">
-        <v>3383300</v>
+        <v>3223100</v>
       </c>
       <c r="I54" s="3">
-        <v>3582400</v>
+        <v>3412800</v>
       </c>
       <c r="J54" s="3">
-        <v>3405300</v>
+        <v>3244000</v>
       </c>
       <c r="K54" s="3">
         <v>3331200</v>
@@ -2366,25 +2366,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>394300</v>
+        <v>375600</v>
       </c>
       <c r="E57" s="3">
-        <v>442100</v>
+        <v>421200</v>
       </c>
       <c r="F57" s="3">
-        <v>457700</v>
+        <v>436000</v>
       </c>
       <c r="G57" s="3">
-        <v>403400</v>
+        <v>384300</v>
       </c>
       <c r="H57" s="3">
-        <v>408500</v>
+        <v>389200</v>
       </c>
       <c r="I57" s="3">
-        <v>407200</v>
+        <v>388000</v>
       </c>
       <c r="J57" s="3">
-        <v>417600</v>
+        <v>397800</v>
       </c>
       <c r="K57" s="3">
         <v>439600</v>
@@ -2404,25 +2404,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>331000</v>
+        <v>315300</v>
       </c>
       <c r="E58" s="3">
-        <v>289600</v>
+        <v>275900</v>
       </c>
       <c r="F58" s="3">
-        <v>31000</v>
+        <v>29600</v>
       </c>
       <c r="G58" s="3">
-        <v>20700</v>
+        <v>19700</v>
       </c>
       <c r="H58" s="3">
-        <v>36200</v>
+        <v>34500</v>
       </c>
       <c r="I58" s="3">
-        <v>113800</v>
+        <v>108400</v>
       </c>
       <c r="J58" s="3">
-        <v>135700</v>
+        <v>129300</v>
       </c>
       <c r="K58" s="3">
         <v>260900</v>
@@ -2442,25 +2442,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>150000</v>
+        <v>142900</v>
       </c>
       <c r="E59" s="3">
-        <v>148700</v>
+        <v>141600</v>
       </c>
       <c r="F59" s="3">
-        <v>143500</v>
+        <v>136700</v>
       </c>
       <c r="G59" s="3">
-        <v>95700</v>
+        <v>91100</v>
       </c>
       <c r="H59" s="3">
-        <v>103400</v>
+        <v>98500</v>
       </c>
       <c r="I59" s="3">
-        <v>108600</v>
+        <v>103500</v>
       </c>
       <c r="J59" s="3">
-        <v>157700</v>
+        <v>150300</v>
       </c>
       <c r="K59" s="3">
         <v>147400</v>
@@ -2480,25 +2480,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>875200</v>
+        <v>833800</v>
       </c>
       <c r="E60" s="3">
-        <v>880400</v>
+        <v>838700</v>
       </c>
       <c r="F60" s="3">
-        <v>632200</v>
+        <v>602300</v>
       </c>
       <c r="G60" s="3">
-        <v>519700</v>
+        <v>495100</v>
       </c>
       <c r="H60" s="3">
-        <v>548200</v>
+        <v>522200</v>
       </c>
       <c r="I60" s="3">
-        <v>629600</v>
+        <v>599800</v>
       </c>
       <c r="J60" s="3">
-        <v>711000</v>
+        <v>677400</v>
       </c>
       <c r="K60" s="3">
         <v>847800</v>
@@ -2518,25 +2518,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>695500</v>
+        <v>662600</v>
       </c>
       <c r="E61" s="3">
-        <v>482200</v>
+        <v>459400</v>
       </c>
       <c r="F61" s="3">
-        <v>746000</v>
+        <v>710600</v>
       </c>
       <c r="G61" s="3">
-        <v>716200</v>
+        <v>682300</v>
       </c>
       <c r="H61" s="3">
-        <v>742100</v>
+        <v>706900</v>
       </c>
       <c r="I61" s="3">
-        <v>780900</v>
+        <v>743900</v>
       </c>
       <c r="J61" s="3">
-        <v>767900</v>
+        <v>731600</v>
       </c>
       <c r="K61" s="3">
         <v>725200</v>
@@ -2556,25 +2556,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>346500</v>
+        <v>330100</v>
       </c>
       <c r="E62" s="3">
-        <v>323200</v>
+        <v>307900</v>
       </c>
       <c r="F62" s="3">
-        <v>363300</v>
+        <v>346100</v>
       </c>
       <c r="G62" s="3">
-        <v>320600</v>
+        <v>305400</v>
       </c>
       <c r="H62" s="3">
-        <v>420200</v>
+        <v>400300</v>
       </c>
       <c r="I62" s="3">
-        <v>449900</v>
+        <v>428600</v>
       </c>
       <c r="J62" s="3">
-        <v>479600</v>
+        <v>456900</v>
       </c>
       <c r="K62" s="3">
         <v>416100</v>
@@ -2708,25 +2708,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1917200</v>
+        <v>1826500</v>
       </c>
       <c r="E66" s="3">
-        <v>1685800</v>
+        <v>1606000</v>
       </c>
       <c r="F66" s="3">
-        <v>1741400</v>
+        <v>1659000</v>
       </c>
       <c r="G66" s="3">
-        <v>1556500</v>
+        <v>1482800</v>
       </c>
       <c r="H66" s="3">
-        <v>1710400</v>
+        <v>1629400</v>
       </c>
       <c r="I66" s="3">
-        <v>1860400</v>
+        <v>1772300</v>
       </c>
       <c r="J66" s="3">
-        <v>1958600</v>
+        <v>1865900</v>
       </c>
       <c r="K66" s="3">
         <v>1990400</v>
@@ -2914,25 +2914,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1105400</v>
+        <v>1053000</v>
       </c>
       <c r="E72" s="3">
-        <v>1248900</v>
+        <v>1189700</v>
       </c>
       <c r="F72" s="3">
-        <v>1149300</v>
+        <v>1094900</v>
       </c>
       <c r="G72" s="3">
-        <v>1091100</v>
+        <v>1039500</v>
       </c>
       <c r="H72" s="3">
-        <v>996800</v>
+        <v>949600</v>
       </c>
       <c r="I72" s="3">
-        <v>1045900</v>
+        <v>996400</v>
       </c>
       <c r="J72" s="3">
-        <v>770500</v>
+        <v>734000</v>
       </c>
       <c r="K72" s="3">
         <v>658700</v>
@@ -3066,25 +3066,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1781500</v>
+        <v>1697100</v>
       </c>
       <c r="E76" s="3">
-        <v>1925000</v>
+        <v>1833900</v>
       </c>
       <c r="F76" s="3">
-        <v>1825400</v>
+        <v>1739000</v>
       </c>
       <c r="G76" s="3">
-        <v>1767300</v>
+        <v>1683600</v>
       </c>
       <c r="H76" s="3">
-        <v>1672900</v>
+        <v>1593700</v>
       </c>
       <c r="I76" s="3">
-        <v>1722000</v>
+        <v>1640500</v>
       </c>
       <c r="J76" s="3">
-        <v>1446700</v>
+        <v>1378200</v>
       </c>
       <c r="K76" s="3">
         <v>1340800</v>
@@ -3185,25 +3185,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>169400</v>
+        <v>161300</v>
       </c>
       <c r="E81" s="3">
-        <v>129300</v>
+        <v>123200</v>
       </c>
       <c r="F81" s="3">
-        <v>104700</v>
+        <v>99800</v>
       </c>
       <c r="G81" s="3">
-        <v>182300</v>
+        <v>173700</v>
       </c>
       <c r="H81" s="3">
-        <v>160300</v>
+        <v>152700</v>
       </c>
       <c r="I81" s="3">
-        <v>162900</v>
+        <v>155200</v>
       </c>
       <c r="J81" s="3">
-        <v>168100</v>
+        <v>160100</v>
       </c>
       <c r="K81" s="3">
         <v>148700</v>
@@ -3239,25 +3239,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>125400</v>
+        <v>119500</v>
       </c>
       <c r="E83" s="3">
-        <v>99500</v>
+        <v>94800</v>
       </c>
       <c r="F83" s="3">
-        <v>97000</v>
+        <v>92400</v>
       </c>
       <c r="G83" s="3">
-        <v>100800</v>
+        <v>96100</v>
       </c>
       <c r="H83" s="3">
-        <v>98300</v>
+        <v>93600</v>
       </c>
       <c r="I83" s="3">
-        <v>103400</v>
+        <v>98500</v>
       </c>
       <c r="J83" s="3">
-        <v>89200</v>
+        <v>85000</v>
       </c>
       <c r="K83" s="3">
         <v>78300</v>
@@ -3467,25 +3467,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>297300</v>
+        <v>283300</v>
       </c>
       <c r="E89" s="3">
-        <v>153800</v>
+        <v>146600</v>
       </c>
       <c r="F89" s="3">
-        <v>272800</v>
+        <v>259900</v>
       </c>
       <c r="G89" s="3">
-        <v>99500</v>
+        <v>94800</v>
       </c>
       <c r="H89" s="3">
-        <v>270200</v>
+        <v>257400</v>
       </c>
       <c r="I89" s="3">
-        <v>128000</v>
+        <v>121900</v>
       </c>
       <c r="J89" s="3">
-        <v>257300</v>
+        <v>245100</v>
       </c>
       <c r="K89" s="3">
         <v>19600</v>
@@ -3521,25 +3521,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-80200</v>
+        <v>-76400</v>
       </c>
       <c r="E91" s="3">
-        <v>-73700</v>
+        <v>-70200</v>
       </c>
       <c r="F91" s="3">
-        <v>-59500</v>
+        <v>-56700</v>
       </c>
       <c r="G91" s="3">
-        <v>-77600</v>
+        <v>-73900</v>
       </c>
       <c r="H91" s="3">
-        <v>-65900</v>
+        <v>-62800</v>
       </c>
       <c r="I91" s="3">
-        <v>-75000</v>
+        <v>-71400</v>
       </c>
       <c r="J91" s="3">
-        <v>-89200</v>
+        <v>-85000</v>
       </c>
       <c r="K91" s="3">
         <v>-133000</v>
@@ -3635,25 +3635,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-58200</v>
+        <v>-55400</v>
       </c>
       <c r="E94" s="3">
-        <v>-104700</v>
+        <v>-99800</v>
       </c>
       <c r="F94" s="3">
-        <v>-38800</v>
+        <v>-36900</v>
       </c>
       <c r="G94" s="3">
-        <v>-78900</v>
+        <v>-75100</v>
       </c>
       <c r="H94" s="3">
-        <v>-53000</v>
+        <v>-50500</v>
       </c>
       <c r="I94" s="3">
-        <v>-85300</v>
+        <v>-81300</v>
       </c>
       <c r="J94" s="3">
-        <v>-62100</v>
+        <v>-59100</v>
       </c>
       <c r="K94" s="3">
         <v>183900</v>
@@ -3689,25 +3689,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-125400</v>
+        <v>-119500</v>
       </c>
       <c r="E96" s="3">
-        <v>-51700</v>
+        <v>-49300</v>
       </c>
       <c r="F96" s="3">
-        <v>-121500</v>
+        <v>-115800</v>
       </c>
       <c r="G96" s="3">
-        <v>-50400</v>
+        <v>-48000</v>
       </c>
       <c r="H96" s="3">
-        <v>-118900</v>
+        <v>-113300</v>
       </c>
       <c r="I96" s="3">
-        <v>-49100</v>
+        <v>-46800</v>
       </c>
       <c r="J96" s="3">
-        <v>-118900</v>
+        <v>-113300</v>
       </c>
       <c r="K96" s="3">
         <v>-49600</v>
@@ -3841,25 +3841,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-160300</v>
+        <v>-152700</v>
       </c>
       <c r="E100" s="3">
-        <v>-50400</v>
+        <v>-48000</v>
       </c>
       <c r="F100" s="3">
-        <v>-130600</v>
+        <v>-124400</v>
       </c>
       <c r="G100" s="3">
-        <v>-76300</v>
+        <v>-72700</v>
       </c>
       <c r="H100" s="3">
-        <v>-223700</v>
+        <v>-213100</v>
       </c>
       <c r="I100" s="3">
-        <v>-91800</v>
+        <v>-87400</v>
       </c>
       <c r="J100" s="3">
-        <v>-259900</v>
+        <v>-247600</v>
       </c>
       <c r="K100" s="3">
         <v>-116100</v>
@@ -3879,25 +3879,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>19400</v>
+        <v>18500</v>
       </c>
       <c r="E101" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="F101" s="3">
-        <v>18100</v>
+        <v>17200</v>
       </c>
       <c r="G101" s="3">
-        <v>-11600</v>
+        <v>-11100</v>
       </c>
       <c r="H101" s="3">
-        <v>-18100</v>
+        <v>-17200</v>
       </c>
       <c r="I101" s="3">
-        <v>12900</v>
+        <v>12300</v>
       </c>
       <c r="J101" s="3">
-        <v>28400</v>
+        <v>27100</v>
       </c>
       <c r="K101" s="3">
         <v>20900</v>
@@ -3917,25 +3917,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>98300</v>
+        <v>93600</v>
       </c>
       <c r="E102" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="F102" s="3">
-        <v>121500</v>
+        <v>115800</v>
       </c>
       <c r="G102" s="3">
-        <v>-67200</v>
+        <v>-64000</v>
       </c>
       <c r="H102" s="3">
-        <v>-24600</v>
+        <v>-23400</v>
       </c>
       <c r="I102" s="3">
-        <v>-36200</v>
+        <v>-34500</v>
       </c>
       <c r="J102" s="3">
-        <v>-36200</v>
+        <v>-34500</v>
       </c>
       <c r="K102" s="3">
         <v>108300</v>

--- a/AAII_Financials/Quarterly/TATYY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TATYY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
   <si>
     <t>TATYY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,107 +665,114 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43555</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43373</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43190</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43008</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42825</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42643</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42460</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42277</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42094</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1817800</v>
+        <v>1857000</v>
       </c>
       <c r="E8" s="3">
-        <v>1689800</v>
+        <v>1949500</v>
       </c>
       <c r="F8" s="3">
-        <v>1703300</v>
+        <v>1812100</v>
       </c>
       <c r="G8" s="3">
-        <v>1615900</v>
+        <v>1826700</v>
       </c>
       <c r="H8" s="3">
-        <v>1721800</v>
+        <v>1732900</v>
       </c>
       <c r="I8" s="3">
-        <v>1763700</v>
+        <v>1846500</v>
       </c>
       <c r="J8" s="3">
+        <v>1891400</v>
+      </c>
+      <c r="K8" s="3">
         <v>1626900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1545600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1526000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1502500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1580100</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -802,8 +809,11 @@
       <c r="N9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -840,8 +850,11 @@
       <c r="N10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -856,8 +869,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -894,8 +908,11 @@
       <c r="N12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -932,8 +949,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -958,8 +978,8 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>5</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>5</v>
@@ -970,8 +990,11 @@
       <c r="N14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -996,8 +1019,8 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>5</v>
+      <c r="K15" s="3">
+        <v>0</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>5</v>
@@ -1008,8 +1031,11 @@
       <c r="N15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,84 +1047,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1613400</v>
+        <v>1685300</v>
       </c>
       <c r="E17" s="3">
-        <v>1538300</v>
+        <v>1730200</v>
       </c>
       <c r="F17" s="3">
-        <v>1564100</v>
+        <v>1649700</v>
       </c>
       <c r="G17" s="3">
-        <v>1461900</v>
+        <v>1677400</v>
       </c>
       <c r="H17" s="3">
-        <v>1518600</v>
+        <v>1567800</v>
       </c>
       <c r="I17" s="3">
-        <v>1629400</v>
+        <v>1628500</v>
       </c>
       <c r="J17" s="3">
+        <v>1747400</v>
+      </c>
+      <c r="K17" s="3">
         <v>1474200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1472600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1433400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1548500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1490600</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>204400</v>
+        <v>171700</v>
       </c>
       <c r="E18" s="3">
-        <v>151500</v>
+        <v>219300</v>
       </c>
       <c r="F18" s="3">
-        <v>139200</v>
+        <v>162500</v>
       </c>
       <c r="G18" s="3">
-        <v>154000</v>
+        <v>149200</v>
       </c>
       <c r="H18" s="3">
-        <v>203200</v>
+        <v>165100</v>
       </c>
       <c r="I18" s="3">
-        <v>134200</v>
+        <v>217900</v>
       </c>
       <c r="J18" s="3">
+        <v>144000</v>
+      </c>
+      <c r="K18" s="3">
         <v>152700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>73000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>92600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-46100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>89500</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1113,84 +1146,91 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2500</v>
+        <v>2600</v>
       </c>
       <c r="E20" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F20" s="3">
+        <v>5300</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="K20" s="3">
         <v>4900</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-4900</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-4900</v>
-      </c>
-      <c r="J20" s="3">
-        <v>4900</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>17000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>11700</v>
-      </c>
-      <c r="M20" s="3">
-        <v>10500</v>
       </c>
       <c r="N20" s="3">
         <v>10500</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>321400</v>
+        <v>273400</v>
       </c>
       <c r="E21" s="3">
-        <v>251200</v>
+        <v>344700</v>
       </c>
       <c r="F21" s="3">
-        <v>231500</v>
+        <v>269400</v>
       </c>
       <c r="G21" s="3">
-        <v>250000</v>
+        <v>248300</v>
       </c>
       <c r="H21" s="3">
-        <v>291900</v>
+        <v>268100</v>
       </c>
       <c r="I21" s="3">
-        <v>227800</v>
+        <v>313000</v>
       </c>
       <c r="J21" s="3">
+        <v>244300</v>
+      </c>
+      <c r="K21" s="3">
         <v>242600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>168300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>176100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>40800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>167200</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1215,96 +1255,105 @@
       <c r="J22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L22" s="3">
         <v>17000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>13000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>14500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>17100</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>202000</v>
+        <v>174300</v>
       </c>
       <c r="E23" s="3">
-        <v>156400</v>
+        <v>216600</v>
       </c>
       <c r="F23" s="3">
-        <v>139200</v>
+        <v>167700</v>
       </c>
       <c r="G23" s="3">
-        <v>154000</v>
+        <v>149200</v>
       </c>
       <c r="H23" s="3">
-        <v>198300</v>
+        <v>165100</v>
       </c>
       <c r="I23" s="3">
-        <v>129300</v>
+        <v>212600</v>
       </c>
       <c r="J23" s="3">
+        <v>138700</v>
+      </c>
+      <c r="K23" s="3">
         <v>157600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>73000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>91300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-50000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>83000</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>40600</v>
+        <v>23800</v>
       </c>
       <c r="E24" s="3">
-        <v>33300</v>
+        <v>43600</v>
       </c>
       <c r="F24" s="3">
-        <v>39400</v>
+        <v>35700</v>
       </c>
       <c r="G24" s="3">
-        <v>-17200</v>
+        <v>42300</v>
       </c>
       <c r="H24" s="3">
-        <v>45600</v>
+        <v>-18500</v>
       </c>
       <c r="I24" s="3">
-        <v>-25900</v>
+        <v>48900</v>
       </c>
       <c r="J24" s="3">
+        <v>-27700</v>
+      </c>
+      <c r="K24" s="3">
         <v>-1200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>3900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>13200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>14500</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1341,84 +1390,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>161300</v>
+        <v>150600</v>
       </c>
       <c r="E26" s="3">
-        <v>123200</v>
+        <v>173000</v>
       </c>
       <c r="F26" s="3">
-        <v>99800</v>
+        <v>132100</v>
       </c>
       <c r="G26" s="3">
-        <v>171200</v>
+        <v>107000</v>
       </c>
       <c r="H26" s="3">
-        <v>152700</v>
+        <v>183600</v>
       </c>
       <c r="I26" s="3">
-        <v>155200</v>
+        <v>163800</v>
       </c>
       <c r="J26" s="3">
+        <v>166400</v>
+      </c>
+      <c r="K26" s="3">
         <v>158900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>70400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>87400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-63200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>68500</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>161300</v>
+        <v>150600</v>
       </c>
       <c r="E27" s="3">
-        <v>123200</v>
+        <v>173000</v>
       </c>
       <c r="F27" s="3">
-        <v>99800</v>
+        <v>132100</v>
       </c>
       <c r="G27" s="3">
-        <v>171200</v>
+        <v>107000</v>
       </c>
       <c r="H27" s="3">
-        <v>152700</v>
+        <v>183600</v>
       </c>
       <c r="I27" s="3">
-        <v>155200</v>
+        <v>163800</v>
       </c>
       <c r="J27" s="3">
+        <v>166400</v>
+      </c>
+      <c r="K27" s="3">
         <v>158900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>70400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>87400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-63200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>68500</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1455,46 +1513,52 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>1200</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>78300</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-23500</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>13200</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1531,8 +1595,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1569,84 +1636,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2500</v>
+        <v>-2600</v>
       </c>
       <c r="E32" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>5300</v>
+      </c>
+      <c r="J32" s="3">
+        <v>5300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-4900</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>4900</v>
-      </c>
-      <c r="I32" s="3">
-        <v>4900</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-4900</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-17000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-11700</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-10500</v>
       </c>
       <c r="N32" s="3">
         <v>-10500</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>-10500</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>161300</v>
+        <v>150600</v>
       </c>
       <c r="E33" s="3">
-        <v>123200</v>
+        <v>173000</v>
       </c>
       <c r="F33" s="3">
-        <v>99800</v>
+        <v>132100</v>
       </c>
       <c r="G33" s="3">
-        <v>173700</v>
+        <v>107000</v>
       </c>
       <c r="H33" s="3">
-        <v>152700</v>
+        <v>186200</v>
       </c>
       <c r="I33" s="3">
-        <v>155200</v>
+        <v>163800</v>
       </c>
       <c r="J33" s="3">
+        <v>166400</v>
+      </c>
+      <c r="K33" s="3">
         <v>160100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>148700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>63900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-50000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>89500</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1683,89 +1759,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>161300</v>
+        <v>150600</v>
       </c>
       <c r="E35" s="3">
-        <v>123200</v>
+        <v>173000</v>
       </c>
       <c r="F35" s="3">
-        <v>99800</v>
+        <v>132100</v>
       </c>
       <c r="G35" s="3">
-        <v>173700</v>
+        <v>107000</v>
       </c>
       <c r="H35" s="3">
-        <v>152700</v>
+        <v>186200</v>
       </c>
       <c r="I35" s="3">
-        <v>155200</v>
+        <v>163800</v>
       </c>
       <c r="J35" s="3">
+        <v>166400</v>
+      </c>
+      <c r="K35" s="3">
         <v>160100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>148700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>63900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-50000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>89500</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43555</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43373</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43190</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43008</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42825</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42643</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42460</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42277</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42094</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1780,8 +1865,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1796,350 +1882,378 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>444600</v>
+        <v>357900</v>
       </c>
       <c r="E41" s="3">
-        <v>351000</v>
+        <v>476800</v>
       </c>
       <c r="F41" s="3">
-        <v>349800</v>
+        <v>376400</v>
       </c>
       <c r="G41" s="3">
-        <v>234000</v>
+        <v>375100</v>
       </c>
       <c r="H41" s="3">
-        <v>298000</v>
+        <v>251000</v>
       </c>
       <c r="I41" s="3">
-        <v>321400</v>
+        <v>319600</v>
       </c>
       <c r="J41" s="3">
+        <v>344700</v>
+      </c>
+      <c r="K41" s="3">
         <v>355900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>413500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>305200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>256800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>425300</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>5</v>
+      <c r="D42" s="3">
+        <v>88500</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H42" s="3">
-        <v>1200</v>
+      <c r="F42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I42" s="3">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
         <v>4900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>5200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>7800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>23700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>394100</v>
+        <v>439800</v>
       </c>
       <c r="E43" s="3">
-        <v>405200</v>
+        <v>422700</v>
       </c>
       <c r="F43" s="3">
-        <v>429800</v>
+        <v>434500</v>
       </c>
       <c r="G43" s="3">
-        <v>363300</v>
+        <v>461000</v>
       </c>
       <c r="H43" s="3">
-        <v>391600</v>
+        <v>389600</v>
       </c>
       <c r="I43" s="3">
-        <v>359600</v>
+        <v>420000</v>
       </c>
       <c r="J43" s="3">
+        <v>385700</v>
+      </c>
+      <c r="K43" s="3">
         <v>374400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>396500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>363900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>384500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>495100</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>508700</v>
+        <v>602300</v>
       </c>
       <c r="E44" s="3">
-        <v>534500</v>
+        <v>545500</v>
       </c>
       <c r="F44" s="3">
-        <v>513600</v>
+        <v>573200</v>
       </c>
       <c r="G44" s="3">
-        <v>516000</v>
+        <v>550800</v>
       </c>
       <c r="H44" s="3">
-        <v>468000</v>
+        <v>553400</v>
       </c>
       <c r="I44" s="3">
-        <v>543100</v>
+        <v>501900</v>
       </c>
       <c r="J44" s="3">
+        <v>582500</v>
+      </c>
+      <c r="K44" s="3">
         <v>449500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>507400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>443500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>478000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>331800</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>44300</v>
+        <v>6600</v>
       </c>
       <c r="E45" s="3">
-        <v>59100</v>
+        <v>47500</v>
       </c>
       <c r="F45" s="3">
-        <v>46800</v>
+        <v>63400</v>
       </c>
       <c r="G45" s="3">
-        <v>29600</v>
+        <v>50200</v>
       </c>
       <c r="H45" s="3">
-        <v>48000</v>
+        <v>31700</v>
       </c>
       <c r="I45" s="3">
-        <v>38200</v>
+        <v>51500</v>
       </c>
       <c r="J45" s="3">
+        <v>40900</v>
+      </c>
+      <c r="K45" s="3">
         <v>71400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>65200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>348300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>81600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>143500</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1391700</v>
+        <v>1495100</v>
       </c>
       <c r="E46" s="3">
-        <v>1349800</v>
+        <v>1492500</v>
       </c>
       <c r="F46" s="3">
-        <v>1340000</v>
+        <v>1447600</v>
       </c>
       <c r="G46" s="3">
-        <v>1142900</v>
+        <v>1437000</v>
       </c>
       <c r="H46" s="3">
-        <v>1207000</v>
+        <v>1225700</v>
       </c>
       <c r="I46" s="3">
-        <v>1262400</v>
+        <v>1294400</v>
       </c>
       <c r="J46" s="3">
+        <v>1353800</v>
+      </c>
+      <c r="K46" s="3">
         <v>1256200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1387800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1468700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1224600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1398400</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>197100</v>
+        <v>203400</v>
       </c>
       <c r="E47" s="3">
-        <v>200800</v>
+        <v>211300</v>
       </c>
       <c r="F47" s="3">
-        <v>160100</v>
+        <v>215300</v>
       </c>
       <c r="G47" s="3">
-        <v>154000</v>
+        <v>171700</v>
       </c>
       <c r="H47" s="3">
-        <v>134200</v>
+        <v>165100</v>
       </c>
       <c r="I47" s="3">
-        <v>156400</v>
+        <v>144000</v>
       </c>
       <c r="J47" s="3">
+        <v>167700</v>
+      </c>
+      <c r="K47" s="3">
         <v>136700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>137000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>180000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>453000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>476700</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1464400</v>
+        <v>1571700</v>
       </c>
       <c r="E48" s="3">
-        <v>1209400</v>
+        <v>1570400</v>
       </c>
       <c r="F48" s="3">
-        <v>1218100</v>
+        <v>1297000</v>
       </c>
       <c r="G48" s="3">
-        <v>1188500</v>
+        <v>1306300</v>
       </c>
       <c r="H48" s="3">
-        <v>1232800</v>
+        <v>1274600</v>
       </c>
       <c r="I48" s="3">
-        <v>1306700</v>
+        <v>1322100</v>
       </c>
       <c r="J48" s="3">
+        <v>1401400</v>
+      </c>
+      <c r="K48" s="3">
         <v>1272200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1207800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1006900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>987600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>995500</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>428600</v>
+        <v>449100</v>
       </c>
       <c r="E49" s="3">
-        <v>421200</v>
+        <v>459600</v>
       </c>
       <c r="F49" s="3">
-        <v>436000</v>
+        <v>451700</v>
       </c>
       <c r="G49" s="3">
-        <v>443400</v>
+        <v>467600</v>
       </c>
       <c r="H49" s="3">
-        <v>469200</v>
+        <v>475500</v>
       </c>
       <c r="I49" s="3">
-        <v>493900</v>
+        <v>503200</v>
       </c>
       <c r="J49" s="3">
+        <v>529600</v>
+      </c>
+      <c r="K49" s="3">
         <v>511100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>508700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>403000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>447700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>418700</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2176,8 +2290,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2214,46 +2331,52 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>41900</v>
+        <v>46200</v>
       </c>
       <c r="E52" s="3">
-        <v>258600</v>
+        <v>44900</v>
       </c>
       <c r="F52" s="3">
-        <v>243900</v>
+        <v>277400</v>
       </c>
       <c r="G52" s="3">
-        <v>237700</v>
+        <v>261500</v>
       </c>
       <c r="H52" s="3">
-        <v>179800</v>
+        <v>254900</v>
       </c>
       <c r="I52" s="3">
-        <v>193400</v>
+        <v>192800</v>
       </c>
       <c r="J52" s="3">
+        <v>207400</v>
+      </c>
+      <c r="K52" s="3">
         <v>67700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>90000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>114800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>77700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>39500</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2290,46 +2413,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3523600</v>
+        <v>3765600</v>
       </c>
       <c r="E54" s="3">
-        <v>3439900</v>
+        <v>3778800</v>
       </c>
       <c r="F54" s="3">
-        <v>3398000</v>
+        <v>3689000</v>
       </c>
       <c r="G54" s="3">
-        <v>3166400</v>
+        <v>3644100</v>
       </c>
       <c r="H54" s="3">
-        <v>3223100</v>
+        <v>3395800</v>
       </c>
       <c r="I54" s="3">
-        <v>3412800</v>
+        <v>3456500</v>
       </c>
       <c r="J54" s="3">
+        <v>3659900</v>
+      </c>
+      <c r="K54" s="3">
         <v>3244000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3331200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3173400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3190600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3328800</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2344,8 +2473,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2360,236 +2490,255 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>375600</v>
+        <v>488700</v>
       </c>
       <c r="E57" s="3">
-        <v>421200</v>
+        <v>402800</v>
       </c>
       <c r="F57" s="3">
-        <v>436000</v>
+        <v>451700</v>
       </c>
       <c r="G57" s="3">
-        <v>384300</v>
+        <v>467600</v>
       </c>
       <c r="H57" s="3">
-        <v>389200</v>
+        <v>412100</v>
       </c>
       <c r="I57" s="3">
-        <v>388000</v>
+        <v>417400</v>
       </c>
       <c r="J57" s="3">
+        <v>416000</v>
+      </c>
+      <c r="K57" s="3">
         <v>397800</v>
-      </c>
-      <c r="K57" s="3">
-        <v>439600</v>
       </c>
       <c r="L57" s="3">
         <v>439600</v>
       </c>
       <c r="M57" s="3">
+        <v>439600</v>
+      </c>
+      <c r="N57" s="3">
         <v>416100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>425300</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>315300</v>
+        <v>52800</v>
       </c>
       <c r="E58" s="3">
-        <v>275900</v>
+        <v>338100</v>
       </c>
       <c r="F58" s="3">
-        <v>29600</v>
+        <v>295900</v>
       </c>
       <c r="G58" s="3">
-        <v>19700</v>
+        <v>31700</v>
       </c>
       <c r="H58" s="3">
-        <v>34500</v>
+        <v>21100</v>
       </c>
       <c r="I58" s="3">
-        <v>108400</v>
+        <v>37000</v>
       </c>
       <c r="J58" s="3">
+        <v>116200</v>
+      </c>
+      <c r="K58" s="3">
         <v>129300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>260900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>644300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>401600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>468800</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>142900</v>
+        <v>129400</v>
       </c>
       <c r="E59" s="3">
-        <v>141600</v>
+        <v>153200</v>
       </c>
       <c r="F59" s="3">
-        <v>136700</v>
+        <v>151900</v>
       </c>
       <c r="G59" s="3">
-        <v>91100</v>
+        <v>146600</v>
       </c>
       <c r="H59" s="3">
-        <v>98500</v>
+        <v>97700</v>
       </c>
       <c r="I59" s="3">
-        <v>103500</v>
+        <v>105700</v>
       </c>
       <c r="J59" s="3">
+        <v>110900</v>
+      </c>
+      <c r="K59" s="3">
         <v>150300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>147400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>159100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>109300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>142200</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>833800</v>
+        <v>671000</v>
       </c>
       <c r="E60" s="3">
-        <v>838700</v>
+        <v>894200</v>
       </c>
       <c r="F60" s="3">
-        <v>602300</v>
+        <v>899500</v>
       </c>
       <c r="G60" s="3">
-        <v>495100</v>
+        <v>645900</v>
       </c>
       <c r="H60" s="3">
-        <v>522200</v>
+        <v>531000</v>
       </c>
       <c r="I60" s="3">
-        <v>599800</v>
+        <v>560000</v>
       </c>
       <c r="J60" s="3">
+        <v>643200</v>
+      </c>
+      <c r="K60" s="3">
         <v>677400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>847800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1243000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>927000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1036300</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>662600</v>
+        <v>900800</v>
       </c>
       <c r="E61" s="3">
-        <v>459400</v>
+        <v>710600</v>
       </c>
       <c r="F61" s="3">
-        <v>710600</v>
+        <v>492700</v>
       </c>
       <c r="G61" s="3">
-        <v>682300</v>
+        <v>762100</v>
       </c>
       <c r="H61" s="3">
-        <v>706900</v>
+        <v>731700</v>
       </c>
       <c r="I61" s="3">
-        <v>743900</v>
+        <v>758100</v>
       </c>
       <c r="J61" s="3">
+        <v>797800</v>
+      </c>
+      <c r="K61" s="3">
         <v>731600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>725200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>371700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>609700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>579400</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>330100</v>
+        <v>346000</v>
       </c>
       <c r="E62" s="3">
-        <v>307900</v>
+        <v>354000</v>
       </c>
       <c r="F62" s="3">
-        <v>346100</v>
+        <v>330200</v>
       </c>
       <c r="G62" s="3">
-        <v>305400</v>
+        <v>371100</v>
       </c>
       <c r="H62" s="3">
-        <v>400300</v>
+        <v>327600</v>
       </c>
       <c r="I62" s="3">
-        <v>428600</v>
+        <v>429300</v>
       </c>
       <c r="J62" s="3">
+        <v>459600</v>
+      </c>
+      <c r="K62" s="3">
         <v>456900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>416100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>400400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>421400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>337100</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2626,8 +2775,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2664,8 +2816,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2702,46 +2857,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1826500</v>
+        <v>1917800</v>
       </c>
       <c r="E66" s="3">
-        <v>1606000</v>
+        <v>1958700</v>
       </c>
       <c r="F66" s="3">
-        <v>1659000</v>
+        <v>1722300</v>
       </c>
       <c r="G66" s="3">
-        <v>1482800</v>
+        <v>1779100</v>
       </c>
       <c r="H66" s="3">
-        <v>1629400</v>
+        <v>1590200</v>
       </c>
       <c r="I66" s="3">
-        <v>1772300</v>
+        <v>1747400</v>
       </c>
       <c r="J66" s="3">
+        <v>1900600</v>
+      </c>
+      <c r="K66" s="3">
         <v>1865900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1990400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2016500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1959400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1954100</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2756,8 +2917,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2794,8 +2956,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2832,8 +2997,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2870,8 +3038,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2908,46 +3079,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1053000</v>
+        <v>1157000</v>
       </c>
       <c r="E72" s="3">
-        <v>1189700</v>
+        <v>1129300</v>
       </c>
       <c r="F72" s="3">
-        <v>1094900</v>
+        <v>1275900</v>
       </c>
       <c r="G72" s="3">
-        <v>1039500</v>
+        <v>1174200</v>
       </c>
       <c r="H72" s="3">
-        <v>949600</v>
+        <v>1114700</v>
       </c>
       <c r="I72" s="3">
-        <v>996400</v>
+        <v>1018300</v>
       </c>
       <c r="J72" s="3">
+        <v>1068500</v>
+      </c>
+      <c r="K72" s="3">
         <v>734000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>658700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>474800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>542500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>686000</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2984,8 +3161,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3022,8 +3202,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3060,46 +3243,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1697100</v>
+        <v>1847800</v>
       </c>
       <c r="E76" s="3">
-        <v>1833900</v>
+        <v>1820000</v>
       </c>
       <c r="F76" s="3">
-        <v>1739000</v>
+        <v>1966700</v>
       </c>
       <c r="G76" s="3">
-        <v>1683600</v>
+        <v>1865000</v>
       </c>
       <c r="H76" s="3">
-        <v>1593700</v>
+        <v>1805500</v>
       </c>
       <c r="I76" s="3">
-        <v>1640500</v>
+        <v>1709100</v>
       </c>
       <c r="J76" s="3">
+        <v>1759300</v>
+      </c>
+      <c r="K76" s="3">
         <v>1378200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1340800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1156900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1231200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1374700</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3136,89 +3325,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43555</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43373</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43190</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43008</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42825</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42643</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42460</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42277</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42094</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>161300</v>
+        <v>150600</v>
       </c>
       <c r="E81" s="3">
-        <v>123200</v>
+        <v>173000</v>
       </c>
       <c r="F81" s="3">
-        <v>99800</v>
+        <v>132100</v>
       </c>
       <c r="G81" s="3">
-        <v>173700</v>
+        <v>107000</v>
       </c>
       <c r="H81" s="3">
-        <v>152700</v>
+        <v>186200</v>
       </c>
       <c r="I81" s="3">
-        <v>155200</v>
+        <v>163800</v>
       </c>
       <c r="J81" s="3">
+        <v>166400</v>
+      </c>
+      <c r="K81" s="3">
         <v>160100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>148700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>63900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-50000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>89500</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3233,46 +3431,50 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>119500</v>
+        <v>99100</v>
       </c>
       <c r="E83" s="3">
-        <v>94800</v>
+        <v>128100</v>
       </c>
       <c r="F83" s="3">
-        <v>92400</v>
+        <v>101700</v>
       </c>
       <c r="G83" s="3">
-        <v>96100</v>
+        <v>99100</v>
       </c>
       <c r="H83" s="3">
-        <v>93600</v>
+        <v>103000</v>
       </c>
       <c r="I83" s="3">
-        <v>98500</v>
+        <v>100400</v>
       </c>
       <c r="J83" s="3">
+        <v>105700</v>
+      </c>
+      <c r="K83" s="3">
         <v>85000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>78300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>71700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>76400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>67200</v>
       </c>
     </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3309,8 +3511,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3347,8 +3552,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3385,8 +3593,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3423,8 +3634,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3461,46 +3675,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>283300</v>
+        <v>204700</v>
       </c>
       <c r="E89" s="3">
-        <v>146600</v>
+        <v>303800</v>
       </c>
       <c r="F89" s="3">
-        <v>259900</v>
+        <v>157200</v>
       </c>
       <c r="G89" s="3">
-        <v>94800</v>
+        <v>278700</v>
       </c>
       <c r="H89" s="3">
-        <v>257400</v>
+        <v>101700</v>
       </c>
       <c r="I89" s="3">
-        <v>121900</v>
+        <v>276000</v>
       </c>
       <c r="J89" s="3">
+        <v>130800</v>
+      </c>
+      <c r="K89" s="3">
         <v>245100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>19600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>225600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>72400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>163300</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3515,46 +3735,50 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-76400</v>
+        <v>80600</v>
       </c>
       <c r="E91" s="3">
-        <v>-70200</v>
+        <v>-81900</v>
       </c>
       <c r="F91" s="3">
-        <v>-56700</v>
+        <v>-75300</v>
       </c>
       <c r="G91" s="3">
-        <v>-73900</v>
+        <v>-60800</v>
       </c>
       <c r="H91" s="3">
-        <v>-62800</v>
+        <v>-79200</v>
       </c>
       <c r="I91" s="3">
-        <v>-71400</v>
+        <v>-67400</v>
       </c>
       <c r="J91" s="3">
+        <v>-76600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-85000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-133000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-100400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-216000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-192300</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3591,8 +3815,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3629,46 +3856,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-55400</v>
+        <v>-110900</v>
       </c>
       <c r="E94" s="3">
-        <v>-99800</v>
+        <v>-59400</v>
       </c>
       <c r="F94" s="3">
-        <v>-36900</v>
+        <v>-107000</v>
       </c>
       <c r="G94" s="3">
-        <v>-75100</v>
+        <v>-39600</v>
       </c>
       <c r="H94" s="3">
-        <v>-50500</v>
+        <v>-80600</v>
       </c>
       <c r="I94" s="3">
-        <v>-81300</v>
+        <v>-54200</v>
       </c>
       <c r="J94" s="3">
+        <v>-87200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-59100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>183900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-71700</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-108000</v>
       </c>
       <c r="N94" s="3">
         <v>-108000</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>-108000</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3683,46 +3916,50 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-119500</v>
+        <v>-52800</v>
       </c>
       <c r="E96" s="3">
-        <v>-49300</v>
+        <v>-128100</v>
       </c>
       <c r="F96" s="3">
-        <v>-115800</v>
+        <v>-52800</v>
       </c>
       <c r="G96" s="3">
-        <v>-48000</v>
+        <v>-124200</v>
       </c>
       <c r="H96" s="3">
+        <v>-51500</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-121500</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-50200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-113300</v>
       </c>
-      <c r="I96" s="3">
-        <v>-46800</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-113300</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-49600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-120000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-50000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-121100</v>
       </c>
     </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3759,8 +3996,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3797,8 +4037,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3835,118 +4078,130 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-152700</v>
+        <v>-196800</v>
       </c>
       <c r="E100" s="3">
-        <v>-48000</v>
+        <v>-163800</v>
       </c>
       <c r="F100" s="3">
-        <v>-124400</v>
+        <v>-51500</v>
       </c>
       <c r="G100" s="3">
-        <v>-72700</v>
+        <v>-133400</v>
       </c>
       <c r="H100" s="3">
-        <v>-213100</v>
+        <v>-77900</v>
       </c>
       <c r="I100" s="3">
-        <v>-87400</v>
+        <v>-228500</v>
       </c>
       <c r="J100" s="3">
+        <v>-93800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-247600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-116100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-100400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-151400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-92200</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-15800</v>
+      </c>
+      <c r="E101" s="3">
+        <v>19800</v>
+      </c>
+      <c r="F101" s="3">
+        <v>2600</v>
+      </c>
+      <c r="G101" s="3">
         <v>18500</v>
       </c>
-      <c r="E101" s="3">
-        <v>2500</v>
-      </c>
-      <c r="F101" s="3">
-        <v>17200</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-11100</v>
-      </c>
       <c r="H101" s="3">
-        <v>-17200</v>
+        <v>-11900</v>
       </c>
       <c r="I101" s="3">
-        <v>12300</v>
+        <v>-18500</v>
       </c>
       <c r="J101" s="3">
+        <v>13200</v>
+      </c>
+      <c r="K101" s="3">
         <v>27100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>20900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-2600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>18400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>93600</v>
+        <v>-118900</v>
       </c>
       <c r="E102" s="3">
-        <v>1200</v>
+        <v>100400</v>
       </c>
       <c r="F102" s="3">
-        <v>115800</v>
+        <v>1300</v>
       </c>
       <c r="G102" s="3">
-        <v>-64000</v>
+        <v>124200</v>
       </c>
       <c r="H102" s="3">
-        <v>-23400</v>
+        <v>-68700</v>
       </c>
       <c r="I102" s="3">
+        <v>-25100</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-37000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-34500</v>
       </c>
-      <c r="J102" s="3">
-        <v>-34500</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>108300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>50900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-168500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-30300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TATYY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TATYY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
   <si>
     <t>TATYY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,114 +665,121 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43373</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43190</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43008</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42825</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42643</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42460</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42277</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42094</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1857000</v>
+        <v>1849300</v>
       </c>
       <c r="E8" s="3">
-        <v>1949500</v>
+        <v>1871900</v>
       </c>
       <c r="F8" s="3">
-        <v>1812100</v>
+        <v>1965100</v>
       </c>
       <c r="G8" s="3">
         <v>1826700</v>
       </c>
       <c r="H8" s="3">
-        <v>1732900</v>
+        <v>1841300</v>
       </c>
       <c r="I8" s="3">
-        <v>1846500</v>
+        <v>1746800</v>
       </c>
       <c r="J8" s="3">
+        <v>1861300</v>
+      </c>
+      <c r="K8" s="3">
         <v>1891400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1626900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1545600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1526000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1502500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1580100</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -812,8 +819,11 @@
       <c r="O9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -853,8 +863,11 @@
       <c r="O10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -870,8 +883,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -911,8 +925,11 @@
       <c r="O12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -952,8 +969,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -981,8 +1001,8 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>5</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>5</v>
@@ -993,8 +1013,11 @@
       <c r="O14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1022,8 +1045,8 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>5</v>
+      <c r="L15" s="3">
+        <v>0</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>5</v>
@@ -1034,8 +1057,11 @@
       <c r="O15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1048,90 +1074,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1685300</v>
+        <v>1637600</v>
       </c>
       <c r="E17" s="3">
-        <v>1730200</v>
+        <v>1698900</v>
       </c>
       <c r="F17" s="3">
-        <v>1649700</v>
+        <v>1744100</v>
       </c>
       <c r="G17" s="3">
-        <v>1677400</v>
+        <v>1662900</v>
       </c>
       <c r="H17" s="3">
-        <v>1567800</v>
+        <v>1690900</v>
       </c>
       <c r="I17" s="3">
-        <v>1628500</v>
+        <v>1580400</v>
       </c>
       <c r="J17" s="3">
+        <v>1641600</v>
+      </c>
+      <c r="K17" s="3">
         <v>1747400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1474200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1472600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1433400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1548500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1490600</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>171700</v>
+        <v>211700</v>
       </c>
       <c r="E18" s="3">
-        <v>219300</v>
+        <v>173100</v>
       </c>
       <c r="F18" s="3">
-        <v>162500</v>
+        <v>221000</v>
       </c>
       <c r="G18" s="3">
-        <v>149200</v>
+        <v>163800</v>
       </c>
       <c r="H18" s="3">
-        <v>165100</v>
+        <v>150400</v>
       </c>
       <c r="I18" s="3">
-        <v>217900</v>
+        <v>166400</v>
       </c>
       <c r="J18" s="3">
+        <v>219700</v>
+      </c>
+      <c r="K18" s="3">
         <v>144000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>152700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>73000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>92600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-46100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>89500</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1147,90 +1180,97 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>2600</v>
+        <v>-2700</v>
       </c>
       <c r="E20" s="3">
-        <v>-2600</v>
+        <v>2700</v>
       </c>
       <c r="F20" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="G20" s="3">
         <v>5300</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>-5300</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
         <v>-5300</v>
       </c>
       <c r="K20" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="L20" s="3">
         <v>4900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>17000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>11700</v>
-      </c>
-      <c r="N20" s="3">
-        <v>10500</v>
       </c>
       <c r="O20" s="3">
         <v>10500</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>273400</v>
+        <v>326200</v>
       </c>
       <c r="E21" s="3">
-        <v>344700</v>
+        <v>275600</v>
       </c>
       <c r="F21" s="3">
-        <v>269400</v>
+        <v>347500</v>
       </c>
       <c r="G21" s="3">
-        <v>248300</v>
+        <v>271600</v>
       </c>
       <c r="H21" s="3">
-        <v>268100</v>
+        <v>250300</v>
       </c>
       <c r="I21" s="3">
-        <v>313000</v>
+        <v>270300</v>
       </c>
       <c r="J21" s="3">
+        <v>315500</v>
+      </c>
+      <c r="K21" s="3">
         <v>244300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>242600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>168300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>176100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>40800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>167200</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1258,102 +1298,111 @@
       <c r="K22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M22" s="3">
         <v>17000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>13000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>14500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>17100</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>174300</v>
+        <v>209000</v>
       </c>
       <c r="E23" s="3">
-        <v>216600</v>
+        <v>175700</v>
       </c>
       <c r="F23" s="3">
-        <v>167700</v>
+        <v>218300</v>
       </c>
       <c r="G23" s="3">
-        <v>149200</v>
+        <v>169100</v>
       </c>
       <c r="H23" s="3">
-        <v>165100</v>
+        <v>150400</v>
       </c>
       <c r="I23" s="3">
-        <v>212600</v>
+        <v>166400</v>
       </c>
       <c r="J23" s="3">
+        <v>214400</v>
+      </c>
+      <c r="K23" s="3">
         <v>138700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>157600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>73000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>91300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-50000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>83000</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>23800</v>
+        <v>32000</v>
       </c>
       <c r="E24" s="3">
-        <v>43600</v>
+        <v>24000</v>
       </c>
       <c r="F24" s="3">
-        <v>35700</v>
+        <v>43900</v>
       </c>
       <c r="G24" s="3">
-        <v>42300</v>
+        <v>35900</v>
       </c>
       <c r="H24" s="3">
-        <v>-18500</v>
+        <v>42600</v>
       </c>
       <c r="I24" s="3">
-        <v>48900</v>
+        <v>-18600</v>
       </c>
       <c r="J24" s="3">
+        <v>49300</v>
+      </c>
+      <c r="K24" s="3">
         <v>-27700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-1200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>3900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>13200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>14500</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1393,90 +1442,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>150600</v>
+        <v>177100</v>
       </c>
       <c r="E26" s="3">
-        <v>173000</v>
+        <v>151800</v>
       </c>
       <c r="F26" s="3">
-        <v>132100</v>
+        <v>174400</v>
       </c>
       <c r="G26" s="3">
-        <v>107000</v>
+        <v>133100</v>
       </c>
       <c r="H26" s="3">
-        <v>183600</v>
+        <v>107800</v>
       </c>
       <c r="I26" s="3">
-        <v>163800</v>
+        <v>185100</v>
       </c>
       <c r="J26" s="3">
+        <v>165100</v>
+      </c>
+      <c r="K26" s="3">
         <v>166400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>158900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>70400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>87400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-63200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>68500</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>150600</v>
+        <v>177100</v>
       </c>
       <c r="E27" s="3">
-        <v>173000</v>
+        <v>151800</v>
       </c>
       <c r="F27" s="3">
-        <v>132100</v>
+        <v>174400</v>
       </c>
       <c r="G27" s="3">
-        <v>107000</v>
+        <v>133100</v>
       </c>
       <c r="H27" s="3">
-        <v>183600</v>
+        <v>107800</v>
       </c>
       <c r="I27" s="3">
-        <v>163800</v>
+        <v>185100</v>
       </c>
       <c r="J27" s="3">
+        <v>165100</v>
+      </c>
+      <c r="K27" s="3">
         <v>166400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>158900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>70400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>87400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-63200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>68500</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1516,49 +1574,55 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>1200</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>78300</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-23500</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>13200</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1598,8 +1662,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1639,90 +1706,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-2600</v>
+        <v>2700</v>
       </c>
       <c r="E32" s="3">
-        <v>2600</v>
+        <v>-2700</v>
       </c>
       <c r="F32" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G32" s="3">
         <v>-5300</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>5300</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
         <v>5300</v>
       </c>
       <c r="K32" s="3">
+        <v>5300</v>
+      </c>
+      <c r="L32" s="3">
         <v>-4900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-17000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-11700</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-10500</v>
       </c>
       <c r="O32" s="3">
         <v>-10500</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>-10500</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>150600</v>
+        <v>177100</v>
       </c>
       <c r="E33" s="3">
-        <v>173000</v>
+        <v>151800</v>
       </c>
       <c r="F33" s="3">
-        <v>132100</v>
+        <v>174400</v>
       </c>
       <c r="G33" s="3">
-        <v>107000</v>
+        <v>133100</v>
       </c>
       <c r="H33" s="3">
-        <v>186200</v>
+        <v>107800</v>
       </c>
       <c r="I33" s="3">
-        <v>163800</v>
+        <v>187700</v>
       </c>
       <c r="J33" s="3">
+        <v>165100</v>
+      </c>
+      <c r="K33" s="3">
         <v>166400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>160100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>148700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>63900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-50000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>89500</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1762,95 +1838,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>150600</v>
+        <v>177100</v>
       </c>
       <c r="E35" s="3">
-        <v>173000</v>
+        <v>151800</v>
       </c>
       <c r="F35" s="3">
-        <v>132100</v>
+        <v>174400</v>
       </c>
       <c r="G35" s="3">
-        <v>107000</v>
+        <v>133100</v>
       </c>
       <c r="H35" s="3">
-        <v>186200</v>
+        <v>107800</v>
       </c>
       <c r="I35" s="3">
-        <v>163800</v>
+        <v>187700</v>
       </c>
       <c r="J35" s="3">
+        <v>165100</v>
+      </c>
+      <c r="K35" s="3">
         <v>166400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>160100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>148700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>63900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-50000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>89500</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43373</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43190</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43008</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42825</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42643</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42460</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42277</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42094</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1866,8 +1951,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1883,377 +1969,405 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>357900</v>
+        <v>644400</v>
       </c>
       <c r="E41" s="3">
-        <v>476800</v>
+        <v>360800</v>
       </c>
       <c r="F41" s="3">
-        <v>376400</v>
+        <v>480600</v>
       </c>
       <c r="G41" s="3">
-        <v>375100</v>
+        <v>379400</v>
       </c>
       <c r="H41" s="3">
-        <v>251000</v>
+        <v>378100</v>
       </c>
       <c r="I41" s="3">
-        <v>319600</v>
+        <v>253000</v>
       </c>
       <c r="J41" s="3">
+        <v>322200</v>
+      </c>
+      <c r="K41" s="3">
         <v>344700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>355900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>413500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>305200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>256800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>425300</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>88500</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>5</v>
+        <v>50600</v>
+      </c>
+      <c r="E42" s="3">
+        <v>89200</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I42" s="3">
+      <c r="G42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42" s="3">
         <v>1300</v>
       </c>
-      <c r="J42" s="3">
-        <v>0</v>
-      </c>
       <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
         <v>4900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>5200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>7800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>23700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>439800</v>
+        <v>424700</v>
       </c>
       <c r="E43" s="3">
-        <v>422700</v>
+        <v>443400</v>
       </c>
       <c r="F43" s="3">
-        <v>434500</v>
+        <v>426000</v>
       </c>
       <c r="G43" s="3">
-        <v>461000</v>
+        <v>438000</v>
       </c>
       <c r="H43" s="3">
-        <v>389600</v>
+        <v>464700</v>
       </c>
       <c r="I43" s="3">
-        <v>420000</v>
+        <v>392800</v>
       </c>
       <c r="J43" s="3">
+        <v>423400</v>
+      </c>
+      <c r="K43" s="3">
         <v>385700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>374400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>396500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>363900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>384500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>495100</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>602300</v>
+        <v>520600</v>
       </c>
       <c r="E44" s="3">
-        <v>545500</v>
+        <v>607100</v>
       </c>
       <c r="F44" s="3">
-        <v>573200</v>
+        <v>549900</v>
       </c>
       <c r="G44" s="3">
-        <v>550800</v>
+        <v>577800</v>
       </c>
       <c r="H44" s="3">
-        <v>553400</v>
+        <v>555200</v>
       </c>
       <c r="I44" s="3">
-        <v>501900</v>
+        <v>557900</v>
       </c>
       <c r="J44" s="3">
+        <v>505900</v>
+      </c>
+      <c r="K44" s="3">
         <v>582500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>449500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>507400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>443500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>478000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>331800</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>6600</v>
+        <v>12000</v>
       </c>
       <c r="E45" s="3">
-        <v>47500</v>
+        <v>6700</v>
       </c>
       <c r="F45" s="3">
-        <v>63400</v>
+        <v>47900</v>
       </c>
       <c r="G45" s="3">
-        <v>50200</v>
+        <v>63900</v>
       </c>
       <c r="H45" s="3">
-        <v>31700</v>
+        <v>50600</v>
       </c>
       <c r="I45" s="3">
-        <v>51500</v>
+        <v>32000</v>
       </c>
       <c r="J45" s="3">
+        <v>51900</v>
+      </c>
+      <c r="K45" s="3">
         <v>40900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>71400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>65200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>348300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>81600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>143500</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1495100</v>
+        <v>1652300</v>
       </c>
       <c r="E46" s="3">
-        <v>1492500</v>
+        <v>1507100</v>
       </c>
       <c r="F46" s="3">
-        <v>1447600</v>
+        <v>1504500</v>
       </c>
       <c r="G46" s="3">
-        <v>1437000</v>
+        <v>1459200</v>
       </c>
       <c r="H46" s="3">
-        <v>1225700</v>
+        <v>1448600</v>
       </c>
       <c r="I46" s="3">
-        <v>1294400</v>
+        <v>1235500</v>
       </c>
       <c r="J46" s="3">
+        <v>1304800</v>
+      </c>
+      <c r="K46" s="3">
         <v>1353800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1256200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1387800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1468700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1224600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1398400</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>203400</v>
+        <v>218300</v>
       </c>
       <c r="E47" s="3">
-        <v>211300</v>
+        <v>205000</v>
       </c>
       <c r="F47" s="3">
-        <v>215300</v>
+        <v>213000</v>
       </c>
       <c r="G47" s="3">
-        <v>171700</v>
+        <v>217000</v>
       </c>
       <c r="H47" s="3">
-        <v>165100</v>
+        <v>173100</v>
       </c>
       <c r="I47" s="3">
-        <v>144000</v>
+        <v>166400</v>
       </c>
       <c r="J47" s="3">
+        <v>145100</v>
+      </c>
+      <c r="K47" s="3">
         <v>167700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>136700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>137000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>180000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>453000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>476700</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1571700</v>
+        <v>1533800</v>
       </c>
       <c r="E48" s="3">
-        <v>1570400</v>
+        <v>1584400</v>
       </c>
       <c r="F48" s="3">
-        <v>1297000</v>
+        <v>1583000</v>
       </c>
       <c r="G48" s="3">
-        <v>1306300</v>
+        <v>1307400</v>
       </c>
       <c r="H48" s="3">
-        <v>1274600</v>
+        <v>1316800</v>
       </c>
       <c r="I48" s="3">
-        <v>1322100</v>
+        <v>1284800</v>
       </c>
       <c r="J48" s="3">
+        <v>1332700</v>
+      </c>
+      <c r="K48" s="3">
         <v>1401400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1272200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1207800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1006900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>987600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>995500</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>449100</v>
+        <v>436700</v>
       </c>
       <c r="E49" s="3">
-        <v>459600</v>
+        <v>452700</v>
       </c>
       <c r="F49" s="3">
-        <v>451700</v>
+        <v>463300</v>
       </c>
       <c r="G49" s="3">
-        <v>467600</v>
+        <v>455300</v>
       </c>
       <c r="H49" s="3">
-        <v>475500</v>
+        <v>471300</v>
       </c>
       <c r="I49" s="3">
-        <v>503200</v>
+        <v>479300</v>
       </c>
       <c r="J49" s="3">
+        <v>507300</v>
+      </c>
+      <c r="K49" s="3">
         <v>529600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>511100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>508700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>403000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>447700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>418700</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2293,8 +2407,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2334,49 +2451,55 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>46200</v>
+        <v>55900</v>
       </c>
       <c r="E52" s="3">
-        <v>44900</v>
+        <v>46600</v>
       </c>
       <c r="F52" s="3">
-        <v>277400</v>
+        <v>45300</v>
       </c>
       <c r="G52" s="3">
-        <v>261500</v>
+        <v>279600</v>
       </c>
       <c r="H52" s="3">
-        <v>254900</v>
+        <v>263600</v>
       </c>
       <c r="I52" s="3">
-        <v>192800</v>
+        <v>257000</v>
       </c>
       <c r="J52" s="3">
+        <v>194400</v>
+      </c>
+      <c r="K52" s="3">
         <v>207400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>67700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>90000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>114800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>77700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>39500</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2416,49 +2539,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3765600</v>
+        <v>3897000</v>
       </c>
       <c r="E54" s="3">
-        <v>3778800</v>
+        <v>3795800</v>
       </c>
       <c r="F54" s="3">
-        <v>3689000</v>
+        <v>3809100</v>
       </c>
       <c r="G54" s="3">
-        <v>3644100</v>
+        <v>3718600</v>
       </c>
       <c r="H54" s="3">
-        <v>3395800</v>
+        <v>3673300</v>
       </c>
       <c r="I54" s="3">
-        <v>3456500</v>
+        <v>3423000</v>
       </c>
       <c r="J54" s="3">
+        <v>3484300</v>
+      </c>
+      <c r="K54" s="3">
         <v>3659900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3244000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3331200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3173400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3190600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3328800</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2474,8 +2603,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2491,254 +2621,273 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>488700</v>
+        <v>443400</v>
       </c>
       <c r="E57" s="3">
-        <v>402800</v>
+        <v>492600</v>
       </c>
       <c r="F57" s="3">
-        <v>451700</v>
+        <v>406100</v>
       </c>
       <c r="G57" s="3">
-        <v>467600</v>
+        <v>455300</v>
       </c>
       <c r="H57" s="3">
-        <v>412100</v>
+        <v>471300</v>
       </c>
       <c r="I57" s="3">
-        <v>417400</v>
+        <v>415400</v>
       </c>
       <c r="J57" s="3">
+        <v>420700</v>
+      </c>
+      <c r="K57" s="3">
         <v>416000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>397800</v>
-      </c>
-      <c r="L57" s="3">
-        <v>439600</v>
       </c>
       <c r="M57" s="3">
         <v>439600</v>
       </c>
       <c r="N57" s="3">
+        <v>439600</v>
+      </c>
+      <c r="O57" s="3">
         <v>416100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>425300</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>52800</v>
+        <v>55900</v>
       </c>
       <c r="E58" s="3">
-        <v>338100</v>
+        <v>53300</v>
       </c>
       <c r="F58" s="3">
-        <v>295900</v>
+        <v>340800</v>
       </c>
       <c r="G58" s="3">
-        <v>31700</v>
+        <v>298200</v>
       </c>
       <c r="H58" s="3">
-        <v>21100</v>
+        <v>32000</v>
       </c>
       <c r="I58" s="3">
-        <v>37000</v>
+        <v>21300</v>
       </c>
       <c r="J58" s="3">
+        <v>37300</v>
+      </c>
+      <c r="K58" s="3">
         <v>116200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>129300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>260900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>644300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>401600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>468800</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>129400</v>
+        <v>109200</v>
       </c>
       <c r="E59" s="3">
-        <v>153200</v>
+        <v>130500</v>
       </c>
       <c r="F59" s="3">
-        <v>151900</v>
+        <v>154400</v>
       </c>
       <c r="G59" s="3">
-        <v>146600</v>
+        <v>153100</v>
       </c>
       <c r="H59" s="3">
-        <v>97700</v>
+        <v>147800</v>
       </c>
       <c r="I59" s="3">
-        <v>105700</v>
+        <v>98500</v>
       </c>
       <c r="J59" s="3">
+        <v>106500</v>
+      </c>
+      <c r="K59" s="3">
         <v>110900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>150300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>147400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>159100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>109300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>142200</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>671000</v>
+        <v>608400</v>
       </c>
       <c r="E60" s="3">
-        <v>894200</v>
+        <v>676400</v>
       </c>
       <c r="F60" s="3">
-        <v>899500</v>
+        <v>901400</v>
       </c>
       <c r="G60" s="3">
-        <v>645900</v>
+        <v>906700</v>
       </c>
       <c r="H60" s="3">
-        <v>531000</v>
+        <v>651100</v>
       </c>
       <c r="I60" s="3">
-        <v>560000</v>
+        <v>535200</v>
       </c>
       <c r="J60" s="3">
+        <v>564500</v>
+      </c>
+      <c r="K60" s="3">
         <v>643200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>677400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>847800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1243000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>927000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1036300</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>900800</v>
+        <v>1065100</v>
       </c>
       <c r="E61" s="3">
-        <v>710600</v>
+        <v>908000</v>
       </c>
       <c r="F61" s="3">
-        <v>492700</v>
+        <v>716300</v>
       </c>
       <c r="G61" s="3">
-        <v>762100</v>
+        <v>496600</v>
       </c>
       <c r="H61" s="3">
-        <v>731700</v>
+        <v>768200</v>
       </c>
       <c r="I61" s="3">
-        <v>758100</v>
+        <v>737600</v>
       </c>
       <c r="J61" s="3">
+        <v>764200</v>
+      </c>
+      <c r="K61" s="3">
         <v>797800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>731600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>725200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>371700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>609700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>579400</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>346000</v>
+        <v>320900</v>
       </c>
       <c r="E62" s="3">
-        <v>354000</v>
+        <v>348800</v>
       </c>
       <c r="F62" s="3">
+        <v>356800</v>
+      </c>
+      <c r="G62" s="3">
+        <v>332900</v>
+      </c>
+      <c r="H62" s="3">
+        <v>374100</v>
+      </c>
+      <c r="I62" s="3">
         <v>330200</v>
       </c>
-      <c r="G62" s="3">
-        <v>371100</v>
-      </c>
-      <c r="H62" s="3">
-        <v>327600</v>
-      </c>
-      <c r="I62" s="3">
-        <v>429300</v>
-      </c>
       <c r="J62" s="3">
+        <v>432700</v>
+      </c>
+      <c r="K62" s="3">
         <v>459600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>456900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>416100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>400400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>421400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>337100</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2778,8 +2927,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2819,8 +2971,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2860,49 +3015,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1917800</v>
+        <v>1994400</v>
       </c>
       <c r="E66" s="3">
-        <v>1958700</v>
+        <v>1933200</v>
       </c>
       <c r="F66" s="3">
-        <v>1722300</v>
+        <v>1974500</v>
       </c>
       <c r="G66" s="3">
-        <v>1779100</v>
+        <v>1736100</v>
       </c>
       <c r="H66" s="3">
-        <v>1590200</v>
+        <v>1793400</v>
       </c>
       <c r="I66" s="3">
-        <v>1747400</v>
+        <v>1603000</v>
       </c>
       <c r="J66" s="3">
+        <v>1761400</v>
+      </c>
+      <c r="K66" s="3">
         <v>1900600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1865900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1990400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2016500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1959400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1954100</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2918,8 +3079,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2959,8 +3121,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3000,8 +3165,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3041,8 +3209,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3082,49 +3253,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1157000</v>
+        <v>1204900</v>
       </c>
       <c r="E72" s="3">
-        <v>1129300</v>
+        <v>1166300</v>
       </c>
       <c r="F72" s="3">
-        <v>1275900</v>
+        <v>1138300</v>
       </c>
       <c r="G72" s="3">
-        <v>1174200</v>
+        <v>1286100</v>
       </c>
       <c r="H72" s="3">
-        <v>1114700</v>
+        <v>1183600</v>
       </c>
       <c r="I72" s="3">
-        <v>1018300</v>
+        <v>1123700</v>
       </c>
       <c r="J72" s="3">
+        <v>1026500</v>
+      </c>
+      <c r="K72" s="3">
         <v>1068500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>734000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>658700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>474800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>542500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>686000</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3164,8 +3341,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3205,8 +3385,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3246,49 +3429,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1847800</v>
+        <v>1902600</v>
       </c>
       <c r="E76" s="3">
+        <v>1862600</v>
+      </c>
+      <c r="F76" s="3">
+        <v>1834700</v>
+      </c>
+      <c r="G76" s="3">
+        <v>1982500</v>
+      </c>
+      <c r="H76" s="3">
+        <v>1879900</v>
+      </c>
+      <c r="I76" s="3">
         <v>1820000</v>
       </c>
-      <c r="F76" s="3">
-        <v>1966700</v>
-      </c>
-      <c r="G76" s="3">
-        <v>1865000</v>
-      </c>
-      <c r="H76" s="3">
-        <v>1805500</v>
-      </c>
-      <c r="I76" s="3">
-        <v>1709100</v>
-      </c>
       <c r="J76" s="3">
+        <v>1722800</v>
+      </c>
+      <c r="K76" s="3">
         <v>1759300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1378200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1340800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1156900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1231200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1374700</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3328,95 +3517,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43373</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43190</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43008</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42825</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42643</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42460</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42277</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42094</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>150600</v>
+        <v>177100</v>
       </c>
       <c r="E81" s="3">
-        <v>173000</v>
+        <v>151800</v>
       </c>
       <c r="F81" s="3">
-        <v>132100</v>
+        <v>174400</v>
       </c>
       <c r="G81" s="3">
-        <v>107000</v>
+        <v>133100</v>
       </c>
       <c r="H81" s="3">
-        <v>186200</v>
+        <v>107800</v>
       </c>
       <c r="I81" s="3">
-        <v>163800</v>
+        <v>187700</v>
       </c>
       <c r="J81" s="3">
+        <v>165100</v>
+      </c>
+      <c r="K81" s="3">
         <v>166400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>160100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>148700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>63900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-50000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>89500</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3432,49 +3630,53 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>99100</v>
+        <v>117200</v>
       </c>
       <c r="E83" s="3">
-        <v>128100</v>
+        <v>99900</v>
       </c>
       <c r="F83" s="3">
-        <v>101700</v>
+        <v>129100</v>
       </c>
       <c r="G83" s="3">
-        <v>99100</v>
+        <v>102500</v>
       </c>
       <c r="H83" s="3">
-        <v>103000</v>
+        <v>99900</v>
       </c>
       <c r="I83" s="3">
-        <v>100400</v>
+        <v>103800</v>
       </c>
       <c r="J83" s="3">
+        <v>101200</v>
+      </c>
+      <c r="K83" s="3">
         <v>105700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>85000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>78300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>71700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>76400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>67200</v>
       </c>
     </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3514,8 +3716,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3555,8 +3760,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3596,8 +3804,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3637,8 +3848,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3678,49 +3892,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>204700</v>
+        <v>326200</v>
       </c>
       <c r="E89" s="3">
-        <v>303800</v>
+        <v>206400</v>
       </c>
       <c r="F89" s="3">
-        <v>157200</v>
+        <v>306200</v>
       </c>
       <c r="G89" s="3">
-        <v>278700</v>
+        <v>158400</v>
       </c>
       <c r="H89" s="3">
-        <v>101700</v>
+        <v>280900</v>
       </c>
       <c r="I89" s="3">
-        <v>276000</v>
+        <v>102500</v>
       </c>
       <c r="J89" s="3">
+        <v>278300</v>
+      </c>
+      <c r="K89" s="3">
         <v>130800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>245100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>19600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>225600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>72400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>163300</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3736,49 +3956,53 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>80600</v>
+        <v>-82500</v>
       </c>
       <c r="E91" s="3">
-        <v>-81900</v>
+        <v>81200</v>
       </c>
       <c r="F91" s="3">
-        <v>-75300</v>
+        <v>-82500</v>
       </c>
       <c r="G91" s="3">
-        <v>-60800</v>
+        <v>-75900</v>
       </c>
       <c r="H91" s="3">
-        <v>-79200</v>
+        <v>-61200</v>
       </c>
       <c r="I91" s="3">
-        <v>-67400</v>
+        <v>-79900</v>
       </c>
       <c r="J91" s="3">
+        <v>-67900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-76600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-85000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-133000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-100400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-216000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-192300</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3818,8 +4042,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3859,49 +4086,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-110900</v>
+        <v>-79900</v>
       </c>
       <c r="E94" s="3">
-        <v>-59400</v>
+        <v>-111800</v>
       </c>
       <c r="F94" s="3">
-        <v>-107000</v>
+        <v>-59900</v>
       </c>
       <c r="G94" s="3">
-        <v>-39600</v>
+        <v>-107800</v>
       </c>
       <c r="H94" s="3">
-        <v>-80600</v>
+        <v>-39900</v>
       </c>
       <c r="I94" s="3">
-        <v>-54200</v>
+        <v>-81200</v>
       </c>
       <c r="J94" s="3">
+        <v>-54600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-87200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-59100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>183900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-71700</v>
-      </c>
-      <c r="N94" s="3">
-        <v>-108000</v>
       </c>
       <c r="O94" s="3">
         <v>-108000</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>-108000</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3917,49 +4150,53 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-52800</v>
+        <v>-129100</v>
       </c>
       <c r="E96" s="3">
-        <v>-128100</v>
+        <v>-53300</v>
       </c>
       <c r="F96" s="3">
-        <v>-52800</v>
+        <v>-129100</v>
       </c>
       <c r="G96" s="3">
-        <v>-124200</v>
+        <v>-53300</v>
       </c>
       <c r="H96" s="3">
-        <v>-51500</v>
+        <v>-125200</v>
       </c>
       <c r="I96" s="3">
-        <v>-121500</v>
+        <v>-51900</v>
       </c>
       <c r="J96" s="3">
+        <v>-122500</v>
+      </c>
+      <c r="K96" s="3">
         <v>-50200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-113300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-49600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-120000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-50000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-121100</v>
       </c>
     </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3999,8 +4236,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4040,8 +4280,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4081,127 +4324,139 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-196800</v>
+        <v>45300</v>
       </c>
       <c r="E100" s="3">
-        <v>-163800</v>
+        <v>-198400</v>
       </c>
       <c r="F100" s="3">
-        <v>-51500</v>
+        <v>-165100</v>
       </c>
       <c r="G100" s="3">
-        <v>-133400</v>
+        <v>-51900</v>
       </c>
       <c r="H100" s="3">
-        <v>-77900</v>
+        <v>-134500</v>
       </c>
       <c r="I100" s="3">
-        <v>-228500</v>
+        <v>-78600</v>
       </c>
       <c r="J100" s="3">
+        <v>-230300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-93800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-247600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-116100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-100400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-151400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-92200</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-15800</v>
+        <v>-8000</v>
       </c>
       <c r="E101" s="3">
-        <v>19800</v>
+        <v>-16000</v>
       </c>
       <c r="F101" s="3">
-        <v>2600</v>
+        <v>20000</v>
       </c>
       <c r="G101" s="3">
-        <v>18500</v>
+        <v>2700</v>
       </c>
       <c r="H101" s="3">
-        <v>-11900</v>
+        <v>18600</v>
       </c>
       <c r="I101" s="3">
-        <v>-18500</v>
+        <v>-12000</v>
       </c>
       <c r="J101" s="3">
+        <v>-18600</v>
+      </c>
+      <c r="K101" s="3">
         <v>13200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>27100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>20900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-2600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>18400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-118900</v>
+        <v>283600</v>
       </c>
       <c r="E102" s="3">
-        <v>100400</v>
+        <v>-119800</v>
       </c>
       <c r="F102" s="3">
+        <v>101200</v>
+      </c>
+      <c r="G102" s="3">
         <v>1300</v>
       </c>
-      <c r="G102" s="3">
-        <v>124200</v>
-      </c>
       <c r="H102" s="3">
-        <v>-68700</v>
+        <v>125200</v>
       </c>
       <c r="I102" s="3">
-        <v>-25100</v>
+        <v>-69200</v>
       </c>
       <c r="J102" s="3">
+        <v>-25300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-37000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-34500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>108300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>50900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-168500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-30300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TATYY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TATYY_QTR_FIN.xlsx
@@ -740,25 +740,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1849300</v>
+        <v>1907400</v>
       </c>
       <c r="E8" s="3">
-        <v>1871900</v>
+        <v>1930700</v>
       </c>
       <c r="F8" s="3">
-        <v>1965100</v>
+        <v>2026800</v>
       </c>
       <c r="G8" s="3">
-        <v>1826700</v>
+        <v>1884000</v>
       </c>
       <c r="H8" s="3">
-        <v>1841300</v>
+        <v>1899100</v>
       </c>
       <c r="I8" s="3">
-        <v>1746800</v>
+        <v>1801600</v>
       </c>
       <c r="J8" s="3">
-        <v>1861300</v>
+        <v>1919700</v>
       </c>
       <c r="K8" s="3">
         <v>1891400</v>
@@ -1081,25 +1081,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1637600</v>
+        <v>1689000</v>
       </c>
       <c r="E17" s="3">
-        <v>1698900</v>
+        <v>1752200</v>
       </c>
       <c r="F17" s="3">
-        <v>1744100</v>
+        <v>1798900</v>
       </c>
       <c r="G17" s="3">
-        <v>1662900</v>
+        <v>1715100</v>
       </c>
       <c r="H17" s="3">
-        <v>1690900</v>
+        <v>1744000</v>
       </c>
       <c r="I17" s="3">
-        <v>1580400</v>
+        <v>1630000</v>
       </c>
       <c r="J17" s="3">
-        <v>1641600</v>
+        <v>1693100</v>
       </c>
       <c r="K17" s="3">
         <v>1747400</v>
@@ -1125,25 +1125,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>211700</v>
+        <v>218300</v>
       </c>
       <c r="E18" s="3">
-        <v>173100</v>
+        <v>178500</v>
       </c>
       <c r="F18" s="3">
-        <v>221000</v>
+        <v>227900</v>
       </c>
       <c r="G18" s="3">
-        <v>163800</v>
+        <v>168900</v>
       </c>
       <c r="H18" s="3">
-        <v>150400</v>
+        <v>155200</v>
       </c>
       <c r="I18" s="3">
-        <v>166400</v>
+        <v>171600</v>
       </c>
       <c r="J18" s="3">
-        <v>219700</v>
+        <v>226600</v>
       </c>
       <c r="K18" s="3">
         <v>144000</v>
@@ -1196,7 +1196,7 @@
         <v>-2700</v>
       </c>
       <c r="G20" s="3">
-        <v>5300</v>
+        <v>5500</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1205,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>-5300</v>
+        <v>-5500</v>
       </c>
       <c r="K20" s="3">
         <v>-5300</v>
@@ -1231,25 +1231,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>326200</v>
+        <v>336400</v>
       </c>
       <c r="E21" s="3">
-        <v>275600</v>
+        <v>284300</v>
       </c>
       <c r="F21" s="3">
-        <v>347500</v>
+        <v>358400</v>
       </c>
       <c r="G21" s="3">
-        <v>271600</v>
+        <v>280100</v>
       </c>
       <c r="H21" s="3">
-        <v>250300</v>
+        <v>258200</v>
       </c>
       <c r="I21" s="3">
-        <v>270300</v>
+        <v>278800</v>
       </c>
       <c r="J21" s="3">
-        <v>315500</v>
+        <v>325400</v>
       </c>
       <c r="K21" s="3">
         <v>244300</v>
@@ -1319,25 +1319,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>209000</v>
+        <v>215600</v>
       </c>
       <c r="E23" s="3">
-        <v>175700</v>
+        <v>181300</v>
       </c>
       <c r="F23" s="3">
-        <v>218300</v>
+        <v>225200</v>
       </c>
       <c r="G23" s="3">
-        <v>169100</v>
+        <v>174400</v>
       </c>
       <c r="H23" s="3">
-        <v>150400</v>
+        <v>155200</v>
       </c>
       <c r="I23" s="3">
-        <v>166400</v>
+        <v>171600</v>
       </c>
       <c r="J23" s="3">
-        <v>214400</v>
+        <v>221100</v>
       </c>
       <c r="K23" s="3">
         <v>138700</v>
@@ -1363,25 +1363,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>32000</v>
+        <v>33000</v>
       </c>
       <c r="E24" s="3">
-        <v>24000</v>
+        <v>24700</v>
       </c>
       <c r="F24" s="3">
+        <v>45300</v>
+      </c>
+      <c r="G24" s="3">
+        <v>37100</v>
+      </c>
+      <c r="H24" s="3">
         <v>43900</v>
       </c>
-      <c r="G24" s="3">
-        <v>35900</v>
-      </c>
-      <c r="H24" s="3">
-        <v>42600</v>
-      </c>
       <c r="I24" s="3">
-        <v>-18600</v>
+        <v>-19200</v>
       </c>
       <c r="J24" s="3">
-        <v>49300</v>
+        <v>50800</v>
       </c>
       <c r="K24" s="3">
         <v>-27700</v>
@@ -1451,25 +1451,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>177100</v>
+        <v>182600</v>
       </c>
       <c r="E26" s="3">
-        <v>151800</v>
+        <v>156500</v>
       </c>
       <c r="F26" s="3">
-        <v>174400</v>
+        <v>179900</v>
       </c>
       <c r="G26" s="3">
-        <v>133100</v>
+        <v>137300</v>
       </c>
       <c r="H26" s="3">
-        <v>107800</v>
+        <v>111200</v>
       </c>
       <c r="I26" s="3">
-        <v>185100</v>
+        <v>190900</v>
       </c>
       <c r="J26" s="3">
-        <v>165100</v>
+        <v>170300</v>
       </c>
       <c r="K26" s="3">
         <v>166400</v>
@@ -1495,25 +1495,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>177100</v>
+        <v>182600</v>
       </c>
       <c r="E27" s="3">
-        <v>151800</v>
+        <v>156500</v>
       </c>
       <c r="F27" s="3">
-        <v>174400</v>
+        <v>179900</v>
       </c>
       <c r="G27" s="3">
-        <v>133100</v>
+        <v>137300</v>
       </c>
       <c r="H27" s="3">
-        <v>107800</v>
+        <v>111200</v>
       </c>
       <c r="I27" s="3">
-        <v>185100</v>
+        <v>190900</v>
       </c>
       <c r="J27" s="3">
-        <v>165100</v>
+        <v>170300</v>
       </c>
       <c r="K27" s="3">
         <v>166400</v>
@@ -1724,7 +1724,7 @@
         <v>2700</v>
       </c>
       <c r="G32" s="3">
-        <v>-5300</v>
+        <v>-5500</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>5300</v>
+        <v>5500</v>
       </c>
       <c r="K32" s="3">
         <v>5300</v>
@@ -1759,25 +1759,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>177100</v>
+        <v>182600</v>
       </c>
       <c r="E33" s="3">
-        <v>151800</v>
+        <v>156500</v>
       </c>
       <c r="F33" s="3">
-        <v>174400</v>
+        <v>179900</v>
       </c>
       <c r="G33" s="3">
-        <v>133100</v>
+        <v>137300</v>
       </c>
       <c r="H33" s="3">
-        <v>107800</v>
+        <v>111200</v>
       </c>
       <c r="I33" s="3">
-        <v>187700</v>
+        <v>193600</v>
       </c>
       <c r="J33" s="3">
-        <v>165100</v>
+        <v>170300</v>
       </c>
       <c r="K33" s="3">
         <v>166400</v>
@@ -1847,25 +1847,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>177100</v>
+        <v>182600</v>
       </c>
       <c r="E35" s="3">
-        <v>151800</v>
+        <v>156500</v>
       </c>
       <c r="F35" s="3">
-        <v>174400</v>
+        <v>179900</v>
       </c>
       <c r="G35" s="3">
-        <v>133100</v>
+        <v>137300</v>
       </c>
       <c r="H35" s="3">
-        <v>107800</v>
+        <v>111200</v>
       </c>
       <c r="I35" s="3">
-        <v>187700</v>
+        <v>193600</v>
       </c>
       <c r="J35" s="3">
-        <v>165100</v>
+        <v>170300</v>
       </c>
       <c r="K35" s="3">
         <v>166400</v>
@@ -1976,25 +1976,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>644400</v>
+        <v>664600</v>
       </c>
       <c r="E41" s="3">
-        <v>360800</v>
+        <v>372100</v>
       </c>
       <c r="F41" s="3">
-        <v>480600</v>
+        <v>495700</v>
       </c>
       <c r="G41" s="3">
-        <v>379400</v>
+        <v>391400</v>
       </c>
       <c r="H41" s="3">
-        <v>378100</v>
+        <v>390000</v>
       </c>
       <c r="I41" s="3">
-        <v>253000</v>
+        <v>260900</v>
       </c>
       <c r="J41" s="3">
-        <v>322200</v>
+        <v>332300</v>
       </c>
       <c r="K41" s="3">
         <v>344700</v>
@@ -2020,10 +2020,10 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>50600</v>
+        <v>52200</v>
       </c>
       <c r="E42" s="3">
-        <v>89200</v>
+        <v>92000</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>5</v>
@@ -2038,7 +2038,7 @@
         <v>5</v>
       </c>
       <c r="J42" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -2064,25 +2064,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>424700</v>
+        <v>438000</v>
       </c>
       <c r="E43" s="3">
-        <v>443400</v>
+        <v>457300</v>
       </c>
       <c r="F43" s="3">
-        <v>426000</v>
+        <v>439400</v>
       </c>
       <c r="G43" s="3">
-        <v>438000</v>
+        <v>451800</v>
       </c>
       <c r="H43" s="3">
-        <v>464700</v>
+        <v>479200</v>
       </c>
       <c r="I43" s="3">
-        <v>392800</v>
+        <v>405100</v>
       </c>
       <c r="J43" s="3">
-        <v>423400</v>
+        <v>436700</v>
       </c>
       <c r="K43" s="3">
         <v>385700</v>
@@ -2108,25 +2108,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>520600</v>
+        <v>536900</v>
       </c>
       <c r="E44" s="3">
-        <v>607100</v>
+        <v>626200</v>
       </c>
       <c r="F44" s="3">
-        <v>549900</v>
+        <v>567100</v>
       </c>
       <c r="G44" s="3">
-        <v>577800</v>
+        <v>596000</v>
       </c>
       <c r="H44" s="3">
-        <v>555200</v>
+        <v>572600</v>
       </c>
       <c r="I44" s="3">
-        <v>557900</v>
+        <v>575400</v>
       </c>
       <c r="J44" s="3">
-        <v>505900</v>
+        <v>521800</v>
       </c>
       <c r="K44" s="3">
         <v>582500</v>
@@ -2152,25 +2152,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>12000</v>
+        <v>12400</v>
       </c>
       <c r="E45" s="3">
-        <v>6700</v>
+        <v>6900</v>
       </c>
       <c r="F45" s="3">
-        <v>47900</v>
+        <v>49400</v>
       </c>
       <c r="G45" s="3">
-        <v>63900</v>
+        <v>65900</v>
       </c>
       <c r="H45" s="3">
-        <v>50600</v>
+        <v>52200</v>
       </c>
       <c r="I45" s="3">
-        <v>32000</v>
+        <v>33000</v>
       </c>
       <c r="J45" s="3">
-        <v>51900</v>
+        <v>53600</v>
       </c>
       <c r="K45" s="3">
         <v>40900</v>
@@ -2196,25 +2196,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1652300</v>
+        <v>1704100</v>
       </c>
       <c r="E46" s="3">
-        <v>1507100</v>
+        <v>1554500</v>
       </c>
       <c r="F46" s="3">
-        <v>1504500</v>
+        <v>1551700</v>
       </c>
       <c r="G46" s="3">
-        <v>1459200</v>
+        <v>1505000</v>
       </c>
       <c r="H46" s="3">
-        <v>1448600</v>
+        <v>1494000</v>
       </c>
       <c r="I46" s="3">
-        <v>1235500</v>
+        <v>1274300</v>
       </c>
       <c r="J46" s="3">
-        <v>1304800</v>
+        <v>1345700</v>
       </c>
       <c r="K46" s="3">
         <v>1353800</v>
@@ -2240,25 +2240,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>218300</v>
+        <v>225200</v>
       </c>
       <c r="E47" s="3">
-        <v>205000</v>
+        <v>211500</v>
       </c>
       <c r="F47" s="3">
-        <v>213000</v>
+        <v>219700</v>
       </c>
       <c r="G47" s="3">
-        <v>217000</v>
+        <v>223800</v>
       </c>
       <c r="H47" s="3">
-        <v>173100</v>
+        <v>178500</v>
       </c>
       <c r="I47" s="3">
-        <v>166400</v>
+        <v>171600</v>
       </c>
       <c r="J47" s="3">
-        <v>145100</v>
+        <v>149700</v>
       </c>
       <c r="K47" s="3">
         <v>167700</v>
@@ -2284,25 +2284,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1533800</v>
+        <v>1581900</v>
       </c>
       <c r="E48" s="3">
-        <v>1584400</v>
+        <v>1634100</v>
       </c>
       <c r="F48" s="3">
-        <v>1583000</v>
+        <v>1632700</v>
       </c>
       <c r="G48" s="3">
-        <v>1307400</v>
+        <v>1348500</v>
       </c>
       <c r="H48" s="3">
-        <v>1316800</v>
+        <v>1358100</v>
       </c>
       <c r="I48" s="3">
-        <v>1284800</v>
+        <v>1325100</v>
       </c>
       <c r="J48" s="3">
-        <v>1332700</v>
+        <v>1374600</v>
       </c>
       <c r="K48" s="3">
         <v>1401400</v>
@@ -2328,25 +2328,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>436700</v>
+        <v>450400</v>
       </c>
       <c r="E49" s="3">
-        <v>452700</v>
+        <v>466900</v>
       </c>
       <c r="F49" s="3">
-        <v>463300</v>
+        <v>477900</v>
       </c>
       <c r="G49" s="3">
-        <v>455300</v>
+        <v>469600</v>
       </c>
       <c r="H49" s="3">
-        <v>471300</v>
+        <v>486100</v>
       </c>
       <c r="I49" s="3">
-        <v>479300</v>
+        <v>494300</v>
       </c>
       <c r="J49" s="3">
-        <v>507300</v>
+        <v>523200</v>
       </c>
       <c r="K49" s="3">
         <v>529600</v>
@@ -2460,25 +2460,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>55900</v>
+        <v>57700</v>
       </c>
       <c r="E52" s="3">
-        <v>46600</v>
+        <v>48100</v>
       </c>
       <c r="F52" s="3">
-        <v>45300</v>
+        <v>46700</v>
       </c>
       <c r="G52" s="3">
-        <v>279600</v>
+        <v>288400</v>
       </c>
       <c r="H52" s="3">
-        <v>263600</v>
+        <v>271900</v>
       </c>
       <c r="I52" s="3">
-        <v>257000</v>
+        <v>265000</v>
       </c>
       <c r="J52" s="3">
-        <v>194400</v>
+        <v>200500</v>
       </c>
       <c r="K52" s="3">
         <v>207400</v>
@@ -2548,25 +2548,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3897000</v>
+        <v>4019300</v>
       </c>
       <c r="E54" s="3">
-        <v>3795800</v>
+        <v>3915000</v>
       </c>
       <c r="F54" s="3">
-        <v>3809100</v>
+        <v>3928700</v>
       </c>
       <c r="G54" s="3">
-        <v>3718600</v>
+        <v>3835300</v>
       </c>
       <c r="H54" s="3">
-        <v>3673300</v>
+        <v>3788600</v>
       </c>
       <c r="I54" s="3">
-        <v>3423000</v>
+        <v>3530500</v>
       </c>
       <c r="J54" s="3">
-        <v>3484300</v>
+        <v>3593600</v>
       </c>
       <c r="K54" s="3">
         <v>3659900</v>
@@ -2628,25 +2628,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>443400</v>
+        <v>457300</v>
       </c>
       <c r="E57" s="3">
-        <v>492600</v>
+        <v>508100</v>
       </c>
       <c r="F57" s="3">
-        <v>406100</v>
+        <v>418800</v>
       </c>
       <c r="G57" s="3">
-        <v>455300</v>
+        <v>469600</v>
       </c>
       <c r="H57" s="3">
-        <v>471300</v>
+        <v>486100</v>
       </c>
       <c r="I57" s="3">
-        <v>415400</v>
+        <v>428400</v>
       </c>
       <c r="J57" s="3">
-        <v>420700</v>
+        <v>433900</v>
       </c>
       <c r="K57" s="3">
         <v>416000</v>
@@ -2672,25 +2672,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>55900</v>
+        <v>57700</v>
       </c>
       <c r="E58" s="3">
-        <v>53300</v>
+        <v>54900</v>
       </c>
       <c r="F58" s="3">
-        <v>340800</v>
+        <v>351500</v>
       </c>
       <c r="G58" s="3">
-        <v>298200</v>
+        <v>307600</v>
       </c>
       <c r="H58" s="3">
-        <v>32000</v>
+        <v>33000</v>
       </c>
       <c r="I58" s="3">
-        <v>21300</v>
+        <v>22000</v>
       </c>
       <c r="J58" s="3">
-        <v>37300</v>
+        <v>38400</v>
       </c>
       <c r="K58" s="3">
         <v>116200</v>
@@ -2716,25 +2716,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>109200</v>
+        <v>112600</v>
       </c>
       <c r="E59" s="3">
-        <v>130500</v>
+        <v>134600</v>
       </c>
       <c r="F59" s="3">
-        <v>154400</v>
+        <v>159300</v>
       </c>
       <c r="G59" s="3">
-        <v>153100</v>
+        <v>157900</v>
       </c>
       <c r="H59" s="3">
-        <v>147800</v>
+        <v>152400</v>
       </c>
       <c r="I59" s="3">
-        <v>98500</v>
+        <v>101600</v>
       </c>
       <c r="J59" s="3">
-        <v>106500</v>
+        <v>109900</v>
       </c>
       <c r="K59" s="3">
         <v>110900</v>
@@ -2760,25 +2760,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>608400</v>
+        <v>627500</v>
       </c>
       <c r="E60" s="3">
-        <v>676400</v>
+        <v>697600</v>
       </c>
       <c r="F60" s="3">
-        <v>901400</v>
+        <v>929600</v>
       </c>
       <c r="G60" s="3">
-        <v>906700</v>
+        <v>935100</v>
       </c>
       <c r="H60" s="3">
-        <v>651100</v>
+        <v>671500</v>
       </c>
       <c r="I60" s="3">
-        <v>535200</v>
+        <v>552000</v>
       </c>
       <c r="J60" s="3">
-        <v>564500</v>
+        <v>582200</v>
       </c>
       <c r="K60" s="3">
         <v>643200</v>
@@ -2804,25 +2804,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1065100</v>
+        <v>1098600</v>
       </c>
       <c r="E61" s="3">
-        <v>908000</v>
+        <v>936500</v>
       </c>
       <c r="F61" s="3">
-        <v>716300</v>
+        <v>738800</v>
       </c>
       <c r="G61" s="3">
-        <v>496600</v>
+        <v>512200</v>
       </c>
       <c r="H61" s="3">
-        <v>768200</v>
+        <v>792300</v>
       </c>
       <c r="I61" s="3">
-        <v>737600</v>
+        <v>760700</v>
       </c>
       <c r="J61" s="3">
-        <v>764200</v>
+        <v>788200</v>
       </c>
       <c r="K61" s="3">
         <v>797800</v>
@@ -2848,25 +2848,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>320900</v>
+        <v>330900</v>
       </c>
       <c r="E62" s="3">
-        <v>348800</v>
+        <v>359800</v>
       </c>
       <c r="F62" s="3">
-        <v>356800</v>
+        <v>368000</v>
       </c>
       <c r="G62" s="3">
-        <v>332900</v>
+        <v>343300</v>
       </c>
       <c r="H62" s="3">
-        <v>374100</v>
+        <v>385900</v>
       </c>
       <c r="I62" s="3">
-        <v>330200</v>
+        <v>340600</v>
       </c>
       <c r="J62" s="3">
-        <v>432700</v>
+        <v>446300</v>
       </c>
       <c r="K62" s="3">
         <v>459600</v>
@@ -3024,25 +3024,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1994400</v>
+        <v>2057000</v>
       </c>
       <c r="E66" s="3">
-        <v>1933200</v>
+        <v>1993900</v>
       </c>
       <c r="F66" s="3">
-        <v>1974500</v>
+        <v>2036400</v>
       </c>
       <c r="G66" s="3">
-        <v>1736100</v>
+        <v>1790600</v>
       </c>
       <c r="H66" s="3">
-        <v>1793400</v>
+        <v>1849700</v>
       </c>
       <c r="I66" s="3">
-        <v>1603000</v>
+        <v>1653300</v>
       </c>
       <c r="J66" s="3">
-        <v>1761400</v>
+        <v>1816700</v>
       </c>
       <c r="K66" s="3">
         <v>1900600</v>
@@ -3262,25 +3262,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1204900</v>
+        <v>1242700</v>
       </c>
       <c r="E72" s="3">
-        <v>1166300</v>
+        <v>1202900</v>
       </c>
       <c r="F72" s="3">
-        <v>1138300</v>
+        <v>1174100</v>
       </c>
       <c r="G72" s="3">
-        <v>1286100</v>
+        <v>1326500</v>
       </c>
       <c r="H72" s="3">
-        <v>1183600</v>
+        <v>1220800</v>
       </c>
       <c r="I72" s="3">
-        <v>1123700</v>
+        <v>1159000</v>
       </c>
       <c r="J72" s="3">
-        <v>1026500</v>
+        <v>1058700</v>
       </c>
       <c r="K72" s="3">
         <v>1068500</v>
@@ -3438,25 +3438,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1902600</v>
+        <v>1962300</v>
       </c>
       <c r="E76" s="3">
-        <v>1862600</v>
+        <v>1921100</v>
       </c>
       <c r="F76" s="3">
-        <v>1834700</v>
+        <v>1892300</v>
       </c>
       <c r="G76" s="3">
-        <v>1982500</v>
+        <v>2044700</v>
       </c>
       <c r="H76" s="3">
-        <v>1879900</v>
+        <v>1938900</v>
       </c>
       <c r="I76" s="3">
-        <v>1820000</v>
+        <v>1877200</v>
       </c>
       <c r="J76" s="3">
-        <v>1722800</v>
+        <v>1776900</v>
       </c>
       <c r="K76" s="3">
         <v>1759300</v>
@@ -3575,25 +3575,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>177100</v>
+        <v>182600</v>
       </c>
       <c r="E81" s="3">
-        <v>151800</v>
+        <v>156500</v>
       </c>
       <c r="F81" s="3">
-        <v>174400</v>
+        <v>179900</v>
       </c>
       <c r="G81" s="3">
-        <v>133100</v>
+        <v>137300</v>
       </c>
       <c r="H81" s="3">
-        <v>107800</v>
+        <v>111200</v>
       </c>
       <c r="I81" s="3">
-        <v>187700</v>
+        <v>193600</v>
       </c>
       <c r="J81" s="3">
-        <v>165100</v>
+        <v>170300</v>
       </c>
       <c r="K81" s="3">
         <v>166400</v>
@@ -3637,25 +3637,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>117200</v>
+        <v>120800</v>
       </c>
       <c r="E83" s="3">
-        <v>99900</v>
+        <v>103000</v>
       </c>
       <c r="F83" s="3">
-        <v>129100</v>
+        <v>133200</v>
       </c>
       <c r="G83" s="3">
-        <v>102500</v>
+        <v>105700</v>
       </c>
       <c r="H83" s="3">
-        <v>99900</v>
+        <v>103000</v>
       </c>
       <c r="I83" s="3">
-        <v>103800</v>
+        <v>107100</v>
       </c>
       <c r="J83" s="3">
-        <v>101200</v>
+        <v>104400</v>
       </c>
       <c r="K83" s="3">
         <v>105700</v>
@@ -3901,25 +3901,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>326200</v>
+        <v>336400</v>
       </c>
       <c r="E89" s="3">
-        <v>206400</v>
+        <v>212800</v>
       </c>
       <c r="F89" s="3">
-        <v>306200</v>
+        <v>315800</v>
       </c>
       <c r="G89" s="3">
-        <v>158400</v>
+        <v>163400</v>
       </c>
       <c r="H89" s="3">
-        <v>280900</v>
+        <v>289700</v>
       </c>
       <c r="I89" s="3">
-        <v>102500</v>
+        <v>105700</v>
       </c>
       <c r="J89" s="3">
-        <v>278300</v>
+        <v>287000</v>
       </c>
       <c r="K89" s="3">
         <v>130800</v>
@@ -3963,25 +3963,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-82500</v>
+        <v>-85100</v>
       </c>
       <c r="E91" s="3">
-        <v>81200</v>
+        <v>83800</v>
       </c>
       <c r="F91" s="3">
-        <v>-82500</v>
+        <v>-85100</v>
       </c>
       <c r="G91" s="3">
-        <v>-75900</v>
+        <v>-78300</v>
       </c>
       <c r="H91" s="3">
-        <v>-61200</v>
+        <v>-63200</v>
       </c>
       <c r="I91" s="3">
-        <v>-79900</v>
+        <v>-82400</v>
       </c>
       <c r="J91" s="3">
-        <v>-67900</v>
+        <v>-70000</v>
       </c>
       <c r="K91" s="3">
         <v>-76600</v>
@@ -4095,25 +4095,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-79900</v>
+        <v>-82400</v>
       </c>
       <c r="E94" s="3">
-        <v>-111800</v>
+        <v>-115300</v>
       </c>
       <c r="F94" s="3">
-        <v>-59900</v>
+        <v>-61800</v>
       </c>
       <c r="G94" s="3">
-        <v>-107800</v>
+        <v>-111200</v>
       </c>
       <c r="H94" s="3">
-        <v>-39900</v>
+        <v>-41200</v>
       </c>
       <c r="I94" s="3">
-        <v>-81200</v>
+        <v>-83800</v>
       </c>
       <c r="J94" s="3">
-        <v>-54600</v>
+        <v>-56300</v>
       </c>
       <c r="K94" s="3">
         <v>-87200</v>
@@ -4157,25 +4157,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-133200</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-54900</v>
+      </c>
+      <c r="F96" s="3">
+        <v>-133200</v>
+      </c>
+      <c r="G96" s="3">
+        <v>-54900</v>
+      </c>
+      <c r="H96" s="3">
         <v>-129100</v>
       </c>
-      <c r="E96" s="3">
-        <v>-53300</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-129100</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-53300</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-125200</v>
-      </c>
       <c r="I96" s="3">
-        <v>-51900</v>
+        <v>-53600</v>
       </c>
       <c r="J96" s="3">
-        <v>-122500</v>
+        <v>-126300</v>
       </c>
       <c r="K96" s="3">
         <v>-50200</v>
@@ -4333,25 +4333,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>45300</v>
+        <v>46700</v>
       </c>
       <c r="E100" s="3">
-        <v>-198400</v>
+        <v>-204600</v>
       </c>
       <c r="F100" s="3">
-        <v>-165100</v>
+        <v>-170300</v>
       </c>
       <c r="G100" s="3">
-        <v>-51900</v>
+        <v>-53600</v>
       </c>
       <c r="H100" s="3">
-        <v>-134500</v>
+        <v>-138700</v>
       </c>
       <c r="I100" s="3">
-        <v>-78600</v>
+        <v>-81000</v>
       </c>
       <c r="J100" s="3">
-        <v>-230300</v>
+        <v>-237600</v>
       </c>
       <c r="K100" s="3">
         <v>-93800</v>
@@ -4377,25 +4377,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-8000</v>
+        <v>-8200</v>
       </c>
       <c r="E101" s="3">
-        <v>-16000</v>
+        <v>-16500</v>
       </c>
       <c r="F101" s="3">
-        <v>20000</v>
+        <v>20600</v>
       </c>
       <c r="G101" s="3">
         <v>2700</v>
       </c>
       <c r="H101" s="3">
-        <v>18600</v>
+        <v>19200</v>
       </c>
       <c r="I101" s="3">
-        <v>-12000</v>
+        <v>-12400</v>
       </c>
       <c r="J101" s="3">
-        <v>-18600</v>
+        <v>-19200</v>
       </c>
       <c r="K101" s="3">
         <v>13200</v>
@@ -4421,25 +4421,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>283600</v>
+        <v>292500</v>
       </c>
       <c r="E102" s="3">
-        <v>-119800</v>
+        <v>-123600</v>
       </c>
       <c r="F102" s="3">
-        <v>101200</v>
+        <v>104400</v>
       </c>
       <c r="G102" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="H102" s="3">
-        <v>125200</v>
+        <v>129100</v>
       </c>
       <c r="I102" s="3">
-        <v>-69200</v>
+        <v>-71400</v>
       </c>
       <c r="J102" s="3">
-        <v>-25300</v>
+        <v>-26100</v>
       </c>
       <c r="K102" s="3">
         <v>-37000</v>

--- a/AAII_Financials/Quarterly/TATYY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TATYY_QTR_FIN.xlsx
@@ -740,25 +740,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1907400</v>
+        <v>1965600</v>
       </c>
       <c r="E8" s="3">
-        <v>1930700</v>
+        <v>1989600</v>
       </c>
       <c r="F8" s="3">
-        <v>2026800</v>
+        <v>2088700</v>
       </c>
       <c r="G8" s="3">
-        <v>1884000</v>
+        <v>1941500</v>
       </c>
       <c r="H8" s="3">
-        <v>1899100</v>
+        <v>1957100</v>
       </c>
       <c r="I8" s="3">
-        <v>1801600</v>
+        <v>1856600</v>
       </c>
       <c r="J8" s="3">
-        <v>1919700</v>
+        <v>1978300</v>
       </c>
       <c r="K8" s="3">
         <v>1891400</v>
@@ -1081,25 +1081,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1689000</v>
+        <v>1740600</v>
       </c>
       <c r="E17" s="3">
-        <v>1752200</v>
+        <v>1805700</v>
       </c>
       <c r="F17" s="3">
-        <v>1798900</v>
+        <v>1853800</v>
       </c>
       <c r="G17" s="3">
-        <v>1715100</v>
+        <v>1767500</v>
       </c>
       <c r="H17" s="3">
-        <v>1744000</v>
+        <v>1797200</v>
       </c>
       <c r="I17" s="3">
-        <v>1630000</v>
+        <v>1679700</v>
       </c>
       <c r="J17" s="3">
-        <v>1693100</v>
+        <v>1744800</v>
       </c>
       <c r="K17" s="3">
         <v>1747400</v>
@@ -1125,25 +1125,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>218300</v>
+        <v>225000</v>
       </c>
       <c r="E18" s="3">
-        <v>178500</v>
+        <v>184000</v>
       </c>
       <c r="F18" s="3">
-        <v>227900</v>
+        <v>234900</v>
       </c>
       <c r="G18" s="3">
-        <v>168900</v>
+        <v>174100</v>
       </c>
       <c r="H18" s="3">
-        <v>155200</v>
+        <v>159900</v>
       </c>
       <c r="I18" s="3">
-        <v>171600</v>
+        <v>176900</v>
       </c>
       <c r="J18" s="3">
-        <v>226600</v>
+        <v>233500</v>
       </c>
       <c r="K18" s="3">
         <v>144000</v>
@@ -1187,16 +1187,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2700</v>
+        <v>-2800</v>
       </c>
       <c r="E20" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="F20" s="3">
-        <v>-2700</v>
+        <v>-2800</v>
       </c>
       <c r="G20" s="3">
-        <v>5500</v>
+        <v>5700</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1205,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>-5500</v>
+        <v>-5700</v>
       </c>
       <c r="K20" s="3">
         <v>-5300</v>
@@ -1231,25 +1231,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>336400</v>
+        <v>346700</v>
       </c>
       <c r="E21" s="3">
-        <v>284300</v>
+        <v>292900</v>
       </c>
       <c r="F21" s="3">
-        <v>358400</v>
+        <v>369300</v>
       </c>
       <c r="G21" s="3">
-        <v>280100</v>
+        <v>288700</v>
       </c>
       <c r="H21" s="3">
-        <v>258200</v>
+        <v>266000</v>
       </c>
       <c r="I21" s="3">
-        <v>278800</v>
+        <v>287300</v>
       </c>
       <c r="J21" s="3">
-        <v>325400</v>
+        <v>335400</v>
       </c>
       <c r="K21" s="3">
         <v>244300</v>
@@ -1319,25 +1319,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>215600</v>
+        <v>222200</v>
       </c>
       <c r="E23" s="3">
-        <v>181300</v>
+        <v>186800</v>
       </c>
       <c r="F23" s="3">
-        <v>225200</v>
+        <v>232100</v>
       </c>
       <c r="G23" s="3">
-        <v>174400</v>
+        <v>179700</v>
       </c>
       <c r="H23" s="3">
-        <v>155200</v>
+        <v>159900</v>
       </c>
       <c r="I23" s="3">
-        <v>171600</v>
+        <v>176900</v>
       </c>
       <c r="J23" s="3">
-        <v>221100</v>
+        <v>227800</v>
       </c>
       <c r="K23" s="3">
         <v>138700</v>
@@ -1363,25 +1363,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>33000</v>
+        <v>34000</v>
       </c>
       <c r="E24" s="3">
-        <v>24700</v>
+        <v>25500</v>
       </c>
       <c r="F24" s="3">
+        <v>46700</v>
+      </c>
+      <c r="G24" s="3">
+        <v>38200</v>
+      </c>
+      <c r="H24" s="3">
         <v>45300</v>
       </c>
-      <c r="G24" s="3">
-        <v>37100</v>
-      </c>
-      <c r="H24" s="3">
-        <v>43900</v>
-      </c>
       <c r="I24" s="3">
-        <v>-19200</v>
+        <v>-19800</v>
       </c>
       <c r="J24" s="3">
-        <v>50800</v>
+        <v>52400</v>
       </c>
       <c r="K24" s="3">
         <v>-27700</v>
@@ -1451,25 +1451,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>182600</v>
+        <v>188200</v>
       </c>
       <c r="E26" s="3">
-        <v>156500</v>
+        <v>161300</v>
       </c>
       <c r="F26" s="3">
-        <v>179900</v>
+        <v>185400</v>
       </c>
       <c r="G26" s="3">
-        <v>137300</v>
+        <v>141500</v>
       </c>
       <c r="H26" s="3">
-        <v>111200</v>
+        <v>114600</v>
       </c>
       <c r="I26" s="3">
-        <v>190900</v>
+        <v>196700</v>
       </c>
       <c r="J26" s="3">
-        <v>170300</v>
+        <v>175500</v>
       </c>
       <c r="K26" s="3">
         <v>166400</v>
@@ -1495,25 +1495,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>182600</v>
+        <v>188200</v>
       </c>
       <c r="E27" s="3">
-        <v>156500</v>
+        <v>161300</v>
       </c>
       <c r="F27" s="3">
-        <v>179900</v>
+        <v>185400</v>
       </c>
       <c r="G27" s="3">
-        <v>137300</v>
+        <v>141500</v>
       </c>
       <c r="H27" s="3">
-        <v>111200</v>
+        <v>114600</v>
       </c>
       <c r="I27" s="3">
-        <v>190900</v>
+        <v>196700</v>
       </c>
       <c r="J27" s="3">
-        <v>170300</v>
+        <v>175500</v>
       </c>
       <c r="K27" s="3">
         <v>166400</v>
@@ -1598,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -1715,16 +1715,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="E32" s="3">
-        <v>-2700</v>
+        <v>-2800</v>
       </c>
       <c r="F32" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="G32" s="3">
-        <v>-5500</v>
+        <v>-5700</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>5500</v>
+        <v>5700</v>
       </c>
       <c r="K32" s="3">
         <v>5300</v>
@@ -1759,25 +1759,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>182600</v>
+        <v>188200</v>
       </c>
       <c r="E33" s="3">
-        <v>156500</v>
+        <v>161300</v>
       </c>
       <c r="F33" s="3">
-        <v>179900</v>
+        <v>185400</v>
       </c>
       <c r="G33" s="3">
-        <v>137300</v>
+        <v>141500</v>
       </c>
       <c r="H33" s="3">
-        <v>111200</v>
+        <v>114600</v>
       </c>
       <c r="I33" s="3">
-        <v>193600</v>
+        <v>199500</v>
       </c>
       <c r="J33" s="3">
-        <v>170300</v>
+        <v>175500</v>
       </c>
       <c r="K33" s="3">
         <v>166400</v>
@@ -1847,25 +1847,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>182600</v>
+        <v>188200</v>
       </c>
       <c r="E35" s="3">
-        <v>156500</v>
+        <v>161300</v>
       </c>
       <c r="F35" s="3">
-        <v>179900</v>
+        <v>185400</v>
       </c>
       <c r="G35" s="3">
-        <v>137300</v>
+        <v>141500</v>
       </c>
       <c r="H35" s="3">
-        <v>111200</v>
+        <v>114600</v>
       </c>
       <c r="I35" s="3">
-        <v>193600</v>
+        <v>199500</v>
       </c>
       <c r="J35" s="3">
-        <v>170300</v>
+        <v>175500</v>
       </c>
       <c r="K35" s="3">
         <v>166400</v>
@@ -1976,25 +1976,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>664600</v>
+        <v>684900</v>
       </c>
       <c r="E41" s="3">
-        <v>372100</v>
+        <v>383500</v>
       </c>
       <c r="F41" s="3">
-        <v>495700</v>
+        <v>510900</v>
       </c>
       <c r="G41" s="3">
-        <v>391400</v>
+        <v>403300</v>
       </c>
       <c r="H41" s="3">
-        <v>390000</v>
+        <v>401900</v>
       </c>
       <c r="I41" s="3">
-        <v>260900</v>
+        <v>268900</v>
       </c>
       <c r="J41" s="3">
-        <v>332300</v>
+        <v>342500</v>
       </c>
       <c r="K41" s="3">
         <v>344700</v>
@@ -2020,10 +2020,10 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>52200</v>
+        <v>53800</v>
       </c>
       <c r="E42" s="3">
-        <v>92000</v>
+        <v>94800</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>5</v>
@@ -2064,25 +2064,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>438000</v>
+        <v>451400</v>
       </c>
       <c r="E43" s="3">
-        <v>457300</v>
+        <v>471200</v>
       </c>
       <c r="F43" s="3">
-        <v>439400</v>
+        <v>452800</v>
       </c>
       <c r="G43" s="3">
-        <v>451800</v>
+        <v>465600</v>
       </c>
       <c r="H43" s="3">
-        <v>479200</v>
+        <v>493900</v>
       </c>
       <c r="I43" s="3">
-        <v>405100</v>
+        <v>417500</v>
       </c>
       <c r="J43" s="3">
-        <v>436700</v>
+        <v>450000</v>
       </c>
       <c r="K43" s="3">
         <v>385700</v>
@@ -2108,25 +2108,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>536900</v>
+        <v>553300</v>
       </c>
       <c r="E44" s="3">
-        <v>626200</v>
+        <v>645300</v>
       </c>
       <c r="F44" s="3">
-        <v>567100</v>
+        <v>584400</v>
       </c>
       <c r="G44" s="3">
-        <v>596000</v>
+        <v>614200</v>
       </c>
       <c r="H44" s="3">
-        <v>572600</v>
+        <v>590100</v>
       </c>
       <c r="I44" s="3">
-        <v>575400</v>
+        <v>592900</v>
       </c>
       <c r="J44" s="3">
-        <v>521800</v>
+        <v>537700</v>
       </c>
       <c r="K44" s="3">
         <v>582500</v>
@@ -2152,25 +2152,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>12400</v>
+        <v>12700</v>
       </c>
       <c r="E45" s="3">
-        <v>6900</v>
+        <v>7100</v>
       </c>
       <c r="F45" s="3">
-        <v>49400</v>
+        <v>50900</v>
       </c>
       <c r="G45" s="3">
-        <v>65900</v>
+        <v>67900</v>
       </c>
       <c r="H45" s="3">
-        <v>52200</v>
+        <v>53800</v>
       </c>
       <c r="I45" s="3">
-        <v>33000</v>
+        <v>34000</v>
       </c>
       <c r="J45" s="3">
-        <v>53600</v>
+        <v>55200</v>
       </c>
       <c r="K45" s="3">
         <v>40900</v>
@@ -2196,25 +2196,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1704100</v>
+        <v>1756200</v>
       </c>
       <c r="E46" s="3">
-        <v>1554500</v>
+        <v>1601900</v>
       </c>
       <c r="F46" s="3">
-        <v>1551700</v>
+        <v>1599100</v>
       </c>
       <c r="G46" s="3">
-        <v>1505000</v>
+        <v>1551000</v>
       </c>
       <c r="H46" s="3">
-        <v>1494000</v>
+        <v>1539600</v>
       </c>
       <c r="I46" s="3">
-        <v>1274300</v>
+        <v>1313200</v>
       </c>
       <c r="J46" s="3">
-        <v>1345700</v>
+        <v>1386800</v>
       </c>
       <c r="K46" s="3">
         <v>1353800</v>
@@ -2240,25 +2240,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>225200</v>
+        <v>232100</v>
       </c>
       <c r="E47" s="3">
-        <v>211500</v>
+        <v>217900</v>
       </c>
       <c r="F47" s="3">
-        <v>219700</v>
+        <v>226400</v>
       </c>
       <c r="G47" s="3">
-        <v>223800</v>
+        <v>230700</v>
       </c>
       <c r="H47" s="3">
-        <v>178500</v>
+        <v>184000</v>
       </c>
       <c r="I47" s="3">
-        <v>171600</v>
+        <v>176900</v>
       </c>
       <c r="J47" s="3">
-        <v>149700</v>
+        <v>154200</v>
       </c>
       <c r="K47" s="3">
         <v>167700</v>
@@ -2284,25 +2284,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1581900</v>
+        <v>1630200</v>
       </c>
       <c r="E48" s="3">
-        <v>1634100</v>
+        <v>1684000</v>
       </c>
       <c r="F48" s="3">
-        <v>1632700</v>
+        <v>1682600</v>
       </c>
       <c r="G48" s="3">
-        <v>1348500</v>
+        <v>1389600</v>
       </c>
       <c r="H48" s="3">
-        <v>1358100</v>
+        <v>1399500</v>
       </c>
       <c r="I48" s="3">
-        <v>1325100</v>
+        <v>1365600</v>
       </c>
       <c r="J48" s="3">
-        <v>1374600</v>
+        <v>1416500</v>
       </c>
       <c r="K48" s="3">
         <v>1401400</v>
@@ -2328,25 +2328,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>450400</v>
+        <v>464200</v>
       </c>
       <c r="E49" s="3">
-        <v>466900</v>
+        <v>481100</v>
       </c>
       <c r="F49" s="3">
-        <v>477900</v>
+        <v>492500</v>
       </c>
       <c r="G49" s="3">
-        <v>469600</v>
+        <v>484000</v>
       </c>
       <c r="H49" s="3">
-        <v>486100</v>
+        <v>500900</v>
       </c>
       <c r="I49" s="3">
-        <v>494300</v>
+        <v>509400</v>
       </c>
       <c r="J49" s="3">
-        <v>523200</v>
+        <v>539200</v>
       </c>
       <c r="K49" s="3">
         <v>529600</v>
@@ -2460,25 +2460,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>57700</v>
+        <v>59400</v>
       </c>
       <c r="E52" s="3">
+        <v>49500</v>
+      </c>
+      <c r="F52" s="3">
         <v>48100</v>
       </c>
-      <c r="F52" s="3">
-        <v>46700</v>
-      </c>
       <c r="G52" s="3">
-        <v>288400</v>
+        <v>297200</v>
       </c>
       <c r="H52" s="3">
-        <v>271900</v>
+        <v>280200</v>
       </c>
       <c r="I52" s="3">
-        <v>265000</v>
+        <v>273100</v>
       </c>
       <c r="J52" s="3">
-        <v>200500</v>
+        <v>206600</v>
       </c>
       <c r="K52" s="3">
         <v>207400</v>
@@ -2548,25 +2548,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4019300</v>
+        <v>4142000</v>
       </c>
       <c r="E54" s="3">
-        <v>3915000</v>
+        <v>4034500</v>
       </c>
       <c r="F54" s="3">
-        <v>3928700</v>
+        <v>4048600</v>
       </c>
       <c r="G54" s="3">
-        <v>3835300</v>
+        <v>3952400</v>
       </c>
       <c r="H54" s="3">
-        <v>3788600</v>
+        <v>3904300</v>
       </c>
       <c r="I54" s="3">
-        <v>3530500</v>
+        <v>3638200</v>
       </c>
       <c r="J54" s="3">
-        <v>3593600</v>
+        <v>3703300</v>
       </c>
       <c r="K54" s="3">
         <v>3659900</v>
@@ -2628,25 +2628,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>457300</v>
+        <v>471200</v>
       </c>
       <c r="E57" s="3">
-        <v>508100</v>
+        <v>523600</v>
       </c>
       <c r="F57" s="3">
-        <v>418800</v>
+        <v>431600</v>
       </c>
       <c r="G57" s="3">
-        <v>469600</v>
+        <v>484000</v>
       </c>
       <c r="H57" s="3">
-        <v>486100</v>
+        <v>500900</v>
       </c>
       <c r="I57" s="3">
-        <v>428400</v>
+        <v>441500</v>
       </c>
       <c r="J57" s="3">
-        <v>433900</v>
+        <v>447200</v>
       </c>
       <c r="K57" s="3">
         <v>416000</v>
@@ -2672,25 +2672,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>57700</v>
+        <v>59400</v>
       </c>
       <c r="E58" s="3">
-        <v>54900</v>
+        <v>56600</v>
       </c>
       <c r="F58" s="3">
-        <v>351500</v>
+        <v>362300</v>
       </c>
       <c r="G58" s="3">
-        <v>307600</v>
+        <v>317000</v>
       </c>
       <c r="H58" s="3">
-        <v>33000</v>
+        <v>34000</v>
       </c>
       <c r="I58" s="3">
-        <v>22000</v>
+        <v>22600</v>
       </c>
       <c r="J58" s="3">
-        <v>38400</v>
+        <v>39600</v>
       </c>
       <c r="K58" s="3">
         <v>116200</v>
@@ -2716,25 +2716,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>112600</v>
+        <v>116000</v>
       </c>
       <c r="E59" s="3">
-        <v>134600</v>
+        <v>138700</v>
       </c>
       <c r="F59" s="3">
-        <v>159300</v>
+        <v>164200</v>
       </c>
       <c r="G59" s="3">
-        <v>157900</v>
+        <v>162700</v>
       </c>
       <c r="H59" s="3">
-        <v>152400</v>
+        <v>157100</v>
       </c>
       <c r="I59" s="3">
-        <v>101600</v>
+        <v>104700</v>
       </c>
       <c r="J59" s="3">
-        <v>109900</v>
+        <v>113200</v>
       </c>
       <c r="K59" s="3">
         <v>110900</v>
@@ -2760,25 +2760,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>627500</v>
+        <v>646700</v>
       </c>
       <c r="E60" s="3">
-        <v>697600</v>
+        <v>718900</v>
       </c>
       <c r="F60" s="3">
-        <v>929600</v>
+        <v>958000</v>
       </c>
       <c r="G60" s="3">
-        <v>935100</v>
+        <v>963700</v>
       </c>
       <c r="H60" s="3">
-        <v>671500</v>
+        <v>692000</v>
       </c>
       <c r="I60" s="3">
-        <v>552000</v>
+        <v>568900</v>
       </c>
       <c r="J60" s="3">
-        <v>582200</v>
+        <v>600000</v>
       </c>
       <c r="K60" s="3">
         <v>643200</v>
@@ -2804,25 +2804,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1098600</v>
+        <v>1132100</v>
       </c>
       <c r="E61" s="3">
-        <v>936500</v>
+        <v>965100</v>
       </c>
       <c r="F61" s="3">
-        <v>738800</v>
+        <v>761300</v>
       </c>
       <c r="G61" s="3">
-        <v>512200</v>
+        <v>527800</v>
       </c>
       <c r="H61" s="3">
-        <v>792300</v>
+        <v>816500</v>
       </c>
       <c r="I61" s="3">
-        <v>760700</v>
+        <v>784000</v>
       </c>
       <c r="J61" s="3">
-        <v>788200</v>
+        <v>812300</v>
       </c>
       <c r="K61" s="3">
         <v>797800</v>
@@ -2848,25 +2848,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>330900</v>
+        <v>341000</v>
       </c>
       <c r="E62" s="3">
-        <v>359800</v>
+        <v>370800</v>
       </c>
       <c r="F62" s="3">
-        <v>368000</v>
+        <v>379200</v>
       </c>
       <c r="G62" s="3">
-        <v>343300</v>
+        <v>353800</v>
       </c>
       <c r="H62" s="3">
-        <v>385900</v>
+        <v>397600</v>
       </c>
       <c r="I62" s="3">
-        <v>340600</v>
+        <v>350900</v>
       </c>
       <c r="J62" s="3">
-        <v>446300</v>
+        <v>459900</v>
       </c>
       <c r="K62" s="3">
         <v>459600</v>
@@ -3024,25 +3024,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2057000</v>
+        <v>2119800</v>
       </c>
       <c r="E66" s="3">
-        <v>1993900</v>
+        <v>2054700</v>
       </c>
       <c r="F66" s="3">
-        <v>2036400</v>
+        <v>2098600</v>
       </c>
       <c r="G66" s="3">
-        <v>1790600</v>
+        <v>1845300</v>
       </c>
       <c r="H66" s="3">
-        <v>1849700</v>
+        <v>1906200</v>
       </c>
       <c r="I66" s="3">
-        <v>1653300</v>
+        <v>1703800</v>
       </c>
       <c r="J66" s="3">
-        <v>1816700</v>
+        <v>1872200</v>
       </c>
       <c r="K66" s="3">
         <v>1900600</v>
@@ -3262,25 +3262,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1242700</v>
+        <v>1280700</v>
       </c>
       <c r="E72" s="3">
-        <v>1202900</v>
+        <v>1239600</v>
       </c>
       <c r="F72" s="3">
-        <v>1174100</v>
+        <v>1209900</v>
       </c>
       <c r="G72" s="3">
-        <v>1326500</v>
+        <v>1367000</v>
       </c>
       <c r="H72" s="3">
-        <v>1220800</v>
+        <v>1258000</v>
       </c>
       <c r="I72" s="3">
-        <v>1159000</v>
+        <v>1194400</v>
       </c>
       <c r="J72" s="3">
-        <v>1058700</v>
+        <v>1091000</v>
       </c>
       <c r="K72" s="3">
         <v>1068500</v>
@@ -3438,25 +3438,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1962300</v>
+        <v>2022200</v>
       </c>
       <c r="E76" s="3">
-        <v>1921100</v>
+        <v>1979700</v>
       </c>
       <c r="F76" s="3">
-        <v>1892300</v>
+        <v>1950000</v>
       </c>
       <c r="G76" s="3">
-        <v>2044700</v>
+        <v>2107100</v>
       </c>
       <c r="H76" s="3">
-        <v>1938900</v>
+        <v>1998100</v>
       </c>
       <c r="I76" s="3">
-        <v>1877200</v>
+        <v>1934500</v>
       </c>
       <c r="J76" s="3">
-        <v>1776900</v>
+        <v>1831200</v>
       </c>
       <c r="K76" s="3">
         <v>1759300</v>
@@ -3575,25 +3575,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>182600</v>
+        <v>188200</v>
       </c>
       <c r="E81" s="3">
-        <v>156500</v>
+        <v>161300</v>
       </c>
       <c r="F81" s="3">
-        <v>179900</v>
+        <v>185400</v>
       </c>
       <c r="G81" s="3">
-        <v>137300</v>
+        <v>141500</v>
       </c>
       <c r="H81" s="3">
-        <v>111200</v>
+        <v>114600</v>
       </c>
       <c r="I81" s="3">
-        <v>193600</v>
+        <v>199500</v>
       </c>
       <c r="J81" s="3">
-        <v>170300</v>
+        <v>175500</v>
       </c>
       <c r="K81" s="3">
         <v>166400</v>
@@ -3637,25 +3637,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>120800</v>
+        <v>124500</v>
       </c>
       <c r="E83" s="3">
-        <v>103000</v>
+        <v>106100</v>
       </c>
       <c r="F83" s="3">
-        <v>133200</v>
+        <v>137300</v>
       </c>
       <c r="G83" s="3">
-        <v>105700</v>
+        <v>109000</v>
       </c>
       <c r="H83" s="3">
-        <v>103000</v>
+        <v>106100</v>
       </c>
       <c r="I83" s="3">
-        <v>107100</v>
+        <v>110400</v>
       </c>
       <c r="J83" s="3">
-        <v>104400</v>
+        <v>107500</v>
       </c>
       <c r="K83" s="3">
         <v>105700</v>
@@ -3901,25 +3901,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>336400</v>
+        <v>346700</v>
       </c>
       <c r="E89" s="3">
-        <v>212800</v>
+        <v>219300</v>
       </c>
       <c r="F89" s="3">
-        <v>315800</v>
+        <v>325500</v>
       </c>
       <c r="G89" s="3">
-        <v>163400</v>
+        <v>168400</v>
       </c>
       <c r="H89" s="3">
-        <v>289700</v>
+        <v>298600</v>
       </c>
       <c r="I89" s="3">
-        <v>105700</v>
+        <v>109000</v>
       </c>
       <c r="J89" s="3">
-        <v>287000</v>
+        <v>295800</v>
       </c>
       <c r="K89" s="3">
         <v>130800</v>
@@ -3963,25 +3963,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-85100</v>
+        <v>-87700</v>
       </c>
       <c r="E91" s="3">
-        <v>83800</v>
+        <v>86300</v>
       </c>
       <c r="F91" s="3">
-        <v>-85100</v>
+        <v>-87700</v>
       </c>
       <c r="G91" s="3">
-        <v>-78300</v>
+        <v>-80700</v>
       </c>
       <c r="H91" s="3">
-        <v>-63200</v>
+        <v>-65100</v>
       </c>
       <c r="I91" s="3">
-        <v>-82400</v>
+        <v>-84900</v>
       </c>
       <c r="J91" s="3">
-        <v>-70000</v>
+        <v>-72200</v>
       </c>
       <c r="K91" s="3">
         <v>-76600</v>
@@ -4095,25 +4095,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-82400</v>
+        <v>-84900</v>
       </c>
       <c r="E94" s="3">
-        <v>-115300</v>
+        <v>-118900</v>
       </c>
       <c r="F94" s="3">
-        <v>-61800</v>
+        <v>-63700</v>
       </c>
       <c r="G94" s="3">
-        <v>-111200</v>
+        <v>-114600</v>
       </c>
       <c r="H94" s="3">
-        <v>-41200</v>
+        <v>-42500</v>
       </c>
       <c r="I94" s="3">
-        <v>-83800</v>
+        <v>-86300</v>
       </c>
       <c r="J94" s="3">
-        <v>-56300</v>
+        <v>-58000</v>
       </c>
       <c r="K94" s="3">
         <v>-87200</v>
@@ -4157,25 +4157,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-133200</v>
+        <v>-137300</v>
       </c>
       <c r="E96" s="3">
-        <v>-54900</v>
+        <v>-56600</v>
       </c>
       <c r="F96" s="3">
-        <v>-133200</v>
+        <v>-137300</v>
       </c>
       <c r="G96" s="3">
-        <v>-54900</v>
+        <v>-56600</v>
       </c>
       <c r="H96" s="3">
-        <v>-129100</v>
+        <v>-133000</v>
       </c>
       <c r="I96" s="3">
-        <v>-53600</v>
+        <v>-55200</v>
       </c>
       <c r="J96" s="3">
-        <v>-126300</v>
+        <v>-130200</v>
       </c>
       <c r="K96" s="3">
         <v>-50200</v>
@@ -4333,25 +4333,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>46700</v>
+        <v>48100</v>
       </c>
       <c r="E100" s="3">
-        <v>-204600</v>
+        <v>-210900</v>
       </c>
       <c r="F100" s="3">
-        <v>-170300</v>
+        <v>-175500</v>
       </c>
       <c r="G100" s="3">
-        <v>-53600</v>
+        <v>-55200</v>
       </c>
       <c r="H100" s="3">
-        <v>-138700</v>
+        <v>-142900</v>
       </c>
       <c r="I100" s="3">
-        <v>-81000</v>
+        <v>-83500</v>
       </c>
       <c r="J100" s="3">
-        <v>-237600</v>
+        <v>-244800</v>
       </c>
       <c r="K100" s="3">
         <v>-93800</v>
@@ -4377,25 +4377,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-8200</v>
+        <v>-8500</v>
       </c>
       <c r="E101" s="3">
-        <v>-16500</v>
+        <v>-17000</v>
       </c>
       <c r="F101" s="3">
-        <v>20600</v>
+        <v>21200</v>
       </c>
       <c r="G101" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="H101" s="3">
-        <v>19200</v>
+        <v>19800</v>
       </c>
       <c r="I101" s="3">
-        <v>-12400</v>
+        <v>-12700</v>
       </c>
       <c r="J101" s="3">
-        <v>-19200</v>
+        <v>-19800</v>
       </c>
       <c r="K101" s="3">
         <v>13200</v>
@@ -4421,25 +4421,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>292500</v>
+        <v>301400</v>
       </c>
       <c r="E102" s="3">
-        <v>-123600</v>
+        <v>-127400</v>
       </c>
       <c r="F102" s="3">
-        <v>104400</v>
+        <v>107500</v>
       </c>
       <c r="G102" s="3">
         <v>1400</v>
       </c>
       <c r="H102" s="3">
-        <v>129100</v>
+        <v>133000</v>
       </c>
       <c r="I102" s="3">
-        <v>-71400</v>
+        <v>-73600</v>
       </c>
       <c r="J102" s="3">
-        <v>-26100</v>
+        <v>-26900</v>
       </c>
       <c r="K102" s="3">
         <v>-37000</v>

--- a/AAII_Financials/Quarterly/TATYY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TATYY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
   <si>
     <t>TATYY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,121 +665,128 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43190</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43008</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42825</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42643</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42460</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42277</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42094</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1965600</v>
+        <v>1933900</v>
       </c>
       <c r="E8" s="3">
-        <v>1989600</v>
+        <v>1894300</v>
       </c>
       <c r="F8" s="3">
-        <v>2088700</v>
+        <v>1917500</v>
       </c>
       <c r="G8" s="3">
-        <v>1941500</v>
+        <v>2013000</v>
       </c>
       <c r="H8" s="3">
-        <v>1957100</v>
+        <v>1871100</v>
       </c>
       <c r="I8" s="3">
-        <v>1856600</v>
+        <v>1886100</v>
       </c>
       <c r="J8" s="3">
+        <v>1789300</v>
+      </c>
+      <c r="K8" s="3">
         <v>1978300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1891400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1626900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1545600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1526000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1502500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1580100</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -822,8 +829,11 @@
       <c r="P9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -866,8 +876,11 @@
       <c r="P10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -884,8 +897,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -928,8 +942,11 @@
       <c r="P12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -972,31 +989,34 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>32700</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>24500</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1004,8 +1024,8 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>5</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>5</v>
@@ -1016,31 +1036,34 @@
       <c r="P14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>0</v>
+      <c r="D15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+        <v>6800</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1048,8 +1071,8 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>5</v>
+      <c r="M15" s="3">
+        <v>0</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>5</v>
@@ -1060,8 +1083,11 @@
       <c r="P15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1075,96 +1101,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1740600</v>
+        <v>1759300</v>
       </c>
       <c r="E17" s="3">
-        <v>1805700</v>
+        <v>1677500</v>
       </c>
       <c r="F17" s="3">
-        <v>1853800</v>
+        <v>1740200</v>
       </c>
       <c r="G17" s="3">
-        <v>1767500</v>
+        <v>1786600</v>
       </c>
       <c r="H17" s="3">
-        <v>1797200</v>
+        <v>1703400</v>
       </c>
       <c r="I17" s="3">
-        <v>1679700</v>
+        <v>1732000</v>
       </c>
       <c r="J17" s="3">
+        <v>1618800</v>
+      </c>
+      <c r="K17" s="3">
         <v>1744800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1747400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1474200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1472600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1433400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1548500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1490600</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>225000</v>
+        <v>174600</v>
       </c>
       <c r="E18" s="3">
-        <v>184000</v>
+        <v>216800</v>
       </c>
       <c r="F18" s="3">
-        <v>234900</v>
+        <v>177300</v>
       </c>
       <c r="G18" s="3">
-        <v>174100</v>
+        <v>226400</v>
       </c>
       <c r="H18" s="3">
-        <v>159900</v>
+        <v>167700</v>
       </c>
       <c r="I18" s="3">
-        <v>176900</v>
+        <v>154100</v>
       </c>
       <c r="J18" s="3">
+        <v>170500</v>
+      </c>
+      <c r="K18" s="3">
         <v>233500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>144000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>152700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>73000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>92600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-46100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>89500</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1181,96 +1214,103 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2800</v>
+        <v>-2700</v>
       </c>
       <c r="E20" s="3">
-        <v>2800</v>
+        <v>-2700</v>
       </c>
       <c r="F20" s="3">
-        <v>-2800</v>
+        <v>2700</v>
       </c>
       <c r="G20" s="3">
-        <v>5700</v>
+        <v>-2700</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>5500</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-5700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-5300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>4900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>17000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>11700</v>
-      </c>
-      <c r="O20" s="3">
-        <v>10500</v>
       </c>
       <c r="P20" s="3">
         <v>10500</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>346700</v>
+        <v>290500</v>
       </c>
       <c r="E21" s="3">
-        <v>292900</v>
+        <v>334100</v>
       </c>
       <c r="F21" s="3">
-        <v>369300</v>
+        <v>282300</v>
       </c>
       <c r="G21" s="3">
-        <v>288700</v>
+        <v>355900</v>
       </c>
       <c r="H21" s="3">
-        <v>266000</v>
+        <v>278200</v>
       </c>
       <c r="I21" s="3">
-        <v>287300</v>
+        <v>256400</v>
       </c>
       <c r="J21" s="3">
+        <v>276800</v>
+      </c>
+      <c r="K21" s="3">
         <v>335400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>244300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>242600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>168300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>176100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>40800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>167200</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1301,108 +1341,117 @@
       <c r="L22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="3">
         <v>17000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>13000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>14500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>17100</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>222200</v>
+        <v>171800</v>
       </c>
       <c r="E23" s="3">
-        <v>186800</v>
+        <v>214100</v>
       </c>
       <c r="F23" s="3">
-        <v>232100</v>
+        <v>180000</v>
       </c>
       <c r="G23" s="3">
-        <v>179700</v>
+        <v>223700</v>
       </c>
       <c r="H23" s="3">
-        <v>159900</v>
+        <v>173200</v>
       </c>
       <c r="I23" s="3">
-        <v>176900</v>
+        <v>154100</v>
       </c>
       <c r="J23" s="3">
+        <v>170500</v>
+      </c>
+      <c r="K23" s="3">
         <v>227800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>138700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>157600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>73000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>91300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-50000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>83000</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>34000</v>
+        <v>8200</v>
       </c>
       <c r="E24" s="3">
-        <v>25500</v>
+        <v>32700</v>
       </c>
       <c r="F24" s="3">
-        <v>46700</v>
+        <v>24500</v>
       </c>
       <c r="G24" s="3">
-        <v>38200</v>
+        <v>45000</v>
       </c>
       <c r="H24" s="3">
-        <v>45300</v>
+        <v>36800</v>
       </c>
       <c r="I24" s="3">
-        <v>-19800</v>
+        <v>43600</v>
       </c>
       <c r="J24" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="K24" s="3">
         <v>52400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-27700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-1200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>3900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>13200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>14500</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1445,96 +1494,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>188200</v>
+        <v>163700</v>
       </c>
       <c r="E26" s="3">
-        <v>161300</v>
+        <v>181400</v>
       </c>
       <c r="F26" s="3">
-        <v>185400</v>
+        <v>155500</v>
       </c>
       <c r="G26" s="3">
-        <v>141500</v>
+        <v>178700</v>
       </c>
       <c r="H26" s="3">
-        <v>114600</v>
+        <v>136400</v>
       </c>
       <c r="I26" s="3">
-        <v>196700</v>
+        <v>110500</v>
       </c>
       <c r="J26" s="3">
+        <v>189600</v>
+      </c>
+      <c r="K26" s="3">
         <v>175500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>166400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>158900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>70400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>87400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-63200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>68500</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>188200</v>
+        <v>163700</v>
       </c>
       <c r="E27" s="3">
-        <v>161300</v>
+        <v>181400</v>
       </c>
       <c r="F27" s="3">
-        <v>185400</v>
+        <v>155500</v>
       </c>
       <c r="G27" s="3">
-        <v>141500</v>
+        <v>178700</v>
       </c>
       <c r="H27" s="3">
-        <v>114600</v>
+        <v>136400</v>
       </c>
       <c r="I27" s="3">
-        <v>196700</v>
+        <v>110500</v>
       </c>
       <c r="J27" s="3">
+        <v>189600</v>
+      </c>
+      <c r="K27" s="3">
         <v>175500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>166400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>158900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>70400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>87400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-63200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>68500</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1577,52 +1635,58 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>2800</v>
+        <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>1200</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>78300</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-23500</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>13200</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1665,8 +1729,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1709,96 +1776,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="E32" s="3">
-        <v>-2800</v>
+        <v>2700</v>
       </c>
       <c r="F32" s="3">
-        <v>2800</v>
+        <v>-2700</v>
       </c>
       <c r="G32" s="3">
-        <v>-5700</v>
+        <v>2700</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>-5500</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>5700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>5300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-4900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-17000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-11700</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-10500</v>
       </c>
       <c r="P32" s="3">
         <v>-10500</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>-10500</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>188200</v>
+        <v>163700</v>
       </c>
       <c r="E33" s="3">
-        <v>161300</v>
+        <v>181400</v>
       </c>
       <c r="F33" s="3">
-        <v>185400</v>
+        <v>155500</v>
       </c>
       <c r="G33" s="3">
-        <v>141500</v>
+        <v>178700</v>
       </c>
       <c r="H33" s="3">
-        <v>114600</v>
+        <v>136400</v>
       </c>
       <c r="I33" s="3">
-        <v>199500</v>
+        <v>110500</v>
       </c>
       <c r="J33" s="3">
+        <v>192300</v>
+      </c>
+      <c r="K33" s="3">
         <v>175500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>166400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>160100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>148700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>63900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-50000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>89500</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1841,101 +1917,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>188200</v>
+        <v>163700</v>
       </c>
       <c r="E35" s="3">
-        <v>161300</v>
+        <v>181400</v>
       </c>
       <c r="F35" s="3">
-        <v>185400</v>
+        <v>155500</v>
       </c>
       <c r="G35" s="3">
-        <v>141500</v>
+        <v>178700</v>
       </c>
       <c r="H35" s="3">
-        <v>114600</v>
+        <v>136400</v>
       </c>
       <c r="I35" s="3">
-        <v>199500</v>
+        <v>110500</v>
       </c>
       <c r="J35" s="3">
+        <v>192300</v>
+      </c>
+      <c r="K35" s="3">
         <v>175500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>166400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>160100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>148700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>63900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-50000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>89500</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43190</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43008</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42825</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42643</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42460</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42277</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42094</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1952,8 +2037,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1970,404 +2056,432 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>684900</v>
+        <v>506000</v>
       </c>
       <c r="E41" s="3">
-        <v>383500</v>
+        <v>660100</v>
       </c>
       <c r="F41" s="3">
-        <v>510900</v>
+        <v>369600</v>
       </c>
       <c r="G41" s="3">
-        <v>403300</v>
+        <v>492300</v>
       </c>
       <c r="H41" s="3">
-        <v>401900</v>
+        <v>388700</v>
       </c>
       <c r="I41" s="3">
-        <v>268900</v>
+        <v>387300</v>
       </c>
       <c r="J41" s="3">
+        <v>259100</v>
+      </c>
+      <c r="K41" s="3">
         <v>342500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>344700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>355900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>413500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>305200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>256800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>425300</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>53800</v>
+        <v>43600</v>
       </c>
       <c r="E42" s="3">
-        <v>94800</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>5</v>
+        <v>51800</v>
+      </c>
+      <c r="F42" s="3">
+        <v>91400</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J42" s="3">
+      <c r="H42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K42" s="3">
         <v>1400</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
       <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
         <v>4900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>5200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>7800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>23700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>451400</v>
+        <v>469100</v>
       </c>
       <c r="E43" s="3">
-        <v>471200</v>
+        <v>435000</v>
       </c>
       <c r="F43" s="3">
-        <v>452800</v>
+        <v>454100</v>
       </c>
       <c r="G43" s="3">
-        <v>465600</v>
+        <v>436400</v>
       </c>
       <c r="H43" s="3">
-        <v>493900</v>
+        <v>448700</v>
       </c>
       <c r="I43" s="3">
-        <v>417500</v>
+        <v>476000</v>
       </c>
       <c r="J43" s="3">
+        <v>402300</v>
+      </c>
+      <c r="K43" s="3">
         <v>450000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>385700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>374400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>396500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>363900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>384500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>495100</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>553300</v>
+        <v>725500</v>
       </c>
       <c r="E44" s="3">
-        <v>645300</v>
+        <v>533200</v>
       </c>
       <c r="F44" s="3">
-        <v>584400</v>
+        <v>621900</v>
       </c>
       <c r="G44" s="3">
-        <v>614200</v>
+        <v>563200</v>
       </c>
       <c r="H44" s="3">
-        <v>590100</v>
+        <v>591900</v>
       </c>
       <c r="I44" s="3">
-        <v>592900</v>
+        <v>568700</v>
       </c>
       <c r="J44" s="3">
+        <v>571400</v>
+      </c>
+      <c r="K44" s="3">
         <v>537700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>582500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>449500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>507400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>443500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>478000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>331800</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>12700</v>
+        <v>31400</v>
       </c>
       <c r="E45" s="3">
-        <v>7100</v>
+        <v>12300</v>
       </c>
       <c r="F45" s="3">
-        <v>50900</v>
+        <v>6800</v>
       </c>
       <c r="G45" s="3">
-        <v>67900</v>
+        <v>49100</v>
       </c>
       <c r="H45" s="3">
-        <v>53800</v>
+        <v>65500</v>
       </c>
       <c r="I45" s="3">
-        <v>34000</v>
+        <v>51800</v>
       </c>
       <c r="J45" s="3">
+        <v>32700</v>
+      </c>
+      <c r="K45" s="3">
         <v>55200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>40900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>71400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>65200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>348300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>81600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>143500</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1756200</v>
+        <v>1775700</v>
       </c>
       <c r="E46" s="3">
-        <v>1601900</v>
+        <v>1692500</v>
       </c>
       <c r="F46" s="3">
-        <v>1599100</v>
+        <v>1543800</v>
       </c>
       <c r="G46" s="3">
-        <v>1551000</v>
+        <v>1541100</v>
       </c>
       <c r="H46" s="3">
-        <v>1539600</v>
+        <v>1494700</v>
       </c>
       <c r="I46" s="3">
-        <v>1313200</v>
+        <v>1483800</v>
       </c>
       <c r="J46" s="3">
+        <v>1265600</v>
+      </c>
+      <c r="K46" s="3">
         <v>1386800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1353800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1256200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1387800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1468700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1224600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1398400</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>232100</v>
+        <v>223700</v>
       </c>
       <c r="E47" s="3">
-        <v>217900</v>
+        <v>223700</v>
       </c>
       <c r="F47" s="3">
-        <v>226400</v>
+        <v>210000</v>
       </c>
       <c r="G47" s="3">
-        <v>230700</v>
+        <v>218200</v>
       </c>
       <c r="H47" s="3">
-        <v>184000</v>
+        <v>222300</v>
       </c>
       <c r="I47" s="3">
-        <v>176900</v>
+        <v>177300</v>
       </c>
       <c r="J47" s="3">
+        <v>170500</v>
+      </c>
+      <c r="K47" s="3">
         <v>154200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>167700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>136700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>137000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>180000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>453000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>476700</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1630200</v>
+        <v>1507000</v>
       </c>
       <c r="E48" s="3">
-        <v>1684000</v>
+        <v>1571100</v>
       </c>
       <c r="F48" s="3">
-        <v>1682600</v>
+        <v>1622900</v>
       </c>
       <c r="G48" s="3">
-        <v>1389600</v>
+        <v>1621500</v>
       </c>
       <c r="H48" s="3">
-        <v>1399500</v>
+        <v>1339200</v>
       </c>
       <c r="I48" s="3">
-        <v>1365600</v>
+        <v>1348800</v>
       </c>
       <c r="J48" s="3">
+        <v>1316100</v>
+      </c>
+      <c r="K48" s="3">
         <v>1416500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1401400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1272200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1207800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1006900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>987600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>995500</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>464200</v>
+        <v>482800</v>
       </c>
       <c r="E49" s="3">
-        <v>481100</v>
+        <v>447300</v>
       </c>
       <c r="F49" s="3">
-        <v>492500</v>
+        <v>463700</v>
       </c>
       <c r="G49" s="3">
-        <v>484000</v>
+        <v>474600</v>
       </c>
       <c r="H49" s="3">
-        <v>500900</v>
+        <v>466400</v>
       </c>
       <c r="I49" s="3">
-        <v>509400</v>
+        <v>482800</v>
       </c>
       <c r="J49" s="3">
+        <v>491000</v>
+      </c>
+      <c r="K49" s="3">
         <v>539200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>529600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>511100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>508700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>403000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>447700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>418700</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2410,8 +2524,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2454,52 +2571,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>59400</v>
+        <v>69600</v>
       </c>
       <c r="E52" s="3">
-        <v>49500</v>
+        <v>57300</v>
       </c>
       <c r="F52" s="3">
-        <v>48100</v>
+        <v>47700</v>
       </c>
       <c r="G52" s="3">
-        <v>297200</v>
+        <v>46400</v>
       </c>
       <c r="H52" s="3">
-        <v>280200</v>
+        <v>286400</v>
       </c>
       <c r="I52" s="3">
-        <v>273100</v>
+        <v>270000</v>
       </c>
       <c r="J52" s="3">
+        <v>263200</v>
+      </c>
+      <c r="K52" s="3">
         <v>206600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>207400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>67700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>90000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>114800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>77700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>39500</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2542,52 +2665,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4142000</v>
+        <v>4058600</v>
       </c>
       <c r="E54" s="3">
-        <v>4034500</v>
+        <v>3991800</v>
       </c>
       <c r="F54" s="3">
-        <v>4048600</v>
+        <v>3888200</v>
       </c>
       <c r="G54" s="3">
-        <v>3952400</v>
+        <v>3901800</v>
       </c>
       <c r="H54" s="3">
-        <v>3904300</v>
+        <v>3809100</v>
       </c>
       <c r="I54" s="3">
-        <v>3638200</v>
+        <v>3762700</v>
       </c>
       <c r="J54" s="3">
+        <v>3506300</v>
+      </c>
+      <c r="K54" s="3">
         <v>3703300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3659900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3244000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3331200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3173400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3190600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3328800</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2604,8 +2733,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2622,272 +2752,291 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>471200</v>
+        <v>587800</v>
       </c>
       <c r="E57" s="3">
-        <v>523600</v>
+        <v>454100</v>
       </c>
       <c r="F57" s="3">
-        <v>431600</v>
+        <v>504600</v>
       </c>
       <c r="G57" s="3">
-        <v>484000</v>
+        <v>416000</v>
       </c>
       <c r="H57" s="3">
-        <v>500900</v>
+        <v>466400</v>
       </c>
       <c r="I57" s="3">
-        <v>441500</v>
+        <v>482800</v>
       </c>
       <c r="J57" s="3">
+        <v>425500</v>
+      </c>
+      <c r="K57" s="3">
         <v>447200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>416000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>397800</v>
-      </c>
-      <c r="M57" s="3">
-        <v>439600</v>
       </c>
       <c r="N57" s="3">
         <v>439600</v>
       </c>
       <c r="O57" s="3">
+        <v>439600</v>
+      </c>
+      <c r="P57" s="3">
         <v>416100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>425300</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>59400</v>
+        <v>57300</v>
       </c>
       <c r="E58" s="3">
-        <v>56600</v>
+        <v>57300</v>
       </c>
       <c r="F58" s="3">
-        <v>362300</v>
+        <v>54600</v>
       </c>
       <c r="G58" s="3">
-        <v>317000</v>
+        <v>349100</v>
       </c>
       <c r="H58" s="3">
-        <v>34000</v>
+        <v>305500</v>
       </c>
       <c r="I58" s="3">
-        <v>22600</v>
+        <v>32700</v>
       </c>
       <c r="J58" s="3">
+        <v>21800</v>
+      </c>
+      <c r="K58" s="3">
         <v>39600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>116200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>129300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>260900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>644300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>401600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>468800</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>116000</v>
+        <v>114600</v>
       </c>
       <c r="E59" s="3">
-        <v>138700</v>
+        <v>111800</v>
       </c>
       <c r="F59" s="3">
-        <v>164200</v>
+        <v>133700</v>
       </c>
       <c r="G59" s="3">
-        <v>162700</v>
+        <v>158200</v>
       </c>
       <c r="H59" s="3">
-        <v>157100</v>
+        <v>156800</v>
       </c>
       <c r="I59" s="3">
-        <v>104700</v>
+        <v>151400</v>
       </c>
       <c r="J59" s="3">
+        <v>100900</v>
+      </c>
+      <c r="K59" s="3">
         <v>113200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>110900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>150300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>147400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>159100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>109300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>142200</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>646700</v>
+        <v>759600</v>
       </c>
       <c r="E60" s="3">
-        <v>718900</v>
+        <v>623300</v>
       </c>
       <c r="F60" s="3">
-        <v>958000</v>
+        <v>692800</v>
       </c>
       <c r="G60" s="3">
-        <v>963700</v>
+        <v>923300</v>
       </c>
       <c r="H60" s="3">
-        <v>692000</v>
+        <v>928700</v>
       </c>
       <c r="I60" s="3">
-        <v>568900</v>
+        <v>666900</v>
       </c>
       <c r="J60" s="3">
+        <v>548200</v>
+      </c>
+      <c r="K60" s="3">
         <v>600000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>643200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>677400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>847800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1243000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>927000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1036300</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1132100</v>
+        <v>1017400</v>
       </c>
       <c r="E61" s="3">
-        <v>965100</v>
+        <v>1091000</v>
       </c>
       <c r="F61" s="3">
-        <v>761300</v>
+        <v>930100</v>
       </c>
       <c r="G61" s="3">
-        <v>527800</v>
+        <v>733700</v>
       </c>
       <c r="H61" s="3">
-        <v>816500</v>
+        <v>508700</v>
       </c>
       <c r="I61" s="3">
-        <v>784000</v>
+        <v>786900</v>
       </c>
       <c r="J61" s="3">
+        <v>755500</v>
+      </c>
+      <c r="K61" s="3">
         <v>812300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>797800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>731600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>725200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>371700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>609700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>579400</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>341000</v>
+        <v>290500</v>
       </c>
       <c r="E62" s="3">
-        <v>370800</v>
+        <v>328700</v>
       </c>
       <c r="F62" s="3">
-        <v>379200</v>
+        <v>357300</v>
       </c>
       <c r="G62" s="3">
-        <v>353800</v>
+        <v>365500</v>
       </c>
       <c r="H62" s="3">
-        <v>397600</v>
+        <v>340900</v>
       </c>
       <c r="I62" s="3">
-        <v>350900</v>
+        <v>383200</v>
       </c>
       <c r="J62" s="3">
+        <v>338200</v>
+      </c>
+      <c r="K62" s="3">
         <v>459900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>459600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>456900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>416100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>400400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>421400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>337100</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2930,8 +3079,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2974,8 +3126,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3018,52 +3173,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2119800</v>
+        <v>2068900</v>
       </c>
       <c r="E66" s="3">
-        <v>2054700</v>
+        <v>2043000</v>
       </c>
       <c r="F66" s="3">
-        <v>2098600</v>
+        <v>1980200</v>
       </c>
       <c r="G66" s="3">
-        <v>1845300</v>
+        <v>2022500</v>
       </c>
       <c r="H66" s="3">
-        <v>1906200</v>
+        <v>1778400</v>
       </c>
       <c r="I66" s="3">
-        <v>1703800</v>
+        <v>1837000</v>
       </c>
       <c r="J66" s="3">
+        <v>1642000</v>
+      </c>
+      <c r="K66" s="3">
         <v>1872200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1900600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1865900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1990400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2016500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1959400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1954100</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3080,8 +3241,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3124,8 +3286,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3168,8 +3333,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3212,8 +3380,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3256,52 +3427,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1280700</v>
+        <v>1275100</v>
       </c>
       <c r="E72" s="3">
-        <v>1239600</v>
+        <v>1234200</v>
       </c>
       <c r="F72" s="3">
-        <v>1209900</v>
+        <v>1194700</v>
       </c>
       <c r="G72" s="3">
-        <v>1367000</v>
+        <v>1166000</v>
       </c>
       <c r="H72" s="3">
-        <v>1258000</v>
+        <v>1317400</v>
       </c>
       <c r="I72" s="3">
-        <v>1194400</v>
+        <v>1212400</v>
       </c>
       <c r="J72" s="3">
+        <v>1151000</v>
+      </c>
+      <c r="K72" s="3">
         <v>1091000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1068500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>734000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>658700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>474800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>542500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>686000</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3344,8 +3521,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3388,8 +3568,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3432,52 +3615,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2022200</v>
+        <v>1989800</v>
       </c>
       <c r="E76" s="3">
-        <v>1979700</v>
+        <v>1948900</v>
       </c>
       <c r="F76" s="3">
-        <v>1950000</v>
+        <v>1907900</v>
       </c>
       <c r="G76" s="3">
-        <v>2107100</v>
+        <v>1879300</v>
       </c>
       <c r="H76" s="3">
-        <v>1998100</v>
+        <v>2030700</v>
       </c>
       <c r="I76" s="3">
-        <v>1934500</v>
+        <v>1925700</v>
       </c>
       <c r="J76" s="3">
+        <v>1864300</v>
+      </c>
+      <c r="K76" s="3">
         <v>1831200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1759300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1378200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1340800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1156900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1231200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1374700</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3520,101 +3709,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43190</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43008</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42825</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42643</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42460</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42277</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42094</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>188200</v>
+        <v>163700</v>
       </c>
       <c r="E81" s="3">
-        <v>161300</v>
+        <v>181400</v>
       </c>
       <c r="F81" s="3">
-        <v>185400</v>
+        <v>155500</v>
       </c>
       <c r="G81" s="3">
-        <v>141500</v>
+        <v>178700</v>
       </c>
       <c r="H81" s="3">
-        <v>114600</v>
+        <v>136400</v>
       </c>
       <c r="I81" s="3">
-        <v>199500</v>
+        <v>110500</v>
       </c>
       <c r="J81" s="3">
+        <v>192300</v>
+      </c>
+      <c r="K81" s="3">
         <v>175500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>166400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>160100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>148700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>63900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-50000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>89500</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3631,52 +3829,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>124500</v>
+        <v>118600</v>
       </c>
       <c r="E83" s="3">
-        <v>106100</v>
+        <v>120000</v>
       </c>
       <c r="F83" s="3">
-        <v>137300</v>
+        <v>102300</v>
       </c>
       <c r="G83" s="3">
-        <v>109000</v>
+        <v>132300</v>
       </c>
       <c r="H83" s="3">
-        <v>106100</v>
+        <v>105000</v>
       </c>
       <c r="I83" s="3">
-        <v>110400</v>
+        <v>102300</v>
       </c>
       <c r="J83" s="3">
+        <v>106400</v>
+      </c>
+      <c r="K83" s="3">
         <v>107500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>105700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>85000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>78300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>71700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>76400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>67200</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3719,8 +3921,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3763,8 +3968,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3807,8 +4015,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3851,8 +4062,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3895,52 +4109,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>346700</v>
+        <v>169100</v>
       </c>
       <c r="E89" s="3">
-        <v>219300</v>
+        <v>334100</v>
       </c>
       <c r="F89" s="3">
-        <v>325500</v>
+        <v>211400</v>
       </c>
       <c r="G89" s="3">
-        <v>168400</v>
+        <v>313700</v>
       </c>
       <c r="H89" s="3">
-        <v>298600</v>
+        <v>162300</v>
       </c>
       <c r="I89" s="3">
-        <v>109000</v>
+        <v>287800</v>
       </c>
       <c r="J89" s="3">
+        <v>105000</v>
+      </c>
+      <c r="K89" s="3">
         <v>295800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>130800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>245100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>19600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>225600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>72400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>163300</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3957,52 +4177,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-87700</v>
+        <v>-98200</v>
       </c>
       <c r="E91" s="3">
-        <v>86300</v>
+        <v>-84600</v>
       </c>
       <c r="F91" s="3">
-        <v>-87700</v>
+        <v>83200</v>
       </c>
       <c r="G91" s="3">
-        <v>-80700</v>
+        <v>-84600</v>
       </c>
       <c r="H91" s="3">
-        <v>-65100</v>
+        <v>-77700</v>
       </c>
       <c r="I91" s="3">
-        <v>-84900</v>
+        <v>-62700</v>
       </c>
       <c r="J91" s="3">
+        <v>-81800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-72200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-76600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-85000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-133000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-100400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-216000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-192300</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4045,8 +4269,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4089,52 +4316,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-84900</v>
+        <v>-197700</v>
       </c>
       <c r="E94" s="3">
-        <v>-118900</v>
+        <v>-81800</v>
       </c>
       <c r="F94" s="3">
-        <v>-63700</v>
+        <v>-114600</v>
       </c>
       <c r="G94" s="3">
-        <v>-114600</v>
+        <v>-61400</v>
       </c>
       <c r="H94" s="3">
-        <v>-42500</v>
+        <v>-110500</v>
       </c>
       <c r="I94" s="3">
-        <v>-86300</v>
+        <v>-40900</v>
       </c>
       <c r="J94" s="3">
+        <v>-83200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-58000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-87200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-59100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>183900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-71700</v>
-      </c>
-      <c r="O94" s="3">
-        <v>-108000</v>
       </c>
       <c r="P94" s="3">
         <v>-108000</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>-108000</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4151,52 +4384,56 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-137300</v>
+        <v>-54600</v>
       </c>
       <c r="E96" s="3">
-        <v>-56600</v>
+        <v>-132300</v>
       </c>
       <c r="F96" s="3">
-        <v>-137300</v>
+        <v>-54600</v>
       </c>
       <c r="G96" s="3">
-        <v>-56600</v>
+        <v>-132300</v>
       </c>
       <c r="H96" s="3">
-        <v>-133000</v>
+        <v>-54600</v>
       </c>
       <c r="I96" s="3">
-        <v>-55200</v>
+        <v>-128200</v>
       </c>
       <c r="J96" s="3">
+        <v>-53200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-130200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-50200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-113300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-49600</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-120000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-50000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-121100</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4239,8 +4476,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4283,8 +4523,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4327,136 +4570,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>48100</v>
+        <v>-85900</v>
       </c>
       <c r="E100" s="3">
-        <v>-210900</v>
+        <v>46400</v>
       </c>
       <c r="F100" s="3">
-        <v>-175500</v>
+        <v>-203200</v>
       </c>
       <c r="G100" s="3">
-        <v>-55200</v>
+        <v>-169100</v>
       </c>
       <c r="H100" s="3">
-        <v>-142900</v>
+        <v>-53200</v>
       </c>
       <c r="I100" s="3">
-        <v>-83500</v>
+        <v>-137700</v>
       </c>
       <c r="J100" s="3">
+        <v>-80500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-244800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-93800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-247600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-116100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-100400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-151400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-92200</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-8500</v>
+        <v>-39500</v>
       </c>
       <c r="E101" s="3">
-        <v>-17000</v>
+        <v>-8200</v>
       </c>
       <c r="F101" s="3">
-        <v>21200</v>
+        <v>-16400</v>
       </c>
       <c r="G101" s="3">
-        <v>2800</v>
+        <v>20500</v>
       </c>
       <c r="H101" s="3">
-        <v>19800</v>
+        <v>2700</v>
       </c>
       <c r="I101" s="3">
-        <v>-12700</v>
+        <v>19100</v>
       </c>
       <c r="J101" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="K101" s="3">
         <v>-19800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>13200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>27100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>20900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-2600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>18400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>301400</v>
+        <v>-154100</v>
       </c>
       <c r="E102" s="3">
-        <v>-127400</v>
+        <v>290500</v>
       </c>
       <c r="F102" s="3">
-        <v>107500</v>
+        <v>-122700</v>
       </c>
       <c r="G102" s="3">
+        <v>103600</v>
+      </c>
+      <c r="H102" s="3">
         <v>1400</v>
       </c>
-      <c r="H102" s="3">
-        <v>133000</v>
-      </c>
       <c r="I102" s="3">
-        <v>-73600</v>
+        <v>128200</v>
       </c>
       <c r="J102" s="3">
+        <v>-70900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-26900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-37000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-34500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>108300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>50900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-168500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-30300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TATYY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TATYY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
   <si>
     <t>TATYY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,128 +665,135 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43008</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42825</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42643</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42460</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42277</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42094</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1933900</v>
+        <v>873200</v>
       </c>
       <c r="E8" s="3">
-        <v>1894300</v>
+        <v>824000</v>
       </c>
       <c r="F8" s="3">
-        <v>1917500</v>
+        <v>788000</v>
       </c>
       <c r="G8" s="3">
-        <v>2013000</v>
+        <v>1871500</v>
       </c>
       <c r="H8" s="3">
-        <v>1871100</v>
+        <v>1964700</v>
       </c>
       <c r="I8" s="3">
-        <v>1886100</v>
+        <v>1826300</v>
       </c>
       <c r="J8" s="3">
+        <v>1840900</v>
+      </c>
+      <c r="K8" s="3">
         <v>1789300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1978300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1891400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1626900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1545600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1526000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1502500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1580100</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -832,8 +839,11 @@
       <c r="Q9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -879,8 +889,11 @@
       <c r="Q10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -898,8 +911,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -945,8 +959,11 @@
       <c r="Q12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -992,19 +1009,22 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>32700</v>
+        <v>78500</v>
       </c>
       <c r="E14" s="3">
-        <v>24500</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>5</v>
+        <v>25300</v>
+      </c>
+      <c r="F14" s="3">
+        <v>20000</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>5</v>
@@ -1018,8 +1038,8 @@
       <c r="J14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1027,8 +1047,8 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>5</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>5</v>
@@ -1039,19 +1059,22 @@
       <c r="Q14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>5</v>
+      <c r="D15" s="3">
+        <v>6700</v>
       </c>
       <c r="E15" s="3">
-        <v>6800</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>5</v>
+        <v>6700</v>
+      </c>
+      <c r="F15" s="3">
+        <v>6700</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>5</v>
@@ -1065,8 +1088,8 @@
       <c r="J15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -1074,8 +1097,8 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>5</v>
+      <c r="N15" s="3">
+        <v>0</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>5</v>
@@ -1086,8 +1109,11 @@
       <c r="Q15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1102,102 +1128,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1759300</v>
+        <v>829300</v>
       </c>
       <c r="E17" s="3">
-        <v>1677500</v>
+        <v>764100</v>
       </c>
       <c r="F17" s="3">
-        <v>1740200</v>
+        <v>693500</v>
       </c>
       <c r="G17" s="3">
-        <v>1786600</v>
+        <v>1698500</v>
       </c>
       <c r="H17" s="3">
-        <v>1703400</v>
+        <v>1743700</v>
       </c>
       <c r="I17" s="3">
-        <v>1732000</v>
+        <v>1662500</v>
       </c>
       <c r="J17" s="3">
+        <v>1690500</v>
+      </c>
+      <c r="K17" s="3">
         <v>1618800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1744800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1747400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1474200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1472600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1433400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1548500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1490600</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>174600</v>
+        <v>43900</v>
       </c>
       <c r="E18" s="3">
-        <v>216800</v>
+        <v>59900</v>
       </c>
       <c r="F18" s="3">
-        <v>177300</v>
+        <v>94500</v>
       </c>
       <c r="G18" s="3">
-        <v>226400</v>
+        <v>173000</v>
       </c>
       <c r="H18" s="3">
-        <v>167700</v>
+        <v>221000</v>
       </c>
       <c r="I18" s="3">
-        <v>154100</v>
+        <v>163700</v>
       </c>
       <c r="J18" s="3">
+        <v>150400</v>
+      </c>
+      <c r="K18" s="3">
         <v>170500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>233500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>144000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>152700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>73000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>92600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-46100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>89500</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1215,102 +1248,109 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="G20" s="3">
+        <v>2700</v>
+      </c>
+      <c r="H20" s="3">
         <v>-2700</v>
       </c>
-      <c r="E20" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="F20" s="3">
-        <v>2700</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="H20" s="3">
-        <v>5500</v>
-      </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>5300</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-5700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-5300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>4900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>17000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>11700</v>
-      </c>
-      <c r="P20" s="3">
-        <v>10500</v>
       </c>
       <c r="Q20" s="3">
         <v>10500</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>290500</v>
+        <v>109200</v>
       </c>
       <c r="E21" s="3">
-        <v>334100</v>
+        <v>158400</v>
       </c>
       <c r="F21" s="3">
-        <v>282300</v>
+        <v>194300</v>
       </c>
       <c r="G21" s="3">
-        <v>355900</v>
+        <v>275500</v>
       </c>
       <c r="H21" s="3">
-        <v>278200</v>
+        <v>347400</v>
       </c>
       <c r="I21" s="3">
-        <v>256400</v>
+        <v>271500</v>
       </c>
       <c r="J21" s="3">
+        <v>250200</v>
+      </c>
+      <c r="K21" s="3">
         <v>276800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>335400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>244300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>242600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>168300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>176100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>40800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>167200</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1344,114 +1384,123 @@
       <c r="M22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O22" s="3">
         <v>17000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>13000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>14500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>17100</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>171800</v>
+        <v>28000</v>
       </c>
       <c r="E23" s="3">
-        <v>214100</v>
+        <v>42600</v>
       </c>
       <c r="F23" s="3">
-        <v>180000</v>
+        <v>77200</v>
       </c>
       <c r="G23" s="3">
-        <v>223700</v>
+        <v>175700</v>
       </c>
       <c r="H23" s="3">
-        <v>173200</v>
+        <v>218300</v>
       </c>
       <c r="I23" s="3">
-        <v>154100</v>
+        <v>169000</v>
       </c>
       <c r="J23" s="3">
+        <v>150400</v>
+      </c>
+      <c r="K23" s="3">
         <v>170500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>227800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>138700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>157600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>73000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>91300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-50000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>83000</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>8200</v>
+        <v>20000</v>
       </c>
       <c r="E24" s="3">
-        <v>32700</v>
+        <v>-4000</v>
       </c>
       <c r="F24" s="3">
-        <v>24500</v>
+        <v>21300</v>
       </c>
       <c r="G24" s="3">
-        <v>45000</v>
+        <v>24000</v>
       </c>
       <c r="H24" s="3">
-        <v>36800</v>
+        <v>43900</v>
       </c>
       <c r="I24" s="3">
-        <v>43600</v>
+        <v>35900</v>
       </c>
       <c r="J24" s="3">
+        <v>42600</v>
+      </c>
+      <c r="K24" s="3">
         <v>-19100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>52400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-27700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-1200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>3900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>13200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>14500</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1497,102 +1546,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>163700</v>
+        <v>8000</v>
       </c>
       <c r="E26" s="3">
-        <v>181400</v>
+        <v>46600</v>
       </c>
       <c r="F26" s="3">
-        <v>155500</v>
+        <v>55900</v>
       </c>
       <c r="G26" s="3">
-        <v>178700</v>
+        <v>151700</v>
       </c>
       <c r="H26" s="3">
-        <v>136400</v>
+        <v>174400</v>
       </c>
       <c r="I26" s="3">
-        <v>110500</v>
+        <v>133100</v>
       </c>
       <c r="J26" s="3">
+        <v>107800</v>
+      </c>
+      <c r="K26" s="3">
         <v>189600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>175500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>166400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>158900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>70400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>87400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-63200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>68500</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>163700</v>
+        <v>8000</v>
       </c>
       <c r="E27" s="3">
-        <v>181400</v>
+        <v>46600</v>
       </c>
       <c r="F27" s="3">
-        <v>155500</v>
+        <v>55900</v>
       </c>
       <c r="G27" s="3">
-        <v>178700</v>
+        <v>151700</v>
       </c>
       <c r="H27" s="3">
-        <v>136400</v>
+        <v>174400</v>
       </c>
       <c r="I27" s="3">
-        <v>110500</v>
+        <v>133100</v>
       </c>
       <c r="J27" s="3">
+        <v>107800</v>
+      </c>
+      <c r="K27" s="3">
         <v>189600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>175500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>166400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>158900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>70400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>87400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-63200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>68500</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1638,55 +1696,61 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>5</v>
+      <c r="D29" s="3">
+        <v>127800</v>
+      </c>
+      <c r="E29" s="3">
+        <v>113100</v>
       </c>
       <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
+        <v>121100</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>2700</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>1200</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>78300</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-23500</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>13200</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1732,8 +1796,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1779,102 +1846,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>17300</v>
+      </c>
+      <c r="F32" s="3">
+        <v>17300</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="H32" s="3">
         <v>2700</v>
       </c>
-      <c r="E32" s="3">
-        <v>2700</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="G32" s="3">
-        <v>2700</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-5500</v>
-      </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>-5300</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>5700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>5300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-4900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-17000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-11700</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-10500</v>
       </c>
       <c r="Q32" s="3">
         <v>-10500</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>-10500</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>163700</v>
+        <v>135800</v>
       </c>
       <c r="E33" s="3">
-        <v>181400</v>
+        <v>159700</v>
       </c>
       <c r="F33" s="3">
-        <v>155500</v>
+        <v>177000</v>
       </c>
       <c r="G33" s="3">
-        <v>178700</v>
+        <v>151700</v>
       </c>
       <c r="H33" s="3">
-        <v>136400</v>
+        <v>174400</v>
       </c>
       <c r="I33" s="3">
-        <v>110500</v>
+        <v>133100</v>
       </c>
       <c r="J33" s="3">
+        <v>107800</v>
+      </c>
+      <c r="K33" s="3">
         <v>192300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>175500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>166400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>160100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>148700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>63900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-50000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>89500</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1920,107 +1996,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>163700</v>
+        <v>135800</v>
       </c>
       <c r="E35" s="3">
-        <v>181400</v>
+        <v>159700</v>
       </c>
       <c r="F35" s="3">
-        <v>155500</v>
+        <v>177000</v>
       </c>
       <c r="G35" s="3">
-        <v>178700</v>
+        <v>151700</v>
       </c>
       <c r="H35" s="3">
-        <v>136400</v>
+        <v>174400</v>
       </c>
       <c r="I35" s="3">
-        <v>110500</v>
+        <v>133100</v>
       </c>
       <c r="J35" s="3">
+        <v>107800</v>
+      </c>
+      <c r="K35" s="3">
         <v>192300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>175500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>166400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>160100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>148700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>63900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-50000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>89500</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43008</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42825</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42643</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42460</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42277</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42094</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2038,8 +2123,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2057,431 +2143,459 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>506000</v>
+        <v>512500</v>
       </c>
       <c r="E41" s="3">
-        <v>660100</v>
+        <v>493800</v>
       </c>
       <c r="F41" s="3">
-        <v>369600</v>
+        <v>644300</v>
       </c>
       <c r="G41" s="3">
-        <v>492300</v>
+        <v>360700</v>
       </c>
       <c r="H41" s="3">
-        <v>388700</v>
+        <v>480500</v>
       </c>
       <c r="I41" s="3">
-        <v>387300</v>
+        <v>379400</v>
       </c>
       <c r="J41" s="3">
+        <v>378000</v>
+      </c>
+      <c r="K41" s="3">
         <v>259100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>342500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>344700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>355900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>413500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>305200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>256800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>425300</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>43600</v>
+        <v>0</v>
       </c>
       <c r="E42" s="3">
-        <v>51800</v>
+        <v>42600</v>
       </c>
       <c r="F42" s="3">
-        <v>91400</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>5</v>
+        <v>50600</v>
+      </c>
+      <c r="G42" s="3">
+        <v>89200</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K42" s="3">
+      <c r="I42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L42" s="3">
         <v>1400</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
-      </c>
       <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
         <v>4900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>5200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>7800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>23700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>469100</v>
+        <v>348700</v>
       </c>
       <c r="E43" s="3">
-        <v>435000</v>
+        <v>457900</v>
       </c>
       <c r="F43" s="3">
-        <v>454100</v>
+        <v>424600</v>
       </c>
       <c r="G43" s="3">
-        <v>436400</v>
+        <v>443300</v>
       </c>
       <c r="H43" s="3">
-        <v>448700</v>
+        <v>426000</v>
       </c>
       <c r="I43" s="3">
-        <v>476000</v>
+        <v>437900</v>
       </c>
       <c r="J43" s="3">
+        <v>464600</v>
+      </c>
+      <c r="K43" s="3">
         <v>402300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>450000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>385700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>374400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>396500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>363900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>384500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>495100</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>725500</v>
+        <v>350100</v>
       </c>
       <c r="E44" s="3">
-        <v>533200</v>
+        <v>708100</v>
       </c>
       <c r="F44" s="3">
-        <v>621900</v>
+        <v>520500</v>
       </c>
       <c r="G44" s="3">
-        <v>563200</v>
+        <v>607000</v>
       </c>
       <c r="H44" s="3">
-        <v>591900</v>
+        <v>549700</v>
       </c>
       <c r="I44" s="3">
-        <v>568700</v>
+        <v>577700</v>
       </c>
       <c r="J44" s="3">
+        <v>555100</v>
+      </c>
+      <c r="K44" s="3">
         <v>571400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>537700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>582500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>449500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>507400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>443500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>478000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>331800</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>31400</v>
+        <v>1830300</v>
       </c>
       <c r="E45" s="3">
-        <v>12300</v>
+        <v>30600</v>
       </c>
       <c r="F45" s="3">
-        <v>6800</v>
+        <v>12000</v>
       </c>
       <c r="G45" s="3">
-        <v>49100</v>
+        <v>6700</v>
       </c>
       <c r="H45" s="3">
-        <v>65500</v>
+        <v>47900</v>
       </c>
       <c r="I45" s="3">
-        <v>51800</v>
+        <v>63900</v>
       </c>
       <c r="J45" s="3">
+        <v>50600</v>
+      </c>
+      <c r="K45" s="3">
         <v>32700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>55200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>40900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>71400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>65200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>348300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>81600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>143500</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1775700</v>
+        <v>3041600</v>
       </c>
       <c r="E46" s="3">
-        <v>1692500</v>
+        <v>1733100</v>
       </c>
       <c r="F46" s="3">
-        <v>1543800</v>
+        <v>1651900</v>
       </c>
       <c r="G46" s="3">
-        <v>1541100</v>
+        <v>1506800</v>
       </c>
       <c r="H46" s="3">
-        <v>1494700</v>
+        <v>1504100</v>
       </c>
       <c r="I46" s="3">
-        <v>1483800</v>
+        <v>1458900</v>
       </c>
       <c r="J46" s="3">
+        <v>1448200</v>
+      </c>
+      <c r="K46" s="3">
         <v>1265600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1386800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1353800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1256200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1387800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1468700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1224600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1398400</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>223700</v>
+        <v>67900</v>
       </c>
       <c r="E47" s="3">
-        <v>223700</v>
+        <v>218300</v>
       </c>
       <c r="F47" s="3">
-        <v>210000</v>
+        <v>218300</v>
       </c>
       <c r="G47" s="3">
-        <v>218200</v>
+        <v>205000</v>
       </c>
       <c r="H47" s="3">
-        <v>222300</v>
+        <v>213000</v>
       </c>
       <c r="I47" s="3">
-        <v>177300</v>
+        <v>217000</v>
       </c>
       <c r="J47" s="3">
+        <v>173000</v>
+      </c>
+      <c r="K47" s="3">
         <v>170500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>154200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>167700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>136700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>137000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>180000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>453000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>476700</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1507000</v>
+        <v>567000</v>
       </c>
       <c r="E48" s="3">
-        <v>1571100</v>
+        <v>2941700</v>
       </c>
       <c r="F48" s="3">
-        <v>1622900</v>
+        <v>3066900</v>
       </c>
       <c r="G48" s="3">
-        <v>1621500</v>
+        <v>1584000</v>
       </c>
       <c r="H48" s="3">
-        <v>1339200</v>
+        <v>1582700</v>
       </c>
       <c r="I48" s="3">
-        <v>1348800</v>
+        <v>1307100</v>
       </c>
       <c r="J48" s="3">
+        <v>1316500</v>
+      </c>
+      <c r="K48" s="3">
         <v>1316100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1416500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1401400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1272200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1207800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1006900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>987600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>995500</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>482800</v>
+        <v>386000</v>
       </c>
       <c r="E49" s="3">
-        <v>447300</v>
+        <v>459200</v>
       </c>
       <c r="F49" s="3">
-        <v>463700</v>
+        <v>424600</v>
       </c>
       <c r="G49" s="3">
-        <v>474600</v>
+        <v>452600</v>
       </c>
       <c r="H49" s="3">
-        <v>466400</v>
+        <v>463200</v>
       </c>
       <c r="I49" s="3">
-        <v>482800</v>
+        <v>455200</v>
       </c>
       <c r="J49" s="3">
+        <v>471200</v>
+      </c>
+      <c r="K49" s="3">
         <v>491000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>539200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>529600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>511100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>508700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>403000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>447700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>418700</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2527,8 +2641,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2574,55 +2691,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>69600</v>
+        <v>87900</v>
       </c>
       <c r="E52" s="3">
-        <v>57300</v>
+        <v>67900</v>
       </c>
       <c r="F52" s="3">
-        <v>47700</v>
+        <v>55900</v>
       </c>
       <c r="G52" s="3">
-        <v>46400</v>
+        <v>46600</v>
       </c>
       <c r="H52" s="3">
-        <v>286400</v>
+        <v>45300</v>
       </c>
       <c r="I52" s="3">
-        <v>270000</v>
+        <v>279500</v>
       </c>
       <c r="J52" s="3">
+        <v>263600</v>
+      </c>
+      <c r="K52" s="3">
         <v>263200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>206600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>207400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>67700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>90000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>114800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>77700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>39500</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2668,55 +2791,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4058600</v>
+        <v>4150400</v>
       </c>
       <c r="E54" s="3">
-        <v>3991800</v>
+        <v>3949400</v>
       </c>
       <c r="F54" s="3">
-        <v>3888200</v>
+        <v>3884100</v>
       </c>
       <c r="G54" s="3">
-        <v>3901800</v>
+        <v>3795000</v>
       </c>
       <c r="H54" s="3">
-        <v>3809100</v>
+        <v>3808300</v>
       </c>
       <c r="I54" s="3">
-        <v>3762700</v>
+        <v>3717800</v>
       </c>
       <c r="J54" s="3">
+        <v>3672500</v>
+      </c>
+      <c r="K54" s="3">
         <v>3506300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3703300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3659900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3244000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3331200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3173400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3190600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3328800</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2734,8 +2863,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2753,290 +2883,309 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>587800</v>
+        <v>280900</v>
       </c>
       <c r="E57" s="3">
-        <v>454100</v>
+        <v>573700</v>
       </c>
       <c r="F57" s="3">
-        <v>504600</v>
+        <v>443300</v>
       </c>
       <c r="G57" s="3">
+        <v>492500</v>
+      </c>
+      <c r="H57" s="3">
+        <v>406000</v>
+      </c>
+      <c r="I57" s="3">
+        <v>455200</v>
+      </c>
+      <c r="J57" s="3">
+        <v>471200</v>
+      </c>
+      <c r="K57" s="3">
+        <v>425500</v>
+      </c>
+      <c r="L57" s="3">
+        <v>447200</v>
+      </c>
+      <c r="M57" s="3">
         <v>416000</v>
       </c>
-      <c r="H57" s="3">
-        <v>466400</v>
-      </c>
-      <c r="I57" s="3">
-        <v>482800</v>
-      </c>
-      <c r="J57" s="3">
-        <v>425500</v>
-      </c>
-      <c r="K57" s="3">
-        <v>447200</v>
-      </c>
-      <c r="L57" s="3">
-        <v>416000</v>
-      </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>397800</v>
-      </c>
-      <c r="N57" s="3">
-        <v>439600</v>
       </c>
       <c r="O57" s="3">
         <v>439600</v>
       </c>
       <c r="P57" s="3">
+        <v>439600</v>
+      </c>
+      <c r="Q57" s="3">
         <v>416100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>425300</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>57300</v>
+        <v>33300</v>
       </c>
       <c r="E58" s="3">
-        <v>57300</v>
+        <v>111800</v>
       </c>
       <c r="F58" s="3">
-        <v>54600</v>
+        <v>111800</v>
       </c>
       <c r="G58" s="3">
-        <v>349100</v>
+        <v>53200</v>
       </c>
       <c r="H58" s="3">
-        <v>305500</v>
+        <v>340800</v>
       </c>
       <c r="I58" s="3">
-        <v>32700</v>
+        <v>298200</v>
       </c>
       <c r="J58" s="3">
+        <v>31900</v>
+      </c>
+      <c r="K58" s="3">
         <v>21800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>39600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>116200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>129300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>260900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>644300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>401600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>468800</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>114600</v>
+        <v>689500</v>
       </c>
       <c r="E59" s="3">
         <v>111800</v>
       </c>
       <c r="F59" s="3">
-        <v>133700</v>
+        <v>109200</v>
       </c>
       <c r="G59" s="3">
-        <v>158200</v>
+        <v>130400</v>
       </c>
       <c r="H59" s="3">
-        <v>156800</v>
+        <v>154400</v>
       </c>
       <c r="I59" s="3">
-        <v>151400</v>
+        <v>153100</v>
       </c>
       <c r="J59" s="3">
+        <v>147800</v>
+      </c>
+      <c r="K59" s="3">
         <v>100900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>113200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>110900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>150300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>147400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>159100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>109300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>142200</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>759600</v>
+        <v>1003600</v>
       </c>
       <c r="E60" s="3">
-        <v>623300</v>
+        <v>741400</v>
       </c>
       <c r="F60" s="3">
-        <v>692800</v>
+        <v>608300</v>
       </c>
       <c r="G60" s="3">
-        <v>923300</v>
+        <v>676200</v>
       </c>
       <c r="H60" s="3">
-        <v>928700</v>
+        <v>901200</v>
       </c>
       <c r="I60" s="3">
-        <v>666900</v>
+        <v>906500</v>
       </c>
       <c r="J60" s="3">
+        <v>650900</v>
+      </c>
+      <c r="K60" s="3">
         <v>548200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>600000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>643200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>677400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>847800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1243000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>927000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1036300</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1017400</v>
+        <v>930400</v>
       </c>
       <c r="E61" s="3">
-        <v>1091000</v>
+        <v>993000</v>
       </c>
       <c r="F61" s="3">
-        <v>930100</v>
+        <v>1064900</v>
       </c>
       <c r="G61" s="3">
-        <v>733700</v>
+        <v>907800</v>
       </c>
       <c r="H61" s="3">
-        <v>508700</v>
+        <v>716100</v>
       </c>
       <c r="I61" s="3">
-        <v>786900</v>
+        <v>496500</v>
       </c>
       <c r="J61" s="3">
+        <v>768000</v>
+      </c>
+      <c r="K61" s="3">
         <v>755500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>812300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>797800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>731600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>725200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>371700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>609700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>579400</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>290500</v>
+        <v>209000</v>
       </c>
       <c r="E62" s="3">
-        <v>328700</v>
+        <v>279500</v>
       </c>
       <c r="F62" s="3">
-        <v>357300</v>
+        <v>316800</v>
       </c>
       <c r="G62" s="3">
-        <v>365500</v>
+        <v>348700</v>
       </c>
       <c r="H62" s="3">
-        <v>340900</v>
+        <v>356700</v>
       </c>
       <c r="I62" s="3">
-        <v>383200</v>
+        <v>332800</v>
       </c>
       <c r="J62" s="3">
+        <v>374000</v>
+      </c>
+      <c r="K62" s="3">
         <v>338200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>459900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>459600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>456900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>416100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>400400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>421400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>337100</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3082,8 +3231,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3129,8 +3281,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3176,55 +3331,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2068900</v>
+        <v>2144400</v>
       </c>
       <c r="E66" s="3">
-        <v>2043000</v>
+        <v>2015300</v>
       </c>
       <c r="F66" s="3">
-        <v>1980200</v>
+        <v>1990000</v>
       </c>
       <c r="G66" s="3">
-        <v>2022500</v>
+        <v>1932800</v>
       </c>
       <c r="H66" s="3">
-        <v>1778400</v>
+        <v>1974000</v>
       </c>
       <c r="I66" s="3">
-        <v>1837000</v>
+        <v>1735800</v>
       </c>
       <c r="J66" s="3">
+        <v>1793000</v>
+      </c>
+      <c r="K66" s="3">
         <v>1642000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1872200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1900600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1865900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1990400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2016500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1959400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1954100</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3242,8 +3403,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3289,8 +3451,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3336,8 +3501,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3383,8 +3551,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3430,55 +3601,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1275100</v>
+        <v>1308500</v>
       </c>
       <c r="E72" s="3">
-        <v>1234200</v>
+        <v>1236600</v>
       </c>
       <c r="F72" s="3">
-        <v>1194700</v>
+        <v>1196700</v>
       </c>
       <c r="G72" s="3">
         <v>1166000</v>
       </c>
       <c r="H72" s="3">
-        <v>1317400</v>
+        <v>1138100</v>
       </c>
       <c r="I72" s="3">
-        <v>1212400</v>
+        <v>1285800</v>
       </c>
       <c r="J72" s="3">
+        <v>1183300</v>
+      </c>
+      <c r="K72" s="3">
         <v>1151000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1091000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1068500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>734000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>658700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>474800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>542500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>686000</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3524,8 +3701,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3571,8 +3751,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3618,55 +3801,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1989800</v>
+        <v>2006000</v>
       </c>
       <c r="E76" s="3">
-        <v>1948900</v>
+        <v>1934100</v>
       </c>
       <c r="F76" s="3">
-        <v>1907900</v>
+        <v>1894200</v>
       </c>
       <c r="G76" s="3">
-        <v>1879300</v>
+        <v>1862200</v>
       </c>
       <c r="H76" s="3">
-        <v>2030700</v>
+        <v>1834300</v>
       </c>
       <c r="I76" s="3">
-        <v>1925700</v>
+        <v>1982000</v>
       </c>
       <c r="J76" s="3">
+        <v>1879500</v>
+      </c>
+      <c r="K76" s="3">
         <v>1864300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1831200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1759300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1378200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1340800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1156900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1231200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1374700</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3712,107 +3901,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43008</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42825</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42643</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42460</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42277</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42094</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>163700</v>
+        <v>135800</v>
       </c>
       <c r="E81" s="3">
-        <v>181400</v>
+        <v>159700</v>
       </c>
       <c r="F81" s="3">
-        <v>155500</v>
+        <v>177000</v>
       </c>
       <c r="G81" s="3">
-        <v>178700</v>
+        <v>151700</v>
       </c>
       <c r="H81" s="3">
-        <v>136400</v>
+        <v>174400</v>
       </c>
       <c r="I81" s="3">
-        <v>110500</v>
+        <v>133100</v>
       </c>
       <c r="J81" s="3">
+        <v>107800</v>
+      </c>
+      <c r="K81" s="3">
         <v>192300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>175500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>166400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>160100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>148700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>63900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-50000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>89500</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3830,55 +4028,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>118600</v>
+        <v>81200</v>
       </c>
       <c r="E83" s="3">
-        <v>120000</v>
+        <v>115800</v>
       </c>
       <c r="F83" s="3">
-        <v>102300</v>
+        <v>117100</v>
       </c>
       <c r="G83" s="3">
-        <v>132300</v>
+        <v>99800</v>
       </c>
       <c r="H83" s="3">
-        <v>105000</v>
+        <v>129100</v>
       </c>
       <c r="I83" s="3">
-        <v>102300</v>
+        <v>102500</v>
       </c>
       <c r="J83" s="3">
+        <v>99800</v>
+      </c>
+      <c r="K83" s="3">
         <v>106400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>107500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>105700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>85000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>78300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>71700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>76400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>67200</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3924,8 +4126,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3971,8 +4176,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4018,8 +4226,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4065,8 +4276,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4112,55 +4326,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>169100</v>
+        <v>238300</v>
       </c>
       <c r="E89" s="3">
-        <v>334100</v>
+        <v>165100</v>
       </c>
       <c r="F89" s="3">
-        <v>211400</v>
+        <v>326100</v>
       </c>
       <c r="G89" s="3">
-        <v>313700</v>
+        <v>206300</v>
       </c>
       <c r="H89" s="3">
-        <v>162300</v>
+        <v>306200</v>
       </c>
       <c r="I89" s="3">
-        <v>287800</v>
+        <v>158400</v>
       </c>
       <c r="J89" s="3">
+        <v>280900</v>
+      </c>
+      <c r="K89" s="3">
         <v>105000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>295800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>130800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>245100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>19600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>225600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>72400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>163300</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4178,55 +4398,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-98200</v>
+        <v>-82500</v>
       </c>
       <c r="E91" s="3">
-        <v>-84600</v>
+        <v>-95800</v>
       </c>
       <c r="F91" s="3">
-        <v>83200</v>
+        <v>-82500</v>
       </c>
       <c r="G91" s="3">
-        <v>-84600</v>
+        <v>81200</v>
       </c>
       <c r="H91" s="3">
-        <v>-77700</v>
+        <v>-82500</v>
       </c>
       <c r="I91" s="3">
-        <v>-62700</v>
+        <v>-75900</v>
       </c>
       <c r="J91" s="3">
+        <v>-61200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-81800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-72200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-76600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-85000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-133000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-100400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-216000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-192300</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4272,8 +4496,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4319,55 +4546,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-197700</v>
+        <v>-54600</v>
       </c>
       <c r="E94" s="3">
-        <v>-81800</v>
+        <v>-193000</v>
       </c>
       <c r="F94" s="3">
-        <v>-114600</v>
+        <v>-79900</v>
       </c>
       <c r="G94" s="3">
-        <v>-61400</v>
+        <v>-111800</v>
       </c>
       <c r="H94" s="3">
-        <v>-110500</v>
+        <v>-59900</v>
       </c>
       <c r="I94" s="3">
-        <v>-40900</v>
+        <v>-107800</v>
       </c>
       <c r="J94" s="3">
+        <v>-39900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-83200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-58000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-87200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-59100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>183900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-71700</v>
-      </c>
-      <c r="P94" s="3">
-        <v>-108000</v>
       </c>
       <c r="Q94" s="3">
         <v>-108000</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>-108000</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4385,55 +4618,59 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-54600</v>
+        <v>-135800</v>
       </c>
       <c r="E96" s="3">
-        <v>-132300</v>
+        <v>-53200</v>
       </c>
       <c r="F96" s="3">
-        <v>-54600</v>
+        <v>-129100</v>
       </c>
       <c r="G96" s="3">
-        <v>-132300</v>
+        <v>-53200</v>
       </c>
       <c r="H96" s="3">
-        <v>-54600</v>
+        <v>-129100</v>
       </c>
       <c r="I96" s="3">
-        <v>-128200</v>
+        <v>-53200</v>
       </c>
       <c r="J96" s="3">
+        <v>-125100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-53200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-130200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-50200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-113300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-49600</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-120000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-50000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-121100</v>
       </c>
     </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4479,8 +4716,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4526,8 +4766,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4573,145 +4816,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-85900</v>
+        <v>-161100</v>
       </c>
       <c r="E100" s="3">
-        <v>46400</v>
+        <v>-83900</v>
       </c>
       <c r="F100" s="3">
-        <v>-203200</v>
+        <v>45300</v>
       </c>
       <c r="G100" s="3">
-        <v>-169100</v>
+        <v>-198300</v>
       </c>
       <c r="H100" s="3">
-        <v>-53200</v>
+        <v>-165100</v>
       </c>
       <c r="I100" s="3">
-        <v>-137700</v>
+        <v>-51900</v>
       </c>
       <c r="J100" s="3">
+        <v>-134400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-80500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-244800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-93800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-247600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-116100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-100400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-151400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-92200</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-39500</v>
+        <v>10600</v>
       </c>
       <c r="E101" s="3">
-        <v>-8200</v>
+        <v>-38600</v>
       </c>
       <c r="F101" s="3">
-        <v>-16400</v>
+        <v>-8000</v>
       </c>
       <c r="G101" s="3">
-        <v>20500</v>
+        <v>-16000</v>
       </c>
       <c r="H101" s="3">
+        <v>20000</v>
+      </c>
+      <c r="I101" s="3">
         <v>2700</v>
       </c>
-      <c r="I101" s="3">
-        <v>19100</v>
-      </c>
       <c r="J101" s="3">
+        <v>18600</v>
+      </c>
+      <c r="K101" s="3">
         <v>-12300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-19800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>13200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>27100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>20900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-2600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>18400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-154100</v>
+        <v>33300</v>
       </c>
       <c r="E102" s="3">
-        <v>290500</v>
+        <v>-150400</v>
       </c>
       <c r="F102" s="3">
-        <v>-122700</v>
+        <v>283500</v>
       </c>
       <c r="G102" s="3">
-        <v>103600</v>
+        <v>-119800</v>
       </c>
       <c r="H102" s="3">
-        <v>1400</v>
+        <v>101200</v>
       </c>
       <c r="I102" s="3">
-        <v>128200</v>
+        <v>1300</v>
       </c>
       <c r="J102" s="3">
+        <v>125100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-70900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-26900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-37000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-34500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>108300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>50900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-168500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-30300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TATYY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TATYY_QTR_FIN.xlsx
@@ -748,25 +748,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>873200</v>
+        <v>855200</v>
       </c>
       <c r="E8" s="3">
-        <v>824000</v>
+        <v>806900</v>
       </c>
       <c r="F8" s="3">
-        <v>788000</v>
+        <v>771700</v>
       </c>
       <c r="G8" s="3">
-        <v>1871500</v>
+        <v>1832800</v>
       </c>
       <c r="H8" s="3">
-        <v>1964700</v>
+        <v>1924100</v>
       </c>
       <c r="I8" s="3">
-        <v>1826300</v>
+        <v>1788500</v>
       </c>
       <c r="J8" s="3">
-        <v>1840900</v>
+        <v>1802900</v>
       </c>
       <c r="K8" s="3">
         <v>1789300</v>
@@ -1018,13 +1018,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>78500</v>
+        <v>76900</v>
       </c>
       <c r="E14" s="3">
-        <v>25300</v>
+        <v>24800</v>
       </c>
       <c r="F14" s="3">
-        <v>20000</v>
+        <v>19600</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>5</v>
@@ -1068,13 +1068,13 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>6700</v>
+        <v>6500</v>
       </c>
       <c r="E15" s="3">
-        <v>6700</v>
+        <v>6500</v>
       </c>
       <c r="F15" s="3">
-        <v>6700</v>
+        <v>6500</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>5</v>
@@ -1135,25 +1135,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>829300</v>
+        <v>812100</v>
       </c>
       <c r="E17" s="3">
-        <v>764100</v>
+        <v>748300</v>
       </c>
       <c r="F17" s="3">
-        <v>693500</v>
+        <v>679200</v>
       </c>
       <c r="G17" s="3">
-        <v>1698500</v>
+        <v>1663400</v>
       </c>
       <c r="H17" s="3">
-        <v>1743700</v>
+        <v>1707700</v>
       </c>
       <c r="I17" s="3">
-        <v>1662500</v>
+        <v>1628200</v>
       </c>
       <c r="J17" s="3">
-        <v>1690500</v>
+        <v>1655600</v>
       </c>
       <c r="K17" s="3">
         <v>1618800</v>
@@ -1185,25 +1185,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>43900</v>
+        <v>43000</v>
       </c>
       <c r="E18" s="3">
-        <v>59900</v>
+        <v>58700</v>
       </c>
       <c r="F18" s="3">
-        <v>94500</v>
+        <v>92600</v>
       </c>
       <c r="G18" s="3">
-        <v>173000</v>
+        <v>169500</v>
       </c>
       <c r="H18" s="3">
-        <v>221000</v>
+        <v>216400</v>
       </c>
       <c r="I18" s="3">
-        <v>163700</v>
+        <v>160300</v>
       </c>
       <c r="J18" s="3">
-        <v>150400</v>
+        <v>147300</v>
       </c>
       <c r="K18" s="3">
         <v>170500</v>
@@ -1255,22 +1255,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-16000</v>
+        <v>-15600</v>
       </c>
       <c r="E20" s="3">
-        <v>-17300</v>
+        <v>-16900</v>
       </c>
       <c r="F20" s="3">
-        <v>-17300</v>
+        <v>-16900</v>
       </c>
       <c r="G20" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="H20" s="3">
-        <v>-2700</v>
+        <v>-2600</v>
       </c>
       <c r="I20" s="3">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -1305,25 +1305,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>109200</v>
+        <v>106900</v>
       </c>
       <c r="E21" s="3">
-        <v>158400</v>
+        <v>155100</v>
       </c>
       <c r="F21" s="3">
-        <v>194300</v>
+        <v>190300</v>
       </c>
       <c r="G21" s="3">
-        <v>275500</v>
+        <v>269800</v>
       </c>
       <c r="H21" s="3">
-        <v>347400</v>
+        <v>340200</v>
       </c>
       <c r="I21" s="3">
-        <v>271500</v>
+        <v>265900</v>
       </c>
       <c r="J21" s="3">
-        <v>250200</v>
+        <v>245100</v>
       </c>
       <c r="K21" s="3">
         <v>276800</v>
@@ -1405,25 +1405,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>28000</v>
+        <v>27400</v>
       </c>
       <c r="E23" s="3">
-        <v>42600</v>
+        <v>41700</v>
       </c>
       <c r="F23" s="3">
-        <v>77200</v>
+        <v>75600</v>
       </c>
       <c r="G23" s="3">
-        <v>175700</v>
+        <v>172100</v>
       </c>
       <c r="H23" s="3">
-        <v>218300</v>
+        <v>213800</v>
       </c>
       <c r="I23" s="3">
-        <v>169000</v>
+        <v>165600</v>
       </c>
       <c r="J23" s="3">
-        <v>150400</v>
+        <v>147300</v>
       </c>
       <c r="K23" s="3">
         <v>170500</v>
@@ -1455,25 +1455,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>20000</v>
+        <v>19600</v>
       </c>
       <c r="E24" s="3">
-        <v>-4000</v>
+        <v>-3900</v>
       </c>
       <c r="F24" s="3">
-        <v>21300</v>
+        <v>20900</v>
       </c>
       <c r="G24" s="3">
-        <v>24000</v>
+        <v>23500</v>
       </c>
       <c r="H24" s="3">
-        <v>43900</v>
+        <v>43000</v>
       </c>
       <c r="I24" s="3">
-        <v>35900</v>
+        <v>35200</v>
       </c>
       <c r="J24" s="3">
-        <v>42600</v>
+        <v>41700</v>
       </c>
       <c r="K24" s="3">
         <v>-19100</v>
@@ -1555,25 +1555,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>8000</v>
+        <v>7800</v>
       </c>
       <c r="E26" s="3">
-        <v>46600</v>
+        <v>45600</v>
       </c>
       <c r="F26" s="3">
-        <v>55900</v>
+        <v>54800</v>
       </c>
       <c r="G26" s="3">
-        <v>151700</v>
+        <v>148600</v>
       </c>
       <c r="H26" s="3">
-        <v>174400</v>
+        <v>170800</v>
       </c>
       <c r="I26" s="3">
-        <v>133100</v>
+        <v>130400</v>
       </c>
       <c r="J26" s="3">
-        <v>107800</v>
+        <v>105600</v>
       </c>
       <c r="K26" s="3">
         <v>189600</v>
@@ -1605,25 +1605,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>8000</v>
+        <v>7800</v>
       </c>
       <c r="E27" s="3">
-        <v>46600</v>
+        <v>45600</v>
       </c>
       <c r="F27" s="3">
-        <v>55900</v>
+        <v>54800</v>
       </c>
       <c r="G27" s="3">
-        <v>151700</v>
+        <v>148600</v>
       </c>
       <c r="H27" s="3">
-        <v>174400</v>
+        <v>170800</v>
       </c>
       <c r="I27" s="3">
-        <v>133100</v>
+        <v>130400</v>
       </c>
       <c r="J27" s="3">
-        <v>107800</v>
+        <v>105600</v>
       </c>
       <c r="K27" s="3">
         <v>189600</v>
@@ -1705,13 +1705,13 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>127800</v>
+        <v>125100</v>
       </c>
       <c r="E29" s="3">
-        <v>113100</v>
+        <v>110800</v>
       </c>
       <c r="F29" s="3">
-        <v>121100</v>
+        <v>118600</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -1855,22 +1855,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>16000</v>
+        <v>15600</v>
       </c>
       <c r="E32" s="3">
-        <v>17300</v>
+        <v>16900</v>
       </c>
       <c r="F32" s="3">
-        <v>17300</v>
+        <v>16900</v>
       </c>
       <c r="G32" s="3">
-        <v>-2700</v>
+        <v>-2600</v>
       </c>
       <c r="H32" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="I32" s="3">
-        <v>-5300</v>
+        <v>-5200</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
@@ -1905,25 +1905,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>135800</v>
+        <v>133000</v>
       </c>
       <c r="E33" s="3">
-        <v>159700</v>
+        <v>156400</v>
       </c>
       <c r="F33" s="3">
-        <v>177000</v>
+        <v>173400</v>
       </c>
       <c r="G33" s="3">
-        <v>151700</v>
+        <v>148600</v>
       </c>
       <c r="H33" s="3">
-        <v>174400</v>
+        <v>170800</v>
       </c>
       <c r="I33" s="3">
-        <v>133100</v>
+        <v>130400</v>
       </c>
       <c r="J33" s="3">
-        <v>107800</v>
+        <v>105600</v>
       </c>
       <c r="K33" s="3">
         <v>192300</v>
@@ -2005,25 +2005,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>135800</v>
+        <v>133000</v>
       </c>
       <c r="E35" s="3">
-        <v>159700</v>
+        <v>156400</v>
       </c>
       <c r="F35" s="3">
-        <v>177000</v>
+        <v>173400</v>
       </c>
       <c r="G35" s="3">
-        <v>151700</v>
+        <v>148600</v>
       </c>
       <c r="H35" s="3">
-        <v>174400</v>
+        <v>170800</v>
       </c>
       <c r="I35" s="3">
-        <v>133100</v>
+        <v>130400</v>
       </c>
       <c r="J35" s="3">
-        <v>107800</v>
+        <v>105600</v>
       </c>
       <c r="K35" s="3">
         <v>192300</v>
@@ -2150,25 +2150,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>512500</v>
+        <v>501900</v>
       </c>
       <c r="E41" s="3">
-        <v>493800</v>
+        <v>483600</v>
       </c>
       <c r="F41" s="3">
-        <v>644300</v>
+        <v>630900</v>
       </c>
       <c r="G41" s="3">
-        <v>360700</v>
+        <v>353300</v>
       </c>
       <c r="H41" s="3">
-        <v>480500</v>
+        <v>470600</v>
       </c>
       <c r="I41" s="3">
-        <v>379400</v>
+        <v>371500</v>
       </c>
       <c r="J41" s="3">
-        <v>378000</v>
+        <v>370200</v>
       </c>
       <c r="K41" s="3">
         <v>259100</v>
@@ -2203,13 +2203,13 @@
         <v>0</v>
       </c>
       <c r="E42" s="3">
-        <v>42600</v>
+        <v>41700</v>
       </c>
       <c r="F42" s="3">
-        <v>50600</v>
+        <v>49500</v>
       </c>
       <c r="G42" s="3">
-        <v>89200</v>
+        <v>87300</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>5</v>
@@ -2250,25 +2250,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>348700</v>
+        <v>341500</v>
       </c>
       <c r="E43" s="3">
-        <v>457900</v>
+        <v>448400</v>
       </c>
       <c r="F43" s="3">
-        <v>424600</v>
+        <v>415800</v>
       </c>
       <c r="G43" s="3">
-        <v>443300</v>
+        <v>434100</v>
       </c>
       <c r="H43" s="3">
-        <v>426000</v>
+        <v>417100</v>
       </c>
       <c r="I43" s="3">
-        <v>437900</v>
+        <v>428900</v>
       </c>
       <c r="J43" s="3">
-        <v>464600</v>
+        <v>455000</v>
       </c>
       <c r="K43" s="3">
         <v>402300</v>
@@ -2300,25 +2300,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>350100</v>
+        <v>342800</v>
       </c>
       <c r="E44" s="3">
-        <v>708100</v>
+        <v>693500</v>
       </c>
       <c r="F44" s="3">
-        <v>520500</v>
+        <v>509700</v>
       </c>
       <c r="G44" s="3">
-        <v>607000</v>
+        <v>594400</v>
       </c>
       <c r="H44" s="3">
-        <v>549700</v>
+        <v>538400</v>
       </c>
       <c r="I44" s="3">
-        <v>577700</v>
+        <v>565800</v>
       </c>
       <c r="J44" s="3">
-        <v>555100</v>
+        <v>543600</v>
       </c>
       <c r="K44" s="3">
         <v>571400</v>
@@ -2350,25 +2350,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1830300</v>
+        <v>1792400</v>
       </c>
       <c r="E45" s="3">
-        <v>30600</v>
+        <v>30000</v>
       </c>
       <c r="F45" s="3">
-        <v>12000</v>
+        <v>11700</v>
       </c>
       <c r="G45" s="3">
-        <v>6700</v>
+        <v>6500</v>
       </c>
       <c r="H45" s="3">
-        <v>47900</v>
+        <v>46900</v>
       </c>
       <c r="I45" s="3">
-        <v>63900</v>
+        <v>62600</v>
       </c>
       <c r="J45" s="3">
-        <v>50600</v>
+        <v>49500</v>
       </c>
       <c r="K45" s="3">
         <v>32700</v>
@@ -2400,25 +2400,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3041600</v>
+        <v>2978700</v>
       </c>
       <c r="E46" s="3">
-        <v>1733100</v>
+        <v>1697300</v>
       </c>
       <c r="F46" s="3">
-        <v>1651900</v>
+        <v>1617800</v>
       </c>
       <c r="G46" s="3">
-        <v>1506800</v>
+        <v>1475700</v>
       </c>
       <c r="H46" s="3">
-        <v>1504100</v>
+        <v>1473100</v>
       </c>
       <c r="I46" s="3">
-        <v>1458900</v>
+        <v>1428700</v>
       </c>
       <c r="J46" s="3">
-        <v>1448200</v>
+        <v>1418300</v>
       </c>
       <c r="K46" s="3">
         <v>1265600</v>
@@ -2450,25 +2450,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>67900</v>
+        <v>66500</v>
       </c>
       <c r="E47" s="3">
-        <v>218300</v>
+        <v>213800</v>
       </c>
       <c r="F47" s="3">
-        <v>218300</v>
+        <v>213800</v>
       </c>
       <c r="G47" s="3">
-        <v>205000</v>
+        <v>200800</v>
       </c>
       <c r="H47" s="3">
-        <v>213000</v>
+        <v>208600</v>
       </c>
       <c r="I47" s="3">
-        <v>217000</v>
+        <v>212500</v>
       </c>
       <c r="J47" s="3">
-        <v>173000</v>
+        <v>169500</v>
       </c>
       <c r="K47" s="3">
         <v>170500</v>
@@ -2500,25 +2500,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>567000</v>
+        <v>555300</v>
       </c>
       <c r="E48" s="3">
-        <v>2941700</v>
+        <v>2880900</v>
       </c>
       <c r="F48" s="3">
-        <v>3066900</v>
+        <v>3003500</v>
       </c>
       <c r="G48" s="3">
-        <v>1584000</v>
+        <v>1551300</v>
       </c>
       <c r="H48" s="3">
-        <v>1582700</v>
+        <v>1550000</v>
       </c>
       <c r="I48" s="3">
-        <v>1307100</v>
+        <v>1280100</v>
       </c>
       <c r="J48" s="3">
-        <v>1316500</v>
+        <v>1289300</v>
       </c>
       <c r="K48" s="3">
         <v>1316100</v>
@@ -2550,25 +2550,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>386000</v>
+        <v>378000</v>
       </c>
       <c r="E49" s="3">
-        <v>459200</v>
+        <v>449700</v>
       </c>
       <c r="F49" s="3">
-        <v>424600</v>
+        <v>415800</v>
       </c>
       <c r="G49" s="3">
-        <v>452600</v>
+        <v>443200</v>
       </c>
       <c r="H49" s="3">
-        <v>463200</v>
+        <v>453600</v>
       </c>
       <c r="I49" s="3">
-        <v>455200</v>
+        <v>445800</v>
       </c>
       <c r="J49" s="3">
-        <v>471200</v>
+        <v>461500</v>
       </c>
       <c r="K49" s="3">
         <v>491000</v>
@@ -2700,25 +2700,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>87900</v>
+        <v>86000</v>
       </c>
       <c r="E52" s="3">
-        <v>67900</v>
+        <v>66500</v>
       </c>
       <c r="F52" s="3">
-        <v>55900</v>
+        <v>54800</v>
       </c>
       <c r="G52" s="3">
-        <v>46600</v>
+        <v>45600</v>
       </c>
       <c r="H52" s="3">
-        <v>45300</v>
+        <v>44300</v>
       </c>
       <c r="I52" s="3">
-        <v>279500</v>
+        <v>273800</v>
       </c>
       <c r="J52" s="3">
-        <v>263600</v>
+        <v>258100</v>
       </c>
       <c r="K52" s="3">
         <v>263200</v>
@@ -2800,25 +2800,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4150400</v>
+        <v>4064600</v>
       </c>
       <c r="E54" s="3">
-        <v>3949400</v>
+        <v>3867800</v>
       </c>
       <c r="F54" s="3">
-        <v>3884100</v>
+        <v>3803900</v>
       </c>
       <c r="G54" s="3">
-        <v>3795000</v>
+        <v>3716500</v>
       </c>
       <c r="H54" s="3">
-        <v>3808300</v>
+        <v>3729600</v>
       </c>
       <c r="I54" s="3">
-        <v>3717800</v>
+        <v>3640900</v>
       </c>
       <c r="J54" s="3">
-        <v>3672500</v>
+        <v>3596600</v>
       </c>
       <c r="K54" s="3">
         <v>3506300</v>
@@ -2890,25 +2890,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>280900</v>
+        <v>275100</v>
       </c>
       <c r="E57" s="3">
-        <v>573700</v>
+        <v>561800</v>
       </c>
       <c r="F57" s="3">
-        <v>443300</v>
+        <v>434100</v>
       </c>
       <c r="G57" s="3">
-        <v>492500</v>
+        <v>482300</v>
       </c>
       <c r="H57" s="3">
-        <v>406000</v>
+        <v>397600</v>
       </c>
       <c r="I57" s="3">
-        <v>455200</v>
+        <v>445800</v>
       </c>
       <c r="J57" s="3">
-        <v>471200</v>
+        <v>461500</v>
       </c>
       <c r="K57" s="3">
         <v>425500</v>
@@ -2940,25 +2940,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>33300</v>
+        <v>32600</v>
       </c>
       <c r="E58" s="3">
-        <v>111800</v>
+        <v>109500</v>
       </c>
       <c r="F58" s="3">
-        <v>111800</v>
+        <v>109500</v>
       </c>
       <c r="G58" s="3">
-        <v>53200</v>
+        <v>52100</v>
       </c>
       <c r="H58" s="3">
-        <v>340800</v>
+        <v>333700</v>
       </c>
       <c r="I58" s="3">
-        <v>298200</v>
+        <v>292000</v>
       </c>
       <c r="J58" s="3">
-        <v>31900</v>
+        <v>31300</v>
       </c>
       <c r="K58" s="3">
         <v>21800</v>
@@ -2990,25 +2990,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>689500</v>
+        <v>675300</v>
       </c>
       <c r="E59" s="3">
-        <v>111800</v>
+        <v>109500</v>
       </c>
       <c r="F59" s="3">
-        <v>109200</v>
+        <v>106900</v>
       </c>
       <c r="G59" s="3">
-        <v>130400</v>
+        <v>127800</v>
       </c>
       <c r="H59" s="3">
-        <v>154400</v>
+        <v>151200</v>
       </c>
       <c r="I59" s="3">
-        <v>153100</v>
+        <v>149900</v>
       </c>
       <c r="J59" s="3">
-        <v>147800</v>
+        <v>144700</v>
       </c>
       <c r="K59" s="3">
         <v>100900</v>
@@ -3040,25 +3040,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1003600</v>
+        <v>982900</v>
       </c>
       <c r="E60" s="3">
-        <v>741400</v>
+        <v>726100</v>
       </c>
       <c r="F60" s="3">
-        <v>608300</v>
+        <v>595700</v>
       </c>
       <c r="G60" s="3">
-        <v>676200</v>
+        <v>662200</v>
       </c>
       <c r="H60" s="3">
-        <v>901200</v>
+        <v>882500</v>
       </c>
       <c r="I60" s="3">
-        <v>906500</v>
+        <v>887700</v>
       </c>
       <c r="J60" s="3">
-        <v>650900</v>
+        <v>637500</v>
       </c>
       <c r="K60" s="3">
         <v>548200</v>
@@ -3090,25 +3090,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>930400</v>
+        <v>911200</v>
       </c>
       <c r="E61" s="3">
-        <v>993000</v>
+        <v>972500</v>
       </c>
       <c r="F61" s="3">
-        <v>1064900</v>
+        <v>1042900</v>
       </c>
       <c r="G61" s="3">
-        <v>907800</v>
+        <v>889000</v>
       </c>
       <c r="H61" s="3">
-        <v>716100</v>
+        <v>701300</v>
       </c>
       <c r="I61" s="3">
-        <v>496500</v>
+        <v>486200</v>
       </c>
       <c r="J61" s="3">
-        <v>768000</v>
+        <v>752200</v>
       </c>
       <c r="K61" s="3">
         <v>755500</v>
@@ -3140,25 +3140,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>209000</v>
+        <v>204700</v>
       </c>
       <c r="E62" s="3">
-        <v>279500</v>
+        <v>273800</v>
       </c>
       <c r="F62" s="3">
-        <v>316800</v>
+        <v>310300</v>
       </c>
       <c r="G62" s="3">
-        <v>348700</v>
+        <v>341500</v>
       </c>
       <c r="H62" s="3">
-        <v>356700</v>
+        <v>349400</v>
       </c>
       <c r="I62" s="3">
-        <v>332800</v>
+        <v>325900</v>
       </c>
       <c r="J62" s="3">
-        <v>374000</v>
+        <v>366300</v>
       </c>
       <c r="K62" s="3">
         <v>338200</v>
@@ -3340,25 +3340,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2144400</v>
+        <v>2100100</v>
       </c>
       <c r="E66" s="3">
-        <v>2015300</v>
+        <v>1973600</v>
       </c>
       <c r="F66" s="3">
-        <v>1990000</v>
+        <v>1948900</v>
       </c>
       <c r="G66" s="3">
-        <v>1932800</v>
+        <v>1892800</v>
       </c>
       <c r="H66" s="3">
-        <v>1974000</v>
+        <v>1933200</v>
       </c>
       <c r="I66" s="3">
-        <v>1735800</v>
+        <v>1699900</v>
       </c>
       <c r="J66" s="3">
-        <v>1793000</v>
+        <v>1755900</v>
       </c>
       <c r="K66" s="3">
         <v>1642000</v>
@@ -3610,25 +3610,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1308500</v>
+        <v>1281400</v>
       </c>
       <c r="E72" s="3">
-        <v>1236600</v>
+        <v>1211000</v>
       </c>
       <c r="F72" s="3">
-        <v>1196700</v>
+        <v>1171900</v>
       </c>
       <c r="G72" s="3">
-        <v>1166000</v>
+        <v>1141900</v>
       </c>
       <c r="H72" s="3">
-        <v>1138100</v>
+        <v>1114600</v>
       </c>
       <c r="I72" s="3">
-        <v>1285800</v>
+        <v>1259300</v>
       </c>
       <c r="J72" s="3">
-        <v>1183300</v>
+        <v>1158900</v>
       </c>
       <c r="K72" s="3">
         <v>1151000</v>
@@ -3810,25 +3810,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2006000</v>
+        <v>1964500</v>
       </c>
       <c r="E76" s="3">
-        <v>1934100</v>
+        <v>1894100</v>
       </c>
       <c r="F76" s="3">
-        <v>1894200</v>
+        <v>1855000</v>
       </c>
       <c r="G76" s="3">
-        <v>1862200</v>
+        <v>1823700</v>
       </c>
       <c r="H76" s="3">
-        <v>1834300</v>
+        <v>1796300</v>
       </c>
       <c r="I76" s="3">
-        <v>1982000</v>
+        <v>1941000</v>
       </c>
       <c r="J76" s="3">
-        <v>1879500</v>
+        <v>1840700</v>
       </c>
       <c r="K76" s="3">
         <v>1864300</v>
@@ -3965,25 +3965,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>135800</v>
+        <v>133000</v>
       </c>
       <c r="E81" s="3">
-        <v>159700</v>
+        <v>156400</v>
       </c>
       <c r="F81" s="3">
-        <v>177000</v>
+        <v>173400</v>
       </c>
       <c r="G81" s="3">
-        <v>151700</v>
+        <v>148600</v>
       </c>
       <c r="H81" s="3">
-        <v>174400</v>
+        <v>170800</v>
       </c>
       <c r="I81" s="3">
-        <v>133100</v>
+        <v>130400</v>
       </c>
       <c r="J81" s="3">
-        <v>107800</v>
+        <v>105600</v>
       </c>
       <c r="K81" s="3">
         <v>192300</v>
@@ -4035,25 +4035,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>81200</v>
+        <v>79500</v>
       </c>
       <c r="E83" s="3">
-        <v>115800</v>
+        <v>113400</v>
       </c>
       <c r="F83" s="3">
-        <v>117100</v>
+        <v>114700</v>
       </c>
       <c r="G83" s="3">
-        <v>99800</v>
+        <v>97800</v>
       </c>
       <c r="H83" s="3">
-        <v>129100</v>
+        <v>126400</v>
       </c>
       <c r="I83" s="3">
-        <v>102500</v>
+        <v>100400</v>
       </c>
       <c r="J83" s="3">
-        <v>99800</v>
+        <v>97800</v>
       </c>
       <c r="K83" s="3">
         <v>106400</v>
@@ -4335,25 +4335,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>238300</v>
+        <v>233300</v>
       </c>
       <c r="E89" s="3">
-        <v>165100</v>
+        <v>161600</v>
       </c>
       <c r="F89" s="3">
-        <v>326100</v>
+        <v>319400</v>
       </c>
       <c r="G89" s="3">
-        <v>206300</v>
+        <v>202100</v>
       </c>
       <c r="H89" s="3">
-        <v>306200</v>
+        <v>299800</v>
       </c>
       <c r="I89" s="3">
-        <v>158400</v>
+        <v>155100</v>
       </c>
       <c r="J89" s="3">
-        <v>280900</v>
+        <v>275100</v>
       </c>
       <c r="K89" s="3">
         <v>105000</v>
@@ -4405,25 +4405,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-82500</v>
+        <v>-80800</v>
       </c>
       <c r="E91" s="3">
-        <v>-95800</v>
+        <v>-93900</v>
       </c>
       <c r="F91" s="3">
-        <v>-82500</v>
+        <v>-80800</v>
       </c>
       <c r="G91" s="3">
-        <v>81200</v>
+        <v>79500</v>
       </c>
       <c r="H91" s="3">
-        <v>-82500</v>
+        <v>-80800</v>
       </c>
       <c r="I91" s="3">
-        <v>-75900</v>
+        <v>-74300</v>
       </c>
       <c r="J91" s="3">
-        <v>-61200</v>
+        <v>-60000</v>
       </c>
       <c r="K91" s="3">
         <v>-81800</v>
@@ -4555,25 +4555,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-54600</v>
+        <v>-53400</v>
       </c>
       <c r="E94" s="3">
-        <v>-193000</v>
+        <v>-189000</v>
       </c>
       <c r="F94" s="3">
-        <v>-79900</v>
+        <v>-78200</v>
       </c>
       <c r="G94" s="3">
-        <v>-111800</v>
+        <v>-109500</v>
       </c>
       <c r="H94" s="3">
-        <v>-59900</v>
+        <v>-58700</v>
       </c>
       <c r="I94" s="3">
-        <v>-107800</v>
+        <v>-105600</v>
       </c>
       <c r="J94" s="3">
-        <v>-39900</v>
+        <v>-39100</v>
       </c>
       <c r="K94" s="3">
         <v>-83200</v>
@@ -4625,25 +4625,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-135800</v>
+        <v>-133000</v>
       </c>
       <c r="E96" s="3">
-        <v>-53200</v>
+        <v>-52100</v>
       </c>
       <c r="F96" s="3">
-        <v>-129100</v>
+        <v>-126400</v>
       </c>
       <c r="G96" s="3">
-        <v>-53200</v>
+        <v>-52100</v>
       </c>
       <c r="H96" s="3">
-        <v>-129100</v>
+        <v>-126400</v>
       </c>
       <c r="I96" s="3">
-        <v>-53200</v>
+        <v>-52100</v>
       </c>
       <c r="J96" s="3">
-        <v>-125100</v>
+        <v>-122500</v>
       </c>
       <c r="K96" s="3">
         <v>-53200</v>
@@ -4825,25 +4825,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-161100</v>
+        <v>-157700</v>
       </c>
       <c r="E100" s="3">
-        <v>-83900</v>
+        <v>-82100</v>
       </c>
       <c r="F100" s="3">
-        <v>45300</v>
+        <v>44300</v>
       </c>
       <c r="G100" s="3">
-        <v>-198300</v>
+        <v>-194200</v>
       </c>
       <c r="H100" s="3">
-        <v>-165100</v>
+        <v>-161600</v>
       </c>
       <c r="I100" s="3">
-        <v>-51900</v>
+        <v>-50800</v>
       </c>
       <c r="J100" s="3">
-        <v>-134400</v>
+        <v>-131700</v>
       </c>
       <c r="K100" s="3">
         <v>-80500</v>
@@ -4875,25 +4875,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>10600</v>
+        <v>10400</v>
       </c>
       <c r="E101" s="3">
-        <v>-38600</v>
+        <v>-37800</v>
       </c>
       <c r="F101" s="3">
-        <v>-8000</v>
+        <v>-7800</v>
       </c>
       <c r="G101" s="3">
-        <v>-16000</v>
+        <v>-15600</v>
       </c>
       <c r="H101" s="3">
-        <v>20000</v>
+        <v>19600</v>
       </c>
       <c r="I101" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="J101" s="3">
-        <v>18600</v>
+        <v>18300</v>
       </c>
       <c r="K101" s="3">
         <v>-12300</v>
@@ -4925,25 +4925,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>33300</v>
+        <v>32600</v>
       </c>
       <c r="E102" s="3">
-        <v>-150400</v>
+        <v>-147300</v>
       </c>
       <c r="F102" s="3">
-        <v>283500</v>
+        <v>277700</v>
       </c>
       <c r="G102" s="3">
-        <v>-119800</v>
+        <v>-117300</v>
       </c>
       <c r="H102" s="3">
-        <v>101200</v>
+        <v>99100</v>
       </c>
       <c r="I102" s="3">
         <v>1300</v>
       </c>
       <c r="J102" s="3">
-        <v>125100</v>
+        <v>122500</v>
       </c>
       <c r="K102" s="3">
         <v>-70900</v>

--- a/AAII_Financials/Quarterly/TATYY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TATYY_QTR_FIN.xlsx
@@ -748,25 +748,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>855200</v>
+        <v>800300</v>
       </c>
       <c r="E8" s="3">
-        <v>806900</v>
+        <v>755100</v>
       </c>
       <c r="F8" s="3">
-        <v>771700</v>
+        <v>722200</v>
       </c>
       <c r="G8" s="3">
-        <v>1832800</v>
+        <v>1715200</v>
       </c>
       <c r="H8" s="3">
-        <v>1924100</v>
+        <v>1800600</v>
       </c>
       <c r="I8" s="3">
-        <v>1788500</v>
+        <v>1673700</v>
       </c>
       <c r="J8" s="3">
-        <v>1802900</v>
+        <v>1687100</v>
       </c>
       <c r="K8" s="3">
         <v>1789300</v>
@@ -1018,13 +1018,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>76900</v>
+        <v>72000</v>
       </c>
       <c r="E14" s="3">
-        <v>24800</v>
+        <v>23200</v>
       </c>
       <c r="F14" s="3">
-        <v>19600</v>
+        <v>18300</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>5</v>
@@ -1068,13 +1068,13 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>6500</v>
+        <v>6100</v>
       </c>
       <c r="E15" s="3">
-        <v>6500</v>
+        <v>6100</v>
       </c>
       <c r="F15" s="3">
-        <v>6500</v>
+        <v>6100</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>5</v>
@@ -1135,25 +1135,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>812100</v>
+        <v>760000</v>
       </c>
       <c r="E17" s="3">
-        <v>748300</v>
+        <v>700200</v>
       </c>
       <c r="F17" s="3">
-        <v>679200</v>
+        <v>635600</v>
       </c>
       <c r="G17" s="3">
-        <v>1663400</v>
+        <v>1556600</v>
       </c>
       <c r="H17" s="3">
-        <v>1707700</v>
+        <v>1598100</v>
       </c>
       <c r="I17" s="3">
-        <v>1628200</v>
+        <v>1523700</v>
       </c>
       <c r="J17" s="3">
-        <v>1655600</v>
+        <v>1549300</v>
       </c>
       <c r="K17" s="3">
         <v>1618800</v>
@@ -1185,25 +1185,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>43000</v>
+        <v>40300</v>
       </c>
       <c r="E18" s="3">
-        <v>58700</v>
+        <v>54900</v>
       </c>
       <c r="F18" s="3">
-        <v>92600</v>
+        <v>86600</v>
       </c>
       <c r="G18" s="3">
-        <v>169500</v>
+        <v>158600</v>
       </c>
       <c r="H18" s="3">
-        <v>216400</v>
+        <v>202500</v>
       </c>
       <c r="I18" s="3">
-        <v>160300</v>
+        <v>150000</v>
       </c>
       <c r="J18" s="3">
-        <v>147300</v>
+        <v>137800</v>
       </c>
       <c r="K18" s="3">
         <v>170500</v>
@@ -1255,22 +1255,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-15600</v>
+        <v>-14600</v>
       </c>
       <c r="E20" s="3">
-        <v>-16900</v>
+        <v>-15900</v>
       </c>
       <c r="F20" s="3">
-        <v>-16900</v>
+        <v>-15900</v>
       </c>
       <c r="G20" s="3">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="H20" s="3">
-        <v>-2600</v>
+        <v>-2400</v>
       </c>
       <c r="I20" s="3">
-        <v>5200</v>
+        <v>4900</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -1305,25 +1305,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>106900</v>
+        <v>100000</v>
       </c>
       <c r="E21" s="3">
-        <v>155100</v>
+        <v>145200</v>
       </c>
       <c r="F21" s="3">
-        <v>190300</v>
+        <v>178100</v>
       </c>
       <c r="G21" s="3">
-        <v>269800</v>
+        <v>252500</v>
       </c>
       <c r="H21" s="3">
-        <v>340200</v>
+        <v>318400</v>
       </c>
       <c r="I21" s="3">
-        <v>265900</v>
+        <v>248900</v>
       </c>
       <c r="J21" s="3">
-        <v>245100</v>
+        <v>229300</v>
       </c>
       <c r="K21" s="3">
         <v>276800</v>
@@ -1405,25 +1405,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>27400</v>
+        <v>25600</v>
       </c>
       <c r="E23" s="3">
-        <v>41700</v>
+        <v>39000</v>
       </c>
       <c r="F23" s="3">
-        <v>75600</v>
+        <v>70800</v>
       </c>
       <c r="G23" s="3">
-        <v>172100</v>
+        <v>161000</v>
       </c>
       <c r="H23" s="3">
-        <v>213800</v>
+        <v>200100</v>
       </c>
       <c r="I23" s="3">
-        <v>165600</v>
+        <v>154900</v>
       </c>
       <c r="J23" s="3">
-        <v>147300</v>
+        <v>137800</v>
       </c>
       <c r="K23" s="3">
         <v>170500</v>
@@ -1455,25 +1455,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>19600</v>
+        <v>18300</v>
       </c>
       <c r="E24" s="3">
-        <v>-3900</v>
+        <v>-3700</v>
       </c>
       <c r="F24" s="3">
-        <v>20900</v>
+        <v>19500</v>
       </c>
       <c r="G24" s="3">
-        <v>23500</v>
+        <v>22000</v>
       </c>
       <c r="H24" s="3">
-        <v>43000</v>
+        <v>40300</v>
       </c>
       <c r="I24" s="3">
-        <v>35200</v>
+        <v>32900</v>
       </c>
       <c r="J24" s="3">
-        <v>41700</v>
+        <v>39000</v>
       </c>
       <c r="K24" s="3">
         <v>-19100</v>
@@ -1555,25 +1555,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>7800</v>
+        <v>7300</v>
       </c>
       <c r="E26" s="3">
-        <v>45600</v>
+        <v>42700</v>
       </c>
       <c r="F26" s="3">
-        <v>54800</v>
+        <v>51200</v>
       </c>
       <c r="G26" s="3">
-        <v>148600</v>
+        <v>139100</v>
       </c>
       <c r="H26" s="3">
-        <v>170800</v>
+        <v>159800</v>
       </c>
       <c r="I26" s="3">
-        <v>130400</v>
+        <v>122000</v>
       </c>
       <c r="J26" s="3">
-        <v>105600</v>
+        <v>98800</v>
       </c>
       <c r="K26" s="3">
         <v>189600</v>
@@ -1605,25 +1605,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>7800</v>
+        <v>7300</v>
       </c>
       <c r="E27" s="3">
-        <v>45600</v>
+        <v>42700</v>
       </c>
       <c r="F27" s="3">
-        <v>54800</v>
+        <v>51200</v>
       </c>
       <c r="G27" s="3">
-        <v>148600</v>
+        <v>139100</v>
       </c>
       <c r="H27" s="3">
-        <v>170800</v>
+        <v>159800</v>
       </c>
       <c r="I27" s="3">
-        <v>130400</v>
+        <v>122000</v>
       </c>
       <c r="J27" s="3">
-        <v>105600</v>
+        <v>98800</v>
       </c>
       <c r="K27" s="3">
         <v>189600</v>
@@ -1705,13 +1705,13 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>125100</v>
+        <v>117100</v>
       </c>
       <c r="E29" s="3">
-        <v>110800</v>
+        <v>103700</v>
       </c>
       <c r="F29" s="3">
-        <v>118600</v>
+        <v>111000</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -1855,22 +1855,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>15600</v>
+        <v>14600</v>
       </c>
       <c r="E32" s="3">
-        <v>16900</v>
+        <v>15900</v>
       </c>
       <c r="F32" s="3">
-        <v>16900</v>
+        <v>15900</v>
       </c>
       <c r="G32" s="3">
-        <v>-2600</v>
+        <v>-2400</v>
       </c>
       <c r="H32" s="3">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="I32" s="3">
-        <v>-5200</v>
+        <v>-4900</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
@@ -1905,25 +1905,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>133000</v>
+        <v>124400</v>
       </c>
       <c r="E33" s="3">
-        <v>156400</v>
+        <v>146400</v>
       </c>
       <c r="F33" s="3">
-        <v>173400</v>
+        <v>162200</v>
       </c>
       <c r="G33" s="3">
-        <v>148600</v>
+        <v>139100</v>
       </c>
       <c r="H33" s="3">
-        <v>170800</v>
+        <v>159800</v>
       </c>
       <c r="I33" s="3">
-        <v>130400</v>
+        <v>122000</v>
       </c>
       <c r="J33" s="3">
-        <v>105600</v>
+        <v>98800</v>
       </c>
       <c r="K33" s="3">
         <v>192300</v>
@@ -2005,25 +2005,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>133000</v>
+        <v>124400</v>
       </c>
       <c r="E35" s="3">
-        <v>156400</v>
+        <v>146400</v>
       </c>
       <c r="F35" s="3">
-        <v>173400</v>
+        <v>162200</v>
       </c>
       <c r="G35" s="3">
-        <v>148600</v>
+        <v>139100</v>
       </c>
       <c r="H35" s="3">
-        <v>170800</v>
+        <v>159800</v>
       </c>
       <c r="I35" s="3">
-        <v>130400</v>
+        <v>122000</v>
       </c>
       <c r="J35" s="3">
-        <v>105600</v>
+        <v>98800</v>
       </c>
       <c r="K35" s="3">
         <v>192300</v>
@@ -2150,25 +2150,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>501900</v>
+        <v>469700</v>
       </c>
       <c r="E41" s="3">
-        <v>483600</v>
+        <v>452600</v>
       </c>
       <c r="F41" s="3">
-        <v>630900</v>
+        <v>590400</v>
       </c>
       <c r="G41" s="3">
-        <v>353300</v>
+        <v>330600</v>
       </c>
       <c r="H41" s="3">
-        <v>470600</v>
+        <v>440400</v>
       </c>
       <c r="I41" s="3">
-        <v>371500</v>
+        <v>347700</v>
       </c>
       <c r="J41" s="3">
-        <v>370200</v>
+        <v>346500</v>
       </c>
       <c r="K41" s="3">
         <v>259100</v>
@@ -2203,13 +2203,13 @@
         <v>0</v>
       </c>
       <c r="E42" s="3">
-        <v>41700</v>
+        <v>39000</v>
       </c>
       <c r="F42" s="3">
-        <v>49500</v>
+        <v>46400</v>
       </c>
       <c r="G42" s="3">
-        <v>87300</v>
+        <v>81700</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>5</v>
@@ -2250,25 +2250,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>341500</v>
+        <v>319600</v>
       </c>
       <c r="E43" s="3">
-        <v>448400</v>
+        <v>419600</v>
       </c>
       <c r="F43" s="3">
-        <v>415800</v>
+        <v>389100</v>
       </c>
       <c r="G43" s="3">
-        <v>434100</v>
+        <v>406200</v>
       </c>
       <c r="H43" s="3">
-        <v>417100</v>
+        <v>390400</v>
       </c>
       <c r="I43" s="3">
-        <v>428900</v>
+        <v>401300</v>
       </c>
       <c r="J43" s="3">
-        <v>455000</v>
+        <v>425700</v>
       </c>
       <c r="K43" s="3">
         <v>402300</v>
@@ -2300,25 +2300,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>342800</v>
+        <v>320800</v>
       </c>
       <c r="E44" s="3">
-        <v>693500</v>
+        <v>649000</v>
       </c>
       <c r="F44" s="3">
-        <v>509700</v>
+        <v>477000</v>
       </c>
       <c r="G44" s="3">
-        <v>594400</v>
+        <v>556300</v>
       </c>
       <c r="H44" s="3">
-        <v>538400</v>
+        <v>503800</v>
       </c>
       <c r="I44" s="3">
-        <v>565800</v>
+        <v>529400</v>
       </c>
       <c r="J44" s="3">
-        <v>543600</v>
+        <v>508700</v>
       </c>
       <c r="K44" s="3">
         <v>571400</v>
@@ -2350,25 +2350,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1792400</v>
+        <v>1677400</v>
       </c>
       <c r="E45" s="3">
-        <v>30000</v>
+        <v>28100</v>
       </c>
       <c r="F45" s="3">
-        <v>11700</v>
+        <v>11000</v>
       </c>
       <c r="G45" s="3">
-        <v>6500</v>
+        <v>6100</v>
       </c>
       <c r="H45" s="3">
-        <v>46900</v>
+        <v>43900</v>
       </c>
       <c r="I45" s="3">
-        <v>62600</v>
+        <v>58600</v>
       </c>
       <c r="J45" s="3">
-        <v>49500</v>
+        <v>46400</v>
       </c>
       <c r="K45" s="3">
         <v>32700</v>
@@ -2400,25 +2400,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2978700</v>
+        <v>2787500</v>
       </c>
       <c r="E46" s="3">
-        <v>1697300</v>
+        <v>1588300</v>
       </c>
       <c r="F46" s="3">
-        <v>1617800</v>
+        <v>1513900</v>
       </c>
       <c r="G46" s="3">
-        <v>1475700</v>
+        <v>1380900</v>
       </c>
       <c r="H46" s="3">
-        <v>1473100</v>
+        <v>1378500</v>
       </c>
       <c r="I46" s="3">
-        <v>1428700</v>
+        <v>1337000</v>
       </c>
       <c r="J46" s="3">
-        <v>1418300</v>
+        <v>1327300</v>
       </c>
       <c r="K46" s="3">
         <v>1265600</v>
@@ -2450,25 +2450,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>66500</v>
+        <v>62200</v>
       </c>
       <c r="E47" s="3">
-        <v>213800</v>
+        <v>200100</v>
       </c>
       <c r="F47" s="3">
-        <v>213800</v>
+        <v>200100</v>
       </c>
       <c r="G47" s="3">
-        <v>200800</v>
+        <v>187900</v>
       </c>
       <c r="H47" s="3">
-        <v>208600</v>
+        <v>195200</v>
       </c>
       <c r="I47" s="3">
-        <v>212500</v>
+        <v>198800</v>
       </c>
       <c r="J47" s="3">
-        <v>169500</v>
+        <v>158600</v>
       </c>
       <c r="K47" s="3">
         <v>170500</v>
@@ -2500,25 +2500,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>555300</v>
+        <v>519700</v>
       </c>
       <c r="E48" s="3">
-        <v>2880900</v>
+        <v>2696000</v>
       </c>
       <c r="F48" s="3">
-        <v>3003500</v>
+        <v>2810600</v>
       </c>
       <c r="G48" s="3">
-        <v>1551300</v>
+        <v>1451700</v>
       </c>
       <c r="H48" s="3">
-        <v>1550000</v>
+        <v>1450500</v>
       </c>
       <c r="I48" s="3">
-        <v>1280100</v>
+        <v>1197900</v>
       </c>
       <c r="J48" s="3">
-        <v>1289300</v>
+        <v>1206500</v>
       </c>
       <c r="K48" s="3">
         <v>1316100</v>
@@ -2550,25 +2550,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>378000</v>
+        <v>353800</v>
       </c>
       <c r="E49" s="3">
-        <v>449700</v>
+        <v>420900</v>
       </c>
       <c r="F49" s="3">
-        <v>415800</v>
+        <v>389100</v>
       </c>
       <c r="G49" s="3">
-        <v>443200</v>
+        <v>414800</v>
       </c>
       <c r="H49" s="3">
-        <v>453600</v>
+        <v>424500</v>
       </c>
       <c r="I49" s="3">
-        <v>445800</v>
+        <v>417200</v>
       </c>
       <c r="J49" s="3">
-        <v>461500</v>
+        <v>431800</v>
       </c>
       <c r="K49" s="3">
         <v>491000</v>
@@ -2700,25 +2700,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>86000</v>
+        <v>80500</v>
       </c>
       <c r="E52" s="3">
-        <v>66500</v>
+        <v>62200</v>
       </c>
       <c r="F52" s="3">
-        <v>54800</v>
+        <v>51200</v>
       </c>
       <c r="G52" s="3">
-        <v>45600</v>
+        <v>42700</v>
       </c>
       <c r="H52" s="3">
-        <v>44300</v>
+        <v>41500</v>
       </c>
       <c r="I52" s="3">
-        <v>273800</v>
+        <v>256200</v>
       </c>
       <c r="J52" s="3">
-        <v>258100</v>
+        <v>241500</v>
       </c>
       <c r="K52" s="3">
         <v>263200</v>
@@ -2800,25 +2800,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4064600</v>
+        <v>3803600</v>
       </c>
       <c r="E54" s="3">
-        <v>3867800</v>
+        <v>3619400</v>
       </c>
       <c r="F54" s="3">
-        <v>3803900</v>
+        <v>3559700</v>
       </c>
       <c r="G54" s="3">
-        <v>3716500</v>
+        <v>3477900</v>
       </c>
       <c r="H54" s="3">
-        <v>3729600</v>
+        <v>3490100</v>
       </c>
       <c r="I54" s="3">
-        <v>3640900</v>
+        <v>3407200</v>
       </c>
       <c r="J54" s="3">
-        <v>3596600</v>
+        <v>3365700</v>
       </c>
       <c r="K54" s="3">
         <v>3506300</v>
@@ -2890,25 +2890,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>275100</v>
+        <v>257400</v>
       </c>
       <c r="E57" s="3">
-        <v>561800</v>
+        <v>525800</v>
       </c>
       <c r="F57" s="3">
-        <v>434100</v>
+        <v>406200</v>
       </c>
       <c r="G57" s="3">
-        <v>482300</v>
+        <v>451400</v>
       </c>
       <c r="H57" s="3">
-        <v>397600</v>
+        <v>372100</v>
       </c>
       <c r="I57" s="3">
-        <v>445800</v>
+        <v>417200</v>
       </c>
       <c r="J57" s="3">
-        <v>461500</v>
+        <v>431800</v>
       </c>
       <c r="K57" s="3">
         <v>425500</v>
@@ -2940,25 +2940,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>32600</v>
+        <v>30500</v>
       </c>
       <c r="E58" s="3">
-        <v>109500</v>
+        <v>102500</v>
       </c>
       <c r="F58" s="3">
-        <v>109500</v>
+        <v>102500</v>
       </c>
       <c r="G58" s="3">
-        <v>52100</v>
+        <v>48800</v>
       </c>
       <c r="H58" s="3">
-        <v>333700</v>
+        <v>312300</v>
       </c>
       <c r="I58" s="3">
-        <v>292000</v>
+        <v>273300</v>
       </c>
       <c r="J58" s="3">
-        <v>31300</v>
+        <v>29300</v>
       </c>
       <c r="K58" s="3">
         <v>21800</v>
@@ -2990,25 +2990,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>675300</v>
+        <v>631900</v>
       </c>
       <c r="E59" s="3">
-        <v>109500</v>
+        <v>102500</v>
       </c>
       <c r="F59" s="3">
-        <v>106900</v>
+        <v>100000</v>
       </c>
       <c r="G59" s="3">
-        <v>127800</v>
+        <v>119600</v>
       </c>
       <c r="H59" s="3">
-        <v>151200</v>
+        <v>141500</v>
       </c>
       <c r="I59" s="3">
-        <v>149900</v>
+        <v>140300</v>
       </c>
       <c r="J59" s="3">
-        <v>144700</v>
+        <v>135400</v>
       </c>
       <c r="K59" s="3">
         <v>100900</v>
@@ -3040,25 +3040,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>982900</v>
+        <v>919800</v>
       </c>
       <c r="E60" s="3">
-        <v>726100</v>
+        <v>679500</v>
       </c>
       <c r="F60" s="3">
-        <v>595700</v>
+        <v>557500</v>
       </c>
       <c r="G60" s="3">
-        <v>662200</v>
+        <v>619700</v>
       </c>
       <c r="H60" s="3">
-        <v>882500</v>
+        <v>825900</v>
       </c>
       <c r="I60" s="3">
-        <v>887700</v>
+        <v>830800</v>
       </c>
       <c r="J60" s="3">
-        <v>637500</v>
+        <v>596500</v>
       </c>
       <c r="K60" s="3">
         <v>548200</v>
@@ -3090,25 +3090,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>911200</v>
+        <v>852700</v>
       </c>
       <c r="E61" s="3">
-        <v>972500</v>
+        <v>910000</v>
       </c>
       <c r="F61" s="3">
-        <v>1042900</v>
+        <v>975900</v>
       </c>
       <c r="G61" s="3">
-        <v>889000</v>
+        <v>832000</v>
       </c>
       <c r="H61" s="3">
-        <v>701300</v>
+        <v>656300</v>
       </c>
       <c r="I61" s="3">
-        <v>486200</v>
+        <v>455000</v>
       </c>
       <c r="J61" s="3">
-        <v>752200</v>
+        <v>703900</v>
       </c>
       <c r="K61" s="3">
         <v>755500</v>
@@ -3140,25 +3140,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>204700</v>
+        <v>191500</v>
       </c>
       <c r="E62" s="3">
-        <v>273800</v>
+        <v>256200</v>
       </c>
       <c r="F62" s="3">
-        <v>310300</v>
+        <v>290300</v>
       </c>
       <c r="G62" s="3">
-        <v>341500</v>
+        <v>319600</v>
       </c>
       <c r="H62" s="3">
-        <v>349400</v>
+        <v>326900</v>
       </c>
       <c r="I62" s="3">
-        <v>325900</v>
+        <v>305000</v>
       </c>
       <c r="J62" s="3">
-        <v>366300</v>
+        <v>342800</v>
       </c>
       <c r="K62" s="3">
         <v>338200</v>
@@ -3340,25 +3340,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2100100</v>
+        <v>1965300</v>
       </c>
       <c r="E66" s="3">
-        <v>1973600</v>
+        <v>1846900</v>
       </c>
       <c r="F66" s="3">
-        <v>1948900</v>
+        <v>1823800</v>
       </c>
       <c r="G66" s="3">
-        <v>1892800</v>
+        <v>1771300</v>
       </c>
       <c r="H66" s="3">
-        <v>1933200</v>
+        <v>1809100</v>
       </c>
       <c r="I66" s="3">
-        <v>1699900</v>
+        <v>1590700</v>
       </c>
       <c r="J66" s="3">
-        <v>1755900</v>
+        <v>1643200</v>
       </c>
       <c r="K66" s="3">
         <v>1642000</v>
@@ -3610,25 +3610,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1281400</v>
+        <v>1199200</v>
       </c>
       <c r="E72" s="3">
-        <v>1211000</v>
+        <v>1133300</v>
       </c>
       <c r="F72" s="3">
-        <v>1171900</v>
+        <v>1096700</v>
       </c>
       <c r="G72" s="3">
-        <v>1141900</v>
+        <v>1068600</v>
       </c>
       <c r="H72" s="3">
-        <v>1114600</v>
+        <v>1043000</v>
       </c>
       <c r="I72" s="3">
-        <v>1259300</v>
+        <v>1178400</v>
       </c>
       <c r="J72" s="3">
-        <v>1158900</v>
+        <v>1084500</v>
       </c>
       <c r="K72" s="3">
         <v>1151000</v>
@@ -3810,25 +3810,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1964500</v>
+        <v>1838400</v>
       </c>
       <c r="E76" s="3">
-        <v>1894100</v>
+        <v>1772500</v>
       </c>
       <c r="F76" s="3">
-        <v>1855000</v>
+        <v>1735900</v>
       </c>
       <c r="G76" s="3">
-        <v>1823700</v>
+        <v>1706600</v>
       </c>
       <c r="H76" s="3">
-        <v>1796300</v>
+        <v>1681000</v>
       </c>
       <c r="I76" s="3">
-        <v>1941000</v>
+        <v>1816400</v>
       </c>
       <c r="J76" s="3">
-        <v>1840700</v>
+        <v>1722500</v>
       </c>
       <c r="K76" s="3">
         <v>1864300</v>
@@ -3965,25 +3965,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>133000</v>
+        <v>124400</v>
       </c>
       <c r="E81" s="3">
-        <v>156400</v>
+        <v>146400</v>
       </c>
       <c r="F81" s="3">
-        <v>173400</v>
+        <v>162200</v>
       </c>
       <c r="G81" s="3">
-        <v>148600</v>
+        <v>139100</v>
       </c>
       <c r="H81" s="3">
-        <v>170800</v>
+        <v>159800</v>
       </c>
       <c r="I81" s="3">
-        <v>130400</v>
+        <v>122000</v>
       </c>
       <c r="J81" s="3">
-        <v>105600</v>
+        <v>98800</v>
       </c>
       <c r="K81" s="3">
         <v>192300</v>
@@ -4035,25 +4035,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>79500</v>
+        <v>74400</v>
       </c>
       <c r="E83" s="3">
-        <v>113400</v>
+        <v>106100</v>
       </c>
       <c r="F83" s="3">
-        <v>114700</v>
+        <v>107400</v>
       </c>
       <c r="G83" s="3">
-        <v>97800</v>
+        <v>91500</v>
       </c>
       <c r="H83" s="3">
-        <v>126400</v>
+        <v>118300</v>
       </c>
       <c r="I83" s="3">
-        <v>100400</v>
+        <v>93900</v>
       </c>
       <c r="J83" s="3">
-        <v>97800</v>
+        <v>91500</v>
       </c>
       <c r="K83" s="3">
         <v>106400</v>
@@ -4335,25 +4335,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>233300</v>
+        <v>218400</v>
       </c>
       <c r="E89" s="3">
-        <v>161600</v>
+        <v>151300</v>
       </c>
       <c r="F89" s="3">
-        <v>319400</v>
+        <v>298900</v>
       </c>
       <c r="G89" s="3">
-        <v>202100</v>
+        <v>189100</v>
       </c>
       <c r="H89" s="3">
-        <v>299800</v>
+        <v>280600</v>
       </c>
       <c r="I89" s="3">
-        <v>155100</v>
+        <v>145200</v>
       </c>
       <c r="J89" s="3">
-        <v>275100</v>
+        <v>257400</v>
       </c>
       <c r="K89" s="3">
         <v>105000</v>
@@ -4405,25 +4405,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-80800</v>
+        <v>-75600</v>
       </c>
       <c r="E91" s="3">
-        <v>-93900</v>
+        <v>-87800</v>
       </c>
       <c r="F91" s="3">
-        <v>-80800</v>
+        <v>-75600</v>
       </c>
       <c r="G91" s="3">
-        <v>79500</v>
+        <v>74400</v>
       </c>
       <c r="H91" s="3">
-        <v>-80800</v>
+        <v>-75600</v>
       </c>
       <c r="I91" s="3">
-        <v>-74300</v>
+        <v>-69500</v>
       </c>
       <c r="J91" s="3">
-        <v>-60000</v>
+        <v>-56100</v>
       </c>
       <c r="K91" s="3">
         <v>-81800</v>
@@ -4555,25 +4555,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-53400</v>
+        <v>-50000</v>
       </c>
       <c r="E94" s="3">
-        <v>-189000</v>
+        <v>-176900</v>
       </c>
       <c r="F94" s="3">
-        <v>-78200</v>
+        <v>-73200</v>
       </c>
       <c r="G94" s="3">
-        <v>-109500</v>
+        <v>-102500</v>
       </c>
       <c r="H94" s="3">
-        <v>-58700</v>
+        <v>-54900</v>
       </c>
       <c r="I94" s="3">
-        <v>-105600</v>
+        <v>-98800</v>
       </c>
       <c r="J94" s="3">
-        <v>-39100</v>
+        <v>-36600</v>
       </c>
       <c r="K94" s="3">
         <v>-83200</v>
@@ -4625,25 +4625,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-133000</v>
+        <v>-124400</v>
       </c>
       <c r="E96" s="3">
-        <v>-52100</v>
+        <v>-48800</v>
       </c>
       <c r="F96" s="3">
-        <v>-126400</v>
+        <v>-118300</v>
       </c>
       <c r="G96" s="3">
-        <v>-52100</v>
+        <v>-48800</v>
       </c>
       <c r="H96" s="3">
-        <v>-126400</v>
+        <v>-118300</v>
       </c>
       <c r="I96" s="3">
-        <v>-52100</v>
+        <v>-48800</v>
       </c>
       <c r="J96" s="3">
-        <v>-122500</v>
+        <v>-114700</v>
       </c>
       <c r="K96" s="3">
         <v>-53200</v>
@@ -4825,25 +4825,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-157700</v>
+        <v>-147600</v>
       </c>
       <c r="E100" s="3">
-        <v>-82100</v>
+        <v>-76900</v>
       </c>
       <c r="F100" s="3">
-        <v>44300</v>
+        <v>41500</v>
       </c>
       <c r="G100" s="3">
-        <v>-194200</v>
+        <v>-181800</v>
       </c>
       <c r="H100" s="3">
-        <v>-161600</v>
+        <v>-151300</v>
       </c>
       <c r="I100" s="3">
-        <v>-50800</v>
+        <v>-47600</v>
       </c>
       <c r="J100" s="3">
-        <v>-131700</v>
+        <v>-123200</v>
       </c>
       <c r="K100" s="3">
         <v>-80500</v>
@@ -4875,25 +4875,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>10400</v>
+        <v>9800</v>
       </c>
       <c r="E101" s="3">
-        <v>-37800</v>
+        <v>-35400</v>
       </c>
       <c r="F101" s="3">
-        <v>-7800</v>
+        <v>-7300</v>
       </c>
       <c r="G101" s="3">
-        <v>-15600</v>
+        <v>-14600</v>
       </c>
       <c r="H101" s="3">
-        <v>19600</v>
+        <v>18300</v>
       </c>
       <c r="I101" s="3">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="J101" s="3">
-        <v>18300</v>
+        <v>17100</v>
       </c>
       <c r="K101" s="3">
         <v>-12300</v>
@@ -4925,25 +4925,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>32600</v>
+        <v>30500</v>
       </c>
       <c r="E102" s="3">
-        <v>-147300</v>
+        <v>-137800</v>
       </c>
       <c r="F102" s="3">
-        <v>277700</v>
+        <v>259800</v>
       </c>
       <c r="G102" s="3">
-        <v>-117300</v>
+        <v>-109800</v>
       </c>
       <c r="H102" s="3">
-        <v>99100</v>
+        <v>92700</v>
       </c>
       <c r="I102" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="J102" s="3">
-        <v>122500</v>
+        <v>114700</v>
       </c>
       <c r="K102" s="3">
         <v>-70900</v>

--- a/AAII_Financials/Quarterly/TATYY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TATYY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="92">
   <si>
     <t>TATYY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,135 +665,142 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42825</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42643</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42460</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42277</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42094</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>800300</v>
+        <v>850500</v>
       </c>
       <c r="E8" s="3">
-        <v>755100</v>
+        <v>776000</v>
       </c>
       <c r="F8" s="3">
-        <v>722200</v>
+        <v>732200</v>
       </c>
       <c r="G8" s="3">
-        <v>1715200</v>
+        <v>700300</v>
       </c>
       <c r="H8" s="3">
-        <v>1800600</v>
+        <v>1663200</v>
       </c>
       <c r="I8" s="3">
-        <v>1673700</v>
+        <v>1746000</v>
       </c>
       <c r="J8" s="3">
+        <v>1622900</v>
+      </c>
+      <c r="K8" s="3">
         <v>1687100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1789300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1978300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1891400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1626900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1545600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1526000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1502500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1580100</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -842,8 +849,11 @@
       <c r="R9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -892,8 +902,11 @@
       <c r="R10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -912,8 +925,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -962,8 +976,11 @@
       <c r="R12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1012,22 +1029,25 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>72000</v>
+        <v>28400</v>
       </c>
       <c r="E14" s="3">
-        <v>23200</v>
+        <v>69800</v>
       </c>
       <c r="F14" s="3">
-        <v>18300</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>5</v>
+        <v>22500</v>
+      </c>
+      <c r="G14" s="3">
+        <v>17700</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>5</v>
@@ -1041,8 +1061,8 @@
       <c r="K14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1050,8 +1070,8 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>5</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>5</v>
@@ -1062,22 +1082,25 @@
       <c r="R14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>6100</v>
+        <v>22500</v>
       </c>
       <c r="E15" s="3">
-        <v>6100</v>
+        <v>5900</v>
       </c>
       <c r="F15" s="3">
-        <v>6100</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>5</v>
+        <v>24800</v>
+      </c>
+      <c r="G15" s="3">
+        <v>5900</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>5</v>
@@ -1091,8 +1114,8 @@
       <c r="K15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="L15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1100,8 +1123,8 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>5</v>
+      <c r="O15" s="3">
+        <v>0</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>5</v>
@@ -1112,8 +1135,11 @@
       <c r="R15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1129,108 +1155,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>760000</v>
+        <v>810300</v>
       </c>
       <c r="E17" s="3">
-        <v>700200</v>
+        <v>736900</v>
       </c>
       <c r="F17" s="3">
-        <v>635600</v>
+        <v>679000</v>
       </c>
       <c r="G17" s="3">
-        <v>1556600</v>
+        <v>616300</v>
       </c>
       <c r="H17" s="3">
-        <v>1598100</v>
+        <v>1509400</v>
       </c>
       <c r="I17" s="3">
-        <v>1523700</v>
+        <v>1549600</v>
       </c>
       <c r="J17" s="3">
+        <v>1477400</v>
+      </c>
+      <c r="K17" s="3">
         <v>1549300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1618800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1744800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1747400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1474200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1472600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1433400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1548500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1490600</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>40300</v>
+        <v>40200</v>
       </c>
       <c r="E18" s="3">
-        <v>54900</v>
+        <v>39000</v>
       </c>
       <c r="F18" s="3">
-        <v>86600</v>
+        <v>53200</v>
       </c>
       <c r="G18" s="3">
-        <v>158600</v>
+        <v>84000</v>
       </c>
       <c r="H18" s="3">
-        <v>202500</v>
+        <v>153800</v>
       </c>
       <c r="I18" s="3">
-        <v>150000</v>
+        <v>196400</v>
       </c>
       <c r="J18" s="3">
+        <v>145500</v>
+      </c>
+      <c r="K18" s="3">
         <v>137800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>170500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>233500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>144000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>152700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>73000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>92600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-46100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>89500</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1249,108 +1282,115 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-14600</v>
+        <v>-15400</v>
       </c>
       <c r="E20" s="3">
-        <v>-15900</v>
+        <v>-14200</v>
       </c>
       <c r="F20" s="3">
-        <v>-15900</v>
+        <v>-15400</v>
       </c>
       <c r="G20" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="H20" s="3">
         <v>2400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
+        <v>4700</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="N20" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="O20" s="3">
         <v>4900</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-5700</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-5300</v>
-      </c>
-      <c r="N20" s="3">
-        <v>4900</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>17000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>11700</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>10500</v>
       </c>
       <c r="R20" s="3">
         <v>10500</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>100000</v>
+        <v>71000</v>
       </c>
       <c r="E21" s="3">
-        <v>145200</v>
+        <v>97000</v>
       </c>
       <c r="F21" s="3">
-        <v>178100</v>
+        <v>140800</v>
       </c>
       <c r="G21" s="3">
-        <v>252500</v>
+        <v>172700</v>
       </c>
       <c r="H21" s="3">
-        <v>318400</v>
+        <v>244900</v>
       </c>
       <c r="I21" s="3">
-        <v>248900</v>
+        <v>308700</v>
       </c>
       <c r="J21" s="3">
+        <v>241300</v>
+      </c>
+      <c r="K21" s="3">
         <v>229300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>276800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>335400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>244300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>242600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>168300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>176100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>40800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>167200</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1387,120 +1427,129 @@
       <c r="N22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O22" s="3">
+      <c r="O22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="3">
         <v>17000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>13000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>14500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>17100</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>25600</v>
+        <v>24800</v>
       </c>
       <c r="E23" s="3">
-        <v>39000</v>
+        <v>24800</v>
       </c>
       <c r="F23" s="3">
-        <v>70800</v>
+        <v>37900</v>
       </c>
       <c r="G23" s="3">
-        <v>161000</v>
+        <v>68600</v>
       </c>
       <c r="H23" s="3">
-        <v>200100</v>
+        <v>156100</v>
       </c>
       <c r="I23" s="3">
-        <v>154900</v>
+        <v>194000</v>
       </c>
       <c r="J23" s="3">
+        <v>150200</v>
+      </c>
+      <c r="K23" s="3">
         <v>137800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>170500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>227800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>138700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>157600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>73000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>91300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-50000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>83000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>18300</v>
+        <v>11800</v>
       </c>
       <c r="E24" s="3">
-        <v>-3700</v>
+        <v>17700</v>
       </c>
       <c r="F24" s="3">
-        <v>19500</v>
+        <v>-3500</v>
       </c>
       <c r="G24" s="3">
-        <v>22000</v>
+        <v>18900</v>
       </c>
       <c r="H24" s="3">
-        <v>40300</v>
+        <v>21300</v>
       </c>
       <c r="I24" s="3">
-        <v>32900</v>
+        <v>39000</v>
       </c>
       <c r="J24" s="3">
+        <v>31900</v>
+      </c>
+      <c r="K24" s="3">
         <v>39000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-19100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>52400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-27700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-1200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>3900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>13200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>14500</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1549,108 +1598,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>7300</v>
+        <v>13000</v>
       </c>
       <c r="E26" s="3">
-        <v>42700</v>
+        <v>7100</v>
       </c>
       <c r="F26" s="3">
-        <v>51200</v>
+        <v>41400</v>
       </c>
       <c r="G26" s="3">
-        <v>139100</v>
+        <v>49700</v>
       </c>
       <c r="H26" s="3">
-        <v>159800</v>
+        <v>134900</v>
       </c>
       <c r="I26" s="3">
-        <v>122000</v>
+        <v>155000</v>
       </c>
       <c r="J26" s="3">
+        <v>118300</v>
+      </c>
+      <c r="K26" s="3">
         <v>98800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>189600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>175500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>166400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>158900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>70400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>87400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-63200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>68500</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>7300</v>
+        <v>13000</v>
       </c>
       <c r="E27" s="3">
-        <v>42700</v>
+        <v>7100</v>
       </c>
       <c r="F27" s="3">
-        <v>51200</v>
+        <v>41400</v>
       </c>
       <c r="G27" s="3">
-        <v>139100</v>
+        <v>49700</v>
       </c>
       <c r="H27" s="3">
-        <v>159800</v>
+        <v>134900</v>
       </c>
       <c r="I27" s="3">
-        <v>122000</v>
+        <v>155000</v>
       </c>
       <c r="J27" s="3">
+        <v>118300</v>
+      </c>
+      <c r="K27" s="3">
         <v>98800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>189600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>175500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>166400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>158900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>70400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>87400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-63200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>68500</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1699,58 +1757,64 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>117100</v>
+        <v>145500</v>
       </c>
       <c r="E29" s="3">
-        <v>103700</v>
+        <v>113600</v>
       </c>
       <c r="F29" s="3">
-        <v>111000</v>
+        <v>100500</v>
       </c>
       <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
+        <v>107600</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>2700</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
         <v>0</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>1200</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>78300</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-23500</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>13200</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1799,8 +1863,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1849,108 +1916,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>14600</v>
+        <v>15400</v>
       </c>
       <c r="E32" s="3">
-        <v>15900</v>
+        <v>14200</v>
       </c>
       <c r="F32" s="3">
-        <v>15900</v>
+        <v>15400</v>
       </c>
       <c r="G32" s="3">
+        <v>15400</v>
+      </c>
+      <c r="H32" s="3">
         <v>-2400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>5700</v>
+      </c>
+      <c r="N32" s="3">
+        <v>5300</v>
+      </c>
+      <c r="O32" s="3">
         <v>-4900</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
-        <v>5700</v>
-      </c>
-      <c r="M32" s="3">
-        <v>5300</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-4900</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-17000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-11700</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-10500</v>
       </c>
       <c r="R32" s="3">
         <v>-10500</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>-10500</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>124400</v>
+        <v>158500</v>
       </c>
       <c r="E33" s="3">
-        <v>146400</v>
+        <v>120700</v>
       </c>
       <c r="F33" s="3">
-        <v>162200</v>
+        <v>141900</v>
       </c>
       <c r="G33" s="3">
-        <v>139100</v>
+        <v>157300</v>
       </c>
       <c r="H33" s="3">
-        <v>159800</v>
+        <v>134900</v>
       </c>
       <c r="I33" s="3">
-        <v>122000</v>
+        <v>155000</v>
       </c>
       <c r="J33" s="3">
+        <v>118300</v>
+      </c>
+      <c r="K33" s="3">
         <v>98800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>192300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>175500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>166400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>160100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>148700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>63900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-50000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>89500</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1999,113 +2075,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>124400</v>
+        <v>158500</v>
       </c>
       <c r="E35" s="3">
-        <v>146400</v>
+        <v>120700</v>
       </c>
       <c r="F35" s="3">
-        <v>162200</v>
+        <v>141900</v>
       </c>
       <c r="G35" s="3">
-        <v>139100</v>
+        <v>157300</v>
       </c>
       <c r="H35" s="3">
-        <v>159800</v>
+        <v>134900</v>
       </c>
       <c r="I35" s="3">
-        <v>122000</v>
+        <v>155000</v>
       </c>
       <c r="J35" s="3">
+        <v>118300</v>
+      </c>
+      <c r="K35" s="3">
         <v>98800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>192300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>175500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>166400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>160100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>148700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>63900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-50000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>89500</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42825</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42643</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42460</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42277</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42094</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2124,8 +2209,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2144,458 +2230,486 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>469700</v>
+        <v>130100</v>
       </c>
       <c r="E41" s="3">
-        <v>452600</v>
+        <v>455400</v>
       </c>
       <c r="F41" s="3">
-        <v>590400</v>
+        <v>438900</v>
       </c>
       <c r="G41" s="3">
-        <v>330600</v>
+        <v>572500</v>
       </c>
       <c r="H41" s="3">
-        <v>440400</v>
+        <v>320600</v>
       </c>
       <c r="I41" s="3">
-        <v>347700</v>
+        <v>427000</v>
       </c>
       <c r="J41" s="3">
+        <v>337100</v>
+      </c>
+      <c r="K41" s="3">
         <v>346500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>259100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>342500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>344700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>355900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>413500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>305200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>256800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>425300</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="E42" s="3">
-        <v>39000</v>
+        <v>0</v>
       </c>
       <c r="F42" s="3">
-        <v>46400</v>
+        <v>37900</v>
       </c>
       <c r="G42" s="3">
-        <v>81700</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>5</v>
+        <v>45000</v>
+      </c>
+      <c r="H42" s="3">
+        <v>79300</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J42" s="3">
-        <v>0</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L42" s="3">
+      <c r="J42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M42" s="3">
         <v>1400</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
-      </c>
       <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
         <v>4900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>5200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>7800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>23700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>319600</v>
+        <v>332400</v>
       </c>
       <c r="E43" s="3">
-        <v>419600</v>
+        <v>309900</v>
       </c>
       <c r="F43" s="3">
-        <v>389100</v>
+        <v>406900</v>
       </c>
       <c r="G43" s="3">
-        <v>406200</v>
+        <v>377300</v>
       </c>
       <c r="H43" s="3">
-        <v>390400</v>
+        <v>393900</v>
       </c>
       <c r="I43" s="3">
-        <v>401300</v>
+        <v>378500</v>
       </c>
       <c r="J43" s="3">
+        <v>389200</v>
+      </c>
+      <c r="K43" s="3">
         <v>425700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>402300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>450000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>385700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>374400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>396500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>363900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>384500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>495100</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>320800</v>
+        <v>375000</v>
       </c>
       <c r="E44" s="3">
-        <v>649000</v>
+        <v>311100</v>
       </c>
       <c r="F44" s="3">
-        <v>477000</v>
+        <v>629300</v>
       </c>
       <c r="G44" s="3">
-        <v>556300</v>
+        <v>462500</v>
       </c>
       <c r="H44" s="3">
-        <v>503800</v>
+        <v>539400</v>
       </c>
       <c r="I44" s="3">
-        <v>529400</v>
+        <v>488500</v>
       </c>
       <c r="J44" s="3">
+        <v>513400</v>
+      </c>
+      <c r="K44" s="3">
         <v>508700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>571400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>537700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>582500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>449500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>507400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>443500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>478000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>331800</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1677400</v>
+        <v>1986100</v>
       </c>
       <c r="E45" s="3">
-        <v>28100</v>
+        <v>1626500</v>
       </c>
       <c r="F45" s="3">
-        <v>11000</v>
+        <v>27200</v>
       </c>
       <c r="G45" s="3">
-        <v>6100</v>
+        <v>10600</v>
       </c>
       <c r="H45" s="3">
-        <v>43900</v>
+        <v>5900</v>
       </c>
       <c r="I45" s="3">
-        <v>58600</v>
+        <v>42600</v>
       </c>
       <c r="J45" s="3">
+        <v>56800</v>
+      </c>
+      <c r="K45" s="3">
         <v>46400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>32700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>55200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>40900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>71400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>65200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>348300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>81600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>143500</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2787500</v>
+        <v>2825900</v>
       </c>
       <c r="E46" s="3">
-        <v>1588300</v>
+        <v>2702900</v>
       </c>
       <c r="F46" s="3">
-        <v>1513900</v>
+        <v>1540100</v>
       </c>
       <c r="G46" s="3">
-        <v>1380900</v>
+        <v>1468000</v>
       </c>
       <c r="H46" s="3">
-        <v>1378500</v>
+        <v>1339000</v>
       </c>
       <c r="I46" s="3">
-        <v>1337000</v>
+        <v>1336700</v>
       </c>
       <c r="J46" s="3">
+        <v>1296500</v>
+      </c>
+      <c r="K46" s="3">
         <v>1327300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1265600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1386800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1353800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1256200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1387800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1468700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1224600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1398400</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>62200</v>
+        <v>55600</v>
       </c>
       <c r="E47" s="3">
-        <v>200100</v>
+        <v>60300</v>
       </c>
       <c r="F47" s="3">
-        <v>200100</v>
+        <v>194000</v>
       </c>
       <c r="G47" s="3">
-        <v>187900</v>
+        <v>194000</v>
       </c>
       <c r="H47" s="3">
-        <v>195200</v>
+        <v>182200</v>
       </c>
       <c r="I47" s="3">
-        <v>198800</v>
+        <v>189300</v>
       </c>
       <c r="J47" s="3">
+        <v>192800</v>
+      </c>
+      <c r="K47" s="3">
         <v>158600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>170500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>154200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>167700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>136700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>137000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>180000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>453000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>476700</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>519700</v>
+        <v>587900</v>
       </c>
       <c r="E48" s="3">
-        <v>2696000</v>
+        <v>503900</v>
       </c>
       <c r="F48" s="3">
-        <v>2810600</v>
+        <v>1307100</v>
       </c>
       <c r="G48" s="3">
-        <v>1451700</v>
+        <v>2725400</v>
       </c>
       <c r="H48" s="3">
-        <v>1450500</v>
+        <v>1407700</v>
       </c>
       <c r="I48" s="3">
-        <v>1197900</v>
+        <v>1406500</v>
       </c>
       <c r="J48" s="3">
+        <v>1161600</v>
+      </c>
+      <c r="K48" s="3">
         <v>1206500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1316100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1416500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1401400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1272200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1207800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1006900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>987600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>995500</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>353800</v>
+        <v>334800</v>
       </c>
       <c r="E49" s="3">
-        <v>420900</v>
+        <v>343000</v>
       </c>
       <c r="F49" s="3">
-        <v>389100</v>
+        <v>408100</v>
       </c>
       <c r="G49" s="3">
-        <v>414800</v>
+        <v>377300</v>
       </c>
       <c r="H49" s="3">
-        <v>424500</v>
+        <v>402200</v>
       </c>
       <c r="I49" s="3">
-        <v>417200</v>
+        <v>411600</v>
       </c>
       <c r="J49" s="3">
+        <v>404600</v>
+      </c>
+      <c r="K49" s="3">
         <v>431800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>491000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>539200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>529600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>511100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>508700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>403000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>447700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>418700</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2644,8 +2758,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2694,58 +2811,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>80500</v>
+        <v>41400</v>
       </c>
       <c r="E52" s="3">
-        <v>62200</v>
+        <v>78100</v>
       </c>
       <c r="F52" s="3">
-        <v>51200</v>
+        <v>60300</v>
       </c>
       <c r="G52" s="3">
-        <v>42700</v>
+        <v>49700</v>
       </c>
       <c r="H52" s="3">
-        <v>41500</v>
+        <v>41400</v>
       </c>
       <c r="I52" s="3">
-        <v>256200</v>
+        <v>40200</v>
       </c>
       <c r="J52" s="3">
+        <v>248400</v>
+      </c>
+      <c r="K52" s="3">
         <v>241500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>263200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>206600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>207400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>67700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>90000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>114800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>77700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>39500</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2794,58 +2917,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3803600</v>
+        <v>3845600</v>
       </c>
       <c r="E54" s="3">
-        <v>3619400</v>
+        <v>3688300</v>
       </c>
       <c r="F54" s="3">
-        <v>3559700</v>
+        <v>3509700</v>
       </c>
       <c r="G54" s="3">
-        <v>3477900</v>
+        <v>3451700</v>
       </c>
       <c r="H54" s="3">
-        <v>3490100</v>
+        <v>3372400</v>
       </c>
       <c r="I54" s="3">
-        <v>3407200</v>
+        <v>3384300</v>
       </c>
       <c r="J54" s="3">
+        <v>3303800</v>
+      </c>
+      <c r="K54" s="3">
         <v>3365700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3506300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3703300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3659900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3244000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3331200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3173400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3190600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3328800</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2864,8 +2993,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2884,308 +3014,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>257400</v>
+        <v>347800</v>
       </c>
       <c r="E57" s="3">
-        <v>525800</v>
+        <v>249600</v>
       </c>
       <c r="F57" s="3">
-        <v>406200</v>
+        <v>509800</v>
       </c>
       <c r="G57" s="3">
-        <v>451400</v>
+        <v>393900</v>
       </c>
       <c r="H57" s="3">
-        <v>372100</v>
+        <v>437700</v>
       </c>
       <c r="I57" s="3">
-        <v>417200</v>
+        <v>360800</v>
       </c>
       <c r="J57" s="3">
+        <v>404600</v>
+      </c>
+      <c r="K57" s="3">
         <v>431800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>425500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>447200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>416000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>397800</v>
-      </c>
-      <c r="O57" s="3">
-        <v>439600</v>
       </c>
       <c r="P57" s="3">
         <v>439600</v>
       </c>
       <c r="Q57" s="3">
+        <v>439600</v>
+      </c>
+      <c r="R57" s="3">
         <v>416100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>425300</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>30500</v>
+        <v>24800</v>
       </c>
       <c r="E58" s="3">
-        <v>102500</v>
+        <v>29600</v>
       </c>
       <c r="F58" s="3">
-        <v>102500</v>
+        <v>99400</v>
       </c>
       <c r="G58" s="3">
-        <v>48800</v>
+        <v>99400</v>
       </c>
       <c r="H58" s="3">
-        <v>312300</v>
+        <v>47300</v>
       </c>
       <c r="I58" s="3">
-        <v>273300</v>
+        <v>302800</v>
       </c>
       <c r="J58" s="3">
+        <v>265000</v>
+      </c>
+      <c r="K58" s="3">
         <v>29300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>21800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>39600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>116200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>129300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>260900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>644300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>401600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>468800</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>631900</v>
+        <v>550000</v>
       </c>
       <c r="E59" s="3">
-        <v>102500</v>
+        <v>612700</v>
       </c>
       <c r="F59" s="3">
-        <v>100000</v>
+        <v>99400</v>
       </c>
       <c r="G59" s="3">
-        <v>119600</v>
+        <v>97000</v>
       </c>
       <c r="H59" s="3">
-        <v>141500</v>
+        <v>115900</v>
       </c>
       <c r="I59" s="3">
-        <v>140300</v>
+        <v>137200</v>
       </c>
       <c r="J59" s="3">
+        <v>136000</v>
+      </c>
+      <c r="K59" s="3">
         <v>135400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>100900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>113200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>110900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>150300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>147400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>159100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>109300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>142200</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>919800</v>
+        <v>922700</v>
       </c>
       <c r="E60" s="3">
-        <v>679500</v>
+        <v>891900</v>
       </c>
       <c r="F60" s="3">
-        <v>557500</v>
+        <v>658900</v>
       </c>
       <c r="G60" s="3">
-        <v>619700</v>
+        <v>540600</v>
       </c>
       <c r="H60" s="3">
-        <v>825900</v>
+        <v>600900</v>
       </c>
       <c r="I60" s="3">
-        <v>830800</v>
+        <v>800800</v>
       </c>
       <c r="J60" s="3">
+        <v>805600</v>
+      </c>
+      <c r="K60" s="3">
         <v>596500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>548200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>600000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>643200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>677400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>847800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1243000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>927000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1036300</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>852700</v>
+        <v>778300</v>
       </c>
       <c r="E61" s="3">
-        <v>910000</v>
+        <v>826800</v>
       </c>
       <c r="F61" s="3">
-        <v>975900</v>
+        <v>882400</v>
       </c>
       <c r="G61" s="3">
-        <v>832000</v>
+        <v>946300</v>
       </c>
       <c r="H61" s="3">
-        <v>656300</v>
+        <v>806700</v>
       </c>
       <c r="I61" s="3">
-        <v>455000</v>
+        <v>636400</v>
       </c>
       <c r="J61" s="3">
+        <v>441200</v>
+      </c>
+      <c r="K61" s="3">
         <v>703900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>755500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>812300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>797800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>731600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>725200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>371700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>609700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>579400</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>191500</v>
+        <v>228300</v>
       </c>
       <c r="E62" s="3">
-        <v>256200</v>
+        <v>185700</v>
       </c>
       <c r="F62" s="3">
-        <v>290300</v>
+        <v>248400</v>
       </c>
       <c r="G62" s="3">
-        <v>319600</v>
+        <v>281500</v>
       </c>
       <c r="H62" s="3">
-        <v>326900</v>
+        <v>309900</v>
       </c>
       <c r="I62" s="3">
-        <v>305000</v>
+        <v>317000</v>
       </c>
       <c r="J62" s="3">
+        <v>295700</v>
+      </c>
+      <c r="K62" s="3">
         <v>342800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>338200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>459900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>459600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>456900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>416100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>400400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>421400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>337100</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3234,8 +3383,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3284,8 +3436,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3334,58 +3489,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1965300</v>
+        <v>1930500</v>
       </c>
       <c r="E66" s="3">
-        <v>1846900</v>
+        <v>1905700</v>
       </c>
       <c r="F66" s="3">
-        <v>1823800</v>
+        <v>1790900</v>
       </c>
       <c r="G66" s="3">
-        <v>1771300</v>
+        <v>1768400</v>
       </c>
       <c r="H66" s="3">
-        <v>1809100</v>
+        <v>1717600</v>
       </c>
       <c r="I66" s="3">
-        <v>1590700</v>
+        <v>1754200</v>
       </c>
       <c r="J66" s="3">
+        <v>1542500</v>
+      </c>
+      <c r="K66" s="3">
         <v>1643200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1642000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1872200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1900600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1865900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1990400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2016500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1959400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1954100</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3404,8 +3565,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3454,8 +3616,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3504,8 +3669,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3554,8 +3722,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3604,58 +3775,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1199200</v>
+        <v>1295300</v>
       </c>
       <c r="E72" s="3">
-        <v>1133300</v>
+        <v>1162800</v>
       </c>
       <c r="F72" s="3">
-        <v>1096700</v>
+        <v>1098900</v>
       </c>
       <c r="G72" s="3">
-        <v>1068600</v>
+        <v>1063400</v>
       </c>
       <c r="H72" s="3">
-        <v>1043000</v>
+        <v>1036200</v>
       </c>
       <c r="I72" s="3">
-        <v>1178400</v>
+        <v>1011400</v>
       </c>
       <c r="J72" s="3">
+        <v>1142700</v>
+      </c>
+      <c r="K72" s="3">
         <v>1084500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1151000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1091000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1068500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>734000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>658700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>474800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>542500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>686000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3704,8 +3881,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3754,8 +3934,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3804,58 +3987,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1838400</v>
+        <v>1915100</v>
       </c>
       <c r="E76" s="3">
-        <v>1772500</v>
+        <v>1782600</v>
       </c>
       <c r="F76" s="3">
-        <v>1735900</v>
+        <v>1718800</v>
       </c>
       <c r="G76" s="3">
-        <v>1706600</v>
+        <v>1683300</v>
       </c>
       <c r="H76" s="3">
-        <v>1681000</v>
+        <v>1654900</v>
       </c>
       <c r="I76" s="3">
-        <v>1816400</v>
+        <v>1630000</v>
       </c>
       <c r="J76" s="3">
+        <v>1761300</v>
+      </c>
+      <c r="K76" s="3">
         <v>1722500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1864300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1831200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1759300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1378200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1340800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1156900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1231200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1374700</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3904,113 +4093,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42825</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42643</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42460</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42277</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42094</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>124400</v>
+        <v>158500</v>
       </c>
       <c r="E81" s="3">
-        <v>146400</v>
+        <v>120700</v>
       </c>
       <c r="F81" s="3">
-        <v>162200</v>
+        <v>141900</v>
       </c>
       <c r="G81" s="3">
-        <v>139100</v>
+        <v>157300</v>
       </c>
       <c r="H81" s="3">
-        <v>159800</v>
+        <v>134900</v>
       </c>
       <c r="I81" s="3">
-        <v>122000</v>
+        <v>155000</v>
       </c>
       <c r="J81" s="3">
+        <v>118300</v>
+      </c>
+      <c r="K81" s="3">
         <v>98800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>192300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>175500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>166400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>160100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>148700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>63900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-50000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>89500</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4029,58 +4227,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>74400</v>
+        <v>46100</v>
       </c>
       <c r="E83" s="3">
-        <v>106100</v>
+        <v>72200</v>
       </c>
       <c r="F83" s="3">
-        <v>107400</v>
+        <v>102900</v>
       </c>
       <c r="G83" s="3">
+        <v>104100</v>
+      </c>
+      <c r="H83" s="3">
+        <v>88700</v>
+      </c>
+      <c r="I83" s="3">
+        <v>114700</v>
+      </c>
+      <c r="J83" s="3">
+        <v>91100</v>
+      </c>
+      <c r="K83" s="3">
         <v>91500</v>
       </c>
-      <c r="H83" s="3">
-        <v>118300</v>
-      </c>
-      <c r="I83" s="3">
-        <v>93900</v>
-      </c>
-      <c r="J83" s="3">
-        <v>91500</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>106400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>107500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>105700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>85000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>78300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>71700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>76400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>67200</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4129,8 +4331,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4179,8 +4384,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4229,8 +4437,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4279,8 +4490,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4329,58 +4543,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>218400</v>
+        <v>-89900</v>
       </c>
       <c r="E89" s="3">
-        <v>151300</v>
+        <v>211700</v>
       </c>
       <c r="F89" s="3">
-        <v>298900</v>
+        <v>146700</v>
       </c>
       <c r="G89" s="3">
-        <v>189100</v>
+        <v>289800</v>
       </c>
       <c r="H89" s="3">
-        <v>280600</v>
+        <v>183300</v>
       </c>
       <c r="I89" s="3">
-        <v>145200</v>
+        <v>272100</v>
       </c>
       <c r="J89" s="3">
+        <v>140800</v>
+      </c>
+      <c r="K89" s="3">
         <v>257400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>105000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>295800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>130800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>245100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>19600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>225600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>72400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>163300</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4399,58 +4619,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-75600</v>
+        <v>-82800</v>
       </c>
       <c r="E91" s="3">
-        <v>-87800</v>
+        <v>-73300</v>
       </c>
       <c r="F91" s="3">
-        <v>-75600</v>
+        <v>-85200</v>
       </c>
       <c r="G91" s="3">
-        <v>74400</v>
+        <v>-73300</v>
       </c>
       <c r="H91" s="3">
-        <v>-75600</v>
+        <v>72200</v>
       </c>
       <c r="I91" s="3">
-        <v>-69500</v>
+        <v>-73300</v>
       </c>
       <c r="J91" s="3">
+        <v>-67400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-56100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-81800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-72200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-76600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-85000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-133000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-100400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-216000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-192300</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4499,8 +4723,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4549,58 +4776,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-50000</v>
+        <v>-85200</v>
       </c>
       <c r="E94" s="3">
-        <v>-176900</v>
+        <v>-48500</v>
       </c>
       <c r="F94" s="3">
-        <v>-73200</v>
+        <v>-171500</v>
       </c>
       <c r="G94" s="3">
-        <v>-102500</v>
+        <v>-71000</v>
       </c>
       <c r="H94" s="3">
-        <v>-54900</v>
+        <v>-99400</v>
       </c>
       <c r="I94" s="3">
-        <v>-98800</v>
+        <v>-53200</v>
       </c>
       <c r="J94" s="3">
+        <v>-95800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-36600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-83200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-58000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-87200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-59100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>183900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-71700</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>-108000</v>
       </c>
       <c r="R94" s="3">
         <v>-108000</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>-108000</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4619,58 +4852,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-124400</v>
+        <v>-49700</v>
       </c>
       <c r="E96" s="3">
-        <v>-48800</v>
+        <v>-120700</v>
       </c>
       <c r="F96" s="3">
-        <v>-118300</v>
+        <v>-47300</v>
       </c>
       <c r="G96" s="3">
-        <v>-48800</v>
+        <v>-114700</v>
       </c>
       <c r="H96" s="3">
-        <v>-118300</v>
+        <v>-47300</v>
       </c>
       <c r="I96" s="3">
-        <v>-48800</v>
+        <v>-114700</v>
       </c>
       <c r="J96" s="3">
+        <v>-47300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-114700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-53200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-130200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-50200</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-113300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-49600</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-120000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-50000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-121100</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4719,8 +4956,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4769,8 +5009,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4819,154 +5062,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-147600</v>
+        <v>-149000</v>
       </c>
       <c r="E100" s="3">
-        <v>-76900</v>
+        <v>-143100</v>
       </c>
       <c r="F100" s="3">
-        <v>41500</v>
+        <v>-74500</v>
       </c>
       <c r="G100" s="3">
-        <v>-181800</v>
+        <v>40200</v>
       </c>
       <c r="H100" s="3">
-        <v>-151300</v>
+        <v>-176300</v>
       </c>
       <c r="I100" s="3">
-        <v>-47600</v>
+        <v>-146700</v>
       </c>
       <c r="J100" s="3">
+        <v>-46100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-123200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-80500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-244800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-93800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-247600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-116100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-100400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-151400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-92200</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>9800</v>
+        <v>5900</v>
       </c>
       <c r="E101" s="3">
-        <v>-35400</v>
+        <v>9500</v>
       </c>
       <c r="F101" s="3">
-        <v>-7300</v>
+        <v>-34300</v>
       </c>
       <c r="G101" s="3">
-        <v>-14600</v>
+        <v>-7100</v>
       </c>
       <c r="H101" s="3">
-        <v>18300</v>
+        <v>-14200</v>
       </c>
       <c r="I101" s="3">
+        <v>17700</v>
+      </c>
+      <c r="J101" s="3">
         <v>2400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>17100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-12300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-19800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>13200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>27100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>20900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>18400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>30500</v>
+        <v>-318200</v>
       </c>
       <c r="E102" s="3">
-        <v>-137800</v>
+        <v>29600</v>
       </c>
       <c r="F102" s="3">
-        <v>259800</v>
+        <v>-133700</v>
       </c>
       <c r="G102" s="3">
-        <v>-109800</v>
+        <v>252000</v>
       </c>
       <c r="H102" s="3">
-        <v>92700</v>
+        <v>-106500</v>
       </c>
       <c r="I102" s="3">
+        <v>89900</v>
+      </c>
+      <c r="J102" s="3">
         <v>1200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>114700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-70900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-26900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-37000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-34500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>108300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>50900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-168500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-30300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TATYY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TATYY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
   <si>
     <t>TATYY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,149 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42643</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42460</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42277</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42094</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>850500</v>
+        <v>994400</v>
       </c>
       <c r="E8" s="3">
-        <v>776000</v>
+        <v>842200</v>
       </c>
       <c r="F8" s="3">
-        <v>732200</v>
+        <v>768400</v>
       </c>
       <c r="G8" s="3">
-        <v>700300</v>
+        <v>725000</v>
       </c>
       <c r="H8" s="3">
-        <v>1663200</v>
+        <v>693400</v>
       </c>
       <c r="I8" s="3">
-        <v>1746000</v>
+        <v>1646800</v>
       </c>
       <c r="J8" s="3">
+        <v>1728800</v>
+      </c>
+      <c r="K8" s="3">
         <v>1622900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1687100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1789300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1978300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1891400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1626900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1545600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1526000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1502500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1580100</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -852,8 +859,11 @@
       <c r="S9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -905,8 +915,11 @@
       <c r="S10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -926,8 +939,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -979,8 +993,11 @@
       <c r="S12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1032,25 +1049,28 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>28400</v>
+        <v>12900</v>
       </c>
       <c r="E14" s="3">
-        <v>69800</v>
+        <v>28100</v>
       </c>
       <c r="F14" s="3">
-        <v>22500</v>
+        <v>69100</v>
       </c>
       <c r="G14" s="3">
-        <v>17700</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>5</v>
+        <v>22300</v>
+      </c>
+      <c r="H14" s="3">
+        <v>17600</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>5</v>
@@ -1064,8 +1084,8 @@
       <c r="L14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1073,8 +1093,8 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>5</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>5</v>
@@ -1085,26 +1105,29 @@
       <c r="S14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>22500</v>
+        <v>14100</v>
       </c>
       <c r="E15" s="3">
+        <v>22300</v>
+      </c>
+      <c r="F15" s="3">
         <v>5900</v>
       </c>
-      <c r="F15" s="3">
-        <v>24800</v>
-      </c>
       <c r="G15" s="3">
+        <v>24600</v>
+      </c>
+      <c r="H15" s="3">
         <v>5900</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I15" s="3" t="s">
         <v>5</v>
       </c>
@@ -1117,8 +1140,8 @@
       <c r="L15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="M15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1126,8 +1149,8 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>5</v>
+      <c r="P15" s="3">
+        <v>0</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>5</v>
@@ -1138,8 +1161,11 @@
       <c r="S15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1156,114 +1182,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>810300</v>
+        <v>860900</v>
       </c>
       <c r="E17" s="3">
-        <v>736900</v>
+        <v>802300</v>
       </c>
       <c r="F17" s="3">
-        <v>679000</v>
+        <v>729700</v>
       </c>
       <c r="G17" s="3">
-        <v>616300</v>
+        <v>672300</v>
       </c>
       <c r="H17" s="3">
-        <v>1509400</v>
+        <v>610200</v>
       </c>
       <c r="I17" s="3">
-        <v>1549600</v>
+        <v>1494600</v>
       </c>
       <c r="J17" s="3">
+        <v>1534400</v>
+      </c>
+      <c r="K17" s="3">
         <v>1477400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1549300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1618800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1744800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1747400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1474200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1472600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1433400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1548500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1490600</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>40200</v>
+        <v>133500</v>
       </c>
       <c r="E18" s="3">
-        <v>39000</v>
+        <v>39800</v>
       </c>
       <c r="F18" s="3">
-        <v>53200</v>
+        <v>38700</v>
       </c>
       <c r="G18" s="3">
-        <v>84000</v>
+        <v>52700</v>
       </c>
       <c r="H18" s="3">
-        <v>153800</v>
+        <v>83200</v>
       </c>
       <c r="I18" s="3">
-        <v>196400</v>
+        <v>152300</v>
       </c>
       <c r="J18" s="3">
+        <v>194400</v>
+      </c>
+      <c r="K18" s="3">
         <v>145500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>137800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>170500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>233500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>144000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>152700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>73000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>92600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-46100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>89500</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1283,137 +1316,144 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-15400</v>
+        <v>-53900</v>
       </c>
       <c r="E20" s="3">
-        <v>-14200</v>
+        <v>-15200</v>
       </c>
       <c r="F20" s="3">
-        <v>-15400</v>
+        <v>-14100</v>
       </c>
       <c r="G20" s="3">
-        <v>-15400</v>
+        <v>-15200</v>
       </c>
       <c r="H20" s="3">
-        <v>2400</v>
+        <v>-15200</v>
       </c>
       <c r="I20" s="3">
-        <v>-2400</v>
+        <v>2300</v>
       </c>
       <c r="J20" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="K20" s="3">
         <v>4700</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-5700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-5300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>4900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>17000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>11700</v>
-      </c>
-      <c r="R20" s="3">
-        <v>10500</v>
       </c>
       <c r="S20" s="3">
         <v>10500</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>71000</v>
+        <v>134700</v>
       </c>
       <c r="E21" s="3">
-        <v>97000</v>
+        <v>70300</v>
       </c>
       <c r="F21" s="3">
-        <v>140800</v>
+        <v>96000</v>
       </c>
       <c r="G21" s="3">
-        <v>172700</v>
+        <v>139400</v>
       </c>
       <c r="H21" s="3">
-        <v>244900</v>
+        <v>171000</v>
       </c>
       <c r="I21" s="3">
-        <v>308700</v>
+        <v>242500</v>
       </c>
       <c r="J21" s="3">
+        <v>305700</v>
+      </c>
+      <c r="K21" s="3">
         <v>241300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>229300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>276800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>335400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>244300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>242600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>168300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>176100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>40800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>167200</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>5</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>5</v>
@@ -1430,126 +1470,135 @@
       <c r="O22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P22" s="3">
+      <c r="P22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="3">
         <v>17000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>13000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>14500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>17100</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>24800</v>
+        <v>79600</v>
       </c>
       <c r="E23" s="3">
-        <v>24800</v>
+        <v>24600</v>
       </c>
       <c r="F23" s="3">
-        <v>37900</v>
+        <v>24600</v>
       </c>
       <c r="G23" s="3">
-        <v>68600</v>
+        <v>37500</v>
       </c>
       <c r="H23" s="3">
-        <v>156100</v>
+        <v>67900</v>
       </c>
       <c r="I23" s="3">
-        <v>194000</v>
+        <v>154600</v>
       </c>
       <c r="J23" s="3">
+        <v>192100</v>
+      </c>
+      <c r="K23" s="3">
         <v>150200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>137800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>170500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>227800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>138700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>157600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>73000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>91300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-50000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>83000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>11800</v>
+        <v>16400</v>
       </c>
       <c r="E24" s="3">
-        <v>17700</v>
+        <v>11700</v>
       </c>
       <c r="F24" s="3">
+        <v>17600</v>
+      </c>
+      <c r="G24" s="3">
         <v>-3500</v>
       </c>
-      <c r="G24" s="3">
-        <v>18900</v>
-      </c>
       <c r="H24" s="3">
-        <v>21300</v>
+        <v>18700</v>
       </c>
       <c r="I24" s="3">
+        <v>21100</v>
+      </c>
+      <c r="J24" s="3">
+        <v>38700</v>
+      </c>
+      <c r="K24" s="3">
+        <v>31900</v>
+      </c>
+      <c r="L24" s="3">
         <v>39000</v>
       </c>
-      <c r="J24" s="3">
-        <v>31900</v>
-      </c>
-      <c r="K24" s="3">
-        <v>39000</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-19100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>52400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-27700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-1200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>3900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>13200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>14500</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1601,114 +1650,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>13000</v>
+        <v>63300</v>
       </c>
       <c r="E26" s="3">
-        <v>7100</v>
+        <v>12900</v>
       </c>
       <c r="F26" s="3">
-        <v>41400</v>
+        <v>7000</v>
       </c>
       <c r="G26" s="3">
-        <v>49700</v>
+        <v>41000</v>
       </c>
       <c r="H26" s="3">
-        <v>134900</v>
+        <v>49200</v>
       </c>
       <c r="I26" s="3">
-        <v>155000</v>
+        <v>133500</v>
       </c>
       <c r="J26" s="3">
+        <v>153400</v>
+      </c>
+      <c r="K26" s="3">
         <v>118300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>98800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>189600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>175500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>166400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>158900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>70400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>87400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-63200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>68500</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>13000</v>
+        <v>63300</v>
       </c>
       <c r="E27" s="3">
-        <v>7100</v>
+        <v>12900</v>
       </c>
       <c r="F27" s="3">
-        <v>41400</v>
+        <v>7000</v>
       </c>
       <c r="G27" s="3">
-        <v>49700</v>
+        <v>41000</v>
       </c>
       <c r="H27" s="3">
-        <v>134900</v>
+        <v>49200</v>
       </c>
       <c r="I27" s="3">
-        <v>155000</v>
+        <v>133500</v>
       </c>
       <c r="J27" s="3">
+        <v>153400</v>
+      </c>
+      <c r="K27" s="3">
         <v>118300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>98800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>189600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>175500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>166400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>158900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>70400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>87400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-63200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>68500</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1760,61 +1818,67 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>145500</v>
+        <v>78500</v>
       </c>
       <c r="E29" s="3">
-        <v>113600</v>
+        <v>144100</v>
       </c>
       <c r="F29" s="3">
-        <v>100500</v>
+        <v>112400</v>
       </c>
       <c r="G29" s="3">
-        <v>107600</v>
+        <v>99600</v>
       </c>
       <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+        <v>106600</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>2700</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>1200</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>78300</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-23500</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>13200</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1866,8 +1930,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1919,114 +1986,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>15400</v>
+        <v>53900</v>
       </c>
       <c r="E32" s="3">
-        <v>14200</v>
+        <v>15200</v>
       </c>
       <c r="F32" s="3">
-        <v>15400</v>
+        <v>14100</v>
       </c>
       <c r="G32" s="3">
-        <v>15400</v>
+        <v>15200</v>
       </c>
       <c r="H32" s="3">
-        <v>-2400</v>
+        <v>15200</v>
       </c>
       <c r="I32" s="3">
-        <v>2400</v>
+        <v>-2300</v>
       </c>
       <c r="J32" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-4700</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>5700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>5300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-4900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-17000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-11700</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-10500</v>
       </c>
       <c r="S32" s="3">
         <v>-10500</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>-10500</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>158500</v>
+        <v>141700</v>
       </c>
       <c r="E33" s="3">
-        <v>120700</v>
+        <v>157000</v>
       </c>
       <c r="F33" s="3">
-        <v>141900</v>
+        <v>119500</v>
       </c>
       <c r="G33" s="3">
-        <v>157300</v>
+        <v>140600</v>
       </c>
       <c r="H33" s="3">
-        <v>134900</v>
+        <v>155800</v>
       </c>
       <c r="I33" s="3">
-        <v>155000</v>
+        <v>133500</v>
       </c>
       <c r="J33" s="3">
+        <v>153400</v>
+      </c>
+      <c r="K33" s="3">
         <v>118300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>98800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>192300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>175500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>166400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>160100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>148700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>63900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-50000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>89500</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2078,119 +2154,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>158500</v>
+        <v>141700</v>
       </c>
       <c r="E35" s="3">
-        <v>120700</v>
+        <v>157000</v>
       </c>
       <c r="F35" s="3">
-        <v>141900</v>
+        <v>119500</v>
       </c>
       <c r="G35" s="3">
-        <v>157300</v>
+        <v>140600</v>
       </c>
       <c r="H35" s="3">
-        <v>134900</v>
+        <v>155800</v>
       </c>
       <c r="I35" s="3">
-        <v>155000</v>
+        <v>133500</v>
       </c>
       <c r="J35" s="3">
+        <v>153400</v>
+      </c>
+      <c r="K35" s="3">
         <v>118300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>98800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>192300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>175500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>166400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>160100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>148700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>63900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-50000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>89500</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42643</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42460</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42277</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42094</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2210,8 +2295,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2231,485 +2317,513 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>130100</v>
+        <v>604400</v>
       </c>
       <c r="E41" s="3">
-        <v>455400</v>
+        <v>128800</v>
       </c>
       <c r="F41" s="3">
-        <v>438900</v>
+        <v>451000</v>
       </c>
       <c r="G41" s="3">
-        <v>572500</v>
+        <v>434600</v>
       </c>
       <c r="H41" s="3">
-        <v>320600</v>
+        <v>566900</v>
       </c>
       <c r="I41" s="3">
-        <v>427000</v>
+        <v>317400</v>
       </c>
       <c r="J41" s="3">
+        <v>422800</v>
+      </c>
+      <c r="K41" s="3">
         <v>337100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>346500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>259100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>342500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>344700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>355900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>413500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>305200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>256800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>425300</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="E42" s="3">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="F42" s="3">
-        <v>37900</v>
+        <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>45000</v>
+        <v>37500</v>
       </c>
       <c r="H42" s="3">
-        <v>79300</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>5</v>
+        <v>44500</v>
+      </c>
+      <c r="I42" s="3">
+        <v>78500</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M42" s="3">
+      <c r="K42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N42" s="3">
         <v>1400</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
-      </c>
       <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
         <v>4900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>5200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>7800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>23700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>332400</v>
+        <v>483700</v>
       </c>
       <c r="E43" s="3">
-        <v>309900</v>
+        <v>329100</v>
       </c>
       <c r="F43" s="3">
-        <v>406900</v>
+        <v>306900</v>
       </c>
       <c r="G43" s="3">
-        <v>377300</v>
+        <v>402900</v>
       </c>
       <c r="H43" s="3">
-        <v>393900</v>
+        <v>373600</v>
       </c>
       <c r="I43" s="3">
-        <v>378500</v>
+        <v>390000</v>
       </c>
       <c r="J43" s="3">
+        <v>374800</v>
+      </c>
+      <c r="K43" s="3">
         <v>389200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>425700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>402300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>450000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>385700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>374400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>396500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>363900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>384500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>495100</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>375000</v>
+        <v>522400</v>
       </c>
       <c r="E44" s="3">
-        <v>311100</v>
+        <v>371300</v>
       </c>
       <c r="F44" s="3">
-        <v>629300</v>
+        <v>308100</v>
       </c>
       <c r="G44" s="3">
-        <v>462500</v>
+        <v>623100</v>
       </c>
       <c r="H44" s="3">
-        <v>539400</v>
+        <v>458000</v>
       </c>
       <c r="I44" s="3">
-        <v>488500</v>
+        <v>534100</v>
       </c>
       <c r="J44" s="3">
+        <v>483700</v>
+      </c>
+      <c r="K44" s="3">
         <v>513400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>508700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>571400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>537700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>582500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>449500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>507400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>443500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>478000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>331800</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1986100</v>
+        <v>15200</v>
       </c>
       <c r="E45" s="3">
-        <v>1626500</v>
+        <v>1966600</v>
       </c>
       <c r="F45" s="3">
-        <v>27200</v>
+        <v>1610500</v>
       </c>
       <c r="G45" s="3">
-        <v>10600</v>
+        <v>26900</v>
       </c>
       <c r="H45" s="3">
+        <v>10500</v>
+      </c>
+      <c r="I45" s="3">
         <v>5900</v>
       </c>
-      <c r="I45" s="3">
-        <v>42600</v>
-      </c>
       <c r="J45" s="3">
+        <v>42200</v>
+      </c>
+      <c r="K45" s="3">
         <v>56800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>46400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>32700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>55200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>40900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>71400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>65200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>348300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>81600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>143500</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2825900</v>
+        <v>1625800</v>
       </c>
       <c r="E46" s="3">
-        <v>2702900</v>
+        <v>2798200</v>
       </c>
       <c r="F46" s="3">
-        <v>1540100</v>
+        <v>2676400</v>
       </c>
       <c r="G46" s="3">
-        <v>1468000</v>
+        <v>1525000</v>
       </c>
       <c r="H46" s="3">
-        <v>1339000</v>
+        <v>1453600</v>
       </c>
       <c r="I46" s="3">
-        <v>1336700</v>
+        <v>1325900</v>
       </c>
       <c r="J46" s="3">
+        <v>1323600</v>
+      </c>
+      <c r="K46" s="3">
         <v>1296500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1327300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1265600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1386800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1353800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1256200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1387800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1468700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1224600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1398400</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>55600</v>
+        <v>347900</v>
       </c>
       <c r="E47" s="3">
-        <v>60300</v>
+        <v>55100</v>
       </c>
       <c r="F47" s="3">
-        <v>194000</v>
+        <v>59700</v>
       </c>
       <c r="G47" s="3">
-        <v>194000</v>
+        <v>192100</v>
       </c>
       <c r="H47" s="3">
-        <v>182200</v>
+        <v>192100</v>
       </c>
       <c r="I47" s="3">
-        <v>189300</v>
+        <v>180400</v>
       </c>
       <c r="J47" s="3">
+        <v>187400</v>
+      </c>
+      <c r="K47" s="3">
         <v>192800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>158600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>170500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>154200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>167700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>136700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>137000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>180000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>453000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>476700</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>587900</v>
+        <v>588000</v>
       </c>
       <c r="E48" s="3">
-        <v>503900</v>
+        <v>582100</v>
       </c>
       <c r="F48" s="3">
-        <v>1307100</v>
+        <v>499000</v>
       </c>
       <c r="G48" s="3">
-        <v>2725400</v>
+        <v>1294300</v>
       </c>
       <c r="H48" s="3">
-        <v>1407700</v>
+        <v>2698700</v>
       </c>
       <c r="I48" s="3">
-        <v>1406500</v>
+        <v>1393800</v>
       </c>
       <c r="J48" s="3">
+        <v>1392700</v>
+      </c>
+      <c r="K48" s="3">
         <v>1161600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1206500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1316100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1416500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1401400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1272200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1207800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1006900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>987600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>995500</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>334800</v>
+        <v>583300</v>
       </c>
       <c r="E49" s="3">
-        <v>343000</v>
+        <v>331500</v>
       </c>
       <c r="F49" s="3">
-        <v>408100</v>
+        <v>339700</v>
       </c>
       <c r="G49" s="3">
-        <v>377300</v>
+        <v>404100</v>
       </c>
       <c r="H49" s="3">
-        <v>402200</v>
+        <v>373600</v>
       </c>
       <c r="I49" s="3">
-        <v>411600</v>
+        <v>398200</v>
       </c>
       <c r="J49" s="3">
+        <v>407600</v>
+      </c>
+      <c r="K49" s="3">
         <v>404600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>431800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>491000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>539200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>529600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>511100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>508700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>403000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>447700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>418700</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2761,8 +2875,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2814,61 +2931,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>41400</v>
+        <v>32800</v>
       </c>
       <c r="E52" s="3">
-        <v>78100</v>
+        <v>41000</v>
       </c>
       <c r="F52" s="3">
-        <v>60300</v>
+        <v>77300</v>
       </c>
       <c r="G52" s="3">
-        <v>49700</v>
+        <v>59700</v>
       </c>
       <c r="H52" s="3">
-        <v>41400</v>
+        <v>49200</v>
       </c>
       <c r="I52" s="3">
-        <v>40200</v>
+        <v>41000</v>
       </c>
       <c r="J52" s="3">
+        <v>39800</v>
+      </c>
+      <c r="K52" s="3">
         <v>248400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>241500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>263200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>206600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>207400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>67700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>90000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>114800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>77700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>39500</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2920,61 +3043,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3845600</v>
+        <v>3177700</v>
       </c>
       <c r="E54" s="3">
-        <v>3688300</v>
+        <v>3807900</v>
       </c>
       <c r="F54" s="3">
-        <v>3509700</v>
+        <v>3652100</v>
       </c>
       <c r="G54" s="3">
-        <v>3451700</v>
+        <v>3475200</v>
       </c>
       <c r="H54" s="3">
-        <v>3372400</v>
+        <v>3417900</v>
       </c>
       <c r="I54" s="3">
-        <v>3384300</v>
+        <v>3339400</v>
       </c>
       <c r="J54" s="3">
+        <v>3351100</v>
+      </c>
+      <c r="K54" s="3">
         <v>3303800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3365700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3506300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3703300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3659900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3244000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3331200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3173400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3190600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3328800</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2994,8 +3123,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3015,326 +3145,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>347800</v>
+        <v>487300</v>
       </c>
       <c r="E57" s="3">
-        <v>249600</v>
+        <v>344400</v>
       </c>
       <c r="F57" s="3">
-        <v>509800</v>
+        <v>247100</v>
       </c>
       <c r="G57" s="3">
-        <v>393900</v>
+        <v>504800</v>
       </c>
       <c r="H57" s="3">
-        <v>437700</v>
+        <v>390000</v>
       </c>
       <c r="I57" s="3">
-        <v>360800</v>
+        <v>433400</v>
       </c>
       <c r="J57" s="3">
+        <v>357200</v>
+      </c>
+      <c r="K57" s="3">
         <v>404600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>431800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>425500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>447200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>416000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>397800</v>
-      </c>
-      <c r="P57" s="3">
-        <v>439600</v>
       </c>
       <c r="Q57" s="3">
         <v>439600</v>
       </c>
       <c r="R57" s="3">
+        <v>439600</v>
+      </c>
+      <c r="S57" s="3">
         <v>416100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>425300</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>24800</v>
+        <v>31600</v>
       </c>
       <c r="E58" s="3">
-        <v>29600</v>
+        <v>24600</v>
       </c>
       <c r="F58" s="3">
-        <v>99400</v>
+        <v>29300</v>
       </c>
       <c r="G58" s="3">
-        <v>99400</v>
+        <v>98400</v>
       </c>
       <c r="H58" s="3">
-        <v>47300</v>
+        <v>98400</v>
       </c>
       <c r="I58" s="3">
-        <v>302800</v>
+        <v>46900</v>
       </c>
       <c r="J58" s="3">
+        <v>299900</v>
+      </c>
+      <c r="K58" s="3">
         <v>265000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>29300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>21800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>39600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>116200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>129300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>260900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>644300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>401600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>468800</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>550000</v>
+        <v>97200</v>
       </c>
       <c r="E59" s="3">
-        <v>612700</v>
+        <v>544700</v>
       </c>
       <c r="F59" s="3">
-        <v>99400</v>
+        <v>606700</v>
       </c>
       <c r="G59" s="3">
-        <v>97000</v>
+        <v>98400</v>
       </c>
       <c r="H59" s="3">
-        <v>115900</v>
+        <v>96000</v>
       </c>
       <c r="I59" s="3">
-        <v>137200</v>
+        <v>114800</v>
       </c>
       <c r="J59" s="3">
+        <v>135900</v>
+      </c>
+      <c r="K59" s="3">
         <v>136000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>135400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>100900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>113200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>110900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>150300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>147400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>159100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>109300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>142200</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>922700</v>
+        <v>616100</v>
       </c>
       <c r="E60" s="3">
-        <v>891900</v>
+        <v>913600</v>
       </c>
       <c r="F60" s="3">
-        <v>658900</v>
+        <v>883200</v>
       </c>
       <c r="G60" s="3">
-        <v>540600</v>
+        <v>652400</v>
       </c>
       <c r="H60" s="3">
-        <v>600900</v>
+        <v>535300</v>
       </c>
       <c r="I60" s="3">
-        <v>800800</v>
+        <v>595000</v>
       </c>
       <c r="J60" s="3">
+        <v>793000</v>
+      </c>
+      <c r="K60" s="3">
         <v>805600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>596500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>548200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>600000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>643200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>677400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>847800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1243000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>927000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1036300</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>778300</v>
+        <v>901900</v>
       </c>
       <c r="E61" s="3">
-        <v>826800</v>
+        <v>770700</v>
       </c>
       <c r="F61" s="3">
-        <v>882400</v>
+        <v>818700</v>
       </c>
       <c r="G61" s="3">
-        <v>946300</v>
+        <v>873800</v>
       </c>
       <c r="H61" s="3">
-        <v>806700</v>
+        <v>937000</v>
       </c>
       <c r="I61" s="3">
-        <v>636400</v>
+        <v>798800</v>
       </c>
       <c r="J61" s="3">
+        <v>630200</v>
+      </c>
+      <c r="K61" s="3">
         <v>441200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>703900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>755500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>812300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>797800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>731600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>725200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>371700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>609700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>579400</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>228300</v>
+        <v>228400</v>
       </c>
       <c r="E62" s="3">
-        <v>185700</v>
+        <v>226100</v>
       </c>
       <c r="F62" s="3">
-        <v>248400</v>
+        <v>183900</v>
       </c>
       <c r="G62" s="3">
-        <v>281500</v>
+        <v>246000</v>
       </c>
       <c r="H62" s="3">
-        <v>309900</v>
+        <v>278800</v>
       </c>
       <c r="I62" s="3">
-        <v>317000</v>
+        <v>306900</v>
       </c>
       <c r="J62" s="3">
+        <v>313900</v>
+      </c>
+      <c r="K62" s="3">
         <v>295700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>342800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>338200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>459900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>459600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>456900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>416100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>400400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>421400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>337100</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3386,8 +3535,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3439,8 +3591,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3492,61 +3647,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1930500</v>
+        <v>1747600</v>
       </c>
       <c r="E66" s="3">
-        <v>1905700</v>
+        <v>1911600</v>
       </c>
       <c r="F66" s="3">
-        <v>1790900</v>
+        <v>1887000</v>
       </c>
       <c r="G66" s="3">
-        <v>1768400</v>
+        <v>1773300</v>
       </c>
       <c r="H66" s="3">
-        <v>1717600</v>
+        <v>1751100</v>
       </c>
       <c r="I66" s="3">
-        <v>1754200</v>
+        <v>1700700</v>
       </c>
       <c r="J66" s="3">
+        <v>1737000</v>
+      </c>
+      <c r="K66" s="3">
         <v>1542500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1643200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1642000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1872200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1900600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1865900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1990400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2016500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1959400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1954100</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3566,8 +3727,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3619,8 +3781,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3672,8 +3837,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3725,8 +3893,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3778,61 +3949,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1295300</v>
+        <v>816400</v>
       </c>
       <c r="E72" s="3">
-        <v>1162800</v>
+        <v>1282600</v>
       </c>
       <c r="F72" s="3">
-        <v>1098900</v>
+        <v>1151400</v>
       </c>
       <c r="G72" s="3">
-        <v>1063400</v>
+        <v>1088100</v>
       </c>
       <c r="H72" s="3">
-        <v>1036200</v>
+        <v>1053000</v>
       </c>
       <c r="I72" s="3">
-        <v>1011400</v>
+        <v>1026100</v>
       </c>
       <c r="J72" s="3">
+        <v>1001500</v>
+      </c>
+      <c r="K72" s="3">
         <v>1142700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1084500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1151000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1091000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1068500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>734000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>658700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>474800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>542500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>686000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3884,8 +4061,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3937,8 +4117,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3990,61 +4173,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1915100</v>
+        <v>1430200</v>
       </c>
       <c r="E76" s="3">
-        <v>1782600</v>
+        <v>1896300</v>
       </c>
       <c r="F76" s="3">
-        <v>1718800</v>
+        <v>1765100</v>
       </c>
       <c r="G76" s="3">
-        <v>1683300</v>
+        <v>1701900</v>
       </c>
       <c r="H76" s="3">
-        <v>1654900</v>
+        <v>1666800</v>
       </c>
       <c r="I76" s="3">
-        <v>1630000</v>
+        <v>1638600</v>
       </c>
       <c r="J76" s="3">
+        <v>1614100</v>
+      </c>
+      <c r="K76" s="3">
         <v>1761300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1722500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1864300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1831200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1759300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1378200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1340800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1156900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1231200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1374700</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4096,119 +4285,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42643</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42460</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42277</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42094</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>158500</v>
+        <v>141700</v>
       </c>
       <c r="E81" s="3">
-        <v>120700</v>
+        <v>157000</v>
       </c>
       <c r="F81" s="3">
-        <v>141900</v>
+        <v>119500</v>
       </c>
       <c r="G81" s="3">
-        <v>157300</v>
+        <v>140600</v>
       </c>
       <c r="H81" s="3">
-        <v>134900</v>
+        <v>155800</v>
       </c>
       <c r="I81" s="3">
-        <v>155000</v>
+        <v>133500</v>
       </c>
       <c r="J81" s="3">
+        <v>153400</v>
+      </c>
+      <c r="K81" s="3">
         <v>118300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>98800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>192300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>175500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>166400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>160100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>148700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>63900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-50000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>89500</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4228,61 +4426,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>46100</v>
+        <v>55100</v>
       </c>
       <c r="E83" s="3">
-        <v>72200</v>
+        <v>45700</v>
       </c>
       <c r="F83" s="3">
-        <v>102900</v>
+        <v>71400</v>
       </c>
       <c r="G83" s="3">
-        <v>104100</v>
+        <v>101900</v>
       </c>
       <c r="H83" s="3">
-        <v>88700</v>
+        <v>103100</v>
       </c>
       <c r="I83" s="3">
-        <v>114700</v>
+        <v>87800</v>
       </c>
       <c r="J83" s="3">
+        <v>113600</v>
+      </c>
+      <c r="K83" s="3">
         <v>91100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>91500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>106400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>107500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>105700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>85000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>78300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>71700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>76400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>67200</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4334,8 +4536,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4387,8 +4592,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4440,8 +4648,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4493,8 +4704,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4546,61 +4760,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-89900</v>
+        <v>44500</v>
       </c>
       <c r="E89" s="3">
-        <v>211700</v>
+        <v>-89000</v>
       </c>
       <c r="F89" s="3">
-        <v>146700</v>
+        <v>209700</v>
       </c>
       <c r="G89" s="3">
-        <v>289800</v>
+        <v>145200</v>
       </c>
       <c r="H89" s="3">
-        <v>183300</v>
+        <v>287000</v>
       </c>
       <c r="I89" s="3">
-        <v>272100</v>
+        <v>181600</v>
       </c>
       <c r="J89" s="3">
+        <v>269400</v>
+      </c>
+      <c r="K89" s="3">
         <v>140800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>257400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>105000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>295800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>130800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>245100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>19600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>225600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>72400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>163300</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4620,61 +4840,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-82800</v>
+        <v>-32800</v>
       </c>
       <c r="E91" s="3">
-        <v>-73300</v>
+        <v>-82000</v>
       </c>
       <c r="F91" s="3">
-        <v>-85200</v>
+        <v>-72600</v>
       </c>
       <c r="G91" s="3">
-        <v>-73300</v>
+        <v>-84300</v>
       </c>
       <c r="H91" s="3">
-        <v>72200</v>
+        <v>-72600</v>
       </c>
       <c r="I91" s="3">
-        <v>-73300</v>
+        <v>71400</v>
       </c>
       <c r="J91" s="3">
+        <v>-72600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-67400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-56100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-81800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-72200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-76600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-85000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-133000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-100400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-216000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-192300</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4726,8 +4950,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4779,61 +5006,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-85200</v>
+        <v>959300</v>
       </c>
       <c r="E94" s="3">
-        <v>-48500</v>
+        <v>-84300</v>
       </c>
       <c r="F94" s="3">
-        <v>-171500</v>
+        <v>-48000</v>
       </c>
       <c r="G94" s="3">
-        <v>-71000</v>
+        <v>-169800</v>
       </c>
       <c r="H94" s="3">
-        <v>-99400</v>
+        <v>-70300</v>
       </c>
       <c r="I94" s="3">
-        <v>-53200</v>
+        <v>-98400</v>
       </c>
       <c r="J94" s="3">
+        <v>-52700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-95800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-36600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-83200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-58000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-87200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-59100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>183900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-71700</v>
-      </c>
-      <c r="R94" s="3">
-        <v>-108000</v>
       </c>
       <c r="S94" s="3">
         <v>-108000</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>-108000</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4853,61 +5086,65 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-49700</v>
+        <v>-641900</v>
       </c>
       <c r="E96" s="3">
-        <v>-120700</v>
+        <v>-49200</v>
       </c>
       <c r="F96" s="3">
+        <v>-119500</v>
+      </c>
+      <c r="G96" s="3">
+        <v>-46900</v>
+      </c>
+      <c r="H96" s="3">
+        <v>-113600</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-46900</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-113600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-47300</v>
       </c>
-      <c r="G96" s="3">
+      <c r="L96" s="3">
         <v>-114700</v>
       </c>
-      <c r="H96" s="3">
-        <v>-47300</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-114700</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-47300</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-114700</v>
-      </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-53200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-130200</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-50200</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-113300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-49600</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-120000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-50000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-121100</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4959,8 +5196,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5012,8 +5252,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5065,163 +5308,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-149000</v>
+        <v>-655900</v>
       </c>
       <c r="E100" s="3">
-        <v>-143100</v>
+        <v>-147600</v>
       </c>
       <c r="F100" s="3">
-        <v>-74500</v>
+        <v>-141700</v>
       </c>
       <c r="G100" s="3">
-        <v>40200</v>
+        <v>-73800</v>
       </c>
       <c r="H100" s="3">
-        <v>-176300</v>
+        <v>39800</v>
       </c>
       <c r="I100" s="3">
-        <v>-146700</v>
+        <v>-174500</v>
       </c>
       <c r="J100" s="3">
+        <v>-145200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-46100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-123200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-80500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-244800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-93800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-247600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-116100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-100400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-151400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-92200</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>107800</v>
+      </c>
+      <c r="E101" s="3">
         <v>5900</v>
       </c>
-      <c r="E101" s="3">
-        <v>9500</v>
-      </c>
       <c r="F101" s="3">
-        <v>-34300</v>
+        <v>9400</v>
       </c>
       <c r="G101" s="3">
-        <v>-7100</v>
+        <v>-34000</v>
       </c>
       <c r="H101" s="3">
-        <v>-14200</v>
+        <v>-7000</v>
       </c>
       <c r="I101" s="3">
-        <v>17700</v>
+        <v>-14100</v>
       </c>
       <c r="J101" s="3">
+        <v>17600</v>
+      </c>
+      <c r="K101" s="3">
         <v>2400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>17100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-12300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-19800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>13200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>27100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>20900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-2600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>18400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-318200</v>
+        <v>455600</v>
       </c>
       <c r="E102" s="3">
-        <v>29600</v>
+        <v>-315100</v>
       </c>
       <c r="F102" s="3">
-        <v>-133700</v>
+        <v>29300</v>
       </c>
       <c r="G102" s="3">
-        <v>252000</v>
+        <v>-132400</v>
       </c>
       <c r="H102" s="3">
-        <v>-106500</v>
+        <v>249500</v>
       </c>
       <c r="I102" s="3">
-        <v>89900</v>
+        <v>-105400</v>
       </c>
       <c r="J102" s="3">
+        <v>89000</v>
+      </c>
+      <c r="K102" s="3">
         <v>1200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>114700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-70900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-26900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-37000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-34500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>108300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>50900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-168500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-30300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TATYY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TATYY_QTR_FIN.xlsx
@@ -756,25 +756,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>994400</v>
+        <v>1012400</v>
       </c>
       <c r="E8" s="3">
-        <v>842200</v>
+        <v>857400</v>
       </c>
       <c r="F8" s="3">
-        <v>768400</v>
+        <v>782300</v>
       </c>
       <c r="G8" s="3">
-        <v>725000</v>
+        <v>738200</v>
       </c>
       <c r="H8" s="3">
-        <v>693400</v>
+        <v>706000</v>
       </c>
       <c r="I8" s="3">
-        <v>1646800</v>
+        <v>1676700</v>
       </c>
       <c r="J8" s="3">
-        <v>1728800</v>
+        <v>1760100</v>
       </c>
       <c r="K8" s="3">
         <v>1622900</v>
@@ -1058,19 +1058,19 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>12900</v>
+        <v>13100</v>
       </c>
       <c r="E14" s="3">
-        <v>28100</v>
+        <v>28600</v>
       </c>
       <c r="F14" s="3">
-        <v>69100</v>
+        <v>70400</v>
       </c>
       <c r="G14" s="3">
-        <v>22300</v>
+        <v>22700</v>
       </c>
       <c r="H14" s="3">
-        <v>17600</v>
+        <v>17900</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>5</v>
@@ -1114,19 +1114,19 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>14100</v>
+        <v>14300</v>
       </c>
       <c r="E15" s="3">
-        <v>22300</v>
+        <v>22700</v>
       </c>
       <c r="F15" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="G15" s="3">
-        <v>24600</v>
+        <v>25000</v>
       </c>
       <c r="H15" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>5</v>
@@ -1189,25 +1189,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>860900</v>
+        <v>876500</v>
       </c>
       <c r="E17" s="3">
-        <v>802300</v>
+        <v>816900</v>
       </c>
       <c r="F17" s="3">
-        <v>729700</v>
+        <v>742900</v>
       </c>
       <c r="G17" s="3">
-        <v>672300</v>
+        <v>684500</v>
       </c>
       <c r="H17" s="3">
-        <v>610200</v>
+        <v>621300</v>
       </c>
       <c r="I17" s="3">
-        <v>1494600</v>
+        <v>1521600</v>
       </c>
       <c r="J17" s="3">
-        <v>1534400</v>
+        <v>1562200</v>
       </c>
       <c r="K17" s="3">
         <v>1477400</v>
@@ -1245,25 +1245,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>133500</v>
+        <v>135900</v>
       </c>
       <c r="E18" s="3">
-        <v>39800</v>
+        <v>40500</v>
       </c>
       <c r="F18" s="3">
-        <v>38700</v>
+        <v>39400</v>
       </c>
       <c r="G18" s="3">
-        <v>52700</v>
+        <v>53700</v>
       </c>
       <c r="H18" s="3">
-        <v>83200</v>
+        <v>84700</v>
       </c>
       <c r="I18" s="3">
-        <v>152300</v>
+        <v>155000</v>
       </c>
       <c r="J18" s="3">
-        <v>194400</v>
+        <v>198000</v>
       </c>
       <c r="K18" s="3">
         <v>145500</v>
@@ -1323,25 +1323,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-53900</v>
+        <v>-54900</v>
       </c>
       <c r="E20" s="3">
-        <v>-15200</v>
+        <v>-15500</v>
       </c>
       <c r="F20" s="3">
-        <v>-14100</v>
+        <v>-14300</v>
       </c>
       <c r="G20" s="3">
-        <v>-15200</v>
+        <v>-15500</v>
       </c>
       <c r="H20" s="3">
-        <v>-15200</v>
+        <v>-15500</v>
       </c>
       <c r="I20" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="J20" s="3">
-        <v>-2300</v>
+        <v>-2400</v>
       </c>
       <c r="K20" s="3">
         <v>4700</v>
@@ -1379,25 +1379,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>134700</v>
+        <v>137100</v>
       </c>
       <c r="E21" s="3">
-        <v>70300</v>
+        <v>71600</v>
       </c>
       <c r="F21" s="3">
-        <v>96000</v>
+        <v>97800</v>
       </c>
       <c r="G21" s="3">
-        <v>139400</v>
+        <v>141900</v>
       </c>
       <c r="H21" s="3">
-        <v>171000</v>
+        <v>174100</v>
       </c>
       <c r="I21" s="3">
-        <v>242500</v>
+        <v>246800</v>
       </c>
       <c r="J21" s="3">
-        <v>305700</v>
+        <v>311200</v>
       </c>
       <c r="K21" s="3">
         <v>241300</v>
@@ -1491,25 +1491,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>79600</v>
+        <v>81100</v>
       </c>
       <c r="E23" s="3">
-        <v>24600</v>
+        <v>25000</v>
       </c>
       <c r="F23" s="3">
-        <v>24600</v>
+        <v>25000</v>
       </c>
       <c r="G23" s="3">
-        <v>37500</v>
+        <v>38200</v>
       </c>
       <c r="H23" s="3">
-        <v>67900</v>
+        <v>69200</v>
       </c>
       <c r="I23" s="3">
-        <v>154600</v>
+        <v>157400</v>
       </c>
       <c r="J23" s="3">
-        <v>192100</v>
+        <v>195600</v>
       </c>
       <c r="K23" s="3">
         <v>150200</v>
@@ -1547,25 +1547,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>16400</v>
+        <v>16700</v>
       </c>
       <c r="E24" s="3">
-        <v>11700</v>
+        <v>-4800</v>
       </c>
       <c r="F24" s="3">
-        <v>17600</v>
+        <v>15500</v>
       </c>
       <c r="G24" s="3">
-        <v>-3500</v>
+        <v>-3600</v>
       </c>
       <c r="H24" s="3">
-        <v>18700</v>
+        <v>19100</v>
       </c>
       <c r="I24" s="3">
-        <v>21100</v>
+        <v>21500</v>
       </c>
       <c r="J24" s="3">
-        <v>38700</v>
+        <v>39400</v>
       </c>
       <c r="K24" s="3">
         <v>31900</v>
@@ -1659,25 +1659,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>63300</v>
+        <v>64400</v>
       </c>
       <c r="E26" s="3">
-        <v>12900</v>
+        <v>29800</v>
       </c>
       <c r="F26" s="3">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="G26" s="3">
-        <v>41000</v>
+        <v>41700</v>
       </c>
       <c r="H26" s="3">
-        <v>49200</v>
+        <v>50100</v>
       </c>
       <c r="I26" s="3">
-        <v>133500</v>
+        <v>135900</v>
       </c>
       <c r="J26" s="3">
-        <v>153400</v>
+        <v>156200</v>
       </c>
       <c r="K26" s="3">
         <v>118300</v>
@@ -1715,25 +1715,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>63300</v>
+        <v>64400</v>
       </c>
       <c r="E27" s="3">
-        <v>12900</v>
+        <v>29800</v>
       </c>
       <c r="F27" s="3">
-        <v>7000</v>
+        <v>9500</v>
       </c>
       <c r="G27" s="3">
-        <v>41000</v>
+        <v>41700</v>
       </c>
       <c r="H27" s="3">
-        <v>49200</v>
+        <v>50100</v>
       </c>
       <c r="I27" s="3">
-        <v>133500</v>
+        <v>135900</v>
       </c>
       <c r="J27" s="3">
-        <v>153400</v>
+        <v>156200</v>
       </c>
       <c r="K27" s="3">
         <v>118300</v>
@@ -1827,19 +1827,19 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>78500</v>
+        <v>79900</v>
       </c>
       <c r="E29" s="3">
-        <v>144100</v>
+        <v>130000</v>
       </c>
       <c r="F29" s="3">
-        <v>112400</v>
+        <v>112100</v>
       </c>
       <c r="G29" s="3">
-        <v>99600</v>
+        <v>101400</v>
       </c>
       <c r="H29" s="3">
-        <v>106600</v>
+        <v>108500</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
@@ -1995,25 +1995,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>53900</v>
+        <v>54900</v>
       </c>
       <c r="E32" s="3">
-        <v>15200</v>
+        <v>15500</v>
       </c>
       <c r="F32" s="3">
-        <v>14100</v>
+        <v>14300</v>
       </c>
       <c r="G32" s="3">
-        <v>15200</v>
+        <v>15500</v>
       </c>
       <c r="H32" s="3">
-        <v>15200</v>
+        <v>15500</v>
       </c>
       <c r="I32" s="3">
-        <v>-2300</v>
+        <v>-2400</v>
       </c>
       <c r="J32" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="K32" s="3">
         <v>-4700</v>
@@ -2051,25 +2051,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>141700</v>
+        <v>144300</v>
       </c>
       <c r="E33" s="3">
-        <v>157000</v>
+        <v>159800</v>
       </c>
       <c r="F33" s="3">
-        <v>119500</v>
+        <v>121600</v>
       </c>
       <c r="G33" s="3">
-        <v>140600</v>
+        <v>143100</v>
       </c>
       <c r="H33" s="3">
-        <v>155800</v>
+        <v>158600</v>
       </c>
       <c r="I33" s="3">
-        <v>133500</v>
+        <v>135900</v>
       </c>
       <c r="J33" s="3">
-        <v>153400</v>
+        <v>156200</v>
       </c>
       <c r="K33" s="3">
         <v>118300</v>
@@ -2163,25 +2163,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>141700</v>
+        <v>144300</v>
       </c>
       <c r="E35" s="3">
-        <v>157000</v>
+        <v>159800</v>
       </c>
       <c r="F35" s="3">
-        <v>119500</v>
+        <v>121600</v>
       </c>
       <c r="G35" s="3">
-        <v>140600</v>
+        <v>143100</v>
       </c>
       <c r="H35" s="3">
-        <v>155800</v>
+        <v>158600</v>
       </c>
       <c r="I35" s="3">
-        <v>133500</v>
+        <v>135900</v>
       </c>
       <c r="J35" s="3">
-        <v>153400</v>
+        <v>156200</v>
       </c>
       <c r="K35" s="3">
         <v>118300</v>
@@ -2324,25 +2324,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>604400</v>
+        <v>615300</v>
       </c>
       <c r="E41" s="3">
-        <v>128800</v>
+        <v>131200</v>
       </c>
       <c r="F41" s="3">
-        <v>451000</v>
+        <v>459100</v>
       </c>
       <c r="G41" s="3">
-        <v>434600</v>
+        <v>442400</v>
       </c>
       <c r="H41" s="3">
-        <v>566900</v>
+        <v>577200</v>
       </c>
       <c r="I41" s="3">
-        <v>317400</v>
+        <v>323200</v>
       </c>
       <c r="J41" s="3">
-        <v>422800</v>
+        <v>430500</v>
       </c>
       <c r="K41" s="3">
         <v>337100</v>
@@ -2383,19 +2383,19 @@
         <v>0</v>
       </c>
       <c r="E42" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>37500</v>
+        <v>38200</v>
       </c>
       <c r="H42" s="3">
-        <v>44500</v>
+        <v>45300</v>
       </c>
       <c r="I42" s="3">
-        <v>78500</v>
+        <v>79900</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>5</v>
@@ -2436,25 +2436,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>483700</v>
+        <v>492500</v>
       </c>
       <c r="E43" s="3">
-        <v>329100</v>
+        <v>335100</v>
       </c>
       <c r="F43" s="3">
-        <v>306900</v>
+        <v>312400</v>
       </c>
       <c r="G43" s="3">
-        <v>402900</v>
+        <v>410200</v>
       </c>
       <c r="H43" s="3">
-        <v>373600</v>
+        <v>380400</v>
       </c>
       <c r="I43" s="3">
-        <v>390000</v>
+        <v>397100</v>
       </c>
       <c r="J43" s="3">
-        <v>374800</v>
+        <v>381600</v>
       </c>
       <c r="K43" s="3">
         <v>389200</v>
@@ -2492,25 +2492,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>522400</v>
+        <v>531900</v>
       </c>
       <c r="E44" s="3">
-        <v>371300</v>
+        <v>378000</v>
       </c>
       <c r="F44" s="3">
-        <v>308100</v>
+        <v>313600</v>
       </c>
       <c r="G44" s="3">
-        <v>623100</v>
+        <v>634400</v>
       </c>
       <c r="H44" s="3">
-        <v>458000</v>
+        <v>466300</v>
       </c>
       <c r="I44" s="3">
-        <v>534100</v>
+        <v>543800</v>
       </c>
       <c r="J44" s="3">
-        <v>483700</v>
+        <v>492500</v>
       </c>
       <c r="K44" s="3">
         <v>513400</v>
@@ -2548,25 +2548,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>15200</v>
+        <v>15500</v>
       </c>
       <c r="E45" s="3">
-        <v>1966600</v>
+        <v>2002200</v>
       </c>
       <c r="F45" s="3">
-        <v>1610500</v>
+        <v>1639700</v>
       </c>
       <c r="G45" s="3">
-        <v>26900</v>
+        <v>27400</v>
       </c>
       <c r="H45" s="3">
-        <v>10500</v>
+        <v>10700</v>
       </c>
       <c r="I45" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="J45" s="3">
-        <v>42200</v>
+        <v>42900</v>
       </c>
       <c r="K45" s="3">
         <v>56800</v>
@@ -2604,25 +2604,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1625800</v>
+        <v>1655200</v>
       </c>
       <c r="E46" s="3">
-        <v>2798200</v>
+        <v>2848900</v>
       </c>
       <c r="F46" s="3">
-        <v>2676400</v>
+        <v>2724900</v>
       </c>
       <c r="G46" s="3">
-        <v>1525000</v>
+        <v>1552600</v>
       </c>
       <c r="H46" s="3">
-        <v>1453600</v>
+        <v>1479900</v>
       </c>
       <c r="I46" s="3">
-        <v>1325900</v>
+        <v>1349900</v>
       </c>
       <c r="J46" s="3">
-        <v>1323600</v>
+        <v>1347500</v>
       </c>
       <c r="K46" s="3">
         <v>1296500</v>
@@ -2660,25 +2660,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>347900</v>
+        <v>354200</v>
       </c>
       <c r="E47" s="3">
-        <v>55100</v>
+        <v>56000</v>
       </c>
       <c r="F47" s="3">
-        <v>59700</v>
+        <v>60800</v>
       </c>
       <c r="G47" s="3">
-        <v>192100</v>
+        <v>195600</v>
       </c>
       <c r="H47" s="3">
-        <v>192100</v>
+        <v>195600</v>
       </c>
       <c r="I47" s="3">
-        <v>180400</v>
+        <v>183600</v>
       </c>
       <c r="J47" s="3">
-        <v>187400</v>
+        <v>190800</v>
       </c>
       <c r="K47" s="3">
         <v>192800</v>
@@ -2716,25 +2716,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>588000</v>
+        <v>598600</v>
       </c>
       <c r="E48" s="3">
-        <v>582100</v>
+        <v>592700</v>
       </c>
       <c r="F48" s="3">
-        <v>499000</v>
+        <v>508000</v>
       </c>
       <c r="G48" s="3">
-        <v>1294300</v>
+        <v>1317700</v>
       </c>
       <c r="H48" s="3">
-        <v>2698700</v>
+        <v>2747500</v>
       </c>
       <c r="I48" s="3">
-        <v>1393800</v>
+        <v>1419100</v>
       </c>
       <c r="J48" s="3">
-        <v>1392700</v>
+        <v>1417900</v>
       </c>
       <c r="K48" s="3">
         <v>1161600</v>
@@ -2772,25 +2772,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>583300</v>
+        <v>593900</v>
       </c>
       <c r="E49" s="3">
-        <v>331500</v>
+        <v>337500</v>
       </c>
       <c r="F49" s="3">
-        <v>339700</v>
+        <v>345800</v>
       </c>
       <c r="G49" s="3">
-        <v>404100</v>
+        <v>411400</v>
       </c>
       <c r="H49" s="3">
-        <v>373600</v>
+        <v>380400</v>
       </c>
       <c r="I49" s="3">
-        <v>398200</v>
+        <v>405500</v>
       </c>
       <c r="J49" s="3">
-        <v>407600</v>
+        <v>415000</v>
       </c>
       <c r="K49" s="3">
         <v>404600</v>
@@ -2940,25 +2940,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>32800</v>
+        <v>33400</v>
       </c>
       <c r="E52" s="3">
-        <v>41000</v>
+        <v>41700</v>
       </c>
       <c r="F52" s="3">
-        <v>77300</v>
+        <v>78700</v>
       </c>
       <c r="G52" s="3">
-        <v>59700</v>
+        <v>60800</v>
       </c>
       <c r="H52" s="3">
-        <v>49200</v>
+        <v>50100</v>
       </c>
       <c r="I52" s="3">
-        <v>41000</v>
+        <v>41700</v>
       </c>
       <c r="J52" s="3">
-        <v>39800</v>
+        <v>40500</v>
       </c>
       <c r="K52" s="3">
         <v>248400</v>
@@ -3052,25 +3052,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3177700</v>
+        <v>3235300</v>
       </c>
       <c r="E54" s="3">
-        <v>3807900</v>
+        <v>3876900</v>
       </c>
       <c r="F54" s="3">
-        <v>3652100</v>
+        <v>3718200</v>
       </c>
       <c r="G54" s="3">
-        <v>3475200</v>
+        <v>3538200</v>
       </c>
       <c r="H54" s="3">
-        <v>3417900</v>
+        <v>3479700</v>
       </c>
       <c r="I54" s="3">
-        <v>3339400</v>
+        <v>3399800</v>
       </c>
       <c r="J54" s="3">
-        <v>3351100</v>
+        <v>3411800</v>
       </c>
       <c r="K54" s="3">
         <v>3303800</v>
@@ -3152,25 +3152,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>487300</v>
+        <v>496100</v>
       </c>
       <c r="E57" s="3">
-        <v>344400</v>
+        <v>350600</v>
       </c>
       <c r="F57" s="3">
-        <v>247100</v>
+        <v>251600</v>
       </c>
       <c r="G57" s="3">
-        <v>504800</v>
+        <v>514000</v>
       </c>
       <c r="H57" s="3">
-        <v>390000</v>
+        <v>397100</v>
       </c>
       <c r="I57" s="3">
-        <v>433400</v>
+        <v>441200</v>
       </c>
       <c r="J57" s="3">
-        <v>357200</v>
+        <v>363700</v>
       </c>
       <c r="K57" s="3">
         <v>404600</v>
@@ -3208,25 +3208,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>31600</v>
+        <v>32200</v>
       </c>
       <c r="E58" s="3">
-        <v>24600</v>
+        <v>25000</v>
       </c>
       <c r="F58" s="3">
-        <v>29300</v>
+        <v>29800</v>
       </c>
       <c r="G58" s="3">
-        <v>98400</v>
+        <v>100200</v>
       </c>
       <c r="H58" s="3">
-        <v>98400</v>
+        <v>100200</v>
       </c>
       <c r="I58" s="3">
-        <v>46900</v>
+        <v>47700</v>
       </c>
       <c r="J58" s="3">
-        <v>299900</v>
+        <v>305300</v>
       </c>
       <c r="K58" s="3">
         <v>265000</v>
@@ -3264,25 +3264,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>97200</v>
+        <v>99000</v>
       </c>
       <c r="E59" s="3">
-        <v>544700</v>
+        <v>554500</v>
       </c>
       <c r="F59" s="3">
-        <v>606700</v>
+        <v>617700</v>
       </c>
       <c r="G59" s="3">
-        <v>98400</v>
+        <v>100200</v>
       </c>
       <c r="H59" s="3">
-        <v>96000</v>
+        <v>97800</v>
       </c>
       <c r="I59" s="3">
-        <v>114800</v>
+        <v>116900</v>
       </c>
       <c r="J59" s="3">
-        <v>135900</v>
+        <v>138300</v>
       </c>
       <c r="K59" s="3">
         <v>136000</v>
@@ -3320,25 +3320,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>616100</v>
+        <v>627300</v>
       </c>
       <c r="E60" s="3">
-        <v>913600</v>
+        <v>930200</v>
       </c>
       <c r="F60" s="3">
-        <v>883200</v>
+        <v>899200</v>
       </c>
       <c r="G60" s="3">
-        <v>652400</v>
+        <v>664200</v>
       </c>
       <c r="H60" s="3">
-        <v>535300</v>
+        <v>545000</v>
       </c>
       <c r="I60" s="3">
-        <v>595000</v>
+        <v>605800</v>
       </c>
       <c r="J60" s="3">
-        <v>793000</v>
+        <v>807300</v>
       </c>
       <c r="K60" s="3">
         <v>805600</v>
@@ -3376,25 +3376,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>901900</v>
+        <v>918200</v>
       </c>
       <c r="E61" s="3">
-        <v>770700</v>
+        <v>784700</v>
       </c>
       <c r="F61" s="3">
-        <v>818700</v>
+        <v>833600</v>
       </c>
       <c r="G61" s="3">
-        <v>873800</v>
+        <v>889600</v>
       </c>
       <c r="H61" s="3">
-        <v>937000</v>
+        <v>954000</v>
       </c>
       <c r="I61" s="3">
-        <v>798800</v>
+        <v>813300</v>
       </c>
       <c r="J61" s="3">
-        <v>630200</v>
+        <v>641600</v>
       </c>
       <c r="K61" s="3">
         <v>441200</v>
@@ -3432,25 +3432,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>228400</v>
+        <v>232500</v>
       </c>
       <c r="E62" s="3">
-        <v>226100</v>
+        <v>230200</v>
       </c>
       <c r="F62" s="3">
-        <v>183900</v>
+        <v>187200</v>
       </c>
       <c r="G62" s="3">
-        <v>246000</v>
+        <v>250400</v>
       </c>
       <c r="H62" s="3">
-        <v>278800</v>
+        <v>283800</v>
       </c>
       <c r="I62" s="3">
-        <v>306900</v>
+        <v>312400</v>
       </c>
       <c r="J62" s="3">
-        <v>313900</v>
+        <v>319600</v>
       </c>
       <c r="K62" s="3">
         <v>295700</v>
@@ -3656,25 +3656,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1747600</v>
+        <v>1779200</v>
       </c>
       <c r="E66" s="3">
-        <v>1911600</v>
+        <v>1946200</v>
       </c>
       <c r="F66" s="3">
-        <v>1887000</v>
+        <v>1921100</v>
       </c>
       <c r="G66" s="3">
-        <v>1773300</v>
+        <v>1805500</v>
       </c>
       <c r="H66" s="3">
-        <v>1751100</v>
+        <v>1782800</v>
       </c>
       <c r="I66" s="3">
-        <v>1700700</v>
+        <v>1731500</v>
       </c>
       <c r="J66" s="3">
-        <v>1737000</v>
+        <v>1768500</v>
       </c>
       <c r="K66" s="3">
         <v>1542500</v>
@@ -3958,25 +3958,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>816400</v>
+        <v>831200</v>
       </c>
       <c r="E72" s="3">
-        <v>1282600</v>
+        <v>1305800</v>
       </c>
       <c r="F72" s="3">
-        <v>1151400</v>
+        <v>1172200</v>
       </c>
       <c r="G72" s="3">
-        <v>1088100</v>
+        <v>1107800</v>
       </c>
       <c r="H72" s="3">
-        <v>1053000</v>
+        <v>1072100</v>
       </c>
       <c r="I72" s="3">
-        <v>1026100</v>
+        <v>1044600</v>
       </c>
       <c r="J72" s="3">
-        <v>1001500</v>
+        <v>1019600</v>
       </c>
       <c r="K72" s="3">
         <v>1142700</v>
@@ -4182,25 +4182,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1430200</v>
+        <v>1456100</v>
       </c>
       <c r="E76" s="3">
-        <v>1896300</v>
+        <v>1930700</v>
       </c>
       <c r="F76" s="3">
-        <v>1765100</v>
+        <v>1797100</v>
       </c>
       <c r="G76" s="3">
-        <v>1701900</v>
+        <v>1732700</v>
       </c>
       <c r="H76" s="3">
-        <v>1666800</v>
+        <v>1696900</v>
       </c>
       <c r="I76" s="3">
-        <v>1638600</v>
+        <v>1668300</v>
       </c>
       <c r="J76" s="3">
-        <v>1614100</v>
+        <v>1643300</v>
       </c>
       <c r="K76" s="3">
         <v>1761300</v>
@@ -4355,25 +4355,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>141700</v>
+        <v>144300</v>
       </c>
       <c r="E81" s="3">
-        <v>157000</v>
+        <v>159800</v>
       </c>
       <c r="F81" s="3">
-        <v>119500</v>
+        <v>121600</v>
       </c>
       <c r="G81" s="3">
-        <v>140600</v>
+        <v>143100</v>
       </c>
       <c r="H81" s="3">
-        <v>155800</v>
+        <v>158600</v>
       </c>
       <c r="I81" s="3">
-        <v>133500</v>
+        <v>135900</v>
       </c>
       <c r="J81" s="3">
-        <v>153400</v>
+        <v>156200</v>
       </c>
       <c r="K81" s="3">
         <v>118300</v>
@@ -4433,25 +4433,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>55100</v>
+        <v>56000</v>
       </c>
       <c r="E83" s="3">
-        <v>45700</v>
+        <v>46500</v>
       </c>
       <c r="F83" s="3">
-        <v>71400</v>
+        <v>72700</v>
       </c>
       <c r="G83" s="3">
-        <v>101900</v>
+        <v>103700</v>
       </c>
       <c r="H83" s="3">
-        <v>103100</v>
+        <v>104900</v>
       </c>
       <c r="I83" s="3">
-        <v>87800</v>
+        <v>89400</v>
       </c>
       <c r="J83" s="3">
-        <v>113600</v>
+        <v>115700</v>
       </c>
       <c r="K83" s="3">
         <v>91100</v>
@@ -4769,25 +4769,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>44500</v>
+        <v>45300</v>
       </c>
       <c r="E89" s="3">
-        <v>-89000</v>
+        <v>-90600</v>
       </c>
       <c r="F89" s="3">
-        <v>209700</v>
+        <v>213500</v>
       </c>
       <c r="G89" s="3">
-        <v>145200</v>
+        <v>147900</v>
       </c>
       <c r="H89" s="3">
-        <v>287000</v>
+        <v>292200</v>
       </c>
       <c r="I89" s="3">
-        <v>181600</v>
+        <v>184800</v>
       </c>
       <c r="J89" s="3">
-        <v>269400</v>
+        <v>274300</v>
       </c>
       <c r="K89" s="3">
         <v>140800</v>
@@ -4847,25 +4847,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-32800</v>
+        <v>-33400</v>
       </c>
       <c r="E91" s="3">
-        <v>-82000</v>
+        <v>-83500</v>
       </c>
       <c r="F91" s="3">
-        <v>-72600</v>
+        <v>-73900</v>
       </c>
       <c r="G91" s="3">
-        <v>-84300</v>
+        <v>-85900</v>
       </c>
       <c r="H91" s="3">
-        <v>-72600</v>
+        <v>-73900</v>
       </c>
       <c r="I91" s="3">
-        <v>71400</v>
+        <v>72700</v>
       </c>
       <c r="J91" s="3">
-        <v>-72600</v>
+        <v>-73900</v>
       </c>
       <c r="K91" s="3">
         <v>-67400</v>
@@ -5015,25 +5015,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>959300</v>
+        <v>976700</v>
       </c>
       <c r="E94" s="3">
-        <v>-84300</v>
+        <v>-85900</v>
       </c>
       <c r="F94" s="3">
-        <v>-48000</v>
+        <v>-48900</v>
       </c>
       <c r="G94" s="3">
-        <v>-169800</v>
+        <v>-172900</v>
       </c>
       <c r="H94" s="3">
-        <v>-70300</v>
+        <v>-71600</v>
       </c>
       <c r="I94" s="3">
-        <v>-98400</v>
+        <v>-100200</v>
       </c>
       <c r="J94" s="3">
-        <v>-52700</v>
+        <v>-53700</v>
       </c>
       <c r="K94" s="3">
         <v>-95800</v>
@@ -5093,25 +5093,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-641900</v>
+        <v>-653500</v>
       </c>
       <c r="E96" s="3">
-        <v>-49200</v>
+        <v>-50100</v>
       </c>
       <c r="F96" s="3">
-        <v>-119500</v>
+        <v>-121600</v>
       </c>
       <c r="G96" s="3">
-        <v>-46900</v>
+        <v>-47700</v>
       </c>
       <c r="H96" s="3">
-        <v>-113600</v>
+        <v>-115700</v>
       </c>
       <c r="I96" s="3">
-        <v>-46900</v>
+        <v>-47700</v>
       </c>
       <c r="J96" s="3">
-        <v>-113600</v>
+        <v>-115700</v>
       </c>
       <c r="K96" s="3">
         <v>-47300</v>
@@ -5317,25 +5317,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-655900</v>
+        <v>-667800</v>
       </c>
       <c r="E100" s="3">
-        <v>-147600</v>
+        <v>-150300</v>
       </c>
       <c r="F100" s="3">
-        <v>-141700</v>
+        <v>-144300</v>
       </c>
       <c r="G100" s="3">
-        <v>-73800</v>
+        <v>-75100</v>
       </c>
       <c r="H100" s="3">
-        <v>39800</v>
+        <v>40500</v>
       </c>
       <c r="I100" s="3">
-        <v>-174500</v>
+        <v>-177700</v>
       </c>
       <c r="J100" s="3">
-        <v>-145200</v>
+        <v>-147900</v>
       </c>
       <c r="K100" s="3">
         <v>-46100</v>
@@ -5373,25 +5373,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>107800</v>
+        <v>109700</v>
       </c>
       <c r="E101" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="F101" s="3">
-        <v>9400</v>
+        <v>9500</v>
       </c>
       <c r="G101" s="3">
-        <v>-34000</v>
+        <v>-34600</v>
       </c>
       <c r="H101" s="3">
-        <v>-7000</v>
+        <v>-7200</v>
       </c>
       <c r="I101" s="3">
-        <v>-14100</v>
+        <v>-14300</v>
       </c>
       <c r="J101" s="3">
-        <v>17600</v>
+        <v>17900</v>
       </c>
       <c r="K101" s="3">
         <v>2400</v>
@@ -5429,25 +5429,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>455600</v>
+        <v>463900</v>
       </c>
       <c r="E102" s="3">
-        <v>-315100</v>
+        <v>-320800</v>
       </c>
       <c r="F102" s="3">
-        <v>29300</v>
+        <v>29800</v>
       </c>
       <c r="G102" s="3">
-        <v>-132400</v>
+        <v>-134800</v>
       </c>
       <c r="H102" s="3">
-        <v>249500</v>
+        <v>254000</v>
       </c>
       <c r="I102" s="3">
-        <v>-105400</v>
+        <v>-107300</v>
       </c>
       <c r="J102" s="3">
-        <v>89000</v>
+        <v>90600</v>
       </c>
       <c r="K102" s="3">
         <v>1200</v>

--- a/AAII_Financials/Quarterly/TATYY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TATYY_QTR_FIN.xlsx
@@ -756,25 +756,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1012400</v>
+        <v>1053400</v>
       </c>
       <c r="E8" s="3">
-        <v>857400</v>
+        <v>892100</v>
       </c>
       <c r="F8" s="3">
-        <v>782300</v>
+        <v>814000</v>
       </c>
       <c r="G8" s="3">
-        <v>738200</v>
+        <v>768100</v>
       </c>
       <c r="H8" s="3">
-        <v>706000</v>
+        <v>734600</v>
       </c>
       <c r="I8" s="3">
-        <v>1676700</v>
+        <v>1744600</v>
       </c>
       <c r="J8" s="3">
-        <v>1760100</v>
+        <v>1831400</v>
       </c>
       <c r="K8" s="3">
         <v>1622900</v>
@@ -1058,19 +1058,19 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>13100</v>
+        <v>13600</v>
       </c>
       <c r="E14" s="3">
-        <v>28600</v>
+        <v>29800</v>
       </c>
       <c r="F14" s="3">
-        <v>70400</v>
+        <v>73200</v>
       </c>
       <c r="G14" s="3">
-        <v>22700</v>
+        <v>23600</v>
       </c>
       <c r="H14" s="3">
-        <v>17900</v>
+        <v>18600</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>5</v>
@@ -1114,19 +1114,19 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>14300</v>
+        <v>14900</v>
       </c>
       <c r="E15" s="3">
-        <v>22700</v>
+        <v>23600</v>
       </c>
       <c r="F15" s="3">
-        <v>6000</v>
+        <v>6200</v>
       </c>
       <c r="G15" s="3">
-        <v>25000</v>
+        <v>26100</v>
       </c>
       <c r="H15" s="3">
-        <v>6000</v>
+        <v>6200</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>5</v>
@@ -1189,25 +1189,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>876500</v>
+        <v>912000</v>
       </c>
       <c r="E17" s="3">
-        <v>816900</v>
+        <v>849900</v>
       </c>
       <c r="F17" s="3">
-        <v>742900</v>
+        <v>773000</v>
       </c>
       <c r="G17" s="3">
-        <v>684500</v>
+        <v>712200</v>
       </c>
       <c r="H17" s="3">
-        <v>621300</v>
+        <v>646500</v>
       </c>
       <c r="I17" s="3">
-        <v>1521600</v>
+        <v>1583300</v>
       </c>
       <c r="J17" s="3">
-        <v>1562200</v>
+        <v>1625400</v>
       </c>
       <c r="K17" s="3">
         <v>1477400</v>
@@ -1245,25 +1245,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>135900</v>
+        <v>141500</v>
       </c>
       <c r="E18" s="3">
-        <v>40500</v>
+        <v>42200</v>
       </c>
       <c r="F18" s="3">
-        <v>39400</v>
+        <v>40900</v>
       </c>
       <c r="G18" s="3">
-        <v>53700</v>
+        <v>55800</v>
       </c>
       <c r="H18" s="3">
-        <v>84700</v>
+        <v>88100</v>
       </c>
       <c r="I18" s="3">
-        <v>155000</v>
+        <v>161300</v>
       </c>
       <c r="J18" s="3">
-        <v>198000</v>
+        <v>206000</v>
       </c>
       <c r="K18" s="3">
         <v>145500</v>
@@ -1323,25 +1323,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-54900</v>
+        <v>-57100</v>
       </c>
       <c r="E20" s="3">
-        <v>-15500</v>
+        <v>-16100</v>
       </c>
       <c r="F20" s="3">
-        <v>-14300</v>
+        <v>-14900</v>
       </c>
       <c r="G20" s="3">
-        <v>-15500</v>
+        <v>-16100</v>
       </c>
       <c r="H20" s="3">
-        <v>-15500</v>
+        <v>-16100</v>
       </c>
       <c r="I20" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="J20" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="K20" s="3">
         <v>4700</v>
@@ -1379,25 +1379,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>137100</v>
+        <v>142700</v>
       </c>
       <c r="E21" s="3">
-        <v>71600</v>
+        <v>74400</v>
       </c>
       <c r="F21" s="3">
-        <v>97800</v>
+        <v>101700</v>
       </c>
       <c r="G21" s="3">
-        <v>141900</v>
+        <v>147700</v>
       </c>
       <c r="H21" s="3">
-        <v>174100</v>
+        <v>181200</v>
       </c>
       <c r="I21" s="3">
-        <v>246800</v>
+        <v>256800</v>
       </c>
       <c r="J21" s="3">
-        <v>311200</v>
+        <v>323800</v>
       </c>
       <c r="K21" s="3">
         <v>241300</v>
@@ -1491,25 +1491,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>81100</v>
+        <v>84400</v>
       </c>
       <c r="E23" s="3">
-        <v>25000</v>
+        <v>26100</v>
       </c>
       <c r="F23" s="3">
-        <v>25000</v>
+        <v>26100</v>
       </c>
       <c r="G23" s="3">
-        <v>38200</v>
+        <v>39700</v>
       </c>
       <c r="H23" s="3">
-        <v>69200</v>
+        <v>72000</v>
       </c>
       <c r="I23" s="3">
-        <v>157400</v>
+        <v>163800</v>
       </c>
       <c r="J23" s="3">
-        <v>195600</v>
+        <v>203500</v>
       </c>
       <c r="K23" s="3">
         <v>150200</v>
@@ -1547,25 +1547,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>16700</v>
+        <v>17400</v>
       </c>
       <c r="E24" s="3">
-        <v>-4800</v>
+        <v>-5000</v>
       </c>
       <c r="F24" s="3">
-        <v>15500</v>
+        <v>16100</v>
       </c>
       <c r="G24" s="3">
-        <v>-3600</v>
+        <v>-3700</v>
       </c>
       <c r="H24" s="3">
-        <v>19100</v>
+        <v>19900</v>
       </c>
       <c r="I24" s="3">
-        <v>21500</v>
+        <v>22300</v>
       </c>
       <c r="J24" s="3">
-        <v>39400</v>
+        <v>40900</v>
       </c>
       <c r="K24" s="3">
         <v>31900</v>
@@ -1659,25 +1659,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>64400</v>
+        <v>67000</v>
       </c>
       <c r="E26" s="3">
-        <v>29800</v>
+        <v>31000</v>
       </c>
       <c r="F26" s="3">
-        <v>9500</v>
+        <v>9900</v>
       </c>
       <c r="G26" s="3">
-        <v>41700</v>
+        <v>43400</v>
       </c>
       <c r="H26" s="3">
-        <v>50100</v>
+        <v>52100</v>
       </c>
       <c r="I26" s="3">
-        <v>135900</v>
+        <v>141500</v>
       </c>
       <c r="J26" s="3">
-        <v>156200</v>
+        <v>162500</v>
       </c>
       <c r="K26" s="3">
         <v>118300</v>
@@ -1715,25 +1715,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>64400</v>
+        <v>67000</v>
       </c>
       <c r="E27" s="3">
-        <v>29800</v>
+        <v>31000</v>
       </c>
       <c r="F27" s="3">
-        <v>9500</v>
+        <v>9900</v>
       </c>
       <c r="G27" s="3">
-        <v>41700</v>
+        <v>43400</v>
       </c>
       <c r="H27" s="3">
-        <v>50100</v>
+        <v>52100</v>
       </c>
       <c r="I27" s="3">
-        <v>135900</v>
+        <v>141500</v>
       </c>
       <c r="J27" s="3">
-        <v>156200</v>
+        <v>162500</v>
       </c>
       <c r="K27" s="3">
         <v>118300</v>
@@ -1827,19 +1827,19 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>79900</v>
+        <v>83100</v>
       </c>
       <c r="E29" s="3">
-        <v>130000</v>
+        <v>135200</v>
       </c>
       <c r="F29" s="3">
-        <v>112100</v>
+        <v>116600</v>
       </c>
       <c r="G29" s="3">
-        <v>101400</v>
+        <v>105500</v>
       </c>
       <c r="H29" s="3">
-        <v>108500</v>
+        <v>112900</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
@@ -1995,25 +1995,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>54900</v>
+        <v>57100</v>
       </c>
       <c r="E32" s="3">
-        <v>15500</v>
+        <v>16100</v>
       </c>
       <c r="F32" s="3">
-        <v>14300</v>
+        <v>14900</v>
       </c>
       <c r="G32" s="3">
-        <v>15500</v>
+        <v>16100</v>
       </c>
       <c r="H32" s="3">
-        <v>15500</v>
+        <v>16100</v>
       </c>
       <c r="I32" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="J32" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="K32" s="3">
         <v>-4700</v>
@@ -2051,25 +2051,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>144300</v>
+        <v>150100</v>
       </c>
       <c r="E33" s="3">
-        <v>159800</v>
+        <v>166300</v>
       </c>
       <c r="F33" s="3">
-        <v>121600</v>
+        <v>126600</v>
       </c>
       <c r="G33" s="3">
-        <v>143100</v>
+        <v>148900</v>
       </c>
       <c r="H33" s="3">
-        <v>158600</v>
+        <v>165000</v>
       </c>
       <c r="I33" s="3">
-        <v>135900</v>
+        <v>141500</v>
       </c>
       <c r="J33" s="3">
-        <v>156200</v>
+        <v>162500</v>
       </c>
       <c r="K33" s="3">
         <v>118300</v>
@@ -2163,25 +2163,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>144300</v>
+        <v>150100</v>
       </c>
       <c r="E35" s="3">
-        <v>159800</v>
+        <v>166300</v>
       </c>
       <c r="F35" s="3">
-        <v>121600</v>
+        <v>126600</v>
       </c>
       <c r="G35" s="3">
-        <v>143100</v>
+        <v>148900</v>
       </c>
       <c r="H35" s="3">
-        <v>158600</v>
+        <v>165000</v>
       </c>
       <c r="I35" s="3">
-        <v>135900</v>
+        <v>141500</v>
       </c>
       <c r="J35" s="3">
-        <v>156200</v>
+        <v>162500</v>
       </c>
       <c r="K35" s="3">
         <v>118300</v>
@@ -2324,25 +2324,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>615300</v>
+        <v>640300</v>
       </c>
       <c r="E41" s="3">
-        <v>131200</v>
+        <v>136500</v>
       </c>
       <c r="F41" s="3">
-        <v>459100</v>
+        <v>477700</v>
       </c>
       <c r="G41" s="3">
-        <v>442400</v>
+        <v>460300</v>
       </c>
       <c r="H41" s="3">
-        <v>577200</v>
+        <v>600500</v>
       </c>
       <c r="I41" s="3">
-        <v>323200</v>
+        <v>336300</v>
       </c>
       <c r="J41" s="3">
-        <v>430500</v>
+        <v>447900</v>
       </c>
       <c r="K41" s="3">
         <v>337100</v>
@@ -2383,19 +2383,19 @@
         <v>0</v>
       </c>
       <c r="E42" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>38200</v>
+        <v>39700</v>
       </c>
       <c r="H42" s="3">
-        <v>45300</v>
+        <v>47200</v>
       </c>
       <c r="I42" s="3">
-        <v>79900</v>
+        <v>83100</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>5</v>
@@ -2436,25 +2436,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>492500</v>
+        <v>512500</v>
       </c>
       <c r="E43" s="3">
-        <v>335100</v>
+        <v>348700</v>
       </c>
       <c r="F43" s="3">
-        <v>312400</v>
+        <v>325100</v>
       </c>
       <c r="G43" s="3">
-        <v>410200</v>
+        <v>426800</v>
       </c>
       <c r="H43" s="3">
-        <v>380400</v>
+        <v>395800</v>
       </c>
       <c r="I43" s="3">
+        <v>413200</v>
+      </c>
+      <c r="J43" s="3">
         <v>397100</v>
-      </c>
-      <c r="J43" s="3">
-        <v>381600</v>
       </c>
       <c r="K43" s="3">
         <v>389200</v>
@@ -2492,25 +2492,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>531900</v>
+        <v>553400</v>
       </c>
       <c r="E44" s="3">
-        <v>378000</v>
+        <v>393300</v>
       </c>
       <c r="F44" s="3">
-        <v>313600</v>
+        <v>326300</v>
       </c>
       <c r="G44" s="3">
-        <v>634400</v>
+        <v>660100</v>
       </c>
       <c r="H44" s="3">
-        <v>466300</v>
+        <v>485200</v>
       </c>
       <c r="I44" s="3">
-        <v>543800</v>
+        <v>565800</v>
       </c>
       <c r="J44" s="3">
-        <v>492500</v>
+        <v>512500</v>
       </c>
       <c r="K44" s="3">
         <v>513400</v>
@@ -2548,25 +2548,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>15500</v>
+        <v>16100</v>
       </c>
       <c r="E45" s="3">
-        <v>2002200</v>
+        <v>2083300</v>
       </c>
       <c r="F45" s="3">
-        <v>1639700</v>
+        <v>1706100</v>
       </c>
       <c r="G45" s="3">
-        <v>27400</v>
+        <v>28500</v>
       </c>
       <c r="H45" s="3">
-        <v>10700</v>
+        <v>11200</v>
       </c>
       <c r="I45" s="3">
-        <v>6000</v>
+        <v>6200</v>
       </c>
       <c r="J45" s="3">
-        <v>42900</v>
+        <v>44700</v>
       </c>
       <c r="K45" s="3">
         <v>56800</v>
@@ -2604,25 +2604,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1655200</v>
+        <v>1722200</v>
       </c>
       <c r="E46" s="3">
-        <v>2848900</v>
+        <v>2964300</v>
       </c>
       <c r="F46" s="3">
-        <v>2724900</v>
+        <v>2835200</v>
       </c>
       <c r="G46" s="3">
-        <v>1552600</v>
+        <v>1615500</v>
       </c>
       <c r="H46" s="3">
-        <v>1479900</v>
+        <v>1539800</v>
       </c>
       <c r="I46" s="3">
-        <v>1349900</v>
+        <v>1404600</v>
       </c>
       <c r="J46" s="3">
-        <v>1347500</v>
+        <v>1402100</v>
       </c>
       <c r="K46" s="3">
         <v>1296500</v>
@@ -2660,25 +2660,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>354200</v>
+        <v>368500</v>
       </c>
       <c r="E47" s="3">
-        <v>56000</v>
+        <v>58300</v>
       </c>
       <c r="F47" s="3">
-        <v>60800</v>
+        <v>63300</v>
       </c>
       <c r="G47" s="3">
-        <v>195600</v>
+        <v>203500</v>
       </c>
       <c r="H47" s="3">
-        <v>195600</v>
+        <v>203500</v>
       </c>
       <c r="I47" s="3">
-        <v>183600</v>
+        <v>191100</v>
       </c>
       <c r="J47" s="3">
-        <v>190800</v>
+        <v>198500</v>
       </c>
       <c r="K47" s="3">
         <v>192800</v>
@@ -2716,25 +2716,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>598600</v>
+        <v>622900</v>
       </c>
       <c r="E48" s="3">
-        <v>592700</v>
+        <v>616700</v>
       </c>
       <c r="F48" s="3">
-        <v>508000</v>
+        <v>528600</v>
       </c>
       <c r="G48" s="3">
-        <v>1317700</v>
+        <v>1371100</v>
       </c>
       <c r="H48" s="3">
-        <v>2747500</v>
+        <v>2858800</v>
       </c>
       <c r="I48" s="3">
-        <v>1419100</v>
+        <v>1476600</v>
       </c>
       <c r="J48" s="3">
-        <v>1417900</v>
+        <v>1475300</v>
       </c>
       <c r="K48" s="3">
         <v>1161600</v>
@@ -2772,25 +2772,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>593900</v>
+        <v>617900</v>
       </c>
       <c r="E49" s="3">
-        <v>337500</v>
+        <v>351100</v>
       </c>
       <c r="F49" s="3">
-        <v>345800</v>
+        <v>359800</v>
       </c>
       <c r="G49" s="3">
-        <v>411400</v>
+        <v>428100</v>
       </c>
       <c r="H49" s="3">
-        <v>380400</v>
+        <v>395800</v>
       </c>
       <c r="I49" s="3">
-        <v>405500</v>
+        <v>421900</v>
       </c>
       <c r="J49" s="3">
-        <v>415000</v>
+        <v>431800</v>
       </c>
       <c r="K49" s="3">
         <v>404600</v>
@@ -2940,25 +2940,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>33400</v>
+        <v>34700</v>
       </c>
       <c r="E52" s="3">
-        <v>41700</v>
+        <v>43400</v>
       </c>
       <c r="F52" s="3">
-        <v>78700</v>
+        <v>81900</v>
       </c>
       <c r="G52" s="3">
-        <v>60800</v>
+        <v>63300</v>
       </c>
       <c r="H52" s="3">
-        <v>50100</v>
+        <v>52100</v>
       </c>
       <c r="I52" s="3">
-        <v>41700</v>
+        <v>43400</v>
       </c>
       <c r="J52" s="3">
-        <v>40500</v>
+        <v>42200</v>
       </c>
       <c r="K52" s="3">
         <v>248400</v>
@@ -3052,25 +3052,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3235300</v>
+        <v>3366300</v>
       </c>
       <c r="E54" s="3">
-        <v>3876900</v>
+        <v>4033800</v>
       </c>
       <c r="F54" s="3">
-        <v>3718200</v>
+        <v>3868800</v>
       </c>
       <c r="G54" s="3">
-        <v>3538200</v>
+        <v>3681500</v>
       </c>
       <c r="H54" s="3">
-        <v>3479700</v>
+        <v>3620700</v>
       </c>
       <c r="I54" s="3">
-        <v>3399800</v>
+        <v>3537500</v>
       </c>
       <c r="J54" s="3">
-        <v>3411800</v>
+        <v>3549900</v>
       </c>
       <c r="K54" s="3">
         <v>3303800</v>
@@ -3152,25 +3152,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>496100</v>
+        <v>516200</v>
       </c>
       <c r="E57" s="3">
-        <v>350600</v>
+        <v>364800</v>
       </c>
       <c r="F57" s="3">
-        <v>251600</v>
+        <v>261800</v>
       </c>
       <c r="G57" s="3">
-        <v>514000</v>
+        <v>534800</v>
       </c>
       <c r="H57" s="3">
-        <v>397100</v>
+        <v>413200</v>
       </c>
       <c r="I57" s="3">
-        <v>441200</v>
+        <v>459100</v>
       </c>
       <c r="J57" s="3">
-        <v>363700</v>
+        <v>378400</v>
       </c>
       <c r="K57" s="3">
         <v>404600</v>
@@ -3208,25 +3208,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>32200</v>
+        <v>33500</v>
       </c>
       <c r="E58" s="3">
-        <v>25000</v>
+        <v>26100</v>
       </c>
       <c r="F58" s="3">
-        <v>29800</v>
+        <v>31000</v>
       </c>
       <c r="G58" s="3">
-        <v>100200</v>
+        <v>104200</v>
       </c>
       <c r="H58" s="3">
-        <v>100200</v>
+        <v>104200</v>
       </c>
       <c r="I58" s="3">
-        <v>47700</v>
+        <v>49600</v>
       </c>
       <c r="J58" s="3">
-        <v>305300</v>
+        <v>317600</v>
       </c>
       <c r="K58" s="3">
         <v>265000</v>
@@ -3264,25 +3264,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>99000</v>
+        <v>103000</v>
       </c>
       <c r="E59" s="3">
-        <v>554500</v>
+        <v>577000</v>
       </c>
       <c r="F59" s="3">
-        <v>617700</v>
+        <v>642700</v>
       </c>
       <c r="G59" s="3">
-        <v>100200</v>
+        <v>104200</v>
       </c>
       <c r="H59" s="3">
-        <v>97800</v>
+        <v>101700</v>
       </c>
       <c r="I59" s="3">
-        <v>116900</v>
+        <v>121600</v>
       </c>
       <c r="J59" s="3">
-        <v>138300</v>
+        <v>143900</v>
       </c>
       <c r="K59" s="3">
         <v>136000</v>
@@ -3320,25 +3320,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>627300</v>
+        <v>652700</v>
       </c>
       <c r="E60" s="3">
-        <v>930200</v>
+        <v>967800</v>
       </c>
       <c r="F60" s="3">
-        <v>899200</v>
+        <v>935600</v>
       </c>
       <c r="G60" s="3">
-        <v>664200</v>
+        <v>691100</v>
       </c>
       <c r="H60" s="3">
-        <v>545000</v>
+        <v>567000</v>
       </c>
       <c r="I60" s="3">
-        <v>605800</v>
+        <v>630300</v>
       </c>
       <c r="J60" s="3">
-        <v>807300</v>
+        <v>840000</v>
       </c>
       <c r="K60" s="3">
         <v>805600</v>
@@ -3376,25 +3376,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>918200</v>
+        <v>955400</v>
       </c>
       <c r="E61" s="3">
-        <v>784700</v>
+        <v>816400</v>
       </c>
       <c r="F61" s="3">
-        <v>833600</v>
+        <v>867300</v>
       </c>
       <c r="G61" s="3">
-        <v>889600</v>
+        <v>925600</v>
       </c>
       <c r="H61" s="3">
-        <v>954000</v>
+        <v>992600</v>
       </c>
       <c r="I61" s="3">
-        <v>813300</v>
+        <v>846200</v>
       </c>
       <c r="J61" s="3">
-        <v>641600</v>
+        <v>667600</v>
       </c>
       <c r="K61" s="3">
         <v>441200</v>
@@ -3432,25 +3432,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>232500</v>
+        <v>242000</v>
       </c>
       <c r="E62" s="3">
-        <v>230200</v>
+        <v>239500</v>
       </c>
       <c r="F62" s="3">
-        <v>187200</v>
+        <v>194800</v>
       </c>
       <c r="G62" s="3">
-        <v>250400</v>
+        <v>260600</v>
       </c>
       <c r="H62" s="3">
-        <v>283800</v>
+        <v>295300</v>
       </c>
       <c r="I62" s="3">
-        <v>312400</v>
+        <v>325100</v>
       </c>
       <c r="J62" s="3">
-        <v>319600</v>
+        <v>332500</v>
       </c>
       <c r="K62" s="3">
         <v>295700</v>
@@ -3656,25 +3656,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1779200</v>
+        <v>1851300</v>
       </c>
       <c r="E66" s="3">
-        <v>1946200</v>
+        <v>2025000</v>
       </c>
       <c r="F66" s="3">
-        <v>1921100</v>
+        <v>1998900</v>
       </c>
       <c r="G66" s="3">
-        <v>1805500</v>
+        <v>1878600</v>
       </c>
       <c r="H66" s="3">
-        <v>1782800</v>
+        <v>1855000</v>
       </c>
       <c r="I66" s="3">
-        <v>1731500</v>
+        <v>1801600</v>
       </c>
       <c r="J66" s="3">
-        <v>1768500</v>
+        <v>1840100</v>
       </c>
       <c r="K66" s="3">
         <v>1542500</v>
@@ -3958,25 +3958,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>831200</v>
+        <v>864800</v>
       </c>
       <c r="E72" s="3">
-        <v>1305800</v>
+        <v>1358700</v>
       </c>
       <c r="F72" s="3">
-        <v>1172200</v>
+        <v>1219700</v>
       </c>
       <c r="G72" s="3">
-        <v>1107800</v>
+        <v>1152700</v>
       </c>
       <c r="H72" s="3">
-        <v>1072100</v>
+        <v>1115500</v>
       </c>
       <c r="I72" s="3">
-        <v>1044600</v>
+        <v>1086900</v>
       </c>
       <c r="J72" s="3">
-        <v>1019600</v>
+        <v>1060900</v>
       </c>
       <c r="K72" s="3">
         <v>1142700</v>
@@ -4182,25 +4182,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1456100</v>
+        <v>1515000</v>
       </c>
       <c r="E76" s="3">
-        <v>1930700</v>
+        <v>2008900</v>
       </c>
       <c r="F76" s="3">
-        <v>1797100</v>
+        <v>1869900</v>
       </c>
       <c r="G76" s="3">
-        <v>1732700</v>
+        <v>1802900</v>
       </c>
       <c r="H76" s="3">
-        <v>1696900</v>
+        <v>1765700</v>
       </c>
       <c r="I76" s="3">
-        <v>1668300</v>
+        <v>1735900</v>
       </c>
       <c r="J76" s="3">
-        <v>1643300</v>
+        <v>1709800</v>
       </c>
       <c r="K76" s="3">
         <v>1761300</v>
@@ -4355,25 +4355,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>144300</v>
+        <v>150100</v>
       </c>
       <c r="E81" s="3">
-        <v>159800</v>
+        <v>166300</v>
       </c>
       <c r="F81" s="3">
-        <v>121600</v>
+        <v>126600</v>
       </c>
       <c r="G81" s="3">
-        <v>143100</v>
+        <v>148900</v>
       </c>
       <c r="H81" s="3">
-        <v>158600</v>
+        <v>165000</v>
       </c>
       <c r="I81" s="3">
-        <v>135900</v>
+        <v>141500</v>
       </c>
       <c r="J81" s="3">
-        <v>156200</v>
+        <v>162500</v>
       </c>
       <c r="K81" s="3">
         <v>118300</v>
@@ -4433,25 +4433,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>56000</v>
+        <v>58300</v>
       </c>
       <c r="E83" s="3">
-        <v>46500</v>
+        <v>48400</v>
       </c>
       <c r="F83" s="3">
-        <v>72700</v>
+        <v>75700</v>
       </c>
       <c r="G83" s="3">
-        <v>103700</v>
+        <v>107900</v>
       </c>
       <c r="H83" s="3">
-        <v>104900</v>
+        <v>109200</v>
       </c>
       <c r="I83" s="3">
-        <v>89400</v>
+        <v>93100</v>
       </c>
       <c r="J83" s="3">
-        <v>115700</v>
+        <v>120400</v>
       </c>
       <c r="K83" s="3">
         <v>91100</v>
@@ -4769,25 +4769,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>45300</v>
+        <v>47200</v>
       </c>
       <c r="E89" s="3">
-        <v>-90600</v>
+        <v>-94300</v>
       </c>
       <c r="F89" s="3">
-        <v>213500</v>
+        <v>222100</v>
       </c>
       <c r="G89" s="3">
-        <v>147900</v>
+        <v>153900</v>
       </c>
       <c r="H89" s="3">
-        <v>292200</v>
+        <v>304000</v>
       </c>
       <c r="I89" s="3">
-        <v>184800</v>
+        <v>192300</v>
       </c>
       <c r="J89" s="3">
-        <v>274300</v>
+        <v>285400</v>
       </c>
       <c r="K89" s="3">
         <v>140800</v>
@@ -4847,25 +4847,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-33400</v>
+        <v>-33000</v>
       </c>
       <c r="E91" s="3">
-        <v>-83500</v>
+        <v>-81000</v>
       </c>
       <c r="F91" s="3">
-        <v>-73900</v>
+        <v>-67000</v>
       </c>
       <c r="G91" s="3">
-        <v>-85900</v>
+        <v>-83000</v>
       </c>
       <c r="H91" s="3">
-        <v>-73900</v>
+        <v>-69000</v>
       </c>
       <c r="I91" s="3">
-        <v>72700</v>
+        <v>-94000</v>
       </c>
       <c r="J91" s="3">
-        <v>-73900</v>
+        <v>-73000</v>
       </c>
       <c r="K91" s="3">
         <v>-67400</v>
@@ -5015,25 +5015,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>976700</v>
+        <v>1016200</v>
       </c>
       <c r="E94" s="3">
-        <v>-85900</v>
+        <v>-89300</v>
       </c>
       <c r="F94" s="3">
-        <v>-48900</v>
+        <v>-50900</v>
       </c>
       <c r="G94" s="3">
-        <v>-172900</v>
+        <v>-179900</v>
       </c>
       <c r="H94" s="3">
-        <v>-71600</v>
+        <v>-74400</v>
       </c>
       <c r="I94" s="3">
-        <v>-100200</v>
+        <v>-104200</v>
       </c>
       <c r="J94" s="3">
-        <v>-53700</v>
+        <v>-55800</v>
       </c>
       <c r="K94" s="3">
         <v>-95800</v>
@@ -5093,25 +5093,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-653500</v>
+        <v>-680000</v>
       </c>
       <c r="E96" s="3">
-        <v>-50100</v>
+        <v>-52100</v>
       </c>
       <c r="F96" s="3">
-        <v>-121600</v>
+        <v>-126600</v>
       </c>
       <c r="G96" s="3">
-        <v>-47700</v>
+        <v>-49600</v>
       </c>
       <c r="H96" s="3">
-        <v>-115700</v>
+        <v>-120400</v>
       </c>
       <c r="I96" s="3">
-        <v>-47700</v>
+        <v>-49600</v>
       </c>
       <c r="J96" s="3">
-        <v>-115700</v>
+        <v>-120400</v>
       </c>
       <c r="K96" s="3">
         <v>-47300</v>
@@ -5317,25 +5317,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-667800</v>
+        <v>-694800</v>
       </c>
       <c r="E100" s="3">
-        <v>-150300</v>
+        <v>-156300</v>
       </c>
       <c r="F100" s="3">
-        <v>-144300</v>
+        <v>-150100</v>
       </c>
       <c r="G100" s="3">
-        <v>-75100</v>
+        <v>-78200</v>
       </c>
       <c r="H100" s="3">
-        <v>40500</v>
+        <v>42200</v>
       </c>
       <c r="I100" s="3">
-        <v>-177700</v>
+        <v>-184900</v>
       </c>
       <c r="J100" s="3">
-        <v>-147900</v>
+        <v>-153900</v>
       </c>
       <c r="K100" s="3">
         <v>-46100</v>
@@ -5373,25 +5373,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>109700</v>
+        <v>114200</v>
       </c>
       <c r="E101" s="3">
-        <v>6000</v>
+        <v>6200</v>
       </c>
       <c r="F101" s="3">
-        <v>9500</v>
+        <v>9900</v>
       </c>
       <c r="G101" s="3">
-        <v>-34600</v>
+        <v>-36000</v>
       </c>
       <c r="H101" s="3">
-        <v>-7200</v>
+        <v>-7400</v>
       </c>
       <c r="I101" s="3">
-        <v>-14300</v>
+        <v>-14900</v>
       </c>
       <c r="J101" s="3">
-        <v>17900</v>
+        <v>18600</v>
       </c>
       <c r="K101" s="3">
         <v>2400</v>
@@ -5429,25 +5429,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>463900</v>
+        <v>482700</v>
       </c>
       <c r="E102" s="3">
-        <v>-320800</v>
+        <v>-333800</v>
       </c>
       <c r="F102" s="3">
-        <v>29800</v>
+        <v>31000</v>
       </c>
       <c r="G102" s="3">
-        <v>-134800</v>
+        <v>-140200</v>
       </c>
       <c r="H102" s="3">
-        <v>254000</v>
+        <v>264300</v>
       </c>
       <c r="I102" s="3">
-        <v>-107300</v>
+        <v>-111700</v>
       </c>
       <c r="J102" s="3">
-        <v>90600</v>
+        <v>94300</v>
       </c>
       <c r="K102" s="3">
         <v>1200</v>

--- a/AAII_Financials/Quarterly/TATYY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TATYY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="92">
   <si>
     <t>TATYY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,149 +665,156 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42460</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42277</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42094</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1053400</v>
+        <v>1143100</v>
       </c>
       <c r="E8" s="3">
-        <v>892100</v>
+        <v>1075900</v>
       </c>
       <c r="F8" s="3">
-        <v>814000</v>
+        <v>911200</v>
       </c>
       <c r="G8" s="3">
-        <v>768100</v>
+        <v>831300</v>
       </c>
       <c r="H8" s="3">
-        <v>734600</v>
+        <v>784500</v>
       </c>
       <c r="I8" s="3">
-        <v>1744600</v>
+        <v>750200</v>
       </c>
       <c r="J8" s="3">
+        <v>1781800</v>
+      </c>
+      <c r="K8" s="3">
         <v>1831400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1622900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1687100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1789300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1978300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1891400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1626900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1545600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1526000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1502500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1580100</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -862,8 +869,11 @@
       <c r="T9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -918,8 +928,11 @@
       <c r="T10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -940,8 +953,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -996,8 +1010,11 @@
       <c r="T12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1052,28 +1069,31 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>13600</v>
+        <v>21500</v>
       </c>
       <c r="E14" s="3">
-        <v>29800</v>
+        <v>13900</v>
       </c>
       <c r="F14" s="3">
-        <v>73200</v>
+        <v>30400</v>
       </c>
       <c r="G14" s="3">
-        <v>23600</v>
+        <v>74800</v>
       </c>
       <c r="H14" s="3">
-        <v>18600</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>5</v>
+        <v>24100</v>
+      </c>
+      <c r="I14" s="3">
+        <v>19000</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>5</v>
@@ -1087,8 +1107,8 @@
       <c r="M14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1096,8 +1116,8 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>5</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>5</v>
@@ -1108,28 +1128,31 @@
       <c r="T14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>14900</v>
+        <v>30400</v>
       </c>
       <c r="E15" s="3">
-        <v>23600</v>
+        <v>15200</v>
       </c>
       <c r="F15" s="3">
-        <v>6200</v>
+        <v>24100</v>
       </c>
       <c r="G15" s="3">
-        <v>26100</v>
+        <v>6300</v>
       </c>
       <c r="H15" s="3">
-        <v>6200</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>5</v>
+        <v>26600</v>
+      </c>
+      <c r="I15" s="3">
+        <v>6300</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>5</v>
@@ -1143,8 +1166,8 @@
       <c r="M15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1152,8 +1175,8 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>5</v>
+      <c r="Q15" s="3">
+        <v>0</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>5</v>
@@ -1164,8 +1187,11 @@
       <c r="T15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1183,120 +1209,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>912000</v>
+        <v>1039200</v>
       </c>
       <c r="E17" s="3">
-        <v>849900</v>
+        <v>931500</v>
       </c>
       <c r="F17" s="3">
-        <v>773000</v>
+        <v>868100</v>
       </c>
       <c r="G17" s="3">
-        <v>712200</v>
+        <v>789500</v>
       </c>
       <c r="H17" s="3">
-        <v>646500</v>
+        <v>727400</v>
       </c>
       <c r="I17" s="3">
-        <v>1583300</v>
+        <v>660300</v>
       </c>
       <c r="J17" s="3">
+        <v>1617100</v>
+      </c>
+      <c r="K17" s="3">
         <v>1625400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1477400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1549300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1618800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1744800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1747400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1474200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1472600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1433400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1548500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1490600</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>141500</v>
+        <v>103900</v>
       </c>
       <c r="E18" s="3">
-        <v>42200</v>
+        <v>144500</v>
       </c>
       <c r="F18" s="3">
-        <v>40900</v>
+        <v>43100</v>
       </c>
       <c r="G18" s="3">
-        <v>55800</v>
+        <v>41800</v>
       </c>
       <c r="H18" s="3">
-        <v>88100</v>
+        <v>57000</v>
       </c>
       <c r="I18" s="3">
-        <v>161300</v>
+        <v>90000</v>
       </c>
       <c r="J18" s="3">
+        <v>164700</v>
+      </c>
+      <c r="K18" s="3">
         <v>206000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>145500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>137800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>170500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>233500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>144000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>152700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>73000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>92600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-46100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>89500</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1317,120 +1350,127 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-57100</v>
+        <v>2500</v>
       </c>
       <c r="E20" s="3">
-        <v>-16100</v>
+        <v>-58300</v>
       </c>
       <c r="F20" s="3">
-        <v>-14900</v>
+        <v>-16500</v>
       </c>
       <c r="G20" s="3">
-        <v>-16100</v>
+        <v>-15200</v>
       </c>
       <c r="H20" s="3">
-        <v>-16100</v>
+        <v>-16500</v>
       </c>
       <c r="I20" s="3">
+        <v>-16500</v>
+      </c>
+      <c r="J20" s="3">
         <v>2500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>4700</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-5700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-5300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>4900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>17000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>11700</v>
-      </c>
-      <c r="S20" s="3">
-        <v>10500</v>
       </c>
       <c r="T20" s="3">
         <v>10500</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>142700</v>
+        <v>167300</v>
       </c>
       <c r="E21" s="3">
-        <v>74400</v>
+        <v>145700</v>
       </c>
       <c r="F21" s="3">
-        <v>101700</v>
+        <v>76000</v>
       </c>
       <c r="G21" s="3">
-        <v>147700</v>
+        <v>103900</v>
       </c>
       <c r="H21" s="3">
-        <v>181200</v>
+        <v>150800</v>
       </c>
       <c r="I21" s="3">
-        <v>256800</v>
+        <v>185000</v>
       </c>
       <c r="J21" s="3">
+        <v>262300</v>
+      </c>
+      <c r="K21" s="3">
         <v>323800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>241300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>229300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>276800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>335400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>244300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>242600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>168300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>176100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>40800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>167200</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1455,8 +1495,8 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>5</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>5</v>
@@ -1473,132 +1513,141 @@
       <c r="P22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R22" s="3">
         <v>17000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>13000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>14500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>17100</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>84400</v>
+        <v>106500</v>
       </c>
       <c r="E23" s="3">
-        <v>26100</v>
+        <v>86200</v>
       </c>
       <c r="F23" s="3">
-        <v>26100</v>
+        <v>26600</v>
       </c>
       <c r="G23" s="3">
-        <v>39700</v>
+        <v>26600</v>
       </c>
       <c r="H23" s="3">
-        <v>72000</v>
+        <v>40600</v>
       </c>
       <c r="I23" s="3">
-        <v>163800</v>
+        <v>73500</v>
       </c>
       <c r="J23" s="3">
+        <v>167300</v>
+      </c>
+      <c r="K23" s="3">
         <v>203500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>150200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>137800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>170500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>227800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>138700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>157600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>73000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>91300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-50000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>83000</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>17400</v>
+        <v>21500</v>
       </c>
       <c r="E24" s="3">
-        <v>-5000</v>
+        <v>17700</v>
       </c>
       <c r="F24" s="3">
-        <v>16100</v>
+        <v>-5100</v>
       </c>
       <c r="G24" s="3">
-        <v>-3700</v>
+        <v>16500</v>
       </c>
       <c r="H24" s="3">
-        <v>19900</v>
+        <v>-3800</v>
       </c>
       <c r="I24" s="3">
-        <v>22300</v>
+        <v>20300</v>
       </c>
       <c r="J24" s="3">
+        <v>22800</v>
+      </c>
+      <c r="K24" s="3">
         <v>40900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>31900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>39000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-19100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>52400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-27700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>3900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>13200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>14500</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1653,120 +1702,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>67000</v>
+        <v>84900</v>
       </c>
       <c r="E26" s="3">
-        <v>31000</v>
+        <v>68400</v>
       </c>
       <c r="F26" s="3">
-        <v>9900</v>
+        <v>31700</v>
       </c>
       <c r="G26" s="3">
-        <v>43400</v>
+        <v>10100</v>
       </c>
       <c r="H26" s="3">
-        <v>52100</v>
+        <v>44400</v>
       </c>
       <c r="I26" s="3">
-        <v>141500</v>
+        <v>53200</v>
       </c>
       <c r="J26" s="3">
+        <v>144500</v>
+      </c>
+      <c r="K26" s="3">
         <v>162500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>118300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>98800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>189600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>175500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>166400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>158900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>70400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>87400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-63200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>68500</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>67000</v>
+        <v>84900</v>
       </c>
       <c r="E27" s="3">
-        <v>31000</v>
+        <v>68400</v>
       </c>
       <c r="F27" s="3">
-        <v>9900</v>
+        <v>31700</v>
       </c>
       <c r="G27" s="3">
-        <v>43400</v>
+        <v>10100</v>
       </c>
       <c r="H27" s="3">
-        <v>52100</v>
+        <v>44400</v>
       </c>
       <c r="I27" s="3">
-        <v>141500</v>
+        <v>53200</v>
       </c>
       <c r="J27" s="3">
+        <v>144500</v>
+      </c>
+      <c r="K27" s="3">
         <v>162500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>118300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>98800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>189600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>175500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>166400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>158900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>70400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>87400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-63200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>68500</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1821,64 +1879,70 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>83100</v>
+        <v>2500</v>
       </c>
       <c r="E29" s="3">
-        <v>135200</v>
+        <v>84900</v>
       </c>
       <c r="F29" s="3">
-        <v>116600</v>
+        <v>138100</v>
       </c>
       <c r="G29" s="3">
-        <v>105500</v>
+        <v>119100</v>
       </c>
       <c r="H29" s="3">
-        <v>112900</v>
+        <v>107700</v>
       </c>
       <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
+        <v>115300</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>2700</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
         <v>0</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>1200</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>78300</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-23500</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>13200</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1933,8 +1997,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1989,120 +2056,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>57100</v>
+        <v>-2500</v>
       </c>
       <c r="E32" s="3">
-        <v>16100</v>
+        <v>58300</v>
       </c>
       <c r="F32" s="3">
-        <v>14900</v>
+        <v>16500</v>
       </c>
       <c r="G32" s="3">
-        <v>16100</v>
+        <v>15200</v>
       </c>
       <c r="H32" s="3">
-        <v>16100</v>
+        <v>16500</v>
       </c>
       <c r="I32" s="3">
+        <v>16500</v>
+      </c>
+      <c r="J32" s="3">
         <v>-2500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-4700</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>5700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>5300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-17000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-11700</v>
-      </c>
-      <c r="S32" s="3">
-        <v>-10500</v>
       </c>
       <c r="T32" s="3">
         <v>-10500</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>-10500</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>150100</v>
+        <v>87400</v>
       </c>
       <c r="E33" s="3">
-        <v>166300</v>
+        <v>153300</v>
       </c>
       <c r="F33" s="3">
-        <v>126600</v>
+        <v>169800</v>
       </c>
       <c r="G33" s="3">
-        <v>148900</v>
+        <v>129300</v>
       </c>
       <c r="H33" s="3">
-        <v>165000</v>
+        <v>152100</v>
       </c>
       <c r="I33" s="3">
-        <v>141500</v>
+        <v>168600</v>
       </c>
       <c r="J33" s="3">
+        <v>144500</v>
+      </c>
+      <c r="K33" s="3">
         <v>162500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>118300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>98800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>192300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>175500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>166400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>160100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>148700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>63900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-50000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>89500</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2157,125 +2233,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>150100</v>
+        <v>87400</v>
       </c>
       <c r="E35" s="3">
-        <v>166300</v>
+        <v>153300</v>
       </c>
       <c r="F35" s="3">
-        <v>126600</v>
+        <v>169800</v>
       </c>
       <c r="G35" s="3">
-        <v>148900</v>
+        <v>129300</v>
       </c>
       <c r="H35" s="3">
-        <v>165000</v>
+        <v>152100</v>
       </c>
       <c r="I35" s="3">
-        <v>141500</v>
+        <v>168600</v>
       </c>
       <c r="J35" s="3">
+        <v>144500</v>
+      </c>
+      <c r="K35" s="3">
         <v>162500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>118300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>98800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>192300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>175500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>166400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>160100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>148700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>63900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-50000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>89500</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42460</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42277</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42094</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2296,8 +2381,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2318,64 +2404,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>640300</v>
+        <v>602000</v>
       </c>
       <c r="E41" s="3">
-        <v>136500</v>
+        <v>653900</v>
       </c>
       <c r="F41" s="3">
-        <v>477700</v>
+        <v>139400</v>
       </c>
       <c r="G41" s="3">
-        <v>460300</v>
+        <v>487900</v>
       </c>
       <c r="H41" s="3">
-        <v>600500</v>
+        <v>470200</v>
       </c>
       <c r="I41" s="3">
-        <v>336300</v>
+        <v>613400</v>
       </c>
       <c r="J41" s="3">
+        <v>343400</v>
+      </c>
+      <c r="K41" s="3">
         <v>447900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>337100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>346500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>259100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>342500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>344700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>355900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>413500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>305200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>256800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>425300</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2383,447 +2473,471 @@
         <v>0</v>
       </c>
       <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
         <v>2500</v>
       </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
       <c r="G42" s="3">
-        <v>39700</v>
+        <v>0</v>
       </c>
       <c r="H42" s="3">
-        <v>47200</v>
+        <v>40600</v>
       </c>
       <c r="I42" s="3">
-        <v>83100</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>5</v>
+        <v>48200</v>
+      </c>
+      <c r="J42" s="3">
+        <v>84900</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N42" s="3">
+      <c r="L42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O42" s="3">
         <v>1400</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
-      </c>
       <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
         <v>4900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>5200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>7800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>23700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>512500</v>
+        <v>456200</v>
       </c>
       <c r="E43" s="3">
-        <v>348700</v>
+        <v>523400</v>
       </c>
       <c r="F43" s="3">
-        <v>325100</v>
+        <v>356100</v>
       </c>
       <c r="G43" s="3">
-        <v>426800</v>
+        <v>332000</v>
       </c>
       <c r="H43" s="3">
-        <v>395800</v>
+        <v>436000</v>
       </c>
       <c r="I43" s="3">
-        <v>413200</v>
+        <v>404300</v>
       </c>
       <c r="J43" s="3">
+        <v>422000</v>
+      </c>
+      <c r="K43" s="3">
         <v>397100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>389200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>425700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>402300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>450000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>385700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>374400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>396500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>363900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>384500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>495100</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>553400</v>
+        <v>565200</v>
       </c>
       <c r="E44" s="3">
-        <v>393300</v>
+        <v>565200</v>
       </c>
       <c r="F44" s="3">
-        <v>326300</v>
+        <v>401700</v>
       </c>
       <c r="G44" s="3">
-        <v>660100</v>
+        <v>333300</v>
       </c>
       <c r="H44" s="3">
-        <v>485200</v>
+        <v>674200</v>
       </c>
       <c r="I44" s="3">
-        <v>565800</v>
+        <v>495500</v>
       </c>
       <c r="J44" s="3">
+        <v>577900</v>
+      </c>
+      <c r="K44" s="3">
         <v>512500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>513400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>508700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>571400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>537700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>582500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>449500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>507400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>443500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>478000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>331800</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>16100</v>
+        <v>3800</v>
       </c>
       <c r="E45" s="3">
-        <v>2083300</v>
+        <v>16500</v>
       </c>
       <c r="F45" s="3">
-        <v>1706100</v>
+        <v>2217800</v>
       </c>
       <c r="G45" s="3">
-        <v>28500</v>
+        <v>1742500</v>
       </c>
       <c r="H45" s="3">
-        <v>11200</v>
+        <v>29100</v>
       </c>
       <c r="I45" s="3">
-        <v>6200</v>
+        <v>11400</v>
       </c>
       <c r="J45" s="3">
+        <v>6300</v>
+      </c>
+      <c r="K45" s="3">
         <v>44700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>56800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>46400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>32700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>55200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>40900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>71400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>65200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>348300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>81600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>143500</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1722200</v>
+        <v>1627200</v>
       </c>
       <c r="E46" s="3">
-        <v>2964300</v>
+        <v>1759000</v>
       </c>
       <c r="F46" s="3">
-        <v>2835200</v>
+        <v>3117600</v>
       </c>
       <c r="G46" s="3">
-        <v>1615500</v>
+        <v>2895800</v>
       </c>
       <c r="H46" s="3">
-        <v>1539800</v>
+        <v>1650000</v>
       </c>
       <c r="I46" s="3">
-        <v>1404600</v>
+        <v>1572700</v>
       </c>
       <c r="J46" s="3">
+        <v>1434600</v>
+      </c>
+      <c r="K46" s="3">
         <v>1402100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1296500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1327300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1265600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1386800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1353800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1256200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1387800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1468700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1224600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1398400</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>368500</v>
+        <v>319400</v>
       </c>
       <c r="E47" s="3">
-        <v>58300</v>
+        <v>376400</v>
       </c>
       <c r="F47" s="3">
-        <v>63300</v>
+        <v>59600</v>
       </c>
       <c r="G47" s="3">
-        <v>203500</v>
+        <v>64600</v>
       </c>
       <c r="H47" s="3">
-        <v>203500</v>
+        <v>207800</v>
       </c>
       <c r="I47" s="3">
-        <v>191100</v>
+        <v>207800</v>
       </c>
       <c r="J47" s="3">
+        <v>195200</v>
+      </c>
+      <c r="K47" s="3">
         <v>198500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>192800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>158600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>170500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>154200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>167700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>136700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>137000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>180000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>453000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>476700</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>622900</v>
+        <v>618400</v>
       </c>
       <c r="E48" s="3">
-        <v>616700</v>
+        <v>636200</v>
       </c>
       <c r="F48" s="3">
-        <v>528600</v>
+        <v>546200</v>
       </c>
       <c r="G48" s="3">
-        <v>1371100</v>
+        <v>539900</v>
       </c>
       <c r="H48" s="3">
-        <v>2858800</v>
+        <v>1400400</v>
       </c>
       <c r="I48" s="3">
-        <v>1476600</v>
+        <v>2919900</v>
       </c>
       <c r="J48" s="3">
+        <v>1508100</v>
+      </c>
+      <c r="K48" s="3">
         <v>1475300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1161600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1206500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1316100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1416500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1401400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1272200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1207800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1006900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>987600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>995500</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>617900</v>
+        <v>572800</v>
       </c>
       <c r="E49" s="3">
-        <v>351100</v>
+        <v>631100</v>
       </c>
       <c r="F49" s="3">
-        <v>359800</v>
+        <v>352300</v>
       </c>
       <c r="G49" s="3">
-        <v>428100</v>
+        <v>367500</v>
       </c>
       <c r="H49" s="3">
-        <v>395800</v>
+        <v>437200</v>
       </c>
       <c r="I49" s="3">
-        <v>421900</v>
+        <v>404300</v>
       </c>
       <c r="J49" s="3">
+        <v>430900</v>
+      </c>
+      <c r="K49" s="3">
         <v>431800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>404600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>431800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>491000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>539200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>529600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>511100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>508700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>403000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>447700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>418700</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2878,8 +2992,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2934,64 +3051,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>34700</v>
+        <v>39300</v>
       </c>
       <c r="E52" s="3">
-        <v>43400</v>
+        <v>35500</v>
       </c>
       <c r="F52" s="3">
-        <v>81900</v>
+        <v>44400</v>
       </c>
       <c r="G52" s="3">
-        <v>63300</v>
+        <v>83600</v>
       </c>
       <c r="H52" s="3">
-        <v>52100</v>
+        <v>64600</v>
       </c>
       <c r="I52" s="3">
-        <v>43400</v>
+        <v>53200</v>
       </c>
       <c r="J52" s="3">
+        <v>44400</v>
+      </c>
+      <c r="K52" s="3">
         <v>42200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>248400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>241500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>263200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>206600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>207400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>67700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>90000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>114800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>77700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>39500</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3046,64 +3169,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3366300</v>
+        <v>3177100</v>
       </c>
       <c r="E54" s="3">
-        <v>4033800</v>
+        <v>3438200</v>
       </c>
       <c r="F54" s="3">
-        <v>3868800</v>
+        <v>4120000</v>
       </c>
       <c r="G54" s="3">
-        <v>3681500</v>
+        <v>3951400</v>
       </c>
       <c r="H54" s="3">
-        <v>3620700</v>
+        <v>3760100</v>
       </c>
       <c r="I54" s="3">
-        <v>3537500</v>
+        <v>3698000</v>
       </c>
       <c r="J54" s="3">
+        <v>3613100</v>
+      </c>
+      <c r="K54" s="3">
         <v>3549900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3303800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3365700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3506300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3703300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3659900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3244000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3331200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3173400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3190600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3328800</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3124,8 +3253,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3146,344 +3276,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>516200</v>
+        <v>471400</v>
       </c>
       <c r="E57" s="3">
-        <v>364800</v>
+        <v>527200</v>
       </c>
       <c r="F57" s="3">
-        <v>261800</v>
+        <v>372600</v>
       </c>
       <c r="G57" s="3">
-        <v>534800</v>
+        <v>267400</v>
       </c>
       <c r="H57" s="3">
-        <v>413200</v>
+        <v>546200</v>
       </c>
       <c r="I57" s="3">
-        <v>459100</v>
+        <v>422000</v>
       </c>
       <c r="J57" s="3">
+        <v>468900</v>
+      </c>
+      <c r="K57" s="3">
         <v>378400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>404600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>431800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>425500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>447200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>416000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>397800</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>439600</v>
       </c>
       <c r="R57" s="3">
         <v>439600</v>
       </c>
       <c r="S57" s="3">
+        <v>439600</v>
+      </c>
+      <c r="T57" s="3">
         <v>416100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>425300</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>33500</v>
+        <v>153300</v>
       </c>
       <c r="E58" s="3">
-        <v>26100</v>
+        <v>34200</v>
       </c>
       <c r="F58" s="3">
-        <v>31000</v>
+        <v>26600</v>
       </c>
       <c r="G58" s="3">
-        <v>104200</v>
+        <v>31700</v>
       </c>
       <c r="H58" s="3">
-        <v>104200</v>
+        <v>106500</v>
       </c>
       <c r="I58" s="3">
-        <v>49600</v>
+        <v>106500</v>
       </c>
       <c r="J58" s="3">
+        <v>50700</v>
+      </c>
+      <c r="K58" s="3">
         <v>317600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>265000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>29300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>21800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>39600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>116200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>129300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>260900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>644300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>401600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>468800</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>103000</v>
+        <v>100100</v>
       </c>
       <c r="E59" s="3">
-        <v>577000</v>
+        <v>105200</v>
       </c>
       <c r="F59" s="3">
-        <v>642700</v>
+        <v>589300</v>
       </c>
       <c r="G59" s="3">
-        <v>104200</v>
+        <v>656500</v>
       </c>
       <c r="H59" s="3">
-        <v>101700</v>
+        <v>106500</v>
       </c>
       <c r="I59" s="3">
-        <v>121600</v>
+        <v>103900</v>
       </c>
       <c r="J59" s="3">
+        <v>124200</v>
+      </c>
+      <c r="K59" s="3">
         <v>143900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>136000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>135400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>100900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>113200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>110900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>150300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>147400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>159100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>109300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>142200</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>652700</v>
+        <v>724900</v>
       </c>
       <c r="E60" s="3">
-        <v>967800</v>
+        <v>666600</v>
       </c>
       <c r="F60" s="3">
-        <v>935600</v>
+        <v>988500</v>
       </c>
       <c r="G60" s="3">
-        <v>691100</v>
+        <v>955500</v>
       </c>
       <c r="H60" s="3">
-        <v>567000</v>
+        <v>705900</v>
       </c>
       <c r="I60" s="3">
-        <v>630300</v>
+        <v>579200</v>
       </c>
       <c r="J60" s="3">
+        <v>643800</v>
+      </c>
+      <c r="K60" s="3">
         <v>840000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>805600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>596500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>548200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>600000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>643200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>677400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>847800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1243000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>927000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1036300</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>955400</v>
+        <v>750200</v>
       </c>
       <c r="E61" s="3">
-        <v>816400</v>
+        <v>975800</v>
       </c>
       <c r="F61" s="3">
-        <v>867300</v>
+        <v>833900</v>
       </c>
       <c r="G61" s="3">
-        <v>925600</v>
+        <v>885800</v>
       </c>
       <c r="H61" s="3">
-        <v>992600</v>
+        <v>945400</v>
       </c>
       <c r="I61" s="3">
-        <v>846200</v>
+        <v>1013800</v>
       </c>
       <c r="J61" s="3">
+        <v>864300</v>
+      </c>
+      <c r="K61" s="3">
         <v>667600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>441200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>703900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>755500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>812300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>797800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>731600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>725200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>371700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>609700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>579400</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>242000</v>
+        <v>193900</v>
       </c>
       <c r="E62" s="3">
-        <v>239500</v>
+        <v>247100</v>
       </c>
       <c r="F62" s="3">
-        <v>194800</v>
+        <v>244600</v>
       </c>
       <c r="G62" s="3">
-        <v>260600</v>
+        <v>199000</v>
       </c>
       <c r="H62" s="3">
-        <v>295300</v>
+        <v>266100</v>
       </c>
       <c r="I62" s="3">
-        <v>325100</v>
+        <v>301600</v>
       </c>
       <c r="J62" s="3">
+        <v>332000</v>
+      </c>
+      <c r="K62" s="3">
         <v>332500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>295700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>342800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>338200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>459900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>459600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>456900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>416100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>400400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>421400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>337100</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3538,8 +3687,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3594,8 +3746,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3650,64 +3805,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1851300</v>
+        <v>1670300</v>
       </c>
       <c r="E66" s="3">
-        <v>2025000</v>
+        <v>1890800</v>
       </c>
       <c r="F66" s="3">
-        <v>1998900</v>
+        <v>2068200</v>
       </c>
       <c r="G66" s="3">
-        <v>1878600</v>
+        <v>2041600</v>
       </c>
       <c r="H66" s="3">
-        <v>1855000</v>
+        <v>1918700</v>
       </c>
       <c r="I66" s="3">
-        <v>1801600</v>
+        <v>1894600</v>
       </c>
       <c r="J66" s="3">
         <v>1840100</v>
       </c>
       <c r="K66" s="3">
+        <v>1840100</v>
+      </c>
+      <c r="L66" s="3">
         <v>1542500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1643200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1642000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1872200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1900600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1865900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1990400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2016500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1959400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1954100</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3728,8 +3889,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3784,8 +3946,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3840,8 +4005,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3896,8 +4064,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3952,64 +4123,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>864800</v>
+        <v>841500</v>
       </c>
       <c r="E72" s="3">
-        <v>1358700</v>
+        <v>883300</v>
       </c>
       <c r="F72" s="3">
-        <v>1219700</v>
+        <v>1387700</v>
       </c>
       <c r="G72" s="3">
-        <v>1152700</v>
+        <v>1245800</v>
       </c>
       <c r="H72" s="3">
-        <v>1115500</v>
+        <v>1177300</v>
       </c>
       <c r="I72" s="3">
-        <v>1086900</v>
+        <v>1139300</v>
       </c>
       <c r="J72" s="3">
+        <v>1110200</v>
+      </c>
+      <c r="K72" s="3">
         <v>1060900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1142700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1084500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1151000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1091000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1068500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>734000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>658700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>474800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>542500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>686000</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4064,8 +4241,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4120,8 +4300,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4176,64 +4359,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1515000</v>
+        <v>1506800</v>
       </c>
       <c r="E76" s="3">
-        <v>2008900</v>
+        <v>1547400</v>
       </c>
       <c r="F76" s="3">
-        <v>1869900</v>
+        <v>2051800</v>
       </c>
       <c r="G76" s="3">
-        <v>1802900</v>
+        <v>1909800</v>
       </c>
       <c r="H76" s="3">
-        <v>1765700</v>
+        <v>1841400</v>
       </c>
       <c r="I76" s="3">
-        <v>1735900</v>
+        <v>1803400</v>
       </c>
       <c r="J76" s="3">
+        <v>1773000</v>
+      </c>
+      <c r="K76" s="3">
         <v>1709800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1761300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1722500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1864300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1831200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1759300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1378200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1340800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1156900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1231200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1374700</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4288,125 +4477,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42460</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42277</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42094</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>150100</v>
+        <v>87400</v>
       </c>
       <c r="E81" s="3">
-        <v>166300</v>
+        <v>153300</v>
       </c>
       <c r="F81" s="3">
-        <v>126600</v>
+        <v>169800</v>
       </c>
       <c r="G81" s="3">
-        <v>148900</v>
+        <v>129300</v>
       </c>
       <c r="H81" s="3">
-        <v>165000</v>
+        <v>152100</v>
       </c>
       <c r="I81" s="3">
-        <v>141500</v>
+        <v>168600</v>
       </c>
       <c r="J81" s="3">
+        <v>144500</v>
+      </c>
+      <c r="K81" s="3">
         <v>162500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>118300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>98800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>192300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>175500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>166400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>160100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>148700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>63900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-50000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>89500</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4427,64 +4625,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>58300</v>
+        <v>60800</v>
       </c>
       <c r="E83" s="3">
-        <v>48400</v>
+        <v>59600</v>
       </c>
       <c r="F83" s="3">
-        <v>75700</v>
+        <v>49400</v>
       </c>
       <c r="G83" s="3">
-        <v>107900</v>
+        <v>77300</v>
       </c>
       <c r="H83" s="3">
-        <v>109200</v>
+        <v>110300</v>
       </c>
       <c r="I83" s="3">
-        <v>93100</v>
+        <v>111500</v>
       </c>
       <c r="J83" s="3">
+        <v>95000</v>
+      </c>
+      <c r="K83" s="3">
         <v>120400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>91100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>91500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>106400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>107500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>105700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>85000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>78300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>71700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>76400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>67200</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4539,8 +4741,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4595,8 +4800,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4651,8 +4859,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4707,8 +4918,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4763,64 +4977,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>47200</v>
+        <v>35500</v>
       </c>
       <c r="E89" s="3">
-        <v>-94300</v>
+        <v>48200</v>
       </c>
       <c r="F89" s="3">
-        <v>222100</v>
+        <v>-96300</v>
       </c>
       <c r="G89" s="3">
-        <v>153900</v>
+        <v>226800</v>
       </c>
       <c r="H89" s="3">
-        <v>304000</v>
+        <v>157100</v>
       </c>
       <c r="I89" s="3">
-        <v>192300</v>
+        <v>310500</v>
       </c>
       <c r="J89" s="3">
+        <v>196400</v>
+      </c>
+      <c r="K89" s="3">
         <v>285400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>140800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>257400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>105000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>295800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>130800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>245100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>19600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>225600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>72400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>163300</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4841,64 +5061,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-45000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-33000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-81000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-67000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-83000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-69000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-94000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-73000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-67400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-56100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-81800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-72200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-76600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-85000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-133000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-100400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-216000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-192300</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4953,8 +5177,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5009,64 +5236,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>1016200</v>
+        <v>20300</v>
       </c>
       <c r="E94" s="3">
-        <v>-89300</v>
+        <v>1037900</v>
       </c>
       <c r="F94" s="3">
-        <v>-50900</v>
+        <v>-91200</v>
       </c>
       <c r="G94" s="3">
-        <v>-179900</v>
+        <v>-52000</v>
       </c>
       <c r="H94" s="3">
-        <v>-74400</v>
+        <v>-183800</v>
       </c>
       <c r="I94" s="3">
-        <v>-104200</v>
+        <v>-76000</v>
       </c>
       <c r="J94" s="3">
+        <v>-106500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-55800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-95800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-36600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-83200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-58000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-87200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-59100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>183900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-71700</v>
-      </c>
-      <c r="S94" s="3">
-        <v>-108000</v>
       </c>
       <c r="T94" s="3">
         <v>-108000</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>-108000</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5087,64 +5320,68 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-680000</v>
+        <v>-27900</v>
       </c>
       <c r="E96" s="3">
-        <v>-52100</v>
+        <v>-694500</v>
       </c>
       <c r="F96" s="3">
-        <v>-126600</v>
+        <v>-53200</v>
       </c>
       <c r="G96" s="3">
+        <v>-129300</v>
+      </c>
+      <c r="H96" s="3">
+        <v>-50700</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-122900</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-50700</v>
+      </c>
+      <c r="K96" s="3">
+        <v>-120400</v>
+      </c>
+      <c r="L96" s="3">
+        <v>-47300</v>
+      </c>
+      <c r="M96" s="3">
+        <v>-114700</v>
+      </c>
+      <c r="N96" s="3">
+        <v>-53200</v>
+      </c>
+      <c r="O96" s="3">
+        <v>-130200</v>
+      </c>
+      <c r="P96" s="3">
+        <v>-50200</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>-113300</v>
+      </c>
+      <c r="R96" s="3">
         <v>-49600</v>
       </c>
-      <c r="H96" s="3">
-        <v>-120400</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-49600</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-120400</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-47300</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-114700</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-53200</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-130200</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-50200</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-113300</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-49600</v>
-      </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-120000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-50000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-121100</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5199,8 +5436,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5255,8 +5495,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5311,172 +5554,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-694800</v>
+        <v>-48200</v>
       </c>
       <c r="E100" s="3">
-        <v>-156300</v>
+        <v>-709700</v>
       </c>
       <c r="F100" s="3">
-        <v>-150100</v>
+        <v>-159700</v>
       </c>
       <c r="G100" s="3">
-        <v>-78200</v>
+        <v>-153300</v>
       </c>
       <c r="H100" s="3">
-        <v>42200</v>
+        <v>-79800</v>
       </c>
       <c r="I100" s="3">
-        <v>-184900</v>
+        <v>43100</v>
       </c>
       <c r="J100" s="3">
+        <v>-188800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-153900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-46100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-123200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-80500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-244800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-93800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-247600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-116100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-100400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-151400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-92200</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>114200</v>
+        <v>-59600</v>
       </c>
       <c r="E101" s="3">
-        <v>6200</v>
+        <v>116600</v>
       </c>
       <c r="F101" s="3">
-        <v>9900</v>
+        <v>6300</v>
       </c>
       <c r="G101" s="3">
-        <v>-36000</v>
+        <v>10100</v>
       </c>
       <c r="H101" s="3">
-        <v>-7400</v>
+        <v>-36800</v>
       </c>
       <c r="I101" s="3">
-        <v>-14900</v>
+        <v>-7600</v>
       </c>
       <c r="J101" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="K101" s="3">
         <v>18600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>17100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-12300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-19800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>13200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>27100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>20900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-2600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>18400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>482700</v>
+        <v>-52000</v>
       </c>
       <c r="E102" s="3">
-        <v>-333800</v>
+        <v>493000</v>
       </c>
       <c r="F102" s="3">
-        <v>31000</v>
+        <v>-340900</v>
       </c>
       <c r="G102" s="3">
-        <v>-140200</v>
+        <v>31700</v>
       </c>
       <c r="H102" s="3">
-        <v>264300</v>
+        <v>-143200</v>
       </c>
       <c r="I102" s="3">
-        <v>-111700</v>
+        <v>269900</v>
       </c>
       <c r="J102" s="3">
+        <v>-114100</v>
+      </c>
+      <c r="K102" s="3">
         <v>94300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>114700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-70900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-26900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-37000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-34500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>108300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>50900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-168500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-30300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TATYY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TATYY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="92">
   <si>
     <t>TATYY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,156 +665,163 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42460</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42277</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42094</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1143100</v>
+        <v>1063200</v>
       </c>
       <c r="E8" s="3">
-        <v>1075900</v>
+        <v>1119000</v>
       </c>
       <c r="F8" s="3">
-        <v>911200</v>
+        <v>1053300</v>
       </c>
       <c r="G8" s="3">
-        <v>831300</v>
+        <v>892000</v>
       </c>
       <c r="H8" s="3">
-        <v>784500</v>
+        <v>813800</v>
       </c>
       <c r="I8" s="3">
-        <v>750200</v>
+        <v>767900</v>
       </c>
       <c r="J8" s="3">
+        <v>734400</v>
+      </c>
+      <c r="K8" s="3">
         <v>1781800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1831400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1622900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1687100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1789300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1978300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1891400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1626900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1545600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1526000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1502500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1580100</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -872,8 +879,11 @@
       <c r="U9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -931,8 +941,11 @@
       <c r="U10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -954,8 +967,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1013,8 +1027,11 @@
       <c r="U12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1072,31 +1089,34 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>21500</v>
+        <v>9900</v>
       </c>
       <c r="E14" s="3">
-        <v>13900</v>
+        <v>21100</v>
       </c>
       <c r="F14" s="3">
-        <v>30400</v>
+        <v>13600</v>
       </c>
       <c r="G14" s="3">
-        <v>74800</v>
+        <v>29800</v>
       </c>
       <c r="H14" s="3">
-        <v>24100</v>
+        <v>73200</v>
       </c>
       <c r="I14" s="3">
-        <v>19000</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
+        <v>23600</v>
+      </c>
+      <c r="J14" s="3">
+        <v>18600</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>5</v>
@@ -1110,8 +1130,8 @@
       <c r="N14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1119,8 +1139,8 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>5</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>5</v>
@@ -1131,31 +1151,34 @@
       <c r="U14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>30400</v>
+      <c r="D15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E15" s="3">
-        <v>15200</v>
+        <v>29800</v>
       </c>
       <c r="F15" s="3">
-        <v>24100</v>
+        <v>14900</v>
       </c>
       <c r="G15" s="3">
-        <v>6300</v>
+        <v>23600</v>
       </c>
       <c r="H15" s="3">
-        <v>26600</v>
+        <v>6200</v>
       </c>
       <c r="I15" s="3">
-        <v>6300</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>5</v>
+        <v>26100</v>
+      </c>
+      <c r="J15" s="3">
+        <v>6200</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>5</v>
@@ -1169,8 +1192,8 @@
       <c r="N15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
+      <c r="O15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
@@ -1178,8 +1201,8 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>5</v>
+      <c r="R15" s="3">
+        <v>0</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>5</v>
@@ -1190,8 +1213,11 @@
       <c r="U15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1210,126 +1236,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1039200</v>
+        <v>910600</v>
       </c>
       <c r="E17" s="3">
-        <v>931500</v>
+        <v>1017300</v>
       </c>
       <c r="F17" s="3">
-        <v>868100</v>
+        <v>911800</v>
       </c>
       <c r="G17" s="3">
-        <v>789500</v>
+        <v>849800</v>
       </c>
       <c r="H17" s="3">
-        <v>727400</v>
+        <v>772900</v>
       </c>
       <c r="I17" s="3">
-        <v>660300</v>
+        <v>712100</v>
       </c>
       <c r="J17" s="3">
+        <v>646400</v>
+      </c>
+      <c r="K17" s="3">
         <v>1617100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1625400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1477400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1549300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1618800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1744800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1747400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1474200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1472600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1433400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1548500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1490600</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>103900</v>
+        <v>152600</v>
       </c>
       <c r="E18" s="3">
-        <v>144500</v>
+        <v>101700</v>
       </c>
       <c r="F18" s="3">
-        <v>43100</v>
+        <v>141400</v>
       </c>
       <c r="G18" s="3">
-        <v>41800</v>
+        <v>42200</v>
       </c>
       <c r="H18" s="3">
-        <v>57000</v>
+        <v>40900</v>
       </c>
       <c r="I18" s="3">
-        <v>90000</v>
+        <v>55800</v>
       </c>
       <c r="J18" s="3">
+        <v>88100</v>
+      </c>
+      <c r="K18" s="3">
         <v>164700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>206000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>145500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>137800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>170500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>233500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>144000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>152700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>73000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>92600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-46100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>89500</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1351,126 +1384,133 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E20" s="3">
         <v>2500</v>
       </c>
-      <c r="E20" s="3">
-        <v>-58300</v>
-      </c>
       <c r="F20" s="3">
-        <v>-16500</v>
+        <v>-57100</v>
       </c>
       <c r="G20" s="3">
-        <v>-15200</v>
+        <v>-16100</v>
       </c>
       <c r="H20" s="3">
-        <v>-16500</v>
+        <v>-14900</v>
       </c>
       <c r="I20" s="3">
-        <v>-16500</v>
+        <v>-16100</v>
       </c>
       <c r="J20" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="K20" s="3">
         <v>2500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>4700</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-5700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>4900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>17000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>11700</v>
-      </c>
-      <c r="T20" s="3">
-        <v>10500</v>
       </c>
       <c r="U20" s="3">
         <v>10500</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>167300</v>
+        <v>219600</v>
       </c>
       <c r="E21" s="3">
-        <v>145700</v>
+        <v>163800</v>
       </c>
       <c r="F21" s="3">
-        <v>76000</v>
+        <v>142700</v>
       </c>
       <c r="G21" s="3">
-        <v>103900</v>
+        <v>74400</v>
       </c>
       <c r="H21" s="3">
-        <v>150800</v>
+        <v>101700</v>
       </c>
       <c r="I21" s="3">
-        <v>185000</v>
+        <v>147600</v>
       </c>
       <c r="J21" s="3">
+        <v>181100</v>
+      </c>
+      <c r="K21" s="3">
         <v>262300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>323800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>241300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>229300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>276800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>335400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>244300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>242600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>168300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>176100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>40800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>167200</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1498,8 +1538,8 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>5</v>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>5</v>
@@ -1516,138 +1556,147 @@
       <c r="Q22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R22" s="3">
+      <c r="R22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S22" s="3">
         <v>17000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>13000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>14500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>17100</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>106500</v>
+        <v>161300</v>
       </c>
       <c r="E23" s="3">
-        <v>86200</v>
+        <v>104200</v>
       </c>
       <c r="F23" s="3">
-        <v>26600</v>
+        <v>84400</v>
       </c>
       <c r="G23" s="3">
-        <v>26600</v>
+        <v>26100</v>
       </c>
       <c r="H23" s="3">
-        <v>40600</v>
+        <v>26100</v>
       </c>
       <c r="I23" s="3">
-        <v>73500</v>
+        <v>39700</v>
       </c>
       <c r="J23" s="3">
+        <v>72000</v>
+      </c>
+      <c r="K23" s="3">
         <v>167300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>203500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>150200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>137800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>170500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>227800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>138700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>157600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>73000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>91300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-50000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>83000</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>21500</v>
+        <v>37200</v>
       </c>
       <c r="E24" s="3">
-        <v>17700</v>
+        <v>21100</v>
       </c>
       <c r="F24" s="3">
-        <v>-5100</v>
+        <v>17400</v>
       </c>
       <c r="G24" s="3">
-        <v>16500</v>
+        <v>-5000</v>
       </c>
       <c r="H24" s="3">
-        <v>-3800</v>
+        <v>16100</v>
       </c>
       <c r="I24" s="3">
-        <v>20300</v>
+        <v>-3700</v>
       </c>
       <c r="J24" s="3">
+        <v>19800</v>
+      </c>
+      <c r="K24" s="3">
         <v>22800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>40900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>31900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>39000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-19100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>52400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-27700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-1200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>3900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>13200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>14500</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1705,126 +1754,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>84900</v>
+        <v>124100</v>
       </c>
       <c r="E26" s="3">
-        <v>68400</v>
+        <v>83100</v>
       </c>
       <c r="F26" s="3">
-        <v>31700</v>
+        <v>67000</v>
       </c>
       <c r="G26" s="3">
-        <v>10100</v>
+        <v>31000</v>
       </c>
       <c r="H26" s="3">
-        <v>44400</v>
+        <v>9900</v>
       </c>
       <c r="I26" s="3">
-        <v>53200</v>
+        <v>43400</v>
       </c>
       <c r="J26" s="3">
+        <v>52100</v>
+      </c>
+      <c r="K26" s="3">
         <v>144500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>162500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>118300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>98800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>189600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>175500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>166400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>158900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>70400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>87400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-63200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>68500</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>84900</v>
+        <v>124100</v>
       </c>
       <c r="E27" s="3">
-        <v>68400</v>
+        <v>83100</v>
       </c>
       <c r="F27" s="3">
-        <v>31700</v>
+        <v>67000</v>
       </c>
       <c r="G27" s="3">
-        <v>10100</v>
+        <v>31000</v>
       </c>
       <c r="H27" s="3">
-        <v>44400</v>
+        <v>9900</v>
       </c>
       <c r="I27" s="3">
-        <v>53200</v>
+        <v>43400</v>
       </c>
       <c r="J27" s="3">
+        <v>52100</v>
+      </c>
+      <c r="K27" s="3">
         <v>144500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>162500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>118300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>98800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>189600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>175500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>166400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>158900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>70400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>87400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-63200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>68500</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1882,8 +1940,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1891,58 +1952,61 @@
         <v>2500</v>
       </c>
       <c r="E29" s="3">
-        <v>84900</v>
+        <v>2500</v>
       </c>
       <c r="F29" s="3">
-        <v>138100</v>
+        <v>83100</v>
       </c>
       <c r="G29" s="3">
-        <v>119100</v>
+        <v>135200</v>
       </c>
       <c r="H29" s="3">
-        <v>107700</v>
+        <v>116600</v>
       </c>
       <c r="I29" s="3">
-        <v>115300</v>
+        <v>105500</v>
       </c>
       <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L29" s="3">
-        <v>0</v>
+        <v>112900</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>2700</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>1200</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>78300</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-23500</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>13200</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2000,8 +2064,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2059,126 +2126,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2500</v>
       </c>
-      <c r="E32" s="3">
-        <v>58300</v>
-      </c>
       <c r="F32" s="3">
-        <v>16500</v>
+        <v>57100</v>
       </c>
       <c r="G32" s="3">
-        <v>15200</v>
+        <v>16100</v>
       </c>
       <c r="H32" s="3">
-        <v>16500</v>
+        <v>14900</v>
       </c>
       <c r="I32" s="3">
-        <v>16500</v>
+        <v>16100</v>
       </c>
       <c r="J32" s="3">
+        <v>16100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-2500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-4700</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>5700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>5300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-4900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-17000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-11700</v>
-      </c>
-      <c r="T32" s="3">
-        <v>-10500</v>
       </c>
       <c r="U32" s="3">
         <v>-10500</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>-10500</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>87400</v>
+        <v>126500</v>
       </c>
       <c r="E33" s="3">
-        <v>153300</v>
+        <v>85600</v>
       </c>
       <c r="F33" s="3">
-        <v>169800</v>
+        <v>150100</v>
       </c>
       <c r="G33" s="3">
-        <v>129300</v>
+        <v>166200</v>
       </c>
       <c r="H33" s="3">
-        <v>152100</v>
+        <v>126500</v>
       </c>
       <c r="I33" s="3">
-        <v>168600</v>
+        <v>148900</v>
       </c>
       <c r="J33" s="3">
+        <v>165000</v>
+      </c>
+      <c r="K33" s="3">
         <v>144500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>162500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>118300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>98800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>192300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>175500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>166400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>160100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>148700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>63900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-50000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>89500</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2236,131 +2312,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>87400</v>
+        <v>126500</v>
       </c>
       <c r="E35" s="3">
-        <v>153300</v>
+        <v>85600</v>
       </c>
       <c r="F35" s="3">
-        <v>169800</v>
+        <v>150100</v>
       </c>
       <c r="G35" s="3">
-        <v>129300</v>
+        <v>166200</v>
       </c>
       <c r="H35" s="3">
-        <v>152100</v>
+        <v>126500</v>
       </c>
       <c r="I35" s="3">
-        <v>168600</v>
+        <v>148900</v>
       </c>
       <c r="J35" s="3">
+        <v>165000</v>
+      </c>
+      <c r="K35" s="3">
         <v>144500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>162500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>118300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>98800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>192300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>175500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>166400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>160100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>148700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>63900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-50000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>89500</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42460</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42277</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42094</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2382,8 +2467,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2405,539 +2491,567 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>602000</v>
+        <v>485100</v>
       </c>
       <c r="E41" s="3">
-        <v>653900</v>
+        <v>589300</v>
       </c>
       <c r="F41" s="3">
-        <v>139400</v>
+        <v>640100</v>
       </c>
       <c r="G41" s="3">
-        <v>487900</v>
+        <v>136500</v>
       </c>
       <c r="H41" s="3">
-        <v>470200</v>
+        <v>477600</v>
       </c>
       <c r="I41" s="3">
-        <v>613400</v>
+        <v>460300</v>
       </c>
       <c r="J41" s="3">
+        <v>600500</v>
+      </c>
+      <c r="K41" s="3">
         <v>343400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>447900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>337100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>346500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>259100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>342500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>344700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>355900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>413500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>305200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>256800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>425300</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>0</v>
+      <c r="D42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
       </c>
       <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
         <v>2500</v>
       </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
       <c r="H42" s="3">
-        <v>40600</v>
+        <v>0</v>
       </c>
       <c r="I42" s="3">
-        <v>48200</v>
+        <v>39700</v>
       </c>
       <c r="J42" s="3">
+        <v>47100</v>
+      </c>
+      <c r="K42" s="3">
         <v>84900</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O42" s="3">
+      <c r="M42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P42" s="3">
         <v>1400</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
-      </c>
       <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
         <v>4900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>5200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>7800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>23700</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>456200</v>
+        <v>375900</v>
       </c>
       <c r="E43" s="3">
-        <v>523400</v>
+        <v>446600</v>
       </c>
       <c r="F43" s="3">
-        <v>356100</v>
+        <v>512400</v>
       </c>
       <c r="G43" s="3">
-        <v>332000</v>
+        <v>348600</v>
       </c>
       <c r="H43" s="3">
-        <v>436000</v>
+        <v>325000</v>
       </c>
       <c r="I43" s="3">
-        <v>404300</v>
+        <v>426800</v>
       </c>
       <c r="J43" s="3">
+        <v>395800</v>
+      </c>
+      <c r="K43" s="3">
         <v>422000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>397100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>389200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>425700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>402300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>450000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>385700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>374400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>396500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>363900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>384500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>495100</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>565200</v>
+        <v>507400</v>
       </c>
       <c r="E44" s="3">
-        <v>565200</v>
+        <v>553300</v>
       </c>
       <c r="F44" s="3">
-        <v>401700</v>
+        <v>553300</v>
       </c>
       <c r="G44" s="3">
-        <v>333300</v>
+        <v>393300</v>
       </c>
       <c r="H44" s="3">
-        <v>674200</v>
+        <v>326300</v>
       </c>
       <c r="I44" s="3">
-        <v>495500</v>
+        <v>660000</v>
       </c>
       <c r="J44" s="3">
+        <v>485100</v>
+      </c>
+      <c r="K44" s="3">
         <v>577900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>512500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>513400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>508700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>571400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>537700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>582500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>449500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>507400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>443500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>478000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>331800</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3800</v>
+        <v>1200</v>
       </c>
       <c r="E45" s="3">
-        <v>16500</v>
+        <v>3700</v>
       </c>
       <c r="F45" s="3">
-        <v>2217800</v>
+        <v>16100</v>
       </c>
       <c r="G45" s="3">
-        <v>1742500</v>
+        <v>2171100</v>
       </c>
       <c r="H45" s="3">
-        <v>29100</v>
+        <v>1705800</v>
       </c>
       <c r="I45" s="3">
-        <v>11400</v>
+        <v>28500</v>
       </c>
       <c r="J45" s="3">
+        <v>11200</v>
+      </c>
+      <c r="K45" s="3">
         <v>6300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>44700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>56800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>46400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>32700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>55200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>40900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>71400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>65200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>348300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>81600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>143500</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1627200</v>
+        <v>1369600</v>
       </c>
       <c r="E46" s="3">
-        <v>1759000</v>
+        <v>1592900</v>
       </c>
       <c r="F46" s="3">
-        <v>3117600</v>
+        <v>1722000</v>
       </c>
       <c r="G46" s="3">
-        <v>2895800</v>
+        <v>3051900</v>
       </c>
       <c r="H46" s="3">
-        <v>1650000</v>
+        <v>2834800</v>
       </c>
       <c r="I46" s="3">
-        <v>1572700</v>
+        <v>1615300</v>
       </c>
       <c r="J46" s="3">
+        <v>1539600</v>
+      </c>
+      <c r="K46" s="3">
         <v>1434600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1402100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1296500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1327300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1265600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1386800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1353800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1256200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1387800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1468700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1224600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1398400</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>319400</v>
+        <v>310200</v>
       </c>
       <c r="E47" s="3">
-        <v>376400</v>
+        <v>312600</v>
       </c>
       <c r="F47" s="3">
-        <v>59600</v>
+        <v>368500</v>
       </c>
       <c r="G47" s="3">
-        <v>64600</v>
+        <v>58300</v>
       </c>
       <c r="H47" s="3">
-        <v>207800</v>
+        <v>63300</v>
       </c>
       <c r="I47" s="3">
-        <v>207800</v>
+        <v>203500</v>
       </c>
       <c r="J47" s="3">
+        <v>203500</v>
+      </c>
+      <c r="K47" s="3">
         <v>195200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>198500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>192800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>158600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>170500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>154200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>167700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>136700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>137000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>180000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>453000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>476700</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>618400</v>
+        <v>626500</v>
       </c>
       <c r="E48" s="3">
-        <v>636200</v>
+        <v>605400</v>
       </c>
       <c r="F48" s="3">
-        <v>546200</v>
+        <v>622800</v>
       </c>
       <c r="G48" s="3">
-        <v>539900</v>
+        <v>534700</v>
       </c>
       <c r="H48" s="3">
-        <v>1400400</v>
+        <v>528500</v>
       </c>
       <c r="I48" s="3">
-        <v>2919900</v>
+        <v>1370900</v>
       </c>
       <c r="J48" s="3">
+        <v>2858300</v>
+      </c>
+      <c r="K48" s="3">
         <v>1508100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1475300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1161600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1206500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1316100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1416500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1401400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1272200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1207800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1006900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>987600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>995500</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>572800</v>
+        <v>533500</v>
       </c>
       <c r="E49" s="3">
-        <v>631100</v>
+        <v>560800</v>
       </c>
       <c r="F49" s="3">
-        <v>352300</v>
+        <v>617800</v>
       </c>
       <c r="G49" s="3">
-        <v>367500</v>
+        <v>344900</v>
       </c>
       <c r="H49" s="3">
-        <v>437200</v>
+        <v>359800</v>
       </c>
       <c r="I49" s="3">
-        <v>404300</v>
+        <v>428000</v>
       </c>
       <c r="J49" s="3">
+        <v>395800</v>
+      </c>
+      <c r="K49" s="3">
         <v>430900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>431800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>404600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>431800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>491000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>539200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>529600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>511100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>508700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>403000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>447700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>418700</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2995,8 +3109,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3054,67 +3171,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>39300</v>
+        <v>50900</v>
       </c>
       <c r="E52" s="3">
-        <v>35500</v>
+        <v>38500</v>
       </c>
       <c r="F52" s="3">
+        <v>34700</v>
+      </c>
+      <c r="G52" s="3">
+        <v>43400</v>
+      </c>
+      <c r="H52" s="3">
+        <v>81900</v>
+      </c>
+      <c r="I52" s="3">
+        <v>63300</v>
+      </c>
+      <c r="J52" s="3">
+        <v>52100</v>
+      </c>
+      <c r="K52" s="3">
         <v>44400</v>
       </c>
-      <c r="G52" s="3">
-        <v>83600</v>
-      </c>
-      <c r="H52" s="3">
-        <v>64600</v>
-      </c>
-      <c r="I52" s="3">
-        <v>53200</v>
-      </c>
-      <c r="J52" s="3">
-        <v>44400</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>42200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>248400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>241500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>263200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>206600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>207400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>67700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>90000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>114800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>77700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>39500</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3172,67 +3295,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3177100</v>
+        <v>2890600</v>
       </c>
       <c r="E54" s="3">
-        <v>3438200</v>
+        <v>3110200</v>
       </c>
       <c r="F54" s="3">
-        <v>4120000</v>
+        <v>3365700</v>
       </c>
       <c r="G54" s="3">
-        <v>3951400</v>
+        <v>4033200</v>
       </c>
       <c r="H54" s="3">
-        <v>3760100</v>
+        <v>3868200</v>
       </c>
       <c r="I54" s="3">
-        <v>3698000</v>
+        <v>3680900</v>
       </c>
       <c r="J54" s="3">
+        <v>3620100</v>
+      </c>
+      <c r="K54" s="3">
         <v>3613100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3549900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3303800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3365700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3506300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3703300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3659900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3244000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3331200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3173400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3190600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3328800</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3254,8 +3383,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3277,362 +3407,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>471400</v>
+        <v>335000</v>
       </c>
       <c r="E57" s="3">
-        <v>527200</v>
+        <v>461500</v>
       </c>
       <c r="F57" s="3">
-        <v>372600</v>
+        <v>516100</v>
       </c>
       <c r="G57" s="3">
-        <v>267400</v>
+        <v>364700</v>
       </c>
       <c r="H57" s="3">
-        <v>546200</v>
+        <v>261800</v>
       </c>
       <c r="I57" s="3">
-        <v>422000</v>
+        <v>534700</v>
       </c>
       <c r="J57" s="3">
+        <v>413100</v>
+      </c>
+      <c r="K57" s="3">
         <v>468900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>378400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>404600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>431800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>425500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>447200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>416000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>397800</v>
-      </c>
-      <c r="R57" s="3">
-        <v>439600</v>
       </c>
       <c r="S57" s="3">
         <v>439600</v>
       </c>
       <c r="T57" s="3">
+        <v>439600</v>
+      </c>
+      <c r="U57" s="3">
         <v>416100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>425300</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>153300</v>
+        <v>53300</v>
       </c>
       <c r="E58" s="3">
-        <v>34200</v>
+        <v>150100</v>
       </c>
       <c r="F58" s="3">
-        <v>26600</v>
+        <v>33500</v>
       </c>
       <c r="G58" s="3">
-        <v>31700</v>
+        <v>26100</v>
       </c>
       <c r="H58" s="3">
-        <v>106500</v>
+        <v>31000</v>
       </c>
       <c r="I58" s="3">
-        <v>106500</v>
+        <v>104200</v>
       </c>
       <c r="J58" s="3">
+        <v>104200</v>
+      </c>
+      <c r="K58" s="3">
         <v>50700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>317600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>265000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>29300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>21800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>39600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>116200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>129300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>260900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>644300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>401600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>468800</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100100</v>
+        <v>86800</v>
       </c>
       <c r="E59" s="3">
-        <v>105200</v>
+        <v>98000</v>
       </c>
       <c r="F59" s="3">
-        <v>589300</v>
+        <v>103000</v>
       </c>
       <c r="G59" s="3">
-        <v>656500</v>
+        <v>576900</v>
       </c>
       <c r="H59" s="3">
-        <v>106500</v>
+        <v>642600</v>
       </c>
       <c r="I59" s="3">
-        <v>103900</v>
+        <v>104200</v>
       </c>
       <c r="J59" s="3">
+        <v>101700</v>
+      </c>
+      <c r="K59" s="3">
         <v>124200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>143900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>136000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>135400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>100900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>113200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>110900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>150300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>147400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>159100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>109300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>142200</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>724900</v>
+        <v>475100</v>
       </c>
       <c r="E60" s="3">
-        <v>666600</v>
+        <v>709600</v>
       </c>
       <c r="F60" s="3">
-        <v>988500</v>
+        <v>652600</v>
       </c>
       <c r="G60" s="3">
-        <v>955500</v>
+        <v>967700</v>
       </c>
       <c r="H60" s="3">
-        <v>705900</v>
+        <v>935400</v>
       </c>
       <c r="I60" s="3">
-        <v>579200</v>
+        <v>691000</v>
       </c>
       <c r="J60" s="3">
+        <v>567000</v>
+      </c>
+      <c r="K60" s="3">
         <v>643800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>840000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>805600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>596500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>548200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>600000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>643200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>677400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>847800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1243000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>927000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1036300</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>750200</v>
+        <v>740600</v>
       </c>
       <c r="E61" s="3">
-        <v>975800</v>
+        <v>734400</v>
       </c>
       <c r="F61" s="3">
-        <v>833900</v>
+        <v>955300</v>
       </c>
       <c r="G61" s="3">
-        <v>885800</v>
+        <v>816300</v>
       </c>
       <c r="H61" s="3">
-        <v>945400</v>
+        <v>867200</v>
       </c>
       <c r="I61" s="3">
-        <v>1013800</v>
+        <v>925500</v>
       </c>
       <c r="J61" s="3">
+        <v>992500</v>
+      </c>
+      <c r="K61" s="3">
         <v>864300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>667600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>441200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>703900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>755500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>812300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>797800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>731600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>725200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>371700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>609700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>579400</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>193900</v>
+        <v>173700</v>
       </c>
       <c r="E62" s="3">
-        <v>247100</v>
+        <v>189800</v>
       </c>
       <c r="F62" s="3">
-        <v>244600</v>
+        <v>241900</v>
       </c>
       <c r="G62" s="3">
-        <v>199000</v>
+        <v>239400</v>
       </c>
       <c r="H62" s="3">
-        <v>266100</v>
+        <v>194800</v>
       </c>
       <c r="I62" s="3">
-        <v>301600</v>
+        <v>260500</v>
       </c>
       <c r="J62" s="3">
+        <v>295300</v>
+      </c>
+      <c r="K62" s="3">
         <v>332000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>332500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>295700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>342800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>338200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>459900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>459600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>456900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>416100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>400400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>421400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>337100</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3690,8 +3839,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3749,8 +3901,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3808,67 +3963,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1670300</v>
+        <v>1390700</v>
       </c>
       <c r="E66" s="3">
-        <v>1890800</v>
+        <v>1635100</v>
       </c>
       <c r="F66" s="3">
-        <v>2068200</v>
+        <v>1851000</v>
       </c>
       <c r="G66" s="3">
-        <v>2041600</v>
+        <v>2024700</v>
       </c>
       <c r="H66" s="3">
-        <v>1918700</v>
+        <v>1998600</v>
       </c>
       <c r="I66" s="3">
-        <v>1894600</v>
+        <v>1878300</v>
       </c>
       <c r="J66" s="3">
-        <v>1840100</v>
+        <v>1854700</v>
       </c>
       <c r="K66" s="3">
         <v>1840100</v>
       </c>
       <c r="L66" s="3">
+        <v>1840100</v>
+      </c>
+      <c r="M66" s="3">
         <v>1542500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1643200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1642000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1872200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1900600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1865900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1990400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2016500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1959400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1954100</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3890,8 +4051,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3949,8 +4111,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4008,8 +4173,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4067,8 +4235,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4126,67 +4297,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>841500</v>
+        <v>848600</v>
       </c>
       <c r="E72" s="3">
-        <v>883300</v>
+        <v>823800</v>
       </c>
       <c r="F72" s="3">
-        <v>1387700</v>
+        <v>864700</v>
       </c>
       <c r="G72" s="3">
-        <v>1245800</v>
+        <v>1358500</v>
       </c>
       <c r="H72" s="3">
-        <v>1177300</v>
+        <v>1219500</v>
       </c>
       <c r="I72" s="3">
-        <v>1139300</v>
+        <v>1152500</v>
       </c>
       <c r="J72" s="3">
+        <v>1115300</v>
+      </c>
+      <c r="K72" s="3">
         <v>1110200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1060900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1142700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1084500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1151000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1091000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1068500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>734000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>658700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>474800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>542500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>686000</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4244,8 +4421,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4303,8 +4483,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4362,67 +4545,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1506800</v>
+        <v>1499900</v>
       </c>
       <c r="E76" s="3">
-        <v>1547400</v>
+        <v>1475100</v>
       </c>
       <c r="F76" s="3">
-        <v>2051800</v>
+        <v>1514800</v>
       </c>
       <c r="G76" s="3">
-        <v>1909800</v>
+        <v>2008500</v>
       </c>
       <c r="H76" s="3">
-        <v>1841400</v>
+        <v>1869600</v>
       </c>
       <c r="I76" s="3">
-        <v>1803400</v>
+        <v>1802600</v>
       </c>
       <c r="J76" s="3">
+        <v>1765400</v>
+      </c>
+      <c r="K76" s="3">
         <v>1773000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1709800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1761300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1722500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1864300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1831200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1759300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1378200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1340800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1156900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1231200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1374700</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4480,131 +4669,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42460</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42277</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42094</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>41912</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>87400</v>
+        <v>126500</v>
       </c>
       <c r="E81" s="3">
-        <v>153300</v>
+        <v>85600</v>
       </c>
       <c r="F81" s="3">
-        <v>169800</v>
+        <v>150100</v>
       </c>
       <c r="G81" s="3">
-        <v>129300</v>
+        <v>166200</v>
       </c>
       <c r="H81" s="3">
-        <v>152100</v>
+        <v>126500</v>
       </c>
       <c r="I81" s="3">
-        <v>168600</v>
+        <v>148900</v>
       </c>
       <c r="J81" s="3">
+        <v>165000</v>
+      </c>
+      <c r="K81" s="3">
         <v>144500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>162500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>118300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>98800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>192300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>175500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>166400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>160100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>148700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>63900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-50000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>89500</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4626,67 +4824,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>60800</v>
+        <v>58300</v>
       </c>
       <c r="E83" s="3">
-        <v>59600</v>
+        <v>59500</v>
       </c>
       <c r="F83" s="3">
-        <v>49400</v>
+        <v>58300</v>
       </c>
       <c r="G83" s="3">
-        <v>77300</v>
+        <v>48400</v>
       </c>
       <c r="H83" s="3">
-        <v>110300</v>
+        <v>75700</v>
       </c>
       <c r="I83" s="3">
-        <v>111500</v>
+        <v>107900</v>
       </c>
       <c r="J83" s="3">
+        <v>109200</v>
+      </c>
+      <c r="K83" s="3">
         <v>95000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>120400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>91100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>91500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>106400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>107500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>105700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>85000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>78300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>71700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>76400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>67200</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4744,8 +4946,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4803,8 +5008,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4862,8 +5070,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4921,8 +5132,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4980,67 +5194,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>35500</v>
+        <v>106700</v>
       </c>
       <c r="E89" s="3">
-        <v>48200</v>
+        <v>34700</v>
       </c>
       <c r="F89" s="3">
-        <v>-96300</v>
+        <v>47100</v>
       </c>
       <c r="G89" s="3">
-        <v>226800</v>
+        <v>-94300</v>
       </c>
       <c r="H89" s="3">
-        <v>157100</v>
+        <v>222100</v>
       </c>
       <c r="I89" s="3">
-        <v>310500</v>
+        <v>153800</v>
       </c>
       <c r="J89" s="3">
+        <v>303900</v>
+      </c>
+      <c r="K89" s="3">
         <v>196400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>285400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>140800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>257400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>105000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>295800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>130800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>245100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>19600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>225600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>72400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>163300</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5062,67 +5282,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-46000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-45000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-33000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-81000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-67000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-83000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-69000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-94000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-73000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-67400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-56100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-81800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-72200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-76600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-85000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-133000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-100400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-216000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-192300</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5180,8 +5404,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5239,67 +5466,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>20300</v>
+        <v>-14900</v>
       </c>
       <c r="E94" s="3">
-        <v>1037900</v>
+        <v>19800</v>
       </c>
       <c r="F94" s="3">
-        <v>-91200</v>
+        <v>1016100</v>
       </c>
       <c r="G94" s="3">
-        <v>-52000</v>
+        <v>-89300</v>
       </c>
       <c r="H94" s="3">
-        <v>-183800</v>
+        <v>-50900</v>
       </c>
       <c r="I94" s="3">
-        <v>-76000</v>
+        <v>-179900</v>
       </c>
       <c r="J94" s="3">
+        <v>-74400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-106500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-55800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-95800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-36600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-83200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-58000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-87200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-59100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>183900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-71700</v>
-      </c>
-      <c r="T94" s="3">
-        <v>-108000</v>
       </c>
       <c r="U94" s="3">
         <v>-108000</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>-108000</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5321,67 +5554,71 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-27900</v>
+        <v>-64500</v>
       </c>
       <c r="E96" s="3">
-        <v>-694500</v>
+        <v>-27300</v>
       </c>
       <c r="F96" s="3">
+        <v>-679800</v>
+      </c>
+      <c r="G96" s="3">
+        <v>-52100</v>
+      </c>
+      <c r="H96" s="3">
+        <v>-126500</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-49600</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-120300</v>
+      </c>
+      <c r="K96" s="3">
+        <v>-50700</v>
+      </c>
+      <c r="L96" s="3">
+        <v>-120400</v>
+      </c>
+      <c r="M96" s="3">
+        <v>-47300</v>
+      </c>
+      <c r="N96" s="3">
+        <v>-114700</v>
+      </c>
+      <c r="O96" s="3">
         <v>-53200</v>
       </c>
-      <c r="G96" s="3">
-        <v>-129300</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-50700</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-122900</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-50700</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-120400</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-47300</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-114700</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-53200</v>
-      </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-130200</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-50200</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-113300</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-49600</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-120000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-50000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-121100</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5439,8 +5676,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5498,8 +5738,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5557,181 +5800,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-48200</v>
+        <v>-197300</v>
       </c>
       <c r="E100" s="3">
-        <v>-709700</v>
+        <v>-47100</v>
       </c>
       <c r="F100" s="3">
-        <v>-159700</v>
+        <v>-694700</v>
       </c>
       <c r="G100" s="3">
-        <v>-153300</v>
+        <v>-156300</v>
       </c>
       <c r="H100" s="3">
-        <v>-79800</v>
+        <v>-150100</v>
       </c>
       <c r="I100" s="3">
-        <v>43100</v>
+        <v>-78200</v>
       </c>
       <c r="J100" s="3">
+        <v>42200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-188800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-153900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-46100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-123200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-80500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-244800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-93800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-247600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-116100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-100400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-151400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-92200</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-59600</v>
+        <v>1200</v>
       </c>
       <c r="E101" s="3">
-        <v>116600</v>
+        <v>-58300</v>
       </c>
       <c r="F101" s="3">
-        <v>6300</v>
+        <v>114100</v>
       </c>
       <c r="G101" s="3">
-        <v>10100</v>
+        <v>6200</v>
       </c>
       <c r="H101" s="3">
-        <v>-36800</v>
+        <v>9900</v>
       </c>
       <c r="I101" s="3">
-        <v>-7600</v>
+        <v>-36000</v>
       </c>
       <c r="J101" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="K101" s="3">
         <v>-15200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>18600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>17100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-12300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-19800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>13200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>27100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>20900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-2600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>18400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>6600</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-52000</v>
+        <v>-104200</v>
       </c>
       <c r="E102" s="3">
-        <v>493000</v>
+        <v>-50900</v>
       </c>
       <c r="F102" s="3">
-        <v>-340900</v>
+        <v>482600</v>
       </c>
       <c r="G102" s="3">
-        <v>31700</v>
+        <v>-333700</v>
       </c>
       <c r="H102" s="3">
-        <v>-143200</v>
+        <v>31000</v>
       </c>
       <c r="I102" s="3">
-        <v>269900</v>
+        <v>-140200</v>
       </c>
       <c r="J102" s="3">
+        <v>264200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-114100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>94300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>114700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-70900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-26900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-37000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-34500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>108300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>50900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-168500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-30300</v>
       </c>
     </row>
